--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -17,12 +17,15 @@
     <sheet name="フラグ" sheetId="7" r:id="rId8"/>
     <sheet name="フラグ300-" sheetId="8" r:id="rId9"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">公式フロア!$B$1:$E$60</definedName>
+  </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="372" uniqueCount="305">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="336">
   <si>
     <t>名称</t>
   </si>
@@ -1634,22 +1637,10 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>STORE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>上階</t>
     <rPh sb="0" eb="2">
       <t>ジョウカイ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -1667,27 +1658,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>諦め巨体で出られない</t>
-    <rPh sb="0" eb="1">
-      <t>アキラ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>キョタイ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>デ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>A</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>SAFE</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>試行錯誤（迷路)</t>
     <rPh sb="0" eb="4">
       <t>シコウサクゴ</t>
@@ -1698,10 +1668,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>store</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>Ending1</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -1747,16 +1713,422 @@
     <t>・みんみの儀式を止めろ</t>
   </si>
   <si>
+    <t>・仮眠室</t>
+  </si>
+  <si>
+    <t>・記憶を消した原因を突き止めろ</t>
+  </si>
+  <si>
+    <t>地下道</t>
+    <rPh sb="0" eb="3">
+      <t>チカドウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フロア入場の導線</t>
+    <rPh sb="3" eb="5">
+      <t>ニュウジョウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ドウセン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>２、転送イベント。エレベーター経由できないのでアクセスが悪い。</t>
+    <rPh sb="2" eb="4">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="15" eb="17">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="28" eb="29">
+      <t>ワル</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>基本的に公式フロアは1で作る感じ。</t>
+    <rPh sb="0" eb="3">
+      <t>キホンテキ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="12" eb="13">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレベーター番号で公式化されてないものは、あとから公式化されると矛盾になるので</t>
+    <rPh sb="6" eb="8">
+      <t>バンゴウ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="25" eb="27">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="27" eb="28">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="32" eb="34">
+      <t>ムジュン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なるべくオリジナル階にしないようにする。</t>
+    <rPh sb="9" eb="10">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ファミマ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お肉や</t>
+    <rPh sb="1" eb="2">
+      <t>ニク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何度もうるさいので</t>
+    <rPh sb="0" eb="2">
+      <t>ナンド</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>通り道なので</t>
+    <rPh sb="0" eb="1">
+      <t>トオ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ミチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シミュラクラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョン化してもそんなに面白くなかったので単なるイベント。</t>
+    <rPh sb="5" eb="6">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>オモシロ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>タン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドールショップ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ドールショップと同じようなネタしか思いつかないので弱いイベント化</t>
+    <rPh sb="8" eb="9">
+      <t>オナ</t>
+    </rPh>
+    <rPh sb="17" eb="18">
+      <t>オモ</t>
+    </rPh>
+    <rPh sb="25" eb="26">
+      <t>ヨワ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>カ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>諦め（巨体で出られない）</t>
+    <rPh sb="0" eb="1">
+      <t>アキラ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>キョタイ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>eyeeyeeye</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰還</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>転送・何かと接続</t>
+    <rPh sb="0" eb="2">
+      <t>テンソウ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ナンカの通路</t>
+    <rPh sb="4" eb="6">
+      <t>ツウロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮眠室に接続部屋内にエレベーター備え付け</t>
+    <rPh sb="0" eb="3">
+      <t>カミンシツ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>セツゾク</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ナイ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ソナ</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下から侵入</t>
+    <rPh sb="0" eb="2">
+      <t>チカ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>シンニュウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
     <t>・４のボタン</t>
-  </si>
-  <si>
-    <t>・エレベーター新たな行き先</t>
-  </si>
-  <si>
-    <t>・仮眠室</t>
-  </si>
-  <si>
-    <t>・記憶を消した原因を突き止めろ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>願いが叶う階</t>
+    <rPh sb="0" eb="1">
+      <t>ネガ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カナ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14-14-14-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>として用意しておく。</t>
+    <rPh sb="3" eb="5">
+      <t>ヨウイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あとは適当にmapにイベントとしてばらまく。</t>
+    <rPh sb="3" eb="5">
+      <t>テキトウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オリジナル階は２でもいいか…</t>
+    <rPh sb="5" eb="6">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式フロアでも、部屋の一部にエレベーター据え付ければなんとなく成り立つので、1フロア専有しなくても良いかも。</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="8" eb="10">
+      <t>ヘヤ</t>
+    </rPh>
+    <rPh sb="11" eb="13">
+      <t>イチブ</t>
+    </rPh>
+    <rPh sb="20" eb="21">
+      <t>ス</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツ</t>
+    </rPh>
+    <rPh sb="31" eb="32">
+      <t>ナ</t>
+    </rPh>
+    <rPh sb="33" eb="34">
+      <t>タ</t>
+    </rPh>
+    <rPh sb="42" eb="44">
+      <t>センユウ</t>
+    </rPh>
+    <rPh sb="49" eb="50">
+      <t>イ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>公式フロア後のふたばログイベント作り方</t>
+    <rPh sb="0" eb="2">
+      <t>コウシキ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ゴ</t>
+    </rPh>
+    <rPh sb="16" eb="17">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ログを漁る→ネタをモンスター化（図鑑化）→呪文効果</t>
+    <rPh sb="3" eb="4">
+      <t>アサ</t>
+    </rPh>
+    <rPh sb="14" eb="15">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>ズカン</t>
+    </rPh>
+    <rPh sb="18" eb="19">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="21" eb="23">
+      <t>ジュモン</t>
+    </rPh>
+    <rPh sb="23" eb="25">
+      <t>コウカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>１、エレベーター経由：エレベーターの名称がフロア名に固定＝1フロア専有するのでたくさん作ったり、広げたりしにくい</t>
+    <rPh sb="8" eb="10">
+      <t>ケイユ</t>
+    </rPh>
+    <rPh sb="18" eb="20">
+      <t>メイショウ</t>
+    </rPh>
+    <rPh sb="24" eb="25">
+      <t>メイ</t>
+    </rPh>
+    <rPh sb="26" eb="28">
+      <t>コテイ</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>センユウ</t>
+    </rPh>
+    <rPh sb="43" eb="44">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="48" eb="49">
+      <t>ヒロ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡シーンなし</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>影絵</t>
+    <rPh sb="0" eb="2">
+      <t>カゲエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>願いがなう</t>
+    <rPh sb="0" eb="1">
+      <t>ネガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>帰還</t>
+    <rPh sb="0" eb="2">
+      <t>キカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>もうちょい</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボンボルド</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>追い出し</t>
+    <rPh sb="0" eb="1">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ダ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -1844,7 +2216,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1861,6 +2233,7 @@
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -2165,20 +2538,80 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2"/>
+  <dimension ref="B2:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B34" sqref="B34"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
-    <col min="2" max="2" width="64.375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="100.75" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>264</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" s="10" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B15" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B16" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>322</v>
       </c>
     </row>
   </sheetData>
@@ -2192,7 +2625,7 @@
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B39" sqref="B39"/>
+      <selection activeCell="C29" sqref="C29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2293,17 +2726,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:K59"/>
+  <sheetPr filterMode="1"/>
+  <dimension ref="B1:J60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="H37" sqref="H37"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="12.25" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.25" customWidth="1"/>
     <col min="8" max="8" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2321,7 +2755,7 @@
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2344,7 +2778,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2360,11 +2794,11 @@
       <c r="H3" t="s">
         <v>228</v>
       </c>
-      <c r="J3" t="s">
-        <v>286</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" x14ac:dyDescent="0.15">
+      <c r="J3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2387,7 +2821,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2410,7 +2844,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2433,7 +2867,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>172</v>
       </c>
@@ -2450,7 +2884,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2467,7 +2901,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2484,7 +2918,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2501,7 +2935,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2521,7 +2955,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2538,7 +2972,7 @@
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2555,7 +2989,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2572,7 +3006,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>13</v>
       </c>
@@ -2586,13 +3020,13 @@
         <v>14</v>
       </c>
       <c r="H15" t="s">
-        <v>238</v>
+        <v>249</v>
       </c>
       <c r="J15">
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>14</v>
       </c>
@@ -2606,13 +3040,10 @@
         <v>15</v>
       </c>
       <c r="H16" t="s">
-        <v>249</v>
-      </c>
-      <c r="J16" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="17" spans="2:11" x14ac:dyDescent="0.15">
+        <v>239</v>
+      </c>
+    </row>
+    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>15</v>
       </c>
@@ -2626,10 +3057,13 @@
         <v>16</v>
       </c>
       <c r="H17" t="s">
-        <v>239</v>
-      </c>
-    </row>
-    <row r="18" spans="2:11" x14ac:dyDescent="0.15">
+        <v>240</v>
+      </c>
+      <c r="I17">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>16</v>
       </c>
@@ -2643,13 +3077,10 @@
         <v>17</v>
       </c>
       <c r="H18" t="s">
-        <v>240</v>
-      </c>
-      <c r="I18">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="19" spans="2:11" x14ac:dyDescent="0.15">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>17</v>
       </c>
@@ -2663,16 +3094,10 @@
         <v>18</v>
       </c>
       <c r="H19" t="s">
-        <v>241</v>
-      </c>
-      <c r="J19">
-        <v>1</v>
-      </c>
-      <c r="K19" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="20" spans="2:11" x14ac:dyDescent="0.15">
+        <v>242</v>
+      </c>
+    </row>
+    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>18</v>
       </c>
@@ -2686,10 +3111,10 @@
         <v>19</v>
       </c>
       <c r="H20" t="s">
-        <v>242</v>
-      </c>
-    </row>
-    <row r="21" spans="2:11" x14ac:dyDescent="0.15">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>19</v>
       </c>
@@ -2703,10 +3128,10 @@
         <v>20</v>
       </c>
       <c r="H21" t="s">
-        <v>243</v>
-      </c>
-    </row>
-    <row r="22" spans="2:11" x14ac:dyDescent="0.15">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>20</v>
       </c>
@@ -2720,10 +3145,10 @@
         <v>21</v>
       </c>
       <c r="H22" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="23" spans="2:11" x14ac:dyDescent="0.15">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>21</v>
       </c>
@@ -2737,10 +3162,10 @@
         <v>22</v>
       </c>
       <c r="H23" t="s">
-        <v>245</v>
-      </c>
-    </row>
-    <row r="24" spans="2:11" x14ac:dyDescent="0.15">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>22</v>
       </c>
@@ -2750,14 +3175,8 @@
       <c r="D24">
         <v>1</v>
       </c>
-      <c r="G24">
-        <v>23</v>
-      </c>
-      <c r="H24" t="s">
-        <v>250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:11" x14ac:dyDescent="0.15">
+    </row>
+    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>23</v>
       </c>
@@ -2771,7 +3190,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>24</v>
       </c>
@@ -2781,8 +3200,11 @@
       <c r="D26">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.15">
+      <c r="H26" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>25</v>
       </c>
@@ -2793,7 +3215,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>26</v>
       </c>
@@ -2804,7 +3226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>27</v>
       </c>
@@ -2818,7 +3240,7 @@
         <v>267</v>
       </c>
     </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>28</v>
       </c>
@@ -2829,38 +3251,44 @@
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="31" spans="2:11" x14ac:dyDescent="0.15">
+        <v>293</v>
+      </c>
+    </row>
+    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>29</v>
       </c>
       <c r="C31" t="s">
         <v>195</v>
       </c>
+      <c r="D31">
+        <v>1</v>
+      </c>
       <c r="E31" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
       <c r="H31" t="s">
-        <v>301</v>
-      </c>
-    </row>
-    <row r="32" spans="2:11" x14ac:dyDescent="0.15">
+        <v>318</v>
+      </c>
+      <c r="I31" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>30</v>
       </c>
       <c r="C32" t="s">
         <v>196</v>
       </c>
+      <c r="D32">
+        <v>0</v>
+      </c>
       <c r="E32" t="s">
-        <v>283</v>
-      </c>
-      <c r="H32" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" x14ac:dyDescent="0.15">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>31</v>
       </c>
@@ -2871,10 +3299,10 @@
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>303</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" x14ac:dyDescent="0.15">
+        <v>294</v>
+      </c>
+    </row>
+    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>32</v>
       </c>
@@ -2885,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="H34" t="s">
-        <v>304</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" x14ac:dyDescent="0.15">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>33</v>
       </c>
@@ -2899,7 +3327,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="36" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>34</v>
       </c>
@@ -2917,11 +3345,14 @@
       <c r="C37" t="s">
         <v>201</v>
       </c>
+      <c r="D37" t="s">
+        <v>333</v>
+      </c>
       <c r="E37" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>36</v>
       </c>
@@ -2932,7 +3363,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>37</v>
       </c>
@@ -2943,7 +3374,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>38</v>
       </c>
@@ -2954,26 +3385,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>39</v>
       </c>
       <c r="C41" t="s">
         <v>205</v>
       </c>
+      <c r="D41">
+        <v>1</v>
+      </c>
       <c r="E41" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" x14ac:dyDescent="0.15">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>288</v>
+        <v>282</v>
+      </c>
+      <c r="D42">
+        <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>289</v>
+        <v>308</v>
       </c>
     </row>
     <row r="43" spans="2:8" x14ac:dyDescent="0.15">
@@ -2984,10 +3421,10 @@
         <v>206</v>
       </c>
       <c r="E43" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>42</v>
       </c>
@@ -3006,7 +3443,7 @@
         <v>208</v>
       </c>
       <c r="E45" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
     </row>
     <row r="46" spans="2:8" x14ac:dyDescent="0.15">
@@ -3017,10 +3454,10 @@
         <v>209</v>
       </c>
       <c r="E46" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" x14ac:dyDescent="0.15">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>45</v>
       </c>
@@ -3031,40 +3468,40 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>46</v>
       </c>
       <c r="C48" t="s">
         <v>211</v>
       </c>
-      <c r="E48" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="49" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>47</v>
       </c>
       <c r="C49" t="s">
         <v>212</v>
       </c>
-      <c r="E49" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="50" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>48</v>
       </c>
       <c r="C50" t="s">
         <v>213</v>
       </c>
-      <c r="E50" t="s">
-        <v>289</v>
-      </c>
-    </row>
-    <row r="51" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>49</v>
       </c>
@@ -3075,7 +3512,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>50</v>
       </c>
@@ -3086,7 +3523,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>51</v>
       </c>
@@ -3097,7 +3534,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>52</v>
       </c>
@@ -3108,7 +3545,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:5" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>53</v>
       </c>
@@ -3116,57 +3553,81 @@
         <v>218</v>
       </c>
       <c r="E55" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="56" spans="2:5" x14ac:dyDescent="0.15">
+        <v>280</v>
+      </c>
+    </row>
+    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>54</v>
       </c>
       <c r="C56" t="s">
         <v>219</v>
       </c>
+      <c r="D56">
+        <v>0</v>
+      </c>
       <c r="E56" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="57" spans="2:5" x14ac:dyDescent="0.15">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>55</v>
       </c>
       <c r="C57" t="s">
         <v>220</v>
       </c>
-      <c r="D57" t="s">
-        <v>282</v>
-      </c>
-      <c r="E57" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="58" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="D57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>56</v>
       </c>
       <c r="C58" t="s">
-        <v>285</v>
+        <v>311</v>
       </c>
       <c r="E58" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="59" spans="2:5" x14ac:dyDescent="0.15">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>57</v>
       </c>
       <c r="C59" t="s">
         <v>221</v>
       </c>
+      <c r="D59">
+        <v>1</v>
+      </c>
       <c r="E59" t="s">
         <v>280</v>
       </c>
+      <c r="F59" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="C60" t="s">
+        <v>296</v>
+      </c>
+      <c r="E60" t="s">
+        <v>317</v>
+      </c>
     </row>
   </sheetData>
+  <autoFilter ref="B1:E60">
+    <filterColumn colId="2">
+      <filters blank="1">
+        <filter val="もうちょい"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -3574,7 +4035,7 @@
         <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>299</v>
+        <v>292</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
@@ -3639,10 +4100,10 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>298</v>
+        <v>291</v>
       </c>
       <c r="D17" t="s">
-        <v>297</v>
+        <v>290</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -3696,7 +4157,7 @@
         <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>291</v>
+        <v>284</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
@@ -3717,12 +4178,12 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>292</v>
+        <v>285</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
@@ -3737,12 +4198,12 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>296</v>
+        <v>289</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>293</v>
+        <v>286</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
@@ -3887,81 +4348,85 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:C103"/>
+  <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="D31" sqref="D31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="25.625" customWidth="1"/>
+    <col min="4" max="4" width="20" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="3" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>0</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="4" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="5" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>2</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="6" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B7">
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>7</v>
       </c>
     </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>8</v>
       </c>
     </row>
-    <row r="12" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>10</v>
       </c>
       <c r="C13" t="s">
         <v>222</v>
       </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="D13" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>11</v>
       </c>
@@ -3969,7 +4434,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>12</v>
       </c>
@@ -3977,9 +4442,15 @@
         <v>223</v>
       </c>
     </row>
-    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>13</v>
+      </c>
+      <c r="C16" t="s">
+        <v>303</v>
+      </c>
+      <c r="D16" t="s">
+        <v>305</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.15">
@@ -4452,10 +4923,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E67"/>
+  <dimension ref="B2:E80"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="D58" sqref="D58"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D72" sqref="D72"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4893,105 +5364,239 @@
         <v>345</v>
       </c>
     </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B49" s="2">
         <v>346</v>
       </c>
       <c r="C49" s="2" t="s">
-        <v>290</v>
-      </c>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.15">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B50" s="2">
         <v>347</v>
       </c>
     </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B51" s="2">
         <v>348</v>
       </c>
       <c r="C51" s="2" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.15">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B52" s="2">
         <v>349</v>
       </c>
     </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B53" s="2">
         <v>350</v>
       </c>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C53" s="2" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B54" s="2">
         <v>351</v>
       </c>
     </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B55" s="2">
         <v>352</v>
       </c>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C55" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B56" s="2">
         <v>353</v>
       </c>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C56" s="2" t="s">
+        <v>306</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B57" s="2">
         <v>354</v>
       </c>
     </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B58" s="2">
         <v>355</v>
       </c>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C58" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B59" s="2">
         <v>356</v>
       </c>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C59" s="2" t="s">
+        <v>309</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B60" s="2">
         <v>357</v>
       </c>
     </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B61" s="2">
         <v>358</v>
       </c>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C61" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B62" s="2">
         <v>359</v>
       </c>
     </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.15">
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B63" s="2">
         <v>360</v>
       </c>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C63" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B64" s="2">
         <v>361</v>
       </c>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C64" s="2" t="s">
+        <v>320</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B65" s="2">
         <v>362</v>
       </c>
     </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B66" s="2">
         <v>363</v>
       </c>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C66" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B67" s="2">
         <v>364</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="2">
+        <v>366</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>331</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="2">
+        <v>368</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>334</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="2">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75" s="2">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77" s="2">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B78" s="2">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80" s="2">
+        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,28 +4,32 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
-    <sheet name="手書きイベントフロー" sheetId="4" r:id="rId2"/>
-    <sheet name="公式フロア" sheetId="9" r:id="rId3"/>
-    <sheet name="SE,BGMの修正" sheetId="2" r:id="rId4"/>
-    <sheet name="license" sheetId="3" r:id="rId5"/>
-    <sheet name="ログ調査" sheetId="5" r:id="rId6"/>
-    <sheet name="フラグ-200" sheetId="6" r:id="rId7"/>
-    <sheet name="フラグ" sheetId="7" r:id="rId8"/>
-    <sheet name="フラグ300-" sheetId="8" r:id="rId9"/>
+    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
+    <sheet name="手書きイベントフロー" sheetId="4" r:id="rId3"/>
+    <sheet name="公式フロア" sheetId="9" r:id="rId4"/>
+    <sheet name="たため" sheetId="13" r:id="rId5"/>
+    <sheet name="SE,BGMの修正" sheetId="2" r:id="rId6"/>
+    <sheet name="license" sheetId="3" r:id="rId7"/>
+    <sheet name="ログ調査" sheetId="5" r:id="rId8"/>
+    <sheet name="フラグ-200" sheetId="6" r:id="rId9"/>
+    <sheet name="フラグ" sheetId="7" r:id="rId10"/>
+    <sheet name="フラグ300-" sheetId="8" r:id="rId11"/>
+    <sheet name="図鑑ネタ" sheetId="11" r:id="rId12"/>
+    <sheet name="フロアネタ" sheetId="12" r:id="rId13"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">公式フロア!$B$1:$E$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公式フロア!$B$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="406" uniqueCount="336">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="439">
   <si>
     <t>名称</t>
   </si>
@@ -1548,20 +1552,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>複製階</t>
-    <rPh sb="0" eb="2">
-      <t>フクセイ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>コツメ</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>未解決イベント</t>
     <rPh sb="0" eb="3">
       <t>ミカイケツ</t>
@@ -1713,17 +1703,7 @@
     <t>・みんみの儀式を止めろ</t>
   </si>
   <si>
-    <t>・仮眠室</t>
-  </si>
-  <si>
     <t>・記憶を消した原因を突き止めろ</t>
-  </si>
-  <si>
-    <t>地下道</t>
-    <rPh sb="0" eb="3">
-      <t>チカドウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
   </si>
   <si>
     <t>フロア入場の導線</t>
@@ -1890,19 +1870,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>転送・何かと接続</t>
-    <rPh sb="0" eb="2">
-      <t>テンソウ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>ナニ</t>
-    </rPh>
-    <rPh sb="6" eb="8">
-      <t>セツゾク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ナンカの通路</t>
     <rPh sb="4" eb="6">
       <t>ツウロ</t>
@@ -1946,19 +1913,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>願いが叶う階</t>
-    <rPh sb="0" eb="1">
-      <t>ネガ</t>
-    </rPh>
-    <rPh sb="3" eb="4">
-      <t>カナ</t>
-    </rPh>
-    <rPh sb="5" eb="6">
-      <t>カイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>14-14-14-14</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2113,10 +2067,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>もうちょい</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ボンボルド</t>
     <phoneticPr fontId="1"/>
   </si>
@@ -2129,13 +2079,579 @@
       <t>ダ</t>
     </rPh>
     <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>仮眠室</t>
+    <rPh sb="0" eb="3">
+      <t>カミンシツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>昔のオカルトスレに居た
+捨てても戻ってくる呪い人形を
+リサイクルショップに売って生活費の
+足しにしてるとしあき位の豪胆な奴なら</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>次に現れたのは、私たちの知らない言葉をしゃべる大柄な男だった。
+現れるなり忙しそうに辺りの様子を確かめ、早口で叫びながら壁や扉を
+激しく叩き始めた。彼のカバンに差してあった長い金属の棒を取り出すと、
+扉の隙間に差し込んでこじあけようとしたり、壁に立てかけた棒の上に乗って
+天井板を外そうとしていたが、どれも無駄だと分かると、放心したように
+壁にもたれかかり、やがてしくしくと泣き始めた。
+しばらくして落ち着いたのか、彼はポケットから紙を取り出して私たちに見せた。
+なにやら説明してくれているようだが、私たちには彼の言葉がわからない。
+やがて彼は曖昧な相づちを打つ私たちにいらだったのか、紙をくしゃくしゃと丸めて
+壁に投げつけた。するとその丸められた紙は2つになって床に転がった。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>「おい君！起きてくれ！ちょっと手伝ってくれ！」
+揺さぶられて目を覚ますと目の前に人間さんが居た
+「え？！（以前にちらっと見たことが在るガチ攻略おじさんって人間さんだ…）」
+見るとその人はエレベターと同じ扉に少し空いた隙間へ指を引っ掛けてガタガタと動かしている
+私も訳がわからずにそれを手伝ってみたが少し扉がガタつく程度で開くほどではなかった
+「ダメか…クソ俺で試したあとで溶接しやがって…あと一人くらい力があれば開きそうなのによ…」
+慣れない力仕事をしてへたり込んだ私の前でそう呟く人間さん
+と、そこに周りから機械が動く音がし始めた
+「やったぞ！これでまた一人協力者が来てくれるな！」
+現れたのはオオカワウソちゃんだった…</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>男は少しの食料と水を持っていて、私たちにそれを分けてくれた。
+全員が少し落ち着きを取り戻し始めたところで、最初にいたフレンズが
+少しずつ、ここに現れるまでのことを話してくれた。
+このマンションに住み始めて3ヶ月になること。あるときエレベーターの
+ボタン操作を間違えて自分の部屋と違う階に出てしまって、仕方なく
+階段で下の階に降りてみたらどの階も赤くて怖そうなところばかりで、
+引き返してみたらもとの階もそうなっていたこと。途中で親切な
+アライグマのフレンズに会ったこと。そして、仕方なく赤い階に降りたところ
+からの記憶はなく、気がついたらここにいた。</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>気がつけばこの地獄にいた。
+やせ細り汚物にまみれた私と、白目を剥き今にも意識を失いそうな私と、既に死んでいる私。
+それから、今しがた現れた私。
+新しい私は、私たちを見てまずひどく驚き、続いて自分の運命を悟ったらしい。それは過日の私を思い出して、懐かしい気持ちにさせられる。
+それにしても、そろそろ息が苦しくなってきた。もう自由に手足を動かせるスペースもない。
+このまま意識を手放せれば楽なのに、ぎゅうぎゅう詰めの圧迫感は常に苦痛を与えてきて、満足に眠ることもできないでいる。
+私がどんどん増えていく。増えていくたびに、私の命が削られていく感覚がある。
+どんどん、どんどん、どんどん──叩いても叩いても、扉が開くことはない。
+扉の側にいた私の爪は剥がれ、拳は痣と血で黒く変色しきっている。
+私が増える速度が速くなってきた。私。私。私。私私わたしわたしわたしわたしわたしわたし。
+ああ、神様。
+私はいったいなにをしてしまったのぷぇ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>なれはて</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>外に出る</t>
+    <rPh sb="0" eb="1">
+      <t>ソト</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>デ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図鑑</t>
+    <rPh sb="0" eb="2">
+      <t>ズカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>あらいさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェネック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>下水区画</t>
+    <rPh sb="0" eb="2">
+      <t>ゲスイ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>クカク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>何かと接続</t>
+    <rPh sb="0" eb="1">
+      <t>ナニ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>セツゾク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>重力のフロア</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウリョク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メッセージ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントのポイント</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>長文が結構読みづらいので、表現は簡潔な方が良い</t>
+    <rPh sb="0" eb="2">
+      <t>チョウブン</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ケッコウ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヨ</t>
+    </rPh>
+    <rPh sb="13" eb="15">
+      <t>ヒョウゲン</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>カンケツ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ホウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ヨ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複製機v2</t>
+    <rPh sb="0" eb="2">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツメ3</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツメ4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>複製機コツメ</t>
+    <rPh sb="0" eb="2">
+      <t>フクセイ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>コツメ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スカベンジャー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セクシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>判定</t>
+    <rPh sb="0" eb="2">
+      <t>ハンテイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>小川マンション</t>
+    <rPh sb="0" eb="2">
+      <t>オガワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレベーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>backrooms</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自販機のフロア</t>
+    <rPh sb="0" eb="3">
+      <t>ジハンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>飲み屋オオカワ</t>
+    <rPh sb="0" eb="1">
+      <t>ノ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>そう言えば売り切ればかりの自販機の『補充』ボタン押したら押したヤツが没シュートってあったっけなのだ</t>
+  </si>
+  <si>
+    <t>&gt;能力に限界がある生身の肉体など捨てて機械化すれば永遠の生命と無限のパワーを得られるのだ…</t>
+  </si>
+  <si>
+    <t>機械化しても限界点が伸びるだけでやはり違う形で限界点はやって来るのだ</t>
+  </si>
+  <si>
+    <t>そして限界点が来た機械の身体を捨て純精神生命体になったとしても別の形の限界点が…</t>
+  </si>
+  <si>
+    <t>世に悩みの種は尽きないのだ…</t>
+  </si>
+  <si>
+    <t>バイキング</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕日のフロア</t>
+    <rPh sb="0" eb="2">
+      <t>ユウヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>死亡</t>
+    <rPh sb="0" eb="2">
+      <t>シボウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>効果音は、１イベントに1つなので、複数効果音作るときは、イベントを重複させる。</t>
+    <rPh sb="0" eb="3">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>フクスウ</t>
+    </rPh>
+    <rPh sb="19" eb="22">
+      <t>コウカオン</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>ツク</t>
+    </rPh>
+    <rPh sb="33" eb="35">
+      <t>ジュウフク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>イベントチェック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ピーピングアイ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソピザ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下駐車場、ボート</t>
+    <rPh sb="0" eb="5">
+      <t>チカチュウシャジョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソセクシー</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キュッキュ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>独居部屋</t>
+    <rPh sb="0" eb="2">
+      <t>ドッキョ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>ベヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-影絵</t>
+    <rPh sb="7" eb="9">
+      <t>カゲエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ショウカキ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-メリクリ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-つの</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-歌</t>
+    <rPh sb="7" eb="8">
+      <t>ウタ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-匂い</t>
+    <rPh sb="7" eb="8">
+      <t>ニオ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-出口</t>
+    <rPh sb="7" eb="9">
+      <t>デグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-探索</t>
+    <rPh sb="7" eb="9">
+      <t>タンサク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>・サイコパスを探せ！</t>
+    <rPh sb="7" eb="8">
+      <t>サガ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>怪異と呼ばれる方々は怖くありません</t>
+  </si>
+  <si>
+    <t>ただ興味を持った住民の方を異界にお招きして数日～数万年ほど一緒に遊んだりするだけです</t>
+  </si>
+  <si>
+    <t>その後は元の世界にお返し致しておりますとも</t>
+  </si>
+  <si>
+    <t>姿が変わってしまう方がいらっしゃる？</t>
+  </si>
+  <si>
+    <t>滅相もありませんご本人様の主観におかれまして間違いなくご自身の姿ですとも</t>
+  </si>
+  <si>
+    <t>言葉が通じなくなっている？</t>
+  </si>
+  <si>
+    <t>言語の異なる場所での長期滞在では稀にあることでございます</t>
+  </si>
+  <si>
+    <t>食事の内容が以前と異なっている？</t>
+  </si>
+  <si>
+    <t>これも食文化の異なる場所からの御帰還ゆえのことかと</t>
+  </si>
+  <si>
+    <t>こんなの〇〇ちゃんじゃない？</t>
+  </si>
+  <si>
+    <t>客観におかれましての御意見にはお答えいたしかねますが</t>
+  </si>
+  <si>
+    <t>そのかたがお可哀想かと...</t>
+  </si>
+  <si>
+    <t>今もあなたをじっと見ておりますよ</t>
+  </si>
+  <si>
+    <t>大変興味をもたれている御様子で...</t>
+  </si>
+  <si>
+    <t>&gt;白痴の王はクトゥルフネタなのだ</t>
+  </si>
+  <si>
+    <t>&gt;この宇宙はアザトースが見ている夢にすぎないのだ</t>
+  </si>
+  <si>
+    <t>大いなる意識が受肉しようとしたけど拒絶されて取り残された肉体が意識のない白痴の王となったとあるので意識はまた別のところにあるんだよな･･･</t>
+  </si>
+  <si>
+    <t>アザトースの解釈としては面白い感じ</t>
+  </si>
+  <si>
+    <t>木製の棚がある小部屋</t>
+  </si>
+  <si>
+    <t>トイレの掃除用具入れみたいな人一人入れるくらいの赤い照明のついた小さな部屋</t>
+  </si>
+  <si>
+    <t>入口のドアには『取るな』と英語で殴り書き</t>
+  </si>
+  <si>
+    <t>入った人物がギリギリ手が届く高さに設置してある棚があり</t>
+  </si>
+  <si>
+    <t>何かがのっているが下からは見えない</t>
+  </si>
+  <si>
+    <t>手を伸ばしそれを取ると昔無くした大事な物が手に入る</t>
+  </si>
+  <si>
+    <t>引き換えに今もっている何かが消える</t>
+  </si>
+  <si>
+    <t>記憶からも消えるため謎の喪失感だけが残る</t>
+  </si>
+  <si>
+    <t>ホスピタル医師「悪い所を手術で取り出しておきましたよ」</t>
+  </si>
+  <si>
+    <r>
+      <t>  </t>
+    </r>
+    <r>
+      <rPr>
+        <u/>
+        <sz val="11"/>
+        <color theme="10"/>
+        <rFont val="ＭＳ Ｐゴシック"/>
+        <family val="3"/>
+        <charset val="128"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>1581645077280.png</t>
+    </r>
+  </si>
+  <si>
+    <t>必要ない部位を切除しておきました</t>
+  </si>
+  <si>
+    <t>2020//██/██、マンション探索中にエレベーターがフロア██-██-██を表示しSCP-████収容室へと接続される事案が発生</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>1581645334578.png</t>
+  </si>
+  <si>
+    <t>&gt;臨時パーティでいいんでジャガーさんとオオカワウソちゃんズで組んでほしい</t>
+  </si>
+  <si>
+    <t>自然界だとオオカワウソとジャガーは生息地が同じで現地の双璧をなす食物連鎖の頂点同士なのだ</t>
+  </si>
+  <si>
+    <t>食物連鎖の頂点同士で戦っても全然メリットが無いから基本的に戦いに発展する事はほぼないそうだけど</t>
+  </si>
+  <si>
+    <t>生物学者が言うにはオオカワウソには恐怖心と言うものが欠落していると言う事もあり</t>
+  </si>
+  <si>
+    <t>基本オオカワウソを見た時のジャガーの尻尾の反応は恐怖を示しておりジャガー側が若干気後れしてる</t>
+  </si>
+  <si>
+    <t>としあき 分からずとも聞くのだ</t>
+  </si>
+  <si>
+    <t>あけてとアンアンあいうえお</t>
+  </si>
+  <si>
+    <t>怪異で感じてかきくけこ</t>
+  </si>
+  <si>
+    <t>三回盛ってさしすせそ</t>
+  </si>
+  <si>
+    <t>たくさん出し入れたちつてと</t>
+  </si>
+  <si>
+    <t>泣くまで舐められなにぬねの</t>
+  </si>
+  <si>
+    <t>八個も入ったはひふへほ</t>
+  </si>
+  <si>
+    <t>まだだめ目合えまみむめも</t>
+  </si>
+  <si>
+    <t>やめんか♡ヤクハメやいゆえよ</t>
+  </si>
+  <si>
+    <t>ラリって乱交らりるれろ</t>
+  </si>
+  <si>
+    <t>ワシをどうする気なんじゃ♡</t>
+  </si>
+  <si>
+    <t>これではたとえ外に出られてもワシの脳細胞は死んでしまう♡</t>
+  </si>
+  <si>
+    <t>その手に持っとるクスリを捨て…腕を引っ張るな♡</t>
+  </si>
+  <si>
+    <t>嫌じゃもうイキとうない♡アッ♡アッ♡アッ♡</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -2154,6 +2670,23 @@
       <b/>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="3"/>
+      <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="ＭＳ Ｐゴシック"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
       <name val="ＭＳ Ｐゴシック"/>
       <family val="3"/>
       <charset val="128"/>
@@ -2213,10 +2746,11 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2234,8 +2768,10 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="ハイパーリンク" xfId="1" builtinId="8"/>
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2538,10 +3074,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B26"/>
+  <dimension ref="B2:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="B41" sqref="B41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2556,62 +3092,77 @@
     </row>
     <row r="4" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B4" t="s">
-        <v>297</v>
+        <v>293</v>
       </c>
     </row>
     <row r="5" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B5" s="10" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B6" t="s">
-        <v>298</v>
+        <v>294</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B8" t="s">
-        <v>299</v>
+        <v>295</v>
       </c>
     </row>
     <row r="9" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B9" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
     </row>
     <row r="11" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B11" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
     </row>
     <row r="15" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B15" t="s">
-        <v>300</v>
+        <v>296</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B16" t="s">
-        <v>301</v>
+        <v>297</v>
       </c>
     </row>
     <row r="22" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B22" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
     </row>
     <row r="24" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B24" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
     </row>
     <row r="25" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B25" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
     </row>
     <row r="26" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B26" t="s">
-        <v>322</v>
+        <v>316</v>
+      </c>
+    </row>
+    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B29" t="s">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B31" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B33" t="s">
+        <v>372</v>
       </c>
     </row>
   </sheetData>
@@ -2620,12 +3171,1567 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J51" sqref="J51"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E147"/>
+  <sheetViews>
+    <sheetView topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="C136" sqref="C136"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="1" max="2" width="9" style="2"/>
+    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
+    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
+    <col min="5" max="16384" width="9" style="2"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B2" s="2" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4" ht="54" x14ac:dyDescent="0.15">
+      <c r="B3" s="2">
+        <v>300</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D3" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B4" s="2">
+        <v>301</v>
+      </c>
+      <c r="C4" s="2" t="s">
+        <v>131</v>
+      </c>
+      <c r="D4" s="8" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4" ht="27" x14ac:dyDescent="0.15">
+      <c r="B5" s="2">
+        <v>302</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="D5" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4" ht="67.5" x14ac:dyDescent="0.15">
+      <c r="B6" s="2">
+        <v>303</v>
+      </c>
+      <c r="C6" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="D6" s="8" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B7" s="2">
+        <v>304</v>
+      </c>
+      <c r="C7" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D7" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B8" s="2">
+        <v>305</v>
+      </c>
+      <c r="C8" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B9" s="2">
+        <v>306</v>
+      </c>
+      <c r="C9" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B10" s="2">
+        <v>307</v>
+      </c>
+      <c r="C10" s="2" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B11" s="2">
+        <v>308</v>
+      </c>
+      <c r="C11" s="2" t="s">
+        <v>260</v>
+      </c>
+      <c r="D11" s="2" t="s">
+        <v>261</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B12" s="2">
+        <v>309</v>
+      </c>
+      <c r="C12" s="2" t="s">
+        <v>146</v>
+      </c>
+      <c r="D12" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B13" s="2">
+        <v>310</v>
+      </c>
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B14" s="2">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B15" s="2">
+        <v>312</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B16" s="2">
+        <v>313</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B17" s="2">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B18" s="2">
+        <v>315</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>253</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B19" s="2">
+        <v>316</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B20" s="2">
+        <v>317</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B21" s="2">
+        <v>318</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B22" s="2">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B23" s="2">
+        <v>320</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>266</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B24" s="2">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B25" s="2">
+        <v>322</v>
+      </c>
+      <c r="C25" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>258</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B26" s="2">
+        <v>323</v>
+      </c>
+      <c r="C26" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B27" s="2">
+        <v>324</v>
+      </c>
+      <c r="C27" s="2" t="s">
+        <v>257</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B28" s="2">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B29" s="2">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B30" s="2">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B31" s="2">
+        <v>328</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>348</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
+      <c r="B32" s="2">
+        <v>329</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="E32" s="2" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B33" s="2">
+        <v>330</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B34" s="2">
+        <v>331</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>267</v>
+      </c>
+      <c r="D34" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B35" s="2">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B36" s="2">
+        <v>333</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B37" s="2">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B38" s="2">
+        <v>335</v>
+      </c>
+      <c r="C38" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B39" s="2">
+        <v>336</v>
+      </c>
+      <c r="C39" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B40" s="2">
+        <v>337</v>
+      </c>
+      <c r="C40" s="2" t="s">
+        <v>269</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>271</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B41" s="2">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B42" s="2">
+        <v>339</v>
+      </c>
+      <c r="C42" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D42" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B43" s="2">
+        <v>340</v>
+      </c>
+      <c r="C43" s="2" t="s">
+        <v>272</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B44" s="2">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B45" s="2">
+        <v>342</v>
+      </c>
+      <c r="C45" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B46" s="2">
+        <v>343</v>
+      </c>
+      <c r="C46" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B47" s="2">
+        <v>344</v>
+      </c>
+      <c r="C47" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B48" s="2">
+        <v>345</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B49" s="2">
+        <v>346</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B50" s="2">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B51" s="2">
+        <v>348</v>
+      </c>
+      <c r="C51" s="2" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B52" s="2">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B53" s="2">
+        <v>350</v>
+      </c>
+      <c r="C53" s="2" t="s">
+        <v>298</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B54" s="2">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B55" s="2">
+        <v>352</v>
+      </c>
+      <c r="C55" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B56" s="2">
+        <v>353</v>
+      </c>
+      <c r="C56" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B57" s="2">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B58" s="2">
+        <v>355</v>
+      </c>
+      <c r="C58" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B59" s="2">
+        <v>356</v>
+      </c>
+      <c r="C59" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B60" s="2">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B61" s="2">
+        <v>358</v>
+      </c>
+      <c r="C61" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B62" s="2">
+        <v>359</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B63" s="2">
+        <v>360</v>
+      </c>
+      <c r="C63" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B64" s="2">
+        <v>361</v>
+      </c>
+      <c r="C64" s="2" t="s">
+        <v>314</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B65" s="2">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B66" s="2">
+        <v>363</v>
+      </c>
+      <c r="C66" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D66" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B67" s="2">
+        <v>364</v>
+      </c>
+      <c r="C67" s="2" t="s">
+        <v>323</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B68" s="2">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B69" s="2">
+        <v>366</v>
+      </c>
+      <c r="C69" s="2" t="s">
+        <v>325</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B70" s="2">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B71" s="2">
+        <v>368</v>
+      </c>
+      <c r="C71" s="2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B72" s="2">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B73" s="2">
+        <v>370</v>
+      </c>
+      <c r="C73" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B74" s="2">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B75" s="2">
+        <v>372</v>
+      </c>
+      <c r="C75" s="2" t="s">
+        <v>335</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>336</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B76" s="2">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B77" s="2">
+        <v>374</v>
+      </c>
+      <c r="C77" s="2" t="s">
+        <v>342</v>
+      </c>
+      <c r="D77" s="2" t="s">
+        <v>343</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B78" s="2">
+        <v>375</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B79" s="2">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B80" s="2">
+        <v>377</v>
+      </c>
+      <c r="C80" s="2" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B81" s="2">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B82" s="2">
+        <v>379</v>
+      </c>
+      <c r="C82" s="2" t="s">
+        <v>350</v>
+      </c>
+      <c r="D82" s="2" t="s">
+        <v>351</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B83" s="2">
+        <v>380</v>
+      </c>
+      <c r="D83" s="2" t="s">
+        <v>352</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B84" s="2">
+        <v>381</v>
+      </c>
+      <c r="D84" s="2" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B85" s="2">
+        <v>382</v>
+      </c>
+      <c r="D85" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B86" s="2">
+        <v>383</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B87" s="2">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B88" s="2">
+        <v>385</v>
+      </c>
+      <c r="C88" s="2" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B89" s="2">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B90" s="2">
+        <v>387</v>
+      </c>
+      <c r="C90" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B91" s="2">
+        <v>388</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B92" s="2">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B93" s="2">
+        <v>390</v>
+      </c>
+      <c r="C93" s="2" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B94" s="2">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B95" s="2">
+        <v>392</v>
+      </c>
+      <c r="C95" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B96" s="2">
+        <v>393</v>
+      </c>
+      <c r="C96" s="2" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B97" s="2">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B98" s="2">
+        <v>395</v>
+      </c>
+      <c r="C98" s="2" t="s">
+        <v>370</v>
+      </c>
+      <c r="D98" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B99" s="2">
+        <v>396</v>
+      </c>
+      <c r="D99" s="2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B100" s="2">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B101" s="2">
+        <v>398</v>
+      </c>
+      <c r="C101" s="2" t="s">
+        <v>374</v>
+      </c>
+    </row>
+    <row r="102" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B102" s="2">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="103" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B103" s="2">
+        <v>400</v>
+      </c>
+      <c r="C103" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="104" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B104" s="2">
+        <v>401</v>
+      </c>
+      <c r="C104" s="2" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="105" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B105" s="2">
+        <v>402</v>
+      </c>
+      <c r="C105" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="106" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B106" s="2">
+        <v>403</v>
+      </c>
+      <c r="C106" s="2" t="s">
+        <v>377</v>
+      </c>
+    </row>
+    <row r="107" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B107" s="2">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="108" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B108" s="2">
+        <v>405</v>
+      </c>
+      <c r="C108" s="2" t="s">
+        <v>378</v>
+      </c>
+    </row>
+    <row r="109" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B109" s="2">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="110" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B110" s="2">
+        <v>407</v>
+      </c>
+      <c r="C110" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="111" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B111" s="2">
+        <v>408</v>
+      </c>
+      <c r="C111" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="112" spans="2:4" x14ac:dyDescent="0.15">
+      <c r="B112" s="2">
+        <v>409</v>
+      </c>
+      <c r="C112" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B113" s="2">
+        <v>410</v>
+      </c>
+      <c r="C113" s="2" t="s">
+        <v>379</v>
+      </c>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B114" s="2">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B115" s="2">
+        <v>412</v>
+      </c>
+      <c r="C115" s="2" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B116" s="2">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B117" s="2">
+        <v>414</v>
+      </c>
+      <c r="C117" s="2" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B118" s="2">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B119" s="2">
+        <v>416</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B120" s="2">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B121" s="2">
+        <v>418</v>
+      </c>
+      <c r="C121" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B122" s="2">
+        <v>419</v>
+      </c>
+      <c r="C122" s="2" t="s">
+        <v>383</v>
+      </c>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B123" s="2">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B124" s="2">
+        <v>421</v>
+      </c>
+      <c r="C124" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B125" s="2">
+        <v>422</v>
+      </c>
+      <c r="C125" s="2" t="s">
+        <v>384</v>
+      </c>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B126" s="2">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B127" s="2">
+        <v>424</v>
+      </c>
+      <c r="C127" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B128" s="2">
+        <v>425</v>
+      </c>
+      <c r="C128" s="2" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B129" s="2">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B130" s="2">
+        <v>427</v>
+      </c>
+      <c r="C130" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B131" s="2">
+        <v>428</v>
+      </c>
+      <c r="C131" s="2" t="s">
+        <v>386</v>
+      </c>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B132" s="2">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B133" s="2">
+        <v>430</v>
+      </c>
+      <c r="C133" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B134" s="2">
+        <v>431</v>
+      </c>
+      <c r="C134" s="2" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B135" s="2">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B136" s="2">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B137" s="2">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B138" s="2">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B139" s="2">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B140" s="2">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B141" s="2">
+        <v>438</v>
+      </c>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B142" s="2">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B143" s="2">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B144" s="2">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B145" s="2">
+        <v>442</v>
+      </c>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B146" s="2">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B147" s="2">
+        <v>444</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C2:C3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C9" sqref="C9"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="3" max="3" width="14.875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C2" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="3" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C3" t="s">
+        <v>359</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:C76"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
+      <selection activeCell="C84" sqref="C84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>360</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>361</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>369</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C11" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="13" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C13" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C14" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="15" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C15" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="16" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="C16" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="20" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C20" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="21" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C22" t="s">
+        <v>391</v>
+      </c>
+    </row>
+    <row r="23" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C23" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="24" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C24" t="s">
+        <v>393</v>
+      </c>
+    </row>
+    <row r="25" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C25" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="26" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C26" t="s">
+        <v>395</v>
+      </c>
+    </row>
+    <row r="27" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C27" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="28" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C28" t="s">
+        <v>397</v>
+      </c>
+    </row>
+    <row r="29" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C29" t="s">
+        <v>398</v>
+      </c>
+    </row>
+    <row r="30" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C30" t="s">
+        <v>399</v>
+      </c>
+    </row>
+    <row r="31" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C31" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="32" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C32" t="s">
+        <v>401</v>
+      </c>
+    </row>
+    <row r="33" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C33" t="s">
+        <v>402</v>
+      </c>
+    </row>
+    <row r="35" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C35" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="36" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C36" t="s">
+        <v>404</v>
+      </c>
+    </row>
+    <row r="37" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C37" t="s">
+        <v>405</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C38" t="s">
+        <v>406</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C40" t="s">
+        <v>407</v>
+      </c>
+    </row>
+    <row r="41" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C41" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C42" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="43" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C43" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C44" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="45" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C45" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C46" t="s">
+        <v>413</v>
+      </c>
+    </row>
+    <row r="47" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C47" t="s">
+        <v>414</v>
+      </c>
+    </row>
+    <row r="49" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C49" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="50" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C50" s="11" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="52" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C52" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="53" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C53" t="s">
+        <v>419</v>
+      </c>
+    </row>
+    <row r="55" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C55" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="57" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C57" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="58" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C58" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="59" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C59" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="60" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C60" t="s">
+        <v>423</v>
+      </c>
+    </row>
+    <row r="61" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C61" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="63" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C63" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="64" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C64" t="s">
+        <v>426</v>
+      </c>
+    </row>
+    <row r="65" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C65" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="66" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C66" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="67" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C67" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="68" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C68" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="69" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C69" t="s">
+        <v>431</v>
+      </c>
+    </row>
+    <row r="70" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C70" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="71" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C71" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="72" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C72" t="s">
+        <v>434</v>
+      </c>
+    </row>
+    <row r="73" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C73" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="74" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C74" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="75" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C75" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="76" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C76" t="s">
+        <v>438</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <hyperlinks>
+    <hyperlink ref="C50" r:id="rId1" display="../araisan_sozai/log/200214_708189231_%E3%81%82%E3%81%B6%E3%81%B6%E3%83%9E%E3%83%B3%E3%82%B7%E3%83%A7%E3%83%B3%E3%82%B9%E3%83%AC_-_%E4%BA%8C%E6%AC%A1%E5%85%83%E8%A3%8F%EF%BC%A0%E3%81%B5%E3%81%9F%E3%81%B0/may.2chan.net_b_res_708189231/img/1581645077280.png"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId2"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B1" t="s">
+        <v>373</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C29" sqref="C29"/>
+      <selection activeCell="B45" sqref="B45"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -2724,38 +4830,40 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <sheetPr filterMode="1"/>
-  <dimension ref="B1:J60"/>
+  <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D75" sqref="D75"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
     <col min="3" max="3" width="32.5" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="14.25" customWidth="1"/>
-    <col min="5" max="5" width="18.25" customWidth="1"/>
-    <col min="8" max="8" width="30.75" customWidth="1"/>
+    <col min="4" max="5" width="14.25" customWidth="1"/>
+    <col min="6" max="6" width="18.25" customWidth="1"/>
+    <col min="9" max="9" width="30.75" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:10" x14ac:dyDescent="0.15">
+    <row r="1" spans="2:11" x14ac:dyDescent="0.15">
       <c r="D1" t="s">
         <v>170</v>
       </c>
-      <c r="H1" t="s">
+      <c r="E1" t="s">
+        <v>337</v>
+      </c>
+      <c r="I1" t="s">
         <v>225</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>251</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>227</v>
       </c>
     </row>
-    <row r="2" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B2">
         <v>1</v>
       </c>
@@ -2765,20 +4873,20 @@
       <c r="D2">
         <v>1</v>
       </c>
-      <c r="G2">
-        <v>1</v>
-      </c>
-      <c r="H2" t="s">
+      <c r="H2">
+        <v>1</v>
+      </c>
+      <c r="I2" t="s">
         <v>226</v>
       </c>
-      <c r="I2">
+      <c r="J2">
         <v>37</v>
       </c>
-      <c r="J2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B3">
         <v>2</v>
       </c>
@@ -2788,17 +4896,17 @@
       <c r="D3">
         <v>1</v>
       </c>
-      <c r="G3">
+      <c r="H3">
         <v>2</v>
       </c>
-      <c r="H3" t="s">
+      <c r="I3" t="s">
         <v>228</v>
       </c>
-      <c r="J3">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K3">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B4">
         <v>3</v>
       </c>
@@ -2808,20 +4916,20 @@
       <c r="D4">
         <v>1</v>
       </c>
-      <c r="G4">
+      <c r="H4">
         <v>3</v>
       </c>
-      <c r="H4" t="s">
+      <c r="I4" t="s">
         <v>229</v>
       </c>
-      <c r="I4">
+      <c r="J4">
         <v>9</v>
       </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B5">
         <v>4</v>
       </c>
@@ -2831,20 +4939,20 @@
       <c r="D5">
         <v>1</v>
       </c>
-      <c r="G5">
+      <c r="H5">
         <v>4</v>
       </c>
-      <c r="H5" t="s">
+      <c r="I5" t="s">
         <v>230</v>
       </c>
-      <c r="I5">
+      <c r="J5">
         <v>14</v>
       </c>
-      <c r="J5">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="6" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B6">
         <v>5</v>
       </c>
@@ -2854,37 +4962,43 @@
       <c r="D6">
         <v>1</v>
       </c>
-      <c r="G6">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="H6">
         <v>5</v>
       </c>
-      <c r="H6" t="s">
+      <c r="I6" t="s">
         <v>231</v>
       </c>
-      <c r="I6">
+      <c r="J6">
         <v>12</v>
       </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K6">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="2:11" x14ac:dyDescent="0.15">
       <c r="C7" t="s">
         <v>172</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
-      <c r="G7">
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="H7">
         <v>6</v>
       </c>
-      <c r="H7" t="s">
+      <c r="I7" t="s">
         <v>232</v>
       </c>
-      <c r="I7">
+      <c r="J7">
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B8">
         <v>6</v>
       </c>
@@ -2894,14 +5008,17 @@
       <c r="D8">
         <v>1</v>
       </c>
-      <c r="G8">
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="H8">
         <v>7</v>
       </c>
-      <c r="H8" t="s">
+      <c r="I8" t="s">
         <v>247</v>
       </c>
     </row>
-    <row r="9" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B9">
         <v>7</v>
       </c>
@@ -2911,14 +5028,14 @@
       <c r="D9">
         <v>0</v>
       </c>
-      <c r="G9">
+      <c r="H9">
         <v>8</v>
       </c>
-      <c r="H9" t="s">
+      <c r="I9" t="s">
         <v>233</v>
       </c>
     </row>
-    <row r="10" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B10">
         <v>8</v>
       </c>
@@ -2928,14 +5045,14 @@
       <c r="D10">
         <v>1</v>
       </c>
-      <c r="G10">
+      <c r="H10">
         <v>9</v>
       </c>
-      <c r="H10" t="s">
+      <c r="I10" t="s">
         <v>248</v>
       </c>
     </row>
-    <row r="11" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B11">
         <v>9</v>
       </c>
@@ -2945,17 +5062,20 @@
       <c r="D11">
         <v>1</v>
       </c>
-      <c r="G11">
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="H11">
         <v>10</v>
       </c>
-      <c r="H11" t="s">
+      <c r="I11" t="s">
         <v>234</v>
       </c>
-      <c r="I11">
+      <c r="J11">
         <v>22</v>
       </c>
     </row>
-    <row r="12" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B12">
         <v>10</v>
       </c>
@@ -2965,14 +5085,17 @@
       <c r="D12">
         <v>1</v>
       </c>
-      <c r="G12">
+      <c r="E12">
+        <v>1</v>
+      </c>
+      <c r="H12">
         <v>11</v>
       </c>
-      <c r="H12" t="s">
+      <c r="I12" t="s">
         <v>235</v>
       </c>
     </row>
-    <row r="13" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B13">
         <v>11</v>
       </c>
@@ -2982,14 +5105,14 @@
       <c r="D13">
         <v>1</v>
       </c>
-      <c r="G13">
+      <c r="H13">
         <v>12</v>
       </c>
-      <c r="H13" t="s">
+      <c r="I13" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="14" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B14">
         <v>12</v>
       </c>
@@ -2999,14 +5122,17 @@
       <c r="D14">
         <v>1</v>
       </c>
-      <c r="G14">
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="H14">
         <v>13</v>
       </c>
-      <c r="H14" t="s">
+      <c r="I14" t="s">
         <v>237</v>
       </c>
     </row>
-    <row r="15" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B15">
         <v>13</v>
       </c>
@@ -3016,17 +5142,17 @@
       <c r="D15">
         <v>1</v>
       </c>
-      <c r="G15">
+      <c r="H15">
         <v>14</v>
       </c>
-      <c r="H15" t="s">
+      <c r="I15" t="s">
         <v>249</v>
       </c>
-      <c r="J15">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16" spans="2:10" hidden="1" x14ac:dyDescent="0.15">
+      <c r="K15">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="2:11" x14ac:dyDescent="0.15">
       <c r="B16">
         <v>14</v>
       </c>
@@ -3036,14 +5162,17 @@
       <c r="D16">
         <v>1</v>
       </c>
-      <c r="G16">
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="H16">
         <v>15</v>
       </c>
-      <c r="H16" t="s">
+      <c r="I16" t="s">
         <v>239</v>
       </c>
     </row>
-    <row r="17" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="17" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>15</v>
       </c>
@@ -3053,17 +5182,17 @@
       <c r="D17">
         <v>1</v>
       </c>
-      <c r="G17">
+      <c r="H17">
         <v>16</v>
       </c>
-      <c r="H17" t="s">
+      <c r="I17" t="s">
         <v>240</v>
       </c>
-      <c r="I17">
+      <c r="J17">
         <v>36</v>
       </c>
     </row>
-    <row r="18" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="18" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>16</v>
       </c>
@@ -3073,14 +5202,17 @@
       <c r="D18">
         <v>1</v>
       </c>
-      <c r="G18">
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="H18">
         <v>17</v>
       </c>
-      <c r="H18" t="s">
+      <c r="I18" t="s">
         <v>241</v>
       </c>
     </row>
-    <row r="19" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>17</v>
       </c>
@@ -3090,14 +5222,17 @@
       <c r="D19">
         <v>1</v>
       </c>
-      <c r="G19">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="H19">
         <v>18</v>
       </c>
-      <c r="H19" t="s">
+      <c r="I19" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="20" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>18</v>
       </c>
@@ -3107,14 +5242,17 @@
       <c r="D20">
         <v>1</v>
       </c>
-      <c r="G20">
+      <c r="E20">
+        <v>1</v>
+      </c>
+      <c r="H20">
         <v>19</v>
       </c>
-      <c r="H20" t="s">
+      <c r="I20" t="s">
         <v>243</v>
       </c>
     </row>
-    <row r="21" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>19</v>
       </c>
@@ -3124,14 +5262,17 @@
       <c r="D21">
         <v>1</v>
       </c>
-      <c r="G21">
+      <c r="E21">
+        <v>1</v>
+      </c>
+      <c r="H21">
         <v>20</v>
       </c>
-      <c r="H21" t="s">
+      <c r="I21" t="s">
         <v>244</v>
       </c>
     </row>
-    <row r="22" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>20</v>
       </c>
@@ -3141,14 +5282,17 @@
       <c r="D22">
         <v>1</v>
       </c>
-      <c r="G22">
+      <c r="E22">
+        <v>1</v>
+      </c>
+      <c r="H22">
         <v>21</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>245</v>
       </c>
     </row>
-    <row r="23" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>21</v>
       </c>
@@ -3158,14 +5302,17 @@
       <c r="D23">
         <v>1</v>
       </c>
-      <c r="G23">
+      <c r="E23">
+        <v>1</v>
+      </c>
+      <c r="H23">
         <v>22</v>
       </c>
-      <c r="H23" t="s">
+      <c r="I23" t="s">
         <v>250</v>
       </c>
     </row>
-    <row r="24" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>22</v>
       </c>
@@ -3175,8 +5322,11 @@
       <c r="D24">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E24">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>23</v>
       </c>
@@ -3186,11 +5336,14 @@
       <c r="D25">
         <v>1</v>
       </c>
-      <c r="H25" t="s">
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="I25" t="s">
         <v>246</v>
       </c>
     </row>
-    <row r="26" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>24</v>
       </c>
@@ -3200,11 +5353,14 @@
       <c r="D26">
         <v>1</v>
       </c>
-      <c r="H26" t="s">
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="I26" t="s">
         <v>238</v>
       </c>
     </row>
-    <row r="27" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>25</v>
       </c>
@@ -3214,8 +5370,11 @@
       <c r="D27">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E27">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>26</v>
       </c>
@@ -3226,7 +5385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="29" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>27</v>
       </c>
@@ -3236,11 +5395,11 @@
       <c r="D29">
         <v>1</v>
       </c>
-      <c r="H29" t="s">
-        <v>267</v>
-      </c>
-    </row>
-    <row r="30" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>28</v>
       </c>
@@ -3250,11 +5409,11 @@
       <c r="D30">
         <v>1</v>
       </c>
-      <c r="H30" t="s">
-        <v>293</v>
-      </c>
-    </row>
-    <row r="31" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>29</v>
       </c>
@@ -3264,17 +5423,14 @@
       <c r="D31">
         <v>1</v>
       </c>
-      <c r="E31" t="s">
-        <v>280</v>
-      </c>
-      <c r="H31" t="s">
-        <v>318</v>
-      </c>
-      <c r="I31" t="s">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="32" spans="2:9" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E31">
+        <v>1</v>
+      </c>
+      <c r="F31" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="32" spans="2:10" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>30</v>
       </c>
@@ -3284,11 +5440,11 @@
       <c r="D32">
         <v>0</v>
       </c>
-      <c r="E32" t="s">
-        <v>315</v>
-      </c>
-    </row>
-    <row r="33" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F32" t="s">
+        <v>310</v>
+      </c>
+    </row>
+    <row r="33" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B33">
         <v>31</v>
       </c>
@@ -3298,11 +5454,8 @@
       <c r="D33">
         <v>1</v>
       </c>
-      <c r="H33" t="s">
-        <v>294</v>
-      </c>
-    </row>
-    <row r="34" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="34" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B34">
         <v>32</v>
       </c>
@@ -3312,11 +5465,8 @@
       <c r="D34">
         <v>0</v>
       </c>
-      <c r="H34" t="s">
-        <v>295</v>
-      </c>
-    </row>
-    <row r="35" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="35" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B35">
         <v>33</v>
       </c>
@@ -3326,8 +5476,11 @@
       <c r="D35">
         <v>1</v>
       </c>
-    </row>
-    <row r="36" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B36">
         <v>34</v>
       </c>
@@ -3338,21 +5491,24 @@
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="37" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B37">
         <v>35</v>
       </c>
       <c r="C37" t="s">
         <v>201</v>
       </c>
-      <c r="D37" t="s">
-        <v>333</v>
-      </c>
-      <c r="E37" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="38" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D37">
+        <v>1</v>
+      </c>
+      <c r="E37">
+        <v>1</v>
+      </c>
+      <c r="F37" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="38" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B38">
         <v>36</v>
       </c>
@@ -3363,7 +5519,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B39">
         <v>37</v>
       </c>
@@ -3374,7 +5530,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B40">
         <v>38</v>
       </c>
@@ -3385,7 +5541,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B41">
         <v>39</v>
       </c>
@@ -3395,36 +5551,48 @@
       <c r="D41">
         <v>1</v>
       </c>
-      <c r="E41" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="42" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E41">
+        <v>0</v>
+      </c>
+      <c r="F41" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="42" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B42">
         <v>40</v>
       </c>
       <c r="C42" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
-      <c r="E42" t="s">
-        <v>308</v>
-      </c>
-    </row>
-    <row r="43" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="E42">
+        <v>1</v>
+      </c>
+      <c r="F42" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="43" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B43">
         <v>41</v>
       </c>
       <c r="C43" t="s">
         <v>206</v>
       </c>
-      <c r="E43" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="44" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D43">
+        <v>1</v>
+      </c>
+      <c r="E43">
+        <v>1</v>
+      </c>
+      <c r="F43" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="44" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B44">
         <v>42</v>
       </c>
@@ -3435,29 +5603,32 @@
         <v>0</v>
       </c>
     </row>
-    <row r="45" spans="2:8" x14ac:dyDescent="0.15">
+    <row r="45" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B45">
         <v>43</v>
       </c>
       <c r="C45" t="s">
         <v>208</v>
       </c>
-      <c r="E45" t="s">
-        <v>281</v>
-      </c>
-    </row>
-    <row r="46" spans="2:8" x14ac:dyDescent="0.15">
+      <c r="F45" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="46" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B46">
         <v>44</v>
       </c>
       <c r="C46" t="s">
         <v>209</v>
       </c>
-      <c r="E46" t="s">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="47" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+      <c r="D46">
+        <v>0</v>
+      </c>
+      <c r="F46" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="47" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B47">
         <v>45</v>
       </c>
@@ -3468,7 +5639,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:8" hidden="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48">
         <v>46</v>
       </c>
@@ -3478,8 +5649,11 @@
       <c r="D48">
         <v>1</v>
       </c>
-    </row>
-    <row r="49" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E48">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B49">
         <v>47</v>
       </c>
@@ -3489,8 +5663,11 @@
       <c r="D49">
         <v>1</v>
       </c>
-    </row>
-    <row r="50" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B50">
         <v>48</v>
       </c>
@@ -3500,8 +5677,11 @@
       <c r="D50">
         <v>1</v>
       </c>
-    </row>
-    <row r="51" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E50">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B51">
         <v>49</v>
       </c>
@@ -3511,8 +5691,11 @@
       <c r="D51">
         <v>1</v>
       </c>
-    </row>
-    <row r="52" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="E51">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B52">
         <v>50</v>
       </c>
@@ -3523,7 +5706,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="53" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B53">
         <v>51</v>
       </c>
@@ -3534,7 +5717,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B54">
         <v>52</v>
       </c>
@@ -3545,18 +5728,18 @@
         <v>1</v>
       </c>
     </row>
-    <row r="55" spans="2:6" x14ac:dyDescent="0.15">
+    <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55">
         <v>53</v>
       </c>
       <c r="C55" t="s">
         <v>218</v>
       </c>
-      <c r="E55" t="s">
-        <v>280</v>
-      </c>
-    </row>
-    <row r="56" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F55" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="56" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B56">
         <v>54</v>
       </c>
@@ -3566,11 +5749,11 @@
       <c r="D56">
         <v>0</v>
       </c>
-      <c r="E56" t="s">
-        <v>279</v>
-      </c>
-    </row>
-    <row r="57" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+      <c r="F56" t="s">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="57" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B57">
         <v>55</v>
       </c>
@@ -3580,19 +5763,25 @@
       <c r="D57">
         <v>1</v>
       </c>
-    </row>
-    <row r="58" spans="2:6" x14ac:dyDescent="0.15">
+      <c r="E57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B58">
         <v>56</v>
       </c>
       <c r="C58" t="s">
+        <v>307</v>
+      </c>
+      <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="F58" t="s">
         <v>311</v>
       </c>
-      <c r="E58" t="s">
-        <v>316</v>
-      </c>
-    </row>
-    <row r="59" spans="2:6" hidden="1" x14ac:dyDescent="0.15">
+    </row>
+    <row r="59" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B59">
         <v>57</v>
       </c>
@@ -3602,39 +5791,91 @@
       <c r="D59">
         <v>1</v>
       </c>
-      <c r="E59" t="s">
-        <v>280</v>
+      <c r="E59">
+        <v>1</v>
       </c>
       <c r="F59" t="s">
-        <v>328</v>
-      </c>
-    </row>
-    <row r="60" spans="2:6" x14ac:dyDescent="0.15">
+        <v>278</v>
+      </c>
+      <c r="G59" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="60" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B60">
         <v>58</v>
       </c>
       <c r="C60" t="s">
-        <v>296</v>
-      </c>
-      <c r="E60" t="s">
-        <v>317</v>
+        <v>340</v>
+      </c>
+      <c r="D60">
+        <v>1</v>
+      </c>
+      <c r="F60" t="s">
+        <v>312</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:E60">
-    <filterColumn colId="2">
-      <filters blank="1">
-        <filter val="もうちょい"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="B1:F60"/>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B3:B11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G8" sqref="G8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B5" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="7" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B7" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B10" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B11" t="s">
+        <v>339</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F24"/>
   <sheetViews>
@@ -3974,7 +6215,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D36"/>
   <sheetViews>
@@ -4035,7 +6276,7 @@
         <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
     </row>
     <row r="7" spans="2:4" x14ac:dyDescent="0.15">
@@ -4100,10 +6341,10 @@
         <v>82</v>
       </c>
       <c r="C17" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="D17" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
     </row>
     <row r="18" spans="2:4" x14ac:dyDescent="0.15">
@@ -4157,7 +6398,7 @@
         <v>162</v>
       </c>
       <c r="D24" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
     </row>
     <row r="25" spans="2:4" x14ac:dyDescent="0.15">
@@ -4178,12 +6419,12 @@
     </row>
     <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
     </row>
     <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="30" spans="2:4" x14ac:dyDescent="0.15">
@@ -4198,12 +6439,12 @@
     </row>
     <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
     </row>
     <row r="35" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B35" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
     </row>
     <row r="36" spans="2:2" x14ac:dyDescent="0.15">
@@ -4218,12 +6459,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:D33"/>
+  <dimension ref="B3:D46"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="C59" sqref="C59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4340,18 +6581,46 @@
         <v>126</v>
       </c>
     </row>
+    <row r="36" spans="3:3" ht="54" x14ac:dyDescent="0.15">
+      <c r="C36" s="7" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="38" spans="3:3" ht="135" x14ac:dyDescent="0.15">
+      <c r="C38" s="7" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="40" spans="3:3" ht="135" x14ac:dyDescent="0.15">
+      <c r="C40" s="7" t="s">
+        <v>332</v>
+      </c>
+    </row>
+    <row r="42" spans="3:3" ht="121.5" x14ac:dyDescent="0.15">
+      <c r="C42" s="7" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="44" spans="3:3" ht="189" x14ac:dyDescent="0.15">
+      <c r="C44" s="7" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="46" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C46" s="7"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4423,7 +6692,7 @@
         <v>222</v>
       </c>
       <c r="D13" t="s">
-        <v>304</v>
+        <v>300</v>
       </c>
     </row>
     <row r="14" spans="2:4" x14ac:dyDescent="0.15">
@@ -4447,88 +6716,94 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>303</v>
+        <v>299</v>
       </c>
       <c r="D16" t="s">
-        <v>305</v>
-      </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.15">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C17" t="s">
+        <v>376</v>
+      </c>
+      <c r="D17" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B18">
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
     </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
     </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="22" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B22">
         <v>19</v>
       </c>
     </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="23" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B23">
         <v>20</v>
       </c>
     </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="24" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B24">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="25" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B25">
         <v>22</v>
       </c>
     </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="26" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="27" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="28" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="29" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="30" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="31" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="32" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B32">
         <v>29</v>
       </c>
@@ -4886,717 +7161,6 @@
     <row r="103" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B103">
         <v>100</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E80"/>
-  <sheetViews>
-    <sheetView topLeftCell="A9" workbookViewId="0">
-      <selection activeCell="D72" sqref="D72"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="1" max="2" width="9" style="2"/>
-    <col min="3" max="3" width="23.375" style="2" customWidth="1"/>
-    <col min="4" max="4" width="41.375" style="2" customWidth="1"/>
-    <col min="5" max="16384" width="9" style="2"/>
-  </cols>
-  <sheetData>
-    <row r="2" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B2" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="3" spans="2:4" ht="54" x14ac:dyDescent="0.15">
-      <c r="B3" s="2">
-        <v>300</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>130</v>
-      </c>
-      <c r="D3" s="8" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="4" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B4" s="2">
-        <v>301</v>
-      </c>
-      <c r="C4" s="2" t="s">
-        <v>131</v>
-      </c>
-      <c r="D4" s="8" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="5" spans="2:4" ht="27" x14ac:dyDescent="0.15">
-      <c r="B5" s="2">
-        <v>302</v>
-      </c>
-      <c r="C5" s="2" t="s">
-        <v>132</v>
-      </c>
-      <c r="D5" s="8" t="s">
-        <v>136</v>
-      </c>
-    </row>
-    <row r="6" spans="2:4" ht="67.5" x14ac:dyDescent="0.15">
-      <c r="B6" s="2">
-        <v>303</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>133</v>
-      </c>
-      <c r="D6" s="8" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B7" s="2">
-        <v>304</v>
-      </c>
-      <c r="C7" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="D7" s="2" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="8" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B8" s="2">
-        <v>305</v>
-      </c>
-      <c r="C8" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="9" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B9" s="2">
-        <v>306</v>
-      </c>
-      <c r="C9" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="10" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B10" s="2">
-        <v>307</v>
-      </c>
-      <c r="C10" s="2" t="s">
-        <v>149</v>
-      </c>
-    </row>
-    <row r="11" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B11" s="2">
-        <v>308</v>
-      </c>
-      <c r="C11" s="2" t="s">
-        <v>260</v>
-      </c>
-      <c r="D11" s="2" t="s">
-        <v>261</v>
-      </c>
-    </row>
-    <row r="12" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B12" s="2">
-        <v>309</v>
-      </c>
-      <c r="C12" s="2" t="s">
-        <v>146</v>
-      </c>
-      <c r="D12" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="13" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B13" s="2">
-        <v>310</v>
-      </c>
-      <c r="C13" s="2" t="s">
-        <v>148</v>
-      </c>
-      <c r="D13" s="2" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="14" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B14" s="2">
-        <v>311</v>
-      </c>
-    </row>
-    <row r="15" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B15" s="2">
-        <v>312</v>
-      </c>
-      <c r="C15" s="2" t="s">
-        <v>169</v>
-      </c>
-    </row>
-    <row r="16" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B16" s="2">
-        <v>313</v>
-      </c>
-      <c r="C16" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B17" s="2">
-        <v>314</v>
-      </c>
-    </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B18" s="2">
-        <v>315</v>
-      </c>
-      <c r="C18" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>253</v>
-      </c>
-    </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B19" s="2">
-        <v>316</v>
-      </c>
-      <c r="C19" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>254</v>
-      </c>
-    </row>
-    <row r="20" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B20" s="2">
-        <v>317</v>
-      </c>
-      <c r="C20" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>255</v>
-      </c>
-    </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B21" s="2">
-        <v>318</v>
-      </c>
-      <c r="C21" s="2" t="s">
-        <v>252</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B22" s="2">
-        <v>319</v>
-      </c>
-    </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B23" s="2">
-        <v>320</v>
-      </c>
-      <c r="C23" s="2" t="s">
-        <v>268</v>
-      </c>
-    </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B24" s="2">
-        <v>321</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B25" s="2">
-        <v>322</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>258</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>278</v>
-      </c>
-    </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B26" s="2">
-        <v>323</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B27" s="2">
-        <v>324</v>
-      </c>
-      <c r="C27" s="2" t="s">
-        <v>257</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B28" s="2">
-        <v>325</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B29" s="2">
-        <v>326</v>
-      </c>
-      <c r="C29" s="2" t="s">
-        <v>265</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>266</v>
-      </c>
-    </row>
-    <row r="30" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B30" s="2">
-        <v>327</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B31" s="2">
-        <v>328</v>
-      </c>
-      <c r="C31" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.15">
-      <c r="B32" s="2">
-        <v>329</v>
-      </c>
-      <c r="C32" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="33" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B33" s="2">
-        <v>330</v>
-      </c>
-      <c r="C33" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="34" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B34" s="2">
-        <v>331</v>
-      </c>
-      <c r="C34" s="2" t="s">
-        <v>269</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="35" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B35" s="2">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="36" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B36" s="2">
-        <v>333</v>
-      </c>
-      <c r="C36" s="2" t="s">
-        <v>270</v>
-      </c>
-    </row>
-    <row r="37" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B37" s="2">
-        <v>334</v>
-      </c>
-    </row>
-    <row r="38" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B38" s="2">
-        <v>335</v>
-      </c>
-      <c r="C38" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D38" s="2" t="s">
-        <v>272</v>
-      </c>
-    </row>
-    <row r="39" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B39" s="2">
-        <v>336</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D39" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="40" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B40" s="2">
-        <v>337</v>
-      </c>
-      <c r="C40" s="2" t="s">
-        <v>271</v>
-      </c>
-      <c r="D40" s="2" t="s">
-        <v>273</v>
-      </c>
-    </row>
-    <row r="41" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B41" s="2">
-        <v>338</v>
-      </c>
-    </row>
-    <row r="42" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B42" s="2">
-        <v>339</v>
-      </c>
-      <c r="C42" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D42" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="43" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B43" s="2">
-        <v>340</v>
-      </c>
-      <c r="C43" s="2" t="s">
-        <v>274</v>
-      </c>
-      <c r="D43" s="2" t="s">
-        <v>259</v>
-      </c>
-    </row>
-    <row r="44" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B44" s="2">
-        <v>341</v>
-      </c>
-    </row>
-    <row r="45" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B45" s="2">
-        <v>342</v>
-      </c>
-      <c r="C45" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D45" s="2" t="s">
-        <v>276</v>
-      </c>
-    </row>
-    <row r="46" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B46" s="2">
-        <v>343</v>
-      </c>
-      <c r="C46" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D46" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="47" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B47" s="2">
-        <v>344</v>
-      </c>
-      <c r="C47" s="2" t="s">
-        <v>275</v>
-      </c>
-      <c r="D47" s="2" t="s">
-        <v>277</v>
-      </c>
-    </row>
-    <row r="48" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B48" s="2">
-        <v>345</v>
-      </c>
-    </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B49" s="2">
-        <v>346</v>
-      </c>
-      <c r="C49" s="2" t="s">
-        <v>283</v>
-      </c>
-    </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B50" s="2">
-        <v>347</v>
-      </c>
-    </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B51" s="2">
-        <v>348</v>
-      </c>
-      <c r="C51" s="2" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B52" s="2">
-        <v>349</v>
-      </c>
-    </row>
-    <row r="53" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B53" s="2">
-        <v>350</v>
-      </c>
-      <c r="C53" s="2" t="s">
-        <v>302</v>
-      </c>
-    </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B54" s="2">
-        <v>351</v>
-      </c>
-    </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B55" s="2">
-        <v>352</v>
-      </c>
-      <c r="C55" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D55" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="56" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B56" s="2">
-        <v>353</v>
-      </c>
-      <c r="C56" s="2" t="s">
-        <v>306</v>
-      </c>
-      <c r="D56" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="57" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B57" s="2">
-        <v>354</v>
-      </c>
-    </row>
-    <row r="58" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B58" s="2">
-        <v>355</v>
-      </c>
-      <c r="C58" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D58" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="59" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B59" s="2">
-        <v>356</v>
-      </c>
-      <c r="C59" s="2" t="s">
-        <v>309</v>
-      </c>
-      <c r="D59" s="2" t="s">
-        <v>307</v>
-      </c>
-    </row>
-    <row r="60" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B60" s="2">
-        <v>357</v>
-      </c>
-    </row>
-    <row r="61" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B61" s="2">
-        <v>358</v>
-      </c>
-      <c r="C61" s="2" t="s">
-        <v>312</v>
-      </c>
-      <c r="D61" s="2" t="s">
-        <v>313</v>
-      </c>
-    </row>
-    <row r="62" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B62" s="2">
-        <v>359</v>
-      </c>
-    </row>
-    <row r="63" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B63" s="2">
-        <v>360</v>
-      </c>
-      <c r="C63" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D63" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="64" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B64" s="2">
-        <v>361</v>
-      </c>
-      <c r="C64" s="2" t="s">
-        <v>320</v>
-      </c>
-      <c r="D64" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="65" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B65" s="2">
-        <v>362</v>
-      </c>
-    </row>
-    <row r="66" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B66" s="2">
-        <v>363</v>
-      </c>
-      <c r="C66" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D66" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="67" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B67" s="2">
-        <v>364</v>
-      </c>
-      <c r="C67" s="2" t="s">
-        <v>329</v>
-      </c>
-      <c r="D67" s="2" t="s">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="68" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B68" s="2">
-        <v>365</v>
-      </c>
-    </row>
-    <row r="69" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B69" s="2">
-        <v>366</v>
-      </c>
-      <c r="C69" s="2" t="s">
-        <v>331</v>
-      </c>
-      <c r="D69" s="2" t="s">
-        <v>332</v>
-      </c>
-    </row>
-    <row r="70" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B70" s="2">
-        <v>367</v>
-      </c>
-    </row>
-    <row r="71" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B71" s="2">
-        <v>368</v>
-      </c>
-      <c r="C71" s="2" t="s">
-        <v>334</v>
-      </c>
-      <c r="D71" s="2" t="s">
-        <v>335</v>
-      </c>
-    </row>
-    <row r="72" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B72" s="2">
-        <v>369</v>
-      </c>
-    </row>
-    <row r="73" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B73" s="2">
-        <v>370</v>
-      </c>
-    </row>
-    <row r="74" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B74" s="2">
-        <v>371</v>
-      </c>
-    </row>
-    <row r="75" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B75" s="2">
-        <v>372</v>
-      </c>
-    </row>
-    <row r="76" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B76" s="2">
-        <v>373</v>
-      </c>
-    </row>
-    <row r="77" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B77" s="2">
-        <v>374</v>
-      </c>
-    </row>
-    <row r="78" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B78" s="2">
-        <v>375</v>
-      </c>
-    </row>
-    <row r="79" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B79" s="2">
-        <v>376</v>
-      </c>
-    </row>
-    <row r="80" spans="2:4" x14ac:dyDescent="0.15">
-      <c r="B80" s="2">
-        <v>377</v>
       </c>
     </row>
   </sheetData>

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,32 +4,31 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="12"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="9"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="14" r:id="rId2"/>
-    <sheet name="手書きイベントフロー" sheetId="4" r:id="rId3"/>
-    <sheet name="公式フロア" sheetId="9" r:id="rId4"/>
-    <sheet name="たため" sheetId="13" r:id="rId5"/>
-    <sheet name="SE,BGMの修正" sheetId="2" r:id="rId6"/>
-    <sheet name="license" sheetId="3" r:id="rId7"/>
-    <sheet name="ログ調査" sheetId="5" r:id="rId8"/>
-    <sheet name="フラグ-200" sheetId="6" r:id="rId9"/>
-    <sheet name="フラグ" sheetId="7" r:id="rId10"/>
-    <sheet name="フラグ300-" sheetId="8" r:id="rId11"/>
-    <sheet name="図鑑ネタ" sheetId="11" r:id="rId12"/>
-    <sheet name="フロアネタ" sheetId="12" r:id="rId13"/>
+    <sheet name="手書きイベントフロー" sheetId="4" r:id="rId2"/>
+    <sheet name="公式フロア" sheetId="9" r:id="rId3"/>
+    <sheet name="たため" sheetId="13" r:id="rId4"/>
+    <sheet name="SE,BGMの修正" sheetId="2" r:id="rId5"/>
+    <sheet name="license" sheetId="3" r:id="rId6"/>
+    <sheet name="ログ調査" sheetId="5" r:id="rId7"/>
+    <sheet name="フラグ-200" sheetId="6" r:id="rId8"/>
+    <sheet name="フラグ-300" sheetId="7" r:id="rId9"/>
+    <sheet name="フラグ300-" sheetId="8" r:id="rId10"/>
+    <sheet name="図鑑ネタ" sheetId="11" r:id="rId11"/>
+    <sheet name="フロアネタ" sheetId="12" r:id="rId12"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公式フロア!$B$1:$F$60</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">公式フロア!$B$1:$F$60</definedName>
   </definedNames>
   <calcPr calcId="122211"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="462">
   <si>
     <t>名称</t>
   </si>
@@ -2318,13 +2317,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>自販機のフロア</t>
-    <rPh sb="0" eb="3">
-      <t>ジハンキ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>飲み屋オオカワ</t>
     <rPh sb="0" eb="1">
       <t>ノ</t>
@@ -2388,10 +2380,6 @@
     <rPh sb="33" eb="35">
       <t>ジュウフク</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>イベントチェック</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -2645,6 +2633,235 @@
   </si>
   <si>
     <t>嫌じゃもうイキとうない♡アッ♡アッ♡アッ♡</t>
+  </si>
+  <si>
+    <t>カワウソ部屋</t>
+    <rPh sb="4" eb="6">
+      <t>ベヤ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>kickされる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ-扇風機</t>
+    <rPh sb="7" eb="10">
+      <t>センプウキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バレンタインチョコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一度切り</t>
+    <rPh sb="0" eb="2">
+      <t>イチド</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>張り付き</t>
+    <rPh sb="0" eb="1">
+      <t>ハ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ここ修正必要。</t>
+    <rPh sb="2" eb="4">
+      <t>シュウセイ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>ヒツヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>画像サイズを図鑑用とメッセージイベント用に分けた。</t>
+    <rPh sb="0" eb="2">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ズカン</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="19" eb="20">
+      <t>ヨウ</t>
+    </rPh>
+    <rPh sb="21" eb="22">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図鑑化が大変なので、単発イベントの画像表示をおおくしたのだ。</t>
+    <rPh sb="0" eb="2">
+      <t>ズカン</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>カ</t>
+    </rPh>
+    <rPh sb="4" eb="6">
+      <t>タイヘン</t>
+    </rPh>
+    <rPh sb="10" eb="12">
+      <t>タンパツ</t>
+    </rPh>
+    <rPh sb="17" eb="19">
+      <t>ガゾウ</t>
+    </rPh>
+    <rPh sb="19" eb="21">
+      <t>ヒョウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自販機</t>
+    <rPh sb="0" eb="3">
+      <t>ジハンキ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>冒険者ギルド</t>
+    <rPh sb="0" eb="3">
+      <t>ボウケンシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>自販機階へ</t>
+    <rPh sb="0" eb="3">
+      <t>ジハンキ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>カイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探索者がたくさん集まってるような場所がほしい感じ</t>
+    <rPh sb="0" eb="3">
+      <t>タンサクシャ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>アツ</t>
+    </rPh>
+    <rPh sb="16" eb="18">
+      <t>バショ</t>
+    </rPh>
+    <rPh sb="22" eb="23">
+      <t>カン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アライさん出前</t>
+    <rPh sb="5" eb="7">
+      <t>デマエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>壁の絵</t>
+    <rPh sb="0" eb="1">
+      <t>カベ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>エ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>明かりON</t>
+    <rPh sb="0" eb="1">
+      <t>ア</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>演出用</t>
+    <rPh sb="0" eb="2">
+      <t>エンシュツ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヨウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>絵の中へ</t>
+    <rPh sb="0" eb="1">
+      <t>エ</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ナカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地獄ちほーにつながるユニットバス</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14-14-14-14</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シェルター音楽停止</t>
+    <rPh sb="5" eb="7">
+      <t>オンガク</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>日めくり</t>
+    <rPh sb="0" eb="1">
+      <t>ヒ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>曲の停止</t>
+    <rPh sb="0" eb="1">
+      <t>キョク</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>テイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>隊長</t>
+    <rPh sb="0" eb="2">
+      <t>タイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソ隊長</t>
+    <rPh sb="6" eb="8">
+      <t>タイチョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -3077,7 +3294,7 @@
   <dimension ref="B2:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+      <selection activeCell="B44" sqref="B44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3162,7 +3379,7 @@
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B33" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
     </row>
   </sheetData>
@@ -3173,36 +3390,10 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
+  <dimension ref="B2:E167"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J51" sqref="J51"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData>
-    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E147"/>
-  <sheetViews>
-    <sheetView topLeftCell="A83" workbookViewId="0">
-      <selection activeCell="C136" sqref="C136"/>
+    <sheetView tabSelected="1" topLeftCell="A133" workbookViewId="0">
+      <selection activeCell="D153" sqref="D153"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -3468,6 +3659,12 @@
       <c r="B30" s="2">
         <v>327</v>
       </c>
+      <c r="C30" s="2" t="s">
+        <v>458</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>459</v>
+      </c>
     </row>
     <row r="31" spans="2:5" x14ac:dyDescent="0.15">
       <c r="B31" s="2">
@@ -3994,7 +4191,7 @@
         <v>390</v>
       </c>
       <c r="C93" s="2" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
     </row>
     <row r="94" spans="2:4" x14ac:dyDescent="0.15">
@@ -4007,7 +4204,7 @@
         <v>392</v>
       </c>
       <c r="C95" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="96" spans="2:4" x14ac:dyDescent="0.15">
@@ -4015,7 +4212,7 @@
         <v>393</v>
       </c>
       <c r="C96" s="2" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
     </row>
     <row r="97" spans="2:4" x14ac:dyDescent="0.15">
@@ -4028,10 +4225,10 @@
         <v>395</v>
       </c>
       <c r="C98" s="2" t="s">
+        <v>369</v>
+      </c>
+      <c r="D98" s="2" t="s">
         <v>370</v>
-      </c>
-      <c r="D98" s="2" t="s">
-        <v>371</v>
       </c>
     </row>
     <row r="99" spans="2:4" x14ac:dyDescent="0.15">
@@ -4039,7 +4236,7 @@
         <v>396</v>
       </c>
       <c r="D99" s="2" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
     </row>
     <row r="100" spans="2:4" x14ac:dyDescent="0.15">
@@ -4052,7 +4249,7 @@
         <v>398</v>
       </c>
       <c r="C101" s="2" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
     </row>
     <row r="102" spans="2:4" x14ac:dyDescent="0.15">
@@ -4065,7 +4262,7 @@
         <v>400</v>
       </c>
       <c r="C103" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="104" spans="2:4" x14ac:dyDescent="0.15">
@@ -4073,7 +4270,7 @@
         <v>401</v>
       </c>
       <c r="C104" s="2" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
     </row>
     <row r="105" spans="2:4" x14ac:dyDescent="0.15">
@@ -4081,7 +4278,7 @@
         <v>402</v>
       </c>
       <c r="C105" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="106" spans="2:4" x14ac:dyDescent="0.15">
@@ -4089,7 +4286,7 @@
         <v>403</v>
       </c>
       <c r="C106" s="2" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
     </row>
     <row r="107" spans="2:4" x14ac:dyDescent="0.15">
@@ -4102,7 +4299,7 @@
         <v>405</v>
       </c>
       <c r="C108" s="2" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
     </row>
     <row r="109" spans="2:4" x14ac:dyDescent="0.15">
@@ -4115,7 +4312,7 @@
         <v>407</v>
       </c>
       <c r="C110" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="111" spans="2:4" x14ac:dyDescent="0.15">
@@ -4123,7 +4320,7 @@
         <v>408</v>
       </c>
       <c r="C111" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="112" spans="2:4" x14ac:dyDescent="0.15">
@@ -4131,7 +4328,7 @@
         <v>409</v>
       </c>
       <c r="C112" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="113" spans="2:3" x14ac:dyDescent="0.15">
@@ -4139,7 +4336,7 @@
         <v>410</v>
       </c>
       <c r="C113" s="2" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
     </row>
     <row r="114" spans="2:3" x14ac:dyDescent="0.15">
@@ -4152,7 +4349,7 @@
         <v>412</v>
       </c>
       <c r="C115" s="2" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
     </row>
     <row r="116" spans="2:3" x14ac:dyDescent="0.15">
@@ -4165,7 +4362,7 @@
         <v>414</v>
       </c>
       <c r="C117" s="2" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
     </row>
     <row r="118" spans="2:3" x14ac:dyDescent="0.15">
@@ -4178,7 +4375,7 @@
         <v>416</v>
       </c>
       <c r="C119" s="2" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
     </row>
     <row r="120" spans="2:3" x14ac:dyDescent="0.15">
@@ -4191,7 +4388,7 @@
         <v>418</v>
       </c>
       <c r="C121" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="122" spans="2:3" x14ac:dyDescent="0.15">
@@ -4199,7 +4396,7 @@
         <v>419</v>
       </c>
       <c r="C122" s="2" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
     </row>
     <row r="123" spans="2:3" x14ac:dyDescent="0.15">
@@ -4212,7 +4409,7 @@
         <v>421</v>
       </c>
       <c r="C124" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="125" spans="2:3" x14ac:dyDescent="0.15">
@@ -4220,7 +4417,7 @@
         <v>422</v>
       </c>
       <c r="C125" s="2" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
     </row>
     <row r="126" spans="2:3" x14ac:dyDescent="0.15">
@@ -4233,7 +4430,7 @@
         <v>424</v>
       </c>
       <c r="C127" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="128" spans="2:3" x14ac:dyDescent="0.15">
@@ -4241,7 +4438,7 @@
         <v>425</v>
       </c>
       <c r="C128" s="2" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
     </row>
     <row r="129" spans="2:3" x14ac:dyDescent="0.15">
@@ -4254,7 +4451,7 @@
         <v>427</v>
       </c>
       <c r="C130" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="131" spans="2:3" x14ac:dyDescent="0.15">
@@ -4262,7 +4459,7 @@
         <v>428</v>
       </c>
       <c r="C131" s="2" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
     </row>
     <row r="132" spans="2:3" x14ac:dyDescent="0.15">
@@ -4275,7 +4472,7 @@
         <v>430</v>
       </c>
       <c r="C133" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="134" spans="2:3" x14ac:dyDescent="0.15">
@@ -4283,7 +4480,7 @@
         <v>431</v>
       </c>
       <c r="C134" s="2" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
     </row>
     <row r="135" spans="2:3" x14ac:dyDescent="0.15">
@@ -4295,6 +4492,9 @@
       <c r="B136" s="2">
         <v>433</v>
       </c>
+      <c r="C136" s="2" t="s">
+        <v>439</v>
+      </c>
     </row>
     <row r="137" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B137" s="2">
@@ -4305,6 +4505,9 @@
       <c r="B138" s="2">
         <v>435</v>
       </c>
+      <c r="C138" s="2" t="s">
+        <v>442</v>
+      </c>
     </row>
     <row r="139" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B139" s="2">
@@ -4315,40 +4518,167 @@
       <c r="B140" s="2">
         <v>437</v>
       </c>
+      <c r="C140" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="141" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B141" s="2">
         <v>438</v>
       </c>
+      <c r="C141" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="142" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B142" s="2">
         <v>439</v>
       </c>
+      <c r="C142" s="2" t="s">
+        <v>446</v>
+      </c>
     </row>
     <row r="143" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B143" s="2">
         <v>440</v>
       </c>
+      <c r="C143" s="2" t="s">
+        <v>448</v>
+      </c>
     </row>
     <row r="144" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B144" s="2">
         <v>441</v>
       </c>
     </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="145" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B145" s="2">
         <v>442</v>
       </c>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="C145" s="2" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B146" s="2">
         <v>443</v>
       </c>
     </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.15">
+    <row r="147" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B147" s="2">
         <v>444</v>
+      </c>
+      <c r="C147" s="2" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B148" s="2">
+        <v>445</v>
+      </c>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B149" s="2">
+        <v>446</v>
+      </c>
+      <c r="C149" s="2" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B150" s="2">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B151" s="2">
+        <v>448</v>
+      </c>
+      <c r="C151" s="2" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B152" s="2">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B153" s="2">
+        <v>450</v>
+      </c>
+      <c r="C153" s="2" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B154" s="2">
+        <v>451</v>
+      </c>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B155" s="2">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B156" s="2">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B157" s="2">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B158" s="2">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B159" s="2">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B160" s="2">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B161" s="2">
+        <v>458</v>
+      </c>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B162" s="2">
+        <v>459</v>
+      </c>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B163" s="2">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B164" s="2">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B165" s="2">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B166" s="2">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B167" s="2">
+        <v>464</v>
       </c>
     </row>
   </sheetData>
@@ -4358,12 +4688,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C3"/>
+  <dimension ref="C2:C5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4381,21 +4711,29 @@
         <v>359</v>
       </c>
     </row>
+    <row r="5" spans="3:3" x14ac:dyDescent="0.15">
+      <c r="C5" t="s">
+        <v>460</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:C76"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" workbookViewId="0">
-      <selection activeCell="C84" sqref="C84"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <cols>
+    <col min="2" max="2" width="16.125" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="2" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B2" t="s">
@@ -4407,289 +4745,297 @@
         <v>360</v>
       </c>
     </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.15">
-      <c r="B4" t="s">
-        <v>361</v>
-      </c>
-    </row>
     <row r="5" spans="2:3" x14ac:dyDescent="0.15">
       <c r="B5" t="s">
-        <v>369</v>
+        <v>368</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B6" t="s">
+        <v>447</v>
+      </c>
+      <c r="C6" t="s">
+        <v>449</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.15">
+      <c r="B8" t="s">
+        <v>455</v>
       </c>
     </row>
     <row r="11" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C11" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
     </row>
     <row r="13" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C13" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C14" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
     </row>
     <row r="15" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C15" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.15">
       <c r="C16" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
     </row>
     <row r="20" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C20" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
     </row>
     <row r="21" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C21" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
     </row>
     <row r="22" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C22" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
     </row>
     <row r="23" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C23" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
     </row>
     <row r="24" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C24" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
     </row>
     <row r="25" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C25" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
     </row>
     <row r="26" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C26" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
     </row>
     <row r="27" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C27" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
     </row>
     <row r="28" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C28" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
     </row>
     <row r="29" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C29" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
     </row>
     <row r="30" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C30" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
     </row>
     <row r="31" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C31" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
     </row>
     <row r="32" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C32" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C33" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
     </row>
     <row r="35" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C35" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
     </row>
     <row r="36" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C36" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
     </row>
     <row r="37" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C37" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
     </row>
     <row r="38" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C38" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
     </row>
     <row r="40" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C40" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
     </row>
     <row r="41" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C41" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
     </row>
     <row r="42" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C42" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
     </row>
     <row r="43" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C43" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
     </row>
     <row r="44" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C44" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
     </row>
     <row r="45" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C45" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
     </row>
     <row r="46" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C46" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
     </row>
     <row r="47" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C47" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
     </row>
     <row r="49" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C49" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
     </row>
     <row r="50" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C50" s="11" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
     </row>
     <row r="52" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C52" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
     </row>
     <row r="53" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C53" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
     </row>
     <row r="55" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C55" t="s">
-        <v>418</v>
+        <v>416</v>
       </c>
     </row>
     <row r="57" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C57" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
     </row>
     <row r="58" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C58" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
     </row>
     <row r="59" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C59" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
     </row>
     <row r="60" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C60" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
     </row>
     <row r="61" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C61" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
     </row>
     <row r="63" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C63" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
     </row>
     <row r="64" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C64" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
     </row>
     <row r="65" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C65" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
     </row>
     <row r="66" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C66" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
     </row>
     <row r="67" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C67" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
     </row>
     <row r="68" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C68" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
     </row>
     <row r="69" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C69" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
     </row>
     <row r="70" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C70" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
     </row>
     <row r="71" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C71" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
     </row>
     <row r="72" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C72" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
     </row>
     <row r="73" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C73" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
     </row>
     <row r="74" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C74" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
     </row>
     <row r="75" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C75" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
     </row>
     <row r="76" spans="3:3" x14ac:dyDescent="0.15">
       <c r="C76" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
     </row>
   </sheetData>
@@ -4704,34 +5050,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1"/>
+  <dimension ref="B2:E26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <cols>
-    <col min="2" max="2" width="13.75" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="2:2" x14ac:dyDescent="0.15">
-      <c r="B1" t="s">
-        <v>373</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E20"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B45" sqref="B45"/>
+      <selection activeCell="B27" sqref="B27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -4823,6 +5145,21 @@
         <v>151</v>
       </c>
     </row>
+    <row r="23" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B23" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="25" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B25" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="26" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B26" t="s">
+        <v>445</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4830,12 +5167,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="D48" sqref="D48"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="N59" sqref="N59"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -5610,6 +5947,12 @@
       <c r="C45" t="s">
         <v>208</v>
       </c>
+      <c r="D45">
+        <v>1</v>
+      </c>
+      <c r="E45">
+        <v>1</v>
+      </c>
       <c r="F45" t="s">
         <v>279</v>
       </c>
@@ -5638,6 +5981,9 @@
       <c r="D47">
         <v>1</v>
       </c>
+      <c r="E47">
+        <v>1</v>
+      </c>
     </row>
     <row r="48" spans="2:6" x14ac:dyDescent="0.15">
       <c r="B48">
@@ -5727,6 +6073,9 @@
       <c r="D54">
         <v>1</v>
       </c>
+      <c r="E54">
+        <v>1</v>
+      </c>
     </row>
     <row r="55" spans="2:7" x14ac:dyDescent="0.15">
       <c r="B55">
@@ -5775,6 +6124,9 @@
         <v>307</v>
       </c>
       <c r="D58">
+        <v>1</v>
+      </c>
+      <c r="E58">
         <v>1</v>
       </c>
       <c r="F58" t="s">
@@ -5823,7 +6175,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B11"/>
   <sheetViews>
@@ -5855,7 +6207,7 @@
     </row>
     <row r="7" spans="2:2" x14ac:dyDescent="0.15">
       <c r="B7" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
     </row>
     <row r="10" spans="2:2" x14ac:dyDescent="0.15">
@@ -5875,7 +6227,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F24"/>
   <sheetViews>
@@ -6215,7 +6567,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D36"/>
   <sheetViews>
@@ -6459,7 +6811,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:D46"/>
   <sheetViews>
@@ -6615,12 +6967,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+      <selection activeCell="C23" sqref="C23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -6727,7 +7079,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="D17" t="s">
         <v>301</v>
@@ -6737,20 +7089,44 @@
       <c r="B18">
         <v>15</v>
       </c>
+      <c r="C18" t="s">
+        <v>437</v>
+      </c>
+      <c r="D18" t="s">
+        <v>438</v>
+      </c>
     </row>
     <row r="19" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B19">
         <v>16</v>
       </c>
+      <c r="C19" t="s">
+        <v>440</v>
+      </c>
+      <c r="D19" t="s">
+        <v>441</v>
+      </c>
     </row>
     <row r="20" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B20">
         <v>17</v>
       </c>
+      <c r="C20" t="s">
+        <v>451</v>
+      </c>
+      <c r="D20" t="s">
+        <v>452</v>
+      </c>
     </row>
     <row r="21" spans="2:4" x14ac:dyDescent="0.15">
       <c r="B21">
         <v>18</v>
+      </c>
+      <c r="C21" t="s">
+        <v>451</v>
+      </c>
+      <c r="D21" t="s">
+        <v>453</v>
       </c>
     </row>
     <row r="22" spans="2:4" x14ac:dyDescent="0.15">
@@ -7168,4 +7544,30 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:B3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetData>
+    <row r="2" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B2" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.15">
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" firstSheet="13" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="13"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1091" uniqueCount="950">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1329">
   <si>
     <t>名称</t>
   </si>
@@ -2673,13 +2673,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>隊長</t>
-    <rPh sb="0" eb="2">
-      <t>タイチョウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>オオカワウソ隊長</t>
     <rPh sb="6" eb="8">
       <t>タイチョウ</t>
@@ -3160,26 +3153,6 @@
       <t>イチド</t>
     </rPh>
     <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <r>
-      <t>8</t>
-    </r>
-    <r>
-      <rPr>
-        <u/>
-        <sz val="11"/>
-        <color theme="10"/>
-        <rFont val="ＭＳ Ｐゴシック"/>
-        <family val="3"/>
-        <charset val="128"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>無念Nameとしあき21/05/12(水)22:09:41No.843767710そうだねx1</t>
-    </r>
-  </si>
-  <si>
-    <t>    1620824981071.png-(8438 B)</t>
   </si>
   <si>
     <t>たいへんなのだ！</t>
@@ -4708,52 +4681,1245 @@
     <t>39818 B</t>
   </si>
   <si>
-    <t>    1583006855959.png-(23979 B)</t>
-  </si>
-  <si>
-    <t>こんなのいたらという妄想なのでスルー推奨</t>
-  </si>
-  <si>
-    <t>地下ラッコ</t>
-  </si>
-  <si>
-    <t>生息地：地下水槽エリア</t>
-  </si>
-  <si>
-    <t>外観：性別不明　やや細身　ウエットスーツっぽい毛皮とビーサン</t>
-  </si>
-  <si>
-    <t>主食：主に水槽に張り付いてる目玉の付いた貝っぽい何か</t>
-  </si>
-  <si>
-    <t>性格：とにかくしょっちゅうモグモグしてる　人見知りなので他者が来ると物陰か水中に隠れる</t>
-  </si>
-  <si>
-    <t>持ってるのは貝割り用の頭蓋骨　種類は不明</t>
-  </si>
-  <si>
-    <t>時々タコに食われる</t>
-  </si>
-  <si>
-    <t>898無念Nameとしあき20/03/01(日)05:07:35No.712648411そうだねx4</t>
-  </si>
-  <si>
-    <t>23979 B</t>
-  </si>
-  <si>
-    <t>    1583008235570.png-(15332 B)</t>
-  </si>
-  <si>
-    <t>&gt;異質カワウソがいるなら統失カワウソもいていいと思うのだ</t>
-  </si>
-  <si>
-    <t>脂質カワウソもいるのだ</t>
-  </si>
-  <si>
-    <t>951無念Nameとしあき20/03/01(日)05:30:35No.712649446そうだねx5</t>
-  </si>
-  <si>
-    <t>15332 B</t>
+    <t>じごくちほーに入った</t>
+    <rPh sb="7" eb="8">
+      <t>ハイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地獄を見たフラグ</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>じごくちほーエレベーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>探索者の集い許可</t>
+    <rPh sb="0" eb="3">
+      <t>タンサクシャ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ツド</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>キョカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ねぎ姉さん</t>
+    <rPh sb="2" eb="3">
+      <t>ネエ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夜勤明けの人</t>
+    <rPh sb="0" eb="3">
+      <t>ヤキンア</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>ヒト</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>爆発のフロア</t>
+    <rPh sb="0" eb="2">
+      <t>バクハツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ｘ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>    1583049241399.png-(34755 B)</t>
+  </si>
+  <si>
+    <t>&gt;8 影のような</t>
+  </si>
+  <si>
+    <t>&gt;8 全裸の異性が</t>
+  </si>
+  <si>
+    <t>&gt;8 何かを食べながら</t>
+  </si>
+  <si>
+    <t>&gt;3 帰れと警告してきた</t>
+  </si>
+  <si>
+    <t>&gt;あなたは警告に従い帰っても良いし帰らなくても良い</t>
+  </si>
+  <si>
+    <t>&gt;帰りますか？</t>
+  </si>
+  <si>
+    <t>&gt;yes no</t>
+  </si>
+  <si>
+    <t>265無念Nameとしあき20/03/01(日)16:54:01No.712789621そうだねx17</t>
+  </si>
+  <si>
+    <t>34755 B</t>
+  </si>
+  <si>
+    <t>    1583240519142.png-(34442 B)</t>
+  </si>
+  <si>
+    <t>「もしもし？私メリーガーランドさん</t>
+  </si>
+  <si>
+    <t>リガラとも呼ばれるわ</t>
+  </si>
+  <si>
+    <t>放置されてスコアが貯まる方式のゲームを突っ込めばこのマンションで快適に暮らせたりしない？</t>
+  </si>
+  <si>
+    <t>そうよ</t>
+  </si>
+  <si>
+    <t>この部屋で試したらアマグニに繋がって化け物が無限沸きになったからオオカワに狩らせてるの</t>
+  </si>
+  <si>
+    <t>当然あんたの秘蔵のエロ本とか卒業アルバムとかも全部発掘さｒ</t>
+  </si>
+  <si>
+    <t>ﾌﾞﾁｯ　ﾂｰ　ﾂｰ　ﾂｰ」</t>
+  </si>
+  <si>
+    <t>474無念Nameとしあき20/03/03(火)22:01:59No.713404238そうだねx12</t>
+  </si>
+  <si>
+    <t>34442 B</t>
+  </si>
+  <si>
+    <t>    1583415385038.png-(44128 B)</t>
+  </si>
+  <si>
+    <t>薬草をモシャり慣れたデモンズ草食ちゃんとかいう深夜妄想を垂れ流す</t>
+  </si>
+  <si>
+    <t>55無念Nameとしあき20/03/05(木)22:36:25No.713919192そうだねx26</t>
+  </si>
+  <si>
+    <t>44128 B</t>
+  </si>
+  <si>
+    <t>    1583417176016.png-(14157 B)</t>
+  </si>
+  <si>
+    <t>フェネック！お隣さんから芋羊羹を頂いたらこうなったのだ！</t>
+  </si>
+  <si>
+    <t>あららーアライさん部屋に入れないねー</t>
+  </si>
+  <si>
+    <t>今日は古いネタばかり浮かぶのだ…</t>
+  </si>
+  <si>
+    <t>194無念Nameとしあき20/03/05(木)23:06:16No.713929779そうだねx13</t>
+  </si>
+  <si>
+    <t>14157 B</t>
+  </si>
+  <si>
+    <t>    1583428949846.png-(29298 B)</t>
+  </si>
+  <si>
+    <t>過去スレでの生還草食ちゃんネタに触発されて手描き</t>
+  </si>
+  <si>
+    <t>生還したものの複製機フロア前で行き倒れ寸前だったのを助けたのは後の草食ちゃんの師になるソロ探索中のガチ勢おじさん</t>
+  </si>
+  <si>
+    <t>最初は行きがかり上助けただけで弟子にするつもりはなかったのだがどこに拠点移動してもいつのまにか食事作って待ってたりするので仕方なく自分の技術を教えることにとかいうベタな妄想</t>
+  </si>
+  <si>
+    <t>129無念Nameとしあき20/03/06(金)02:22:29No.713972510そうだねx30</t>
+  </si>
+  <si>
+    <t>29298 B</t>
+  </si>
+  <si>
+    <t>    1583507521744.png-(15134 B)</t>
+  </si>
+  <si>
+    <t>&gt;みんみを語ってはならない。</t>
+  </si>
+  <si>
+    <t>&gt;みんみを描いてはならない。</t>
+  </si>
+  <si>
+    <t>&gt;みんみを書いてはならない。</t>
+  </si>
+  <si>
+    <t>&gt;みんみを彫ってはならない。</t>
+  </si>
+  <si>
+    <t>&gt;みんみを歌ってはならない。</t>
+  </si>
+  <si>
+    <t>&gt;みんみの名を呼んではならない。</t>
+  </si>
+  <si>
+    <t>454無念Nameとしあき20/03/07(土)00:12:01No.714205514そうだねx6</t>
+  </si>
+  <si>
+    <t>15134 B</t>
+  </si>
+  <si>
+    <t>    1583566695257.png-(36051 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私メリーさん</t>
+  </si>
+  <si>
+    <t>溶接こじあけてメリーさん先行試作量産型を一気に建造してみたら全部バグっちゃったみたい…</t>
+  </si>
+  <si>
+    <t>今頃はバグった方の私がそっちにいると思うの</t>
+  </si>
+  <si>
+    <t>暴走しない量産型エバーって優秀だったのね！</t>
+  </si>
+  <si>
+    <t>複製の扉は溶接し直しといたわ</t>
+  </si>
+  <si>
+    <t>359無念Nameとしあき20/03/07(土)16:38:15No.714361840そうだねx6</t>
+  </si>
+  <si>
+    <t>36051 B</t>
+  </si>
+  <si>
+    <t>    1583579680585.png-(504732 B)</t>
+  </si>
+  <si>
+    <t>鏡像と目を合わせると入れ替わるやつ</t>
+  </si>
+  <si>
+    <t>41無念Nameとしあき20/03/07(土)20:14:40No.714425867そうだねx14</t>
+  </si>
+  <si>
+    <t>504732 B</t>
+  </si>
+  <si>
+    <t>    1583587587803.png-(25408 B)</t>
+  </si>
+  <si>
+    <t>前スレのエレベータアプリで水中の草食ちゃんとケルピーの話題がちょこっと出たのでフレンズ化</t>
+  </si>
+  <si>
+    <t>（草食ちゃんに酷似しているが捕食の為の擬態で顔面も本物ではなく上あご部分の模様である）という脳内設定</t>
+  </si>
+  <si>
+    <t>・・・しかし地下ラッコといい水中モノしか描いてないな俺</t>
+  </si>
+  <si>
+    <t>61無念Nameとしあき20/03/07(土)22:26:27No.714473799そうだねx14</t>
+  </si>
+  <si>
+    <t>25408 B</t>
+  </si>
+  <si>
+    <t>    1583603337419.png-(24476 B)</t>
+  </si>
+  <si>
+    <t>&gt;踏んづけてしまってカードくらい薄くなったゴキブリシートの粘着部分を投入するのだ</t>
+  </si>
+  <si>
+    <t>500無念Nameとしあき20/03/08(日)02:48:57No.714544662そうだねx8</t>
+  </si>
+  <si>
+    <t>24476 B</t>
+  </si>
+  <si>
+    <t>    1583650543742.png-(65744 B)</t>
+  </si>
+  <si>
+    <t>もしもし？！私メリーさん！？</t>
+  </si>
+  <si>
+    <t>ここ！安全地帯！実際安全！安全安全安全！もっと安全する！高品質タノシイ！</t>
+  </si>
+  <si>
+    <t>としあき遊びましょ！82Hブロッサム！ロリコンですものね！</t>
+  </si>
+  <si>
+    <t>トイズドライブもスクールスタードリームもあるの！正常動作する魔法少女まどかまぎかオンラインも！ロイヤルフラッシュヒーローズも遊べるのよ！</t>
+  </si>
+  <si>
+    <t>サ終？存じ上げませんわ！だって今ここで遊べるもの！ごはんにしましょう！</t>
+  </si>
+  <si>
+    <t>パイも焼き上がりましたの！紅茶のご用意！先生に寄生するのは私が一番ノリですわよね！！</t>
+  </si>
+  <si>
+    <t>172無念Nameとしあき20/03/08(日)15:55:43No.714689380そうだねx10</t>
+  </si>
+  <si>
+    <t>65744 B</t>
+  </si>
+  <si>
+    <t>延々何かが落ちてくる</t>
+  </si>
+  <si>
+    <t>204無念Nameとしあき20/03/08(日)16:07:48No.714692829そうだねx8</t>
+  </si>
+  <si>
+    <t>    1583651268576.png-(10891 B)</t>
+  </si>
+  <si>
+    <t>10891 B</t>
+  </si>
+  <si>
+    <t>    1583651373712.png-(44030 B)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;「ｳﾏﾚﾀｸﾅｲ……ｳﾏﾚﾀｸﾅｲ……」と呟く不定形の肉塊が天井からたびたび産み落とされるフロア</t>
+  </si>
+  <si>
+    <t>&gt;&gt;産み落とされた瞬間に「ﾄﾞｳ</t>
+  </si>
+  <si>
+    <t>209無念Nameとしあき20/03/08(日)16:09:33No.714693314そうだねx11</t>
+  </si>
+  <si>
+    <t>44030 B</t>
+  </si>
+  <si>
+    <t>    1583658560774.png-(39779 B)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;イカだなんて認めないのだ</t>
+  </si>
+  <si>
+    <t>&gt;イカの怪異だとすると飛び道具を持っているんだな？（当たると弾ける精子</t>
+  </si>
+  <si>
+    <t>35無念Nameとしあき20/03/08(日)18:09:20No.714728113そうだねx10</t>
+  </si>
+  <si>
+    <t>39779 B</t>
+  </si>
+  <si>
+    <t>    1583695878576.png-(10332 B)</t>
+  </si>
+  <si>
+    <t>大体そんな感じなのだ</t>
+  </si>
+  <si>
+    <t>さらに記憶統合の一番の問題は「怪異を殺した」個体と「仲間を助けた」個体の統合なのだ</t>
+  </si>
+  <si>
+    <t>この場合は「怪異を助けた」もしくは「仲間を殺した」というどちらかの記憶を持つ個体になるのだ</t>
+  </si>
+  <si>
+    <t>ありえない記憶だと理解できても記憶の方に人格が引っ張られて行けば</t>
+  </si>
+  <si>
+    <t>そのまま仲間を殺し怪異を助けるシリアルキラー化するのだ</t>
+  </si>
+  <si>
+    <t>他にも「シリアルを食べた」個体と「カレーを食べた」個体を統合すると「シリアルカレーを食べた」になるのだ</t>
+  </si>
+  <si>
+    <t>これが言いたかっただけなのだごめんなのだ</t>
+  </si>
+  <si>
+    <t>823無念Nameとしあき20/03/09(月)04:31:18No.714904161そうだねx5</t>
+  </si>
+  <si>
+    <t>10332 B</t>
+  </si>
+  <si>
+    <t>    1583767750381.jpg-(276404 B)</t>
+  </si>
+  <si>
+    <t>温泉銭湯スパ無視してサウナ描いてみた</t>
+  </si>
+  <si>
+    <t>葉っぱは常に新品が用意されます</t>
+  </si>
+  <si>
+    <t>使用済みの葉っぱは処分されます</t>
+  </si>
+  <si>
+    <t>409無念Nameとしあき20/03/10(火)00:29:10No.715141721そうだねx14</t>
+  </si>
+  <si>
+    <t>276404 B</t>
+  </si>
+  <si>
+    <t>    1583828512764.png-(31226 B)</t>
+  </si>
+  <si>
+    <t>平和なアラマンに親切なお医者様がやって来ました</t>
+  </si>
+  <si>
+    <t>272無念Nameとしあき20/03/10(火)17:21:52No.715275713そうだねx9</t>
+  </si>
+  <si>
+    <t>31226 B</t>
+  </si>
+  <si>
+    <t>    1583839082440.png-(19795 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私メリ井戸さん</t>
+  </si>
+  <si>
+    <t>名探偵よ！このマンションの謎を解きに来たの！</t>
+  </si>
+  <si>
+    <t>階層表示が見づらくいし落書きもあるし変なエレベーターね</t>
+  </si>
+  <si>
+    <t>ここって治安悪いのかしら？美少女には不釣り合いよねー</t>
+  </si>
+  <si>
+    <t>えーと…この操作でダイナーに到着して…そこでとしあきに会えるはずね</t>
+  </si>
+  <si>
+    <t>&lt;&lt;メリ井戸、死亡！&gt;&gt;</t>
+  </si>
+  <si>
+    <t>&lt;&lt;排出！状態を確認後再投入&gt;&gt;</t>
+  </si>
+  <si>
+    <t>246無念Nameとしあき20/03/10(火)20:18:02No.715321148そうだねx15</t>
+  </si>
+  <si>
+    <t>19795 B</t>
+  </si>
+  <si>
+    <t>    1583843829417.png-(19786 B)</t>
+  </si>
+  <si>
+    <t>前スレで言われてた音を立てない美術館はカラー化してないけどこれなのだ</t>
+  </si>
+  <si>
+    <t>一応ガイドさんからお静かに願いますとかそんな感じで注意される階のつもりなのだ</t>
+  </si>
+  <si>
+    <t>13無念Nameとしあき20/03/10(火)21:37:09No.715348136そうだねx8</t>
+  </si>
+  <si>
+    <t>19786 B</t>
+  </si>
+  <si>
+    <t>    1583846603999.png-(43594 B)</t>
+  </si>
+  <si>
+    <t>怪異：プロボトル</t>
+  </si>
+  <si>
+    <t>141無念Nameとしあき20/03/10(火)22:23:23No.715365075そうだねx19</t>
+  </si>
+  <si>
+    <t>43594 B</t>
+  </si>
+  <si>
+    <t>    1583898326345.png-(5928 B)</t>
+  </si>
+  <si>
+    <t>&gt;俺の言いたいことは小人視点の話なのだ！</t>
+  </si>
+  <si>
+    <t>マンションには小さな住人も居ます</t>
+  </si>
+  <si>
+    <t>体長は２～５ｃｍ</t>
+  </si>
+  <si>
+    <t>顔はサーバルになんか似ていて黒い目と黒い服を着ています</t>
+  </si>
+  <si>
+    <t>「み」と「ん」の発音と踊りでコミュニケーションをします</t>
+  </si>
+  <si>
+    <t>安全な場所に巣をつくる習性があります</t>
+  </si>
+  <si>
+    <t>美味しいものと綺麗な布が好きです</t>
+  </si>
+  <si>
+    <t>251無念Nameとしあき20/03/11(水)12:45:26No.715485640そうだねx12</t>
+  </si>
+  <si>
+    <t>5928 B</t>
+  </si>
+  <si>
+    <t>    1583967804943.png-(16170 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私G-3メリーさん</t>
+  </si>
+  <si>
+    <t>愛されずに捨てられた人形とプラモの数が残機扱いよ</t>
+  </si>
+  <si>
+    <t>だから実質無限在庫だし描き手の数だけバリエーションも増えるの</t>
+  </si>
+  <si>
+    <t>燃え尽きるまでが早すぎるって祭壇に舌打ちされたわ</t>
+  </si>
+  <si>
+    <t>46無念Nameとしあき20/03/12(木)08:03:24No.715705561そうだねx11</t>
+  </si>
+  <si>
+    <t>16170 B</t>
+  </si>
+  <si>
+    <t>    1584011099907.png-(44452 B)</t>
+  </si>
+  <si>
+    <t>……どんなものでも帰る家があるってのはいいものなのだ…わかるか？</t>
+  </si>
+  <si>
+    <t>この塵溜めには踏み潰された汚穢しか残っちゃいない</t>
+  </si>
+  <si>
+    <t>良く言や糞だ……</t>
+  </si>
+  <si>
+    <t>しかし…そんな糞の中にこそヤバいモノがある…</t>
+  </si>
+  <si>
+    <t>ソイツらを積ませて…磨き方を知りつくしたのが…</t>
+  </si>
+  <si>
+    <t>この『アライさん』なのだよ</t>
+  </si>
+  <si>
+    <t>どんなものでも“ウマいモノ”なら</t>
+  </si>
+  <si>
+    <t>洗って使えるようにしてやる</t>
+  </si>
+  <si>
+    <t>持ってくるのだ</t>
+  </si>
+  <si>
+    <t>この洗浄屋のアライさんの下にな…</t>
+  </si>
+  <si>
+    <t>みたいな感じなのだ！自分には帰るべき場所が無いと悟った複製アライさんのダークな姿とかなのだ！</t>
+  </si>
+  <si>
+    <t>153無念Nameとしあき20/03/12(木)20:04:59No.715838009そうだねx12</t>
+  </si>
+  <si>
+    <t>44452 B</t>
+  </si>
+  <si>
+    <t>    1584083943533.png-(24912 B)</t>
+  </si>
+  <si>
+    <t>フレンズは人間を遥かに上回るスペックを持つ故に銃火器が無くとも接近戦用のバールや斧さえあれば大抵の物理有効相手は切り抜けられるのだ</t>
+  </si>
+  <si>
+    <t>でもアライさんは硝煙の匂いをこよなく愛してるから銃を多用するのだ</t>
+  </si>
+  <si>
+    <t>353無念Nameとしあき20/03/13(金)16:19:03No.716054912+</t>
+  </si>
+  <si>
+    <t>24912 B</t>
+  </si>
+  <si>
+    <t>    1584202161435.png-(188242 B)</t>
+  </si>
+  <si>
+    <t>クラーケン漁をするサメのフレンズ描いたのだ</t>
+  </si>
+  <si>
+    <t>漁と言っても知恵と巨体を持つクラーケンはまともに相手できないのだ</t>
+  </si>
+  <si>
+    <t>サメぢからに物を言わせて突撃しつつ肉片を齧り取ってくるだけなのだ</t>
+  </si>
+  <si>
+    <t>もちろんたまにうまく行かずに死んだりするけど倫理観が欠けてるので複製機使う事は躊躇わないのだ</t>
+  </si>
+  <si>
+    <t>地下ラッコちゃんお借りしたのだ</t>
+  </si>
+  <si>
+    <t>多分クラーケンはクソまずいのでラッコちゃんには普通のイカを渡して物々交換したりするのだ</t>
+  </si>
+  <si>
+    <t>329無念Nameとしあき20/03/15(日)01:09:21No.716533680そうだねx13</t>
+  </si>
+  <si>
+    <t>188242 B</t>
+  </si>
+  <si>
+    <t>    1584205814751.png-(14935 B)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;無言のエレベーターガールって言葉だけで...こう...勃起しちゃいましてね...</t>
+  </si>
+  <si>
+    <t>&gt;口が無い</t>
+  </si>
+  <si>
+    <t>良い子の諸君！</t>
+  </si>
+  <si>
+    <t>死人に口なしとは言うが検死からわかることは多いぞ！</t>
+  </si>
+  <si>
+    <t>殺人は常にリスクが勝ると思いたまえ！</t>
+  </si>
+  <si>
+    <t>55無念Nameとしあき20/03/15(日)02:10:14No.716546331そうだねx15</t>
+  </si>
+  <si>
+    <t>14935 B</t>
+  </si>
+  <si>
+    <t>    1584278678221.png-(26480 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私メリーさん仮設５号機</t>
+  </si>
+  <si>
+    <t>今としあきの部屋を監視してるの</t>
+  </si>
+  <si>
+    <t>無茶苦茶に騒いだり不規則に跳び回り走り回る緊急脱出は包囲されかけたり襲撃されたりした場合にも有効よ</t>
+  </si>
+  <si>
+    <t>そういう強硬手段を取る相手は些細な負傷で裁判を起こして自己正当化に持ち込む可能性もあるしね</t>
+  </si>
+  <si>
+    <t>それよりあんたの部屋にあった乙女服のカタログだけど自分で着るわけじゃないのよね？</t>
+  </si>
+  <si>
+    <t>オオカワが勝手に読んであんたのカードで取り寄せてたわよ</t>
+  </si>
+  <si>
+    <t>今試着してるとこ…これもう渾名は「大可愛」で確定ね&lt;&lt;ﾊﾊﾊﾊﾊﾊﾊ！&gt;&gt;は？ちょっとなにすんのよあｎ&lt;&lt;ハハハハハハハハ！！&gt;&gt;</t>
+  </si>
+  <si>
+    <t>☆ガチャン☆</t>
+  </si>
+  <si>
+    <t>171無念Nameとしあき20/03/15(日)22:24:38No.716812044そうだねx13</t>
+  </si>
+  <si>
+    <t>26480 B</t>
+  </si>
+  <si>
+    <t>    1584294545143.png-(34154 B)</t>
+  </si>
+  <si>
+    <t>・資源ごみ</t>
+  </si>
+  <si>
+    <t>・可燃ごみ</t>
+  </si>
+  <si>
+    <t>・落とし物/忘れ物</t>
+  </si>
+  <si>
+    <t>・あなたの物</t>
+  </si>
+  <si>
+    <t>・わたしの物</t>
+  </si>
+  <si>
+    <t>・かけがいのないもの</t>
+  </si>
+  <si>
+    <t>・取り返しのつかないもの</t>
+  </si>
+  <si>
+    <t>・こどもの肺臓</t>
+  </si>
+  <si>
+    <t>・貴重品</t>
+  </si>
+  <si>
+    <t>・粗大ごみは粗大ごみ受付センターにてお申し込みをしてください</t>
+  </si>
+  <si>
+    <t>等と表示がある</t>
+  </si>
+  <si>
+    <t>手を差し入れれば必ずその通りのものが見つかるだろう</t>
+  </si>
+  <si>
+    <t>ただしそれらは糞土と共に踏み砕かれた汚泥であり二度と戻らない</t>
+  </si>
+  <si>
+    <t>っていうのをいつかちゃんと描きたいって思ってるのだそう思うだけなのだ</t>
+  </si>
+  <si>
+    <t>506無念Nameとしあき20/03/16(月)02:49:05No.716880523そうだねx13</t>
+  </si>
+  <si>
+    <t>34154 B</t>
+  </si>
+  <si>
+    <t>    1584335113168.png-(21124 B)</t>
+  </si>
+  <si>
+    <t>カレーの神を連</t>
+  </si>
+  <si>
+    <t>94無念Nameとしあき20/03/16(月)14:05:13No.716952307そうだねx12</t>
+  </si>
+  <si>
+    <t>21124 B</t>
+  </si>
+  <si>
+    <t>    1584336700298.png-(5045 B)</t>
+  </si>
+  <si>
+    <t>肩が真っ赤っかだけどみんみあじのある曲といえば</t>
+  </si>
+  <si>
+    <t>個人的にはたまの曲にゃ</t>
+  </si>
+  <si>
+    <t>MVの女の子もみんみあじだし歌詞の「物理の成績の悪い子たちが空中を歩き回る時間」とか</t>
+  </si>
+  <si>
+    <t>「生まれつき身体の無い子どもたち」っていうのもマンションあじするにゃ</t>
+  </si>
+  <si>
+    <t>https://youtube.com/watch?v=BYfu-ErF8xY</t>
+  </si>
+  <si>
+    <t>135無念Nameとしあき20/03/16(月)14:31:40No.716956644そうだねx5</t>
+  </si>
+  <si>
+    <t>5045 B</t>
+  </si>
+  <si>
+    <t>    1584435738758.png-(6102 B)</t>
+  </si>
+  <si>
+    <t>細い通路</t>
+  </si>
+  <si>
+    <t>ボイラー室へつながってる通路</t>
+  </si>
+  <si>
+    <t>小窓しかなく薄暗いうえ電灯も頼りない光しか出ない</t>
+  </si>
+  <si>
+    <t>時々どんぐりや木の実が落ちている</t>
+  </si>
+  <si>
+    <t>ここで会話をすると何かが返事をする</t>
+  </si>
+  <si>
+    <t>時々その声が家までついてくることもあるようだ</t>
+  </si>
+  <si>
+    <t>231無念Nameとしあき20/03/17(火)18:02:18No.717250376そうだねx10</t>
+  </si>
+  <si>
+    <t>6102 B</t>
+  </si>
+  <si>
+    <t>    1584458888849.png-(35633 B)</t>
+  </si>
+  <si>
+    <t>今夜の戦訓</t>
+  </si>
+  <si>
+    <t>認識防御！</t>
+  </si>
+  <si>
+    <t>認識防御！！</t>
+  </si>
+  <si>
+    <t>169無念Nameとしあき20/03/18(水)00:28:08No.717369301そうだねx6</t>
+  </si>
+  <si>
+    <t>    1584512384175.png-(26618 B)</t>
+  </si>
+  <si>
+    <t>マンション独自の生態系が出来上がってて欲しいのだ！</t>
+  </si>
+  <si>
+    <t>消化器の巣があって</t>
+  </si>
+  <si>
+    <t>成虫になると大まかに二本足と腕のある人間型になって</t>
+  </si>
+  <si>
+    <t>エレベーターで別の階に移動するとかなのだ！</t>
+  </si>
+  <si>
+    <t>古い消化器は妊娠すると膨らんで割れるまえに巣に戻るのだ</t>
+  </si>
+  <si>
+    <t>エレベーター付属の純正エレベーターガール以外にもエレベーターガールモドキが生える階とかでもいいのだ！</t>
+  </si>
+  <si>
+    <t>173無念Nameとしあき20/03/18(水)15:19:44No.717474548そうだねx3</t>
+  </si>
+  <si>
+    <t>26618 B</t>
+  </si>
+  <si>
+    <t>    1584529115292.png-(13320 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私メリーさ…</t>
+  </si>
+  <si>
+    <t>え…？はぁ！？コンバット越前の声のヒトが活動を休止？！</t>
+  </si>
+  <si>
+    <t>なによそれ！別に困らないけどなんか寂しい気分になるじゃないの！</t>
+  </si>
+  <si>
+    <t>ヒトってもっと永続性を持つべきでしょ！？呪う相手が勝手にに他界して泣いてる呪いの人形だっているのよ！？</t>
+  </si>
+  <si>
+    <t>もういいわディスガイアの生放送見るから！</t>
+  </si>
+  <si>
+    <t>204無念Nameとしあき20/03/18(水)19:58:35No.717538287そうだねx10</t>
+  </si>
+  <si>
+    <t>13320 B</t>
+  </si>
+  <si>
+    <t>    1584617979163.png-(39556 B)</t>
+  </si>
+  <si>
+    <t>&gt;No.717821615</t>
+  </si>
+  <si>
+    <t>『執行モード：デストロイ・デコンポーザー』</t>
+  </si>
+  <si>
+    <t>なんで前スレ終わり際の手描きが即活きる様な事になるのだ？</t>
+  </si>
+  <si>
+    <t>25無念Nameとしあき20/03/19(木)20:39:39No.717824144そうだねx6</t>
+  </si>
+  <si>
+    <t>39556 B</t>
+  </si>
+  <si>
+    <t>    1584623950053.png-(10892 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私戦慄のメリーさん</t>
+  </si>
+  <si>
+    <t>背骨☆ブレードで思い出したけど廃墟ネタとか怪異の雰囲気が気になるなら「感染×少女」のメインシナリオがいいわね</t>
+  </si>
+  <si>
+    <t>人命がとにかく安いけどぶっちゃけ推しキャラが死んでも季節イベントに行けば蘇生してるし気まぐれにifルート追加されるし今だけ全クエスト消費体力ゼロだし…</t>
+  </si>
+  <si>
+    <t>毛皮の装飾とか中２病ちほーを研究したいならゴ魔乙とかロマサガとか…まあそれ以外でも神話系のキーワードをPlayかappに突っ込めば大体なんか良い感じのが出るでしょ</t>
+  </si>
+  <si>
+    <t>死に戻り評論家ならBAROQUE(歪んだ妄想)とか不思議のダンジョン系列ね</t>
+  </si>
+  <si>
+    <t>今期アニメならID:INVADEDもいいと思うわ</t>
+  </si>
+  <si>
+    <t>ジャンルはミステリなのにナンデ？って？見りゃわかるわよ</t>
+  </si>
+  <si>
+    <t>232無念Nameとしあき20/03/19(木)22:19:10No.717860014そうだねx11</t>
+  </si>
+  <si>
+    <t>10892 B</t>
+  </si>
+  <si>
+    <t>    1584626468922.jpg-(392687 B)</t>
+  </si>
+  <si>
+    <t>&gt;誰か高菜ラーメンを出してるフレンズのイラスト持ってない？</t>
+  </si>
+  <si>
+    <t>&gt;出来ればそのフレンズがなんの動物かも教えていただけると嬉しいんだけど……</t>
+  </si>
+  <si>
+    <t>多分タスマニアデビルなのだ</t>
+  </si>
+  <si>
+    <t>24無念Nameとしあき20/03/19(木)23:01:08No.717874890+</t>
+  </si>
+  <si>
+    <t>392687 B</t>
+  </si>
+  <si>
+    <t>    1584629758588.png-(43982 B)</t>
+  </si>
+  <si>
+    <t>もしもし？あぁ　良かった　そこに居らっしゃるのですね</t>
+  </si>
+  <si>
+    <t>私　一時的に『メリーさん役』を拝命した者なのですが</t>
+  </si>
+  <si>
+    <t>…いえいえ　私はただあなたの『後ろ』の概念座標が欲しかったのです</t>
+  </si>
+  <si>
+    <t>『そこ』に立つのは私ではない…そうでしょう？</t>
+  </si>
+  <si>
+    <t>では　あなたに幸運がありますように</t>
+  </si>
+  <si>
+    <t>149無念Nameとしあき20/03/19(木)23:55:58No.717892980そうだねx10</t>
+  </si>
+  <si>
+    <t>43982 B</t>
+  </si>
+  <si>
+    <t>    1584684324471.png-(298990 B)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;&gt;昨日もビッグオー談義で盛り上がってたのだ</t>
+  </si>
+  <si>
+    <t>&gt;とてもよいアニメだけど</t>
+  </si>
+  <si>
+    <t>&gt;まあこれに関してはそりゃ怒られるよな</t>
+  </si>
+  <si>
+    <t>そして現れたビッグオーのフレンズ</t>
+  </si>
+  <si>
+    <t>昨日はオリジナルのフレンズが沢山現れたのだ</t>
+  </si>
+  <si>
+    <t>122無念Nameとしあき20/03/20(金)15:05:24No.718034572そうだねx6</t>
+  </si>
+  <si>
+    <t>298990 B</t>
+  </si>
+  <si>
+    <t>    1584719097780.png-(18945 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私メリヰさん</t>
+  </si>
+  <si>
+    <t>マリオノールゴーレムって知ってる？</t>
+  </si>
+  <si>
+    <t>ゴーレム精霊駆動に関する理論や秘術知識を習得できるゴーレム制御のマスターキーであり魔導書</t>
+  </si>
+  <si>
+    <t>この本から獲得した知識を適切に処置しないまま日常生活を続けたり未封印の断章を所持するとヤバい奴に狙われるって評判なの</t>
+  </si>
+  <si>
+    <t>たとえそれが転写精度を限界まで落として安定化を施したマンガ本の１冊でもね</t>
+  </si>
+  <si>
+    <t>実物は喪失したとされているけど…手に入ればこのマンションで役に立つかもしれないわ</t>
+  </si>
+  <si>
+    <t>ブラウザの操作中にホーム画面まで戻されたり入力中の文章やイラストが突然消えたりする現象にもこの魔導書が関係してる場合もあるとか…</t>
+  </si>
+  <si>
+    <t>今　あなたの本棚にいるの</t>
+  </si>
+  <si>
+    <t>462無念Nameとしあき20/03/21(土)00:44:57No.718218674そうだねx5</t>
+  </si>
+  <si>
+    <t>18945 B</t>
+  </si>
+  <si>
+    <t>    1584783424057.png-(22328 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私メリーさんD-66</t>
+  </si>
+  <si>
+    <t>また美少女動物園に行ってきたのね？鼻の下が伸びきったうどんみたいになってるからすぐわかるわ</t>
+  </si>
+  <si>
+    <t>気分転換してきっちり警戒しとかないと異界送りにされるわよ？Avalonでも見ときなさいよ</t>
+  </si>
+  <si>
+    <t>ロシアと廃墟とバグ技に詳しくなった気分を得られるしテレビとかでたまに聞こえるｱﾊﾞﾛｱﾊﾞﾛ言ってる壮大な感じのBGMはここで使われてたやつなの</t>
+  </si>
+  <si>
+    <t>ただ無駄に眠くなる怪異が瞬間的に発生する副作用が…</t>
+  </si>
+  <si>
+    <t>あー手遅れか…</t>
+  </si>
+  <si>
+    <t>292無念Nameとしあき20/03/21(土)18:37:04No.718421230そうだねx3</t>
+  </si>
+  <si>
+    <t>22328 B</t>
+  </si>
+  <si>
+    <t>    1584791640306.png-(17696 B)</t>
+  </si>
+  <si>
+    <t>もしもし？今誰かがカンタータ・オルビスの話をしたでしょ？</t>
+  </si>
+  <si>
+    <t>あれはマ=クベどころかキシリア閣下でも無条件でいいものと認めるに違いないわ</t>
+  </si>
+  <si>
+    <t>歌詞を翻訳すると生命・死・輪・救世主って意味合いになるそうよ</t>
+  </si>
+  <si>
+    <t>…ところで</t>
+  </si>
+  <si>
+    <t>いらないと思うけど「ギョ」いる？怖さと気持ち悪さと理不尽展開で脱落者が多かった割にアニメ化されてたらしいの</t>
+  </si>
+  <si>
+    <t>え？ああそうそう私メリーさん</t>
+  </si>
+  <si>
+    <t>278無念Nameとしあき20/03/21(土)20:54:00No.718468033そうだねx4</t>
+  </si>
+  <si>
+    <t>17696 B</t>
+  </si>
+  <si>
+    <t>    1584808091494.png-(17556 B)</t>
+  </si>
+  <si>
+    <t>&gt;&gt;核って少しずつ反応させたら暖房に使えそうなのだ</t>
+  </si>
+  <si>
+    <t>&gt;原発は制御棒を出し入れして核反応をコントロールしてるのだ</t>
+  </si>
+  <si>
+    <t>392臨界Nameとしあき20/03/22(日)01:28:11No.718567432そうだねx10</t>
+  </si>
+  <si>
+    <t>17556 B</t>
+  </si>
+  <si>
+    <t>    1585590982891.png-(13743 B)</t>
+  </si>
+  <si>
+    <t>&gt;オオカワウソちゃんは探索で生計たててるんだよね</t>
+  </si>
+  <si>
+    <t>&gt;追放されたとなるとアライさんみたいにバイトして生計たててる娘もいるということか</t>
+  </si>
+  <si>
+    <t>選ばなければマンション内にも仕事はあるのかもしれないのだ</t>
+  </si>
+  <si>
+    <t>でもなんとか食べれるものが定期的に出現する階と眠る事が出来る階を見つけて</t>
+  </si>
+  <si>
+    <t>かろうじて生きてるようなはぐれカワウソも見てみたいのだ</t>
+  </si>
+  <si>
+    <t>182無念Nameとしあき20/03/31(火)02:56:22No.721252153そうだねx3</t>
+  </si>
+  <si>
+    <t>13743 B</t>
+  </si>
+  <si>
+    <t>    1584863702778.png-(449664 B)</t>
+  </si>
+  <si>
+    <t>まとめで漏れてしまったけどサラブレッドのフレンズと新しい怪異についてちょっと怖い力作とかあったのだ！</t>
+  </si>
+  <si>
+    <t>電話の怪異の性質についてもとしあきが色々な案を出し合ってて盛り上がったのだ</t>
+  </si>
+  <si>
+    <t>11無念Nameとしあき20/03/22(日)16:55:02No.718747760そうだねx4</t>
+  </si>
+  <si>
+    <t>449664 B</t>
+  </si>
+  <si>
+    <t>    1584867401538.png-(26004 B)</t>
+  </si>
+  <si>
+    <t>&gt;怪異ウソの背中エレベーターはどの程度の使い勝手か気になるのだ</t>
+  </si>
+  <si>
+    <t>103無念Nameとしあき20/03/22(日)17:56:41No.718765012そうだねx15</t>
+  </si>
+  <si>
+    <t>26004 B</t>
+  </si>
+  <si>
+    <t>    1585092862315.jpg-(118297 B)</t>
+  </si>
+  <si>
+    <t>そういえば超兄貴でイダテンは「ビルドアーップ！」だけどベンテンは「パワーアップ♪」だったなぁ・・・</t>
+  </si>
+  <si>
+    <t>治らなかったらどうしよう</t>
+  </si>
+  <si>
+    <t>97無念Nameとしあき20/03/25(水)08:34:22No.719515343そうだねx15</t>
+  </si>
+  <si>
+    <t>118297 B</t>
+  </si>
+  <si>
+    <t>    1585121687861.png-(22371 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私Ｖダッシュメリーさ…ああその話ね</t>
+  </si>
+  <si>
+    <t>確かにアマビエ・アマビコ・件にはいくつかの共通点があるわ</t>
+  </si>
+  <si>
+    <t>頭髪を有する人頭と異型の胴を持ちヒト語を巧みに理解し予言で災厄の到来や対策法を告げる</t>
+  </si>
+  <si>
+    <t>出現時期に近しい人類の生活様式を詳細に把握していて民間人に実行可能な単位の対策を要求する</t>
+  </si>
+  <si>
+    <t>短時間で消失するか死亡し同地点に再出現しない</t>
+  </si>
+  <si>
+    <t>写し絵図を作成もしくは所持する事で厄除け祈願効果を起こす…</t>
+  </si>
+  <si>
+    <t>件については保存に成功したとされる遺骸が全件ロストしてるから写し絵図ルール内には剥製技術に対する罰則規定トラップが含まれるかもしれないわね</t>
+  </si>
+  <si>
+    <t>今回は実態を持った状態での出現が捕捉されていない事や容姿に加工が施されるって要素が加わってこれまでとは全く違うの</t>
+  </si>
+  <si>
+    <t>間違った踏み込み方をするとヤバいかも…</t>
+  </si>
+  <si>
+    <t>386無念Nameとしあき20/03/25(水)16:34:47No.719592641そうだねx6</t>
+  </si>
+  <si>
+    <t>22371 B</t>
+  </si>
+  <si>
+    <t>    1585193217232.jpg-(342089 B)</t>
+  </si>
+  <si>
+    <t>解説：ジャングルちほー階のキノコマン</t>
+  </si>
+  <si>
+    <t>実はめっちゃ頭いいので交渉すればキノコは普通に持って行っていいのだ</t>
+  </si>
+  <si>
+    <t>問答無用で髪の毛を毟られればキレるのも無理はないのだ</t>
+  </si>
+  <si>
+    <t>ここはおそらく宇宙人が親切で設営した有機体用自然施設なのだ</t>
+  </si>
+  <si>
+    <t>&gt;もっと暴力的にごしゃっとやられると思ってたのだ</t>
+  </si>
+  <si>
+    <t>めっちゃ動けるイメージではあるのだ</t>
+  </si>
+  <si>
+    <t>それはそれとしてアクションさせるとうっすら怖い感じが薄れる気がしたので即堕ち3コマなのだ</t>
+  </si>
+  <si>
+    <t>271無念Nameとしあき20/03/26(木)12:26:57No.719816096そうだねx5</t>
+  </si>
+  <si>
+    <t>342089 B</t>
+  </si>
+  <si>
+    <t>    1585228451857.png-(13055 B)</t>
+  </si>
+  <si>
+    <t>もしもし？私イスマス城主ルドルフの娘でバルハル族のメリーさん</t>
+  </si>
+  <si>
+    <t>ロマンシングサガの初代って古い攻略本だと敵の設定がかなり怖いの</t>
+  </si>
+  <si>
+    <t>爬虫類と悪魔は伝統的に邪神直属軍の残党だし</t>
+  </si>
+  <si>
+    <t>植物系は「植物に寄生されて自我を失った人間」とか「巨大化した食虫植物が人間を襲うようになった」下級モンスターでこれよ</t>
+  </si>
+  <si>
+    <t>海賊は半裸に刺突剣装備の消耗品扱いだし南エスタミルの強盗なんか誰から何を強盗するつもりなのよその装備！？</t>
+  </si>
+  <si>
+    <t>あとこの世界でのオークはリーダーによる統率と武器防具に対する理解があって最上位オークは術法も習得してるのよ</t>
+  </si>
+  <si>
+    <t>まあ人類側も全長２メートルの剣で３段斬りとか鉄剣を標的の体内でドリル回転させて死なすとかメリケンサックもどき装備しながらソニックブームとか頭おかしいわね…</t>
+  </si>
+  <si>
+    <t>意外とキノコ型モンスターがいないんだけど２と３で急増して猛威を振るうわ</t>
+  </si>
+  <si>
+    <t>胞子で陣形無視+全体攻撃+状態異常ってやりすぎよね？</t>
+  </si>
+  <si>
+    <t>ところで今【あけて】邪魔しないでよ！？今いいとこだったのに！</t>
+  </si>
+  <si>
+    <t>48無念Nameとしあき20/03/26(木)22:14:11No.719959110そうだねx13</t>
+  </si>
+  <si>
+    <t>13055 B</t>
+  </si>
+  <si>
+    <t>    1585458725862.png-(36474 B)</t>
+  </si>
+  <si>
+    <t>&gt;ヒトを恐怖させる怪物の条件は喋らない、正体不明、不死身なのだ</t>
+  </si>
+  <si>
+    <t>&gt;重力鳥くんには花丸をあげるのだ</t>
+  </si>
+  <si>
+    <t>237無念Nameとしあき20/03/29(日)14:12:05No.720759156そうだねx14</t>
+  </si>
+  <si>
+    <t>36474 B</t>
+  </si>
+  <si>
+    <t>メリーサンの冒険ベランダ</t>
+    <rPh sb="6" eb="8">
+      <t>ボウケン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>キセイチュウ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>名刺</t>
+    <rPh sb="0" eb="2">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
   </si>
 </sst>
 </file>
@@ -5297,68 +6463,6 @@
 </xdr:wsDr>
 </file>
 
-<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-  <xdr:twoCellAnchor editAs="oneCell">
-    <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>0</xdr:colOff>
-      <xdr:row>167</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>323850</xdr:colOff>
-      <xdr:row>172</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
-    </xdr:to>
-    <xdr:pic>
-      <xdr:nvPicPr>
-        <xdr:cNvPr id="3" name="図 2" descr="8438 B">
-          <a:hlinkClick xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1" tgtFrame="_blank"/>
-        </xdr:cNvPr>
-        <xdr:cNvPicPr>
-          <a:picLocks noChangeAspect="1" noChangeArrowheads="1"/>
-        </xdr:cNvPicPr>
-      </xdr:nvPicPr>
-      <xdr:blipFill>
-        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2">
-          <a:extLst>
-            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
-              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
-            </a:ext>
-          </a:extLst>
-        </a:blip>
-        <a:srcRect/>
-        <a:stretch>
-          <a:fillRect/>
-        </a:stretch>
-      </xdr:blipFill>
-      <xdr:spPr bwMode="auto">
-        <a:xfrm>
-          <a:off x="1914525" y="28632150"/>
-          <a:ext cx="2381250" cy="942975"/>
-        </a:xfrm>
-        <a:prstGeom prst="rect">
-          <a:avLst/>
-        </a:prstGeom>
-        <a:noFill/>
-        <a:extLst>
-          <a:ext uri="{909E8E84-426E-40DD-AFC4-6F175D3DCCD1}">
-            <a14:hiddenFill xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-              <a:solidFill>
-                <a:srgbClr val="FFFFFF"/>
-              </a:solidFill>
-            </a14:hiddenFill>
-          </a:ext>
-        </a:extLst>
-      </xdr:spPr>
-    </xdr:pic>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office テーマ">
   <a:themeElements>
@@ -6447,267 +7551,267 @@
     </row>
     <row r="47" spans="3:3">
       <c r="C47" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="48" spans="3:3">
       <c r="C48" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
     </row>
     <row r="49" spans="3:3">
       <c r="C49" t="s">
-        <v>640</v>
+        <v>637</v>
       </c>
     </row>
     <row r="51" spans="3:3">
       <c r="C51" t="s">
-        <v>637</v>
+        <v>634</v>
       </c>
     </row>
     <row r="52" spans="3:3">
       <c r="C52" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="55" spans="3:3">
       <c r="C55" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
     </row>
     <row r="56" spans="3:3">
       <c r="C56" t="s">
-        <v>641</v>
+        <v>638</v>
       </c>
     </row>
     <row r="57" spans="3:3">
       <c r="C57" t="s">
-        <v>645</v>
+        <v>642</v>
       </c>
     </row>
     <row r="59" spans="3:3">
       <c r="C59" t="s">
-        <v>642</v>
+        <v>639</v>
       </c>
     </row>
     <row r="60" spans="3:3">
       <c r="C60" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
     </row>
     <row r="63" spans="3:3">
       <c r="C63" t="s">
-        <v>659</v>
+        <v>656</v>
       </c>
     </row>
     <row r="65" spans="3:3">
       <c r="C65" t="s">
-        <v>646</v>
+        <v>643</v>
       </c>
     </row>
     <row r="66" spans="3:3">
       <c r="C66" t="s">
-        <v>647</v>
+        <v>644</v>
       </c>
     </row>
     <row r="67" spans="3:3">
       <c r="C67" t="s">
-        <v>648</v>
+        <v>645</v>
       </c>
     </row>
     <row r="68" spans="3:3">
       <c r="C68" t="s">
-        <v>649</v>
+        <v>646</v>
       </c>
     </row>
     <row r="69" spans="3:3">
       <c r="C69" t="s">
-        <v>650</v>
+        <v>647</v>
       </c>
     </row>
     <row r="70" spans="3:3">
       <c r="C70" t="s">
-        <v>651</v>
+        <v>648</v>
       </c>
     </row>
     <row r="71" spans="3:3">
       <c r="C71" t="s">
-        <v>652</v>
+        <v>649</v>
       </c>
     </row>
     <row r="72" spans="3:3">
       <c r="C72" t="s">
-        <v>653</v>
+        <v>650</v>
       </c>
     </row>
     <row r="73" spans="3:3">
       <c r="C73" t="s">
-        <v>654</v>
+        <v>651</v>
       </c>
     </row>
     <row r="74" spans="3:3">
       <c r="C74" t="s">
-        <v>655</v>
+        <v>652</v>
       </c>
     </row>
     <row r="75" spans="3:3">
       <c r="C75" t="s">
-        <v>656</v>
+        <v>653</v>
       </c>
     </row>
     <row r="76" spans="3:3">
       <c r="C76" t="s">
-        <v>657</v>
+        <v>654</v>
       </c>
     </row>
     <row r="77" spans="3:3">
       <c r="C77" t="s">
-        <v>658</v>
+        <v>655</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>671</v>
+        <v>668</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>660</v>
+        <v>657</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>661</v>
+        <v>658</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>662</v>
+        <v>659</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>663</v>
+        <v>660</v>
       </c>
     </row>
     <row r="85" spans="3:3">
       <c r="C85" t="s">
-        <v>664</v>
+        <v>661</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>665</v>
+        <v>662</v>
       </c>
     </row>
     <row r="87" spans="3:3">
       <c r="C87" t="s">
-        <v>666</v>
+        <v>663</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>667</v>
+        <v>664</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>668</v>
+        <v>665</v>
       </c>
     </row>
     <row r="90" spans="3:3">
       <c r="C90" t="s">
-        <v>669</v>
+        <v>666</v>
       </c>
     </row>
     <row r="91" spans="3:3">
       <c r="C91" t="s">
-        <v>670</v>
+        <v>667</v>
       </c>
     </row>
     <row r="93" spans="3:3">
       <c r="C93" t="s">
-        <v>672</v>
+        <v>669</v>
       </c>
     </row>
     <row r="94" spans="3:3">
       <c r="C94" t="s">
-        <v>673</v>
+        <v>670</v>
       </c>
     </row>
     <row r="95" spans="3:3">
       <c r="C95" t="s">
-        <v>674</v>
+        <v>671</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>675</v>
+        <v>672</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>676</v>
+        <v>673</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>677</v>
+        <v>674</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>678</v>
+        <v>675</v>
       </c>
     </row>
     <row r="101" spans="3:3">
       <c r="C101" t="s">
-        <v>679</v>
+        <v>676</v>
       </c>
     </row>
     <row r="102" spans="3:3">
       <c r="C102" t="s">
-        <v>680</v>
+        <v>677</v>
       </c>
     </row>
     <row r="103" spans="3:3">
       <c r="C103" t="s">
-        <v>681</v>
+        <v>678</v>
       </c>
     </row>
     <row r="104" spans="3:3">
       <c r="C104" t="s">
-        <v>682</v>
+        <v>679</v>
       </c>
     </row>
     <row r="105" spans="3:3">
       <c r="C105" t="s">
-        <v>683</v>
+        <v>680</v>
       </c>
     </row>
     <row r="106" spans="3:3">
       <c r="C106" t="s">
-        <v>684</v>
+        <v>681</v>
       </c>
     </row>
     <row r="107" spans="3:3">
       <c r="C107" t="s">
-        <v>685</v>
+        <v>682</v>
       </c>
     </row>
     <row r="108" spans="3:3">
       <c r="C108" t="s">
-        <v>686</v>
+        <v>683</v>
       </c>
     </row>
     <row r="110" spans="3:3">
       <c r="C110" s="15" t="s">
-        <v>687</v>
+        <v>684</v>
       </c>
     </row>
     <row r="111" spans="3:3">
       <c r="C111" s="15" t="s">
-        <v>688</v>
+        <v>685</v>
       </c>
     </row>
     <row r="112" spans="3:3" ht="22.5">
@@ -6730,7 +7834,7 @@
     </row>
     <row r="118" spans="3:4" ht="22.5">
       <c r="C118" s="16" t="s">
-        <v>689</v>
+        <v>686</v>
       </c>
     </row>
     <row r="119" spans="3:4">
@@ -6738,10 +7842,10 @@
     </row>
     <row r="120" spans="3:4" ht="40.5">
       <c r="C120" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D120" s="15" t="s">
-        <v>690</v>
+        <v>687</v>
       </c>
     </row>
     <row r="121" spans="3:4">
@@ -6751,7 +7855,7 @@
     <row r="122" spans="3:4" ht="22.5">
       <c r="C122" s="21"/>
       <c r="D122" s="13" t="s">
-        <v>691</v>
+        <v>688</v>
       </c>
     </row>
     <row r="123" spans="3:4">
@@ -6763,12 +7867,12 @@
     </row>
     <row r="127" spans="3:4">
       <c r="C127" s="15" t="s">
-        <v>692</v>
+        <v>689</v>
       </c>
     </row>
     <row r="128" spans="3:4">
       <c r="C128" s="15" t="s">
-        <v>693</v>
+        <v>690</v>
       </c>
     </row>
     <row r="129" spans="3:4" ht="22.5">
@@ -6791,37 +7895,37 @@
     </row>
     <row r="135" spans="3:4" ht="22.5">
       <c r="C135" s="13" t="s">
-        <v>694</v>
+        <v>691</v>
       </c>
     </row>
     <row r="136" spans="3:4" ht="45">
       <c r="C136" s="13" t="s">
-        <v>695</v>
+        <v>692</v>
       </c>
     </row>
     <row r="137" spans="3:4" ht="22.5">
       <c r="C137" s="13" t="s">
-        <v>696</v>
+        <v>693</v>
       </c>
     </row>
     <row r="138" spans="3:4" ht="22.5">
       <c r="C138" s="13" t="s">
-        <v>697</v>
+        <v>694</v>
       </c>
     </row>
     <row r="139" spans="3:4" ht="45">
       <c r="C139" s="13" t="s">
-        <v>698</v>
+        <v>695</v>
       </c>
     </row>
     <row r="140" spans="3:4" ht="45">
       <c r="C140" s="13" t="s">
-        <v>699</v>
+        <v>696</v>
       </c>
     </row>
     <row r="141" spans="3:4" ht="22.5">
       <c r="C141" s="13" t="s">
-        <v>700</v>
+        <v>697</v>
       </c>
     </row>
     <row r="142" spans="3:4">
@@ -6829,16 +7933,16 @@
     </row>
     <row r="144" spans="3:4" ht="40.5">
       <c r="C144" s="21" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D144" s="15" t="s">
-        <v>701</v>
+        <v>698</v>
       </c>
     </row>
     <row r="145" spans="3:4" ht="40.5">
       <c r="C145" s="21"/>
       <c r="D145" s="15" t="s">
-        <v>702</v>
+        <v>699</v>
       </c>
     </row>
     <row r="146" spans="3:4" ht="22.5">
@@ -6900,31 +8004,31 @@
     <row r="160" spans="3:4" ht="67.5">
       <c r="C160" s="21"/>
       <c r="D160" s="13" t="s">
-        <v>703</v>
+        <v>700</v>
       </c>
     </row>
     <row r="161" spans="3:4" ht="90">
       <c r="C161" s="21"/>
       <c r="D161" s="13" t="s">
-        <v>704</v>
+        <v>701</v>
       </c>
     </row>
     <row r="162" spans="3:4" ht="67.5">
       <c r="C162" s="21"/>
       <c r="D162" s="13" t="s">
-        <v>705</v>
+        <v>702</v>
       </c>
     </row>
     <row r="163" spans="3:4" ht="112.5">
       <c r="C163" s="21"/>
       <c r="D163" s="13" t="s">
-        <v>706</v>
+        <v>703</v>
       </c>
     </row>
     <row r="164" spans="3:4" ht="45">
       <c r="C164" s="21"/>
       <c r="D164" s="13" t="s">
-        <v>707</v>
+        <v>704</v>
       </c>
     </row>
     <row r="165" spans="3:4">
@@ -6936,7 +8040,7 @@
     </row>
     <row r="168" spans="3:4">
       <c r="C168" s="15" t="s">
-        <v>708</v>
+        <v>705</v>
       </c>
     </row>
     <row r="169" spans="3:4">
@@ -6944,67 +8048,67 @@
     </row>
     <row r="170" spans="3:4" ht="45">
       <c r="C170" s="13" t="s">
-        <v>709</v>
+        <v>706</v>
       </c>
     </row>
     <row r="171" spans="3:4" ht="45">
       <c r="C171" s="13" t="s">
-        <v>710</v>
+        <v>707</v>
       </c>
     </row>
     <row r="172" spans="3:4" ht="45">
       <c r="C172" s="13" t="s">
-        <v>711</v>
+        <v>708</v>
       </c>
     </row>
     <row r="173" spans="3:4" ht="22.5">
       <c r="C173" s="13" t="s">
-        <v>712</v>
+        <v>709</v>
       </c>
     </row>
     <row r="174" spans="3:4" ht="22.5">
       <c r="C174" s="13" t="s">
-        <v>713</v>
+        <v>710</v>
       </c>
     </row>
     <row r="175" spans="3:4" ht="45">
       <c r="C175" s="13" t="s">
-        <v>714</v>
+        <v>711</v>
       </c>
     </row>
     <row r="176" spans="3:4" ht="22.5">
       <c r="C176" s="13" t="s">
-        <v>715</v>
+        <v>712</v>
       </c>
     </row>
     <row r="177" spans="3:3" ht="22.5">
       <c r="C177" s="13" t="s">
-        <v>716</v>
+        <v>713</v>
       </c>
     </row>
     <row r="178" spans="3:3" ht="22.5">
       <c r="C178" s="13" t="s">
-        <v>717</v>
+        <v>714</v>
       </c>
     </row>
     <row r="179" spans="3:3" ht="45">
       <c r="C179" s="13" t="s">
-        <v>718</v>
+        <v>715</v>
       </c>
     </row>
     <row r="180" spans="3:3" ht="22.5">
       <c r="C180" s="13" t="s">
-        <v>719</v>
+        <v>716</v>
       </c>
     </row>
     <row r="181" spans="3:3" ht="45">
       <c r="C181" s="13" t="s">
-        <v>720</v>
+        <v>717</v>
       </c>
     </row>
     <row r="182" spans="3:3" ht="22.5">
       <c r="C182" s="13" t="s">
-        <v>721</v>
+        <v>718</v>
       </c>
     </row>
     <row r="183" spans="3:3">
@@ -7015,12 +8119,12 @@
     </row>
     <row r="186" spans="3:3">
       <c r="C186" s="15" t="s">
-        <v>722</v>
+        <v>719</v>
       </c>
     </row>
     <row r="187" spans="3:3">
       <c r="C187" s="15" t="s">
-        <v>723</v>
+        <v>720</v>
       </c>
     </row>
     <row r="188" spans="3:3" ht="22.5">
@@ -7043,52 +8147,52 @@
     </row>
     <row r="194" spans="3:3" ht="22.5">
       <c r="C194" s="13" t="s">
-        <v>724</v>
+        <v>721</v>
       </c>
     </row>
     <row r="195" spans="3:3" ht="22.5">
       <c r="C195" s="13" t="s">
-        <v>725</v>
+        <v>722</v>
       </c>
     </row>
     <row r="196" spans="3:3" ht="22.5">
       <c r="C196" s="13" t="s">
-        <v>726</v>
+        <v>723</v>
       </c>
     </row>
     <row r="197" spans="3:3" ht="22.5">
       <c r="C197" s="13" t="s">
-        <v>727</v>
+        <v>724</v>
       </c>
     </row>
     <row r="198" spans="3:3" ht="22.5">
       <c r="C198" s="13" t="s">
-        <v>728</v>
+        <v>725</v>
       </c>
     </row>
     <row r="199" spans="3:3" ht="22.5">
       <c r="C199" s="13" t="s">
-        <v>729</v>
+        <v>726</v>
       </c>
     </row>
     <row r="200" spans="3:3" ht="22.5">
       <c r="C200" s="13" t="s">
-        <v>730</v>
+        <v>727</v>
       </c>
     </row>
     <row r="201" spans="3:3" ht="22.5">
       <c r="C201" s="13" t="s">
-        <v>731</v>
+        <v>728</v>
       </c>
     </row>
     <row r="202" spans="3:3" ht="22.5">
       <c r="C202" s="13" t="s">
-        <v>732</v>
+        <v>729</v>
       </c>
     </row>
     <row r="203" spans="3:3" ht="22.5">
       <c r="C203" s="13" t="s">
-        <v>733</v>
+        <v>730</v>
       </c>
     </row>
     <row r="204" spans="3:3">
@@ -7096,12 +8200,12 @@
     </row>
     <row r="206" spans="3:3">
       <c r="C206" s="11" t="s">
-        <v>734</v>
+        <v>731</v>
       </c>
     </row>
     <row r="207" spans="3:3">
       <c r="C207" s="11" t="s">
-        <v>735</v>
+        <v>732</v>
       </c>
     </row>
     <row r="208" spans="3:3" ht="22.5">
@@ -7109,7 +8213,7 @@
     </row>
     <row r="222" spans="3:3" ht="45">
       <c r="C222" s="18" t="s">
-        <v>736</v>
+        <v>733</v>
       </c>
     </row>
     <row r="223" spans="3:3">
@@ -7117,77 +8221,77 @@
     </row>
     <row r="224" spans="3:3" ht="22.5">
       <c r="C224" s="18" t="s">
-        <v>737</v>
+        <v>734</v>
       </c>
     </row>
     <row r="225" spans="3:3" ht="22.5">
       <c r="C225" s="18" t="s">
-        <v>738</v>
+        <v>735</v>
       </c>
     </row>
     <row r="226" spans="3:3" ht="22.5">
       <c r="C226" s="18" t="s">
-        <v>739</v>
+        <v>736</v>
       </c>
     </row>
     <row r="227" spans="3:3" ht="22.5">
       <c r="C227" s="18" t="s">
-        <v>740</v>
+        <v>737</v>
       </c>
     </row>
     <row r="228" spans="3:3" ht="22.5">
       <c r="C228" s="18" t="s">
-        <v>741</v>
+        <v>738</v>
       </c>
     </row>
     <row r="229" spans="3:3" ht="22.5">
       <c r="C229" s="18" t="s">
-        <v>742</v>
+        <v>739</v>
       </c>
     </row>
     <row r="230" spans="3:3" ht="22.5">
       <c r="C230" s="18" t="s">
-        <v>743</v>
+        <v>740</v>
       </c>
     </row>
     <row r="231" spans="3:3" ht="22.5">
       <c r="C231" s="18" t="s">
-        <v>744</v>
+        <v>741</v>
       </c>
     </row>
     <row r="232" spans="3:3" ht="22.5">
       <c r="C232" s="18" t="s">
-        <v>745</v>
+        <v>742</v>
       </c>
     </row>
     <row r="233" spans="3:3" ht="22.5">
       <c r="C233" s="18" t="s">
-        <v>746</v>
+        <v>743</v>
       </c>
     </row>
     <row r="234" spans="3:3" ht="22.5">
       <c r="C234" s="18" t="s">
-        <v>747</v>
+        <v>744</v>
       </c>
     </row>
     <row r="235" spans="3:3" ht="22.5">
       <c r="C235" s="18" t="s">
-        <v>748</v>
+        <v>745</v>
       </c>
     </row>
     <row r="236" spans="3:3" ht="22.5">
       <c r="C236" s="18" t="s">
-        <v>749</v>
+        <v>746</v>
       </c>
     </row>
     <row r="238" spans="3:3">
       <c r="C238" s="11" t="s">
-        <v>750</v>
+        <v>747</v>
       </c>
     </row>
     <row r="239" spans="3:3">
       <c r="C239" s="11" t="s">
-        <v>751</v>
+        <v>748</v>
       </c>
     </row>
     <row r="240" spans="3:3" ht="22.5">
@@ -7195,7 +8299,7 @@
     </row>
     <row r="255" spans="3:3" ht="22.5">
       <c r="C255" s="18" t="s">
-        <v>752</v>
+        <v>749</v>
       </c>
     </row>
   </sheetData>
@@ -7227,10 +8331,10 @@
 
 <file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C2:C5"/>
+  <dimension ref="C2:C4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7248,9 +8352,9 @@
         <v>343</v>
       </c>
     </row>
-    <row r="5" spans="3:3">
-      <c r="C5" t="s">
-        <v>414</v>
+    <row r="4" spans="3:3">
+      <c r="C4" t="s">
+        <v>1328</v>
       </c>
     </row>
   </sheetData>
@@ -7261,10 +8365,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E693"/>
+  <dimension ref="B2:E1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A646" workbookViewId="0">
-      <selection activeCell="U654" sqref="U654"/>
+    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+      <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -7427,1805 +8531,3671 @@
     </row>
     <row r="78" spans="3:3">
       <c r="C78" s="11" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
     </row>
     <row r="79" spans="3:3">
       <c r="C79" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
     </row>
     <row r="80" spans="3:3">
       <c r="C80" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
     </row>
     <row r="81" spans="3:3">
       <c r="C81" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
     </row>
     <row r="82" spans="3:3">
       <c r="C82" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
     </row>
     <row r="83" spans="3:3">
       <c r="C83" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
     </row>
     <row r="84" spans="3:3">
       <c r="C84" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
     </row>
     <row r="86" spans="3:3">
       <c r="C86" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
     </row>
     <row r="88" spans="3:3">
       <c r="C88" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
     </row>
     <row r="89" spans="3:3">
       <c r="C89" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
     </row>
     <row r="96" spans="3:3">
       <c r="C96" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
     </row>
     <row r="97" spans="3:4">
       <c r="C97" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
     </row>
     <row r="98" spans="3:4">
       <c r="C98" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
     </row>
     <row r="99" spans="3:4">
       <c r="C99" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="100" spans="3:4">
       <c r="C100" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="102" spans="3:4">
       <c r="C102" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D102" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
     </row>
     <row r="104" spans="3:4">
       <c r="D104" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="105" spans="3:4">
       <c r="D105" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
     <row r="106" spans="3:4">
       <c r="D106" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
     </row>
     <row r="107" spans="3:4">
       <c r="D107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="109" spans="3:4">
       <c r="C109" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D109" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
     </row>
     <row r="111" spans="3:4">
       <c r="D111" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
     </row>
     <row r="113" spans="3:4">
       <c r="C113" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D113" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
     </row>
     <row r="115" spans="3:4">
       <c r="D115" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
     </row>
     <row r="116" spans="3:4">
       <c r="D116" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
     </row>
     <row r="118" spans="3:4">
       <c r="C118" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D118" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
     </row>
     <row r="120" spans="3:4">
       <c r="D120" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
     </row>
     <row r="122" spans="3:4">
       <c r="C122" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D122" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
     </row>
     <row r="124" spans="3:4">
       <c r="D124" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
     </row>
     <row r="126" spans="3:4">
       <c r="C126" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D126" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
     </row>
     <row r="128" spans="3:4">
       <c r="D128" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
     </row>
     <row r="129" spans="3:4">
       <c r="D129" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
     </row>
     <row r="131" spans="3:4">
       <c r="C131" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D131" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
     </row>
     <row r="133" spans="3:4">
       <c r="D133" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
     </row>
     <row r="136" spans="3:4">
       <c r="C136" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
     </row>
     <row r="138" spans="3:4">
       <c r="C138" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
     </row>
     <row r="139" spans="3:4">
       <c r="C139" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
     </row>
     <row r="140" spans="3:4">
       <c r="C140" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
     </row>
     <row r="141" spans="3:4">
       <c r="C141" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
     </row>
     <row r="142" spans="3:4">
       <c r="C142" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
     </row>
     <row r="143" spans="3:4">
       <c r="C143" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
     </row>
     <row r="144" spans="3:4">
       <c r="C144" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
     </row>
     <row r="146" spans="3:3">
       <c r="C146" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
     </row>
     <row r="148" spans="3:3">
       <c r="C148" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
     </row>
     <row r="150" spans="3:3">
       <c r="C150" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
     </row>
     <row r="151" spans="3:3">
       <c r="C151" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
     </row>
     <row r="153" spans="3:3">
       <c r="C153" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
     </row>
     <row r="154" spans="3:3">
       <c r="C154" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
     </row>
     <row r="155" spans="3:3">
       <c r="C155" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
     </row>
     <row r="156" spans="3:3">
       <c r="C156" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
     </row>
     <row r="158" spans="3:3">
       <c r="C158" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
     </row>
     <row r="159" spans="3:3">
       <c r="C159" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
     </row>
     <row r="160" spans="3:3">
       <c r="C160" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
     </row>
     <row r="162" spans="3:3">
       <c r="C162" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
     </row>
     <row r="163" spans="3:3">
       <c r="C163" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
     </row>
     <row r="164" spans="3:3">
       <c r="C164" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
     </row>
     <row r="166" spans="3:3">
-      <c r="C166" s="11" t="s">
-        <v>513</v>
-      </c>
+      <c r="C166" s="11"/>
     </row>
     <row r="167" spans="3:3">
-      <c r="C167" s="11" t="s">
-        <v>514</v>
-      </c>
+      <c r="C167" s="11"/>
     </row>
     <row r="175" spans="3:3">
       <c r="C175" t="s">
-        <v>518</v>
+        <v>515</v>
       </c>
     </row>
     <row r="177" spans="3:4">
       <c r="C177" t="s">
-        <v>515</v>
+        <v>512</v>
       </c>
     </row>
     <row r="178" spans="3:4">
       <c r="C178" t="s">
-        <v>516</v>
+        <v>513</v>
       </c>
     </row>
     <row r="179" spans="3:4">
       <c r="C179" t="s">
-        <v>517</v>
+        <v>514</v>
       </c>
     </row>
     <row r="181" spans="3:4">
       <c r="D181" t="s">
-        <v>519</v>
+        <v>516</v>
       </c>
     </row>
     <row r="183" spans="3:4">
       <c r="C183" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D183" t="s">
-        <v>536</v>
+        <v>533</v>
       </c>
     </row>
     <row r="184" spans="3:4">
       <c r="D184" t="s">
-        <v>520</v>
+        <v>517</v>
       </c>
     </row>
     <row r="185" spans="3:4">
       <c r="D185" t="s">
-        <v>537</v>
+        <v>534</v>
       </c>
     </row>
     <row r="187" spans="3:4">
       <c r="D187" t="s">
-        <v>521</v>
+        <v>518</v>
       </c>
     </row>
     <row r="189" spans="3:4">
       <c r="D189" t="s">
-        <v>522</v>
+        <v>519</v>
       </c>
     </row>
     <row r="190" spans="3:4">
       <c r="D190" t="s">
-        <v>523</v>
+        <v>520</v>
       </c>
     </row>
     <row r="191" spans="3:4">
       <c r="D191" t="s">
-        <v>524</v>
+        <v>521</v>
       </c>
     </row>
     <row r="192" spans="3:4">
       <c r="D192" t="s">
-        <v>525</v>
+        <v>522</v>
       </c>
     </row>
     <row r="193" spans="3:4">
       <c r="D193" t="s">
-        <v>526</v>
+        <v>523</v>
       </c>
     </row>
     <row r="194" spans="3:4">
       <c r="D194" t="s">
-        <v>527</v>
+        <v>524</v>
       </c>
     </row>
     <row r="195" spans="3:4">
       <c r="D195" t="s">
-        <v>528</v>
+        <v>525</v>
       </c>
     </row>
     <row r="196" spans="3:4">
       <c r="D196" t="s">
-        <v>529</v>
+        <v>526</v>
       </c>
     </row>
     <row r="197" spans="3:4">
       <c r="D197" t="s">
-        <v>530</v>
+        <v>527</v>
       </c>
     </row>
     <row r="198" spans="3:4">
       <c r="D198" t="s">
-        <v>531</v>
+        <v>528</v>
       </c>
     </row>
     <row r="199" spans="3:4">
       <c r="D199" t="s">
-        <v>532</v>
+        <v>529</v>
       </c>
     </row>
     <row r="200" spans="3:4">
       <c r="D200" t="s">
-        <v>533</v>
+        <v>530</v>
       </c>
     </row>
     <row r="201" spans="3:4">
       <c r="D201" t="s">
-        <v>534</v>
+        <v>531</v>
       </c>
     </row>
     <row r="203" spans="3:4">
       <c r="C203" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D203" t="s">
-        <v>538</v>
+        <v>535</v>
       </c>
     </row>
     <row r="205" spans="3:4">
       <c r="D205" t="s">
-        <v>535</v>
+        <v>532</v>
       </c>
     </row>
     <row r="207" spans="3:4">
       <c r="C207" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D207" t="s">
-        <v>543</v>
+        <v>540</v>
       </c>
     </row>
     <row r="208" spans="3:4">
       <c r="D208" t="s">
-        <v>539</v>
+        <v>536</v>
       </c>
     </row>
     <row r="209" spans="4:5">
       <c r="D209" t="s">
-        <v>544</v>
+        <v>541</v>
       </c>
     </row>
     <row r="211" spans="4:5">
       <c r="D211" t="s">
-        <v>540</v>
+        <v>537</v>
       </c>
     </row>
     <row r="212" spans="4:5">
       <c r="D212" t="s">
-        <v>541</v>
+        <v>538</v>
       </c>
     </row>
     <row r="213" spans="4:5">
       <c r="D213" t="s">
-        <v>542</v>
+        <v>539</v>
       </c>
     </row>
     <row r="215" spans="4:5">
       <c r="D215" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E215" t="s">
-        <v>560</v>
+        <v>557</v>
       </c>
     </row>
     <row r="217" spans="4:5">
       <c r="E217" t="s">
-        <v>545</v>
+        <v>542</v>
       </c>
     </row>
     <row r="218" spans="4:5">
       <c r="E218" t="s">
-        <v>546</v>
+        <v>543</v>
       </c>
     </row>
     <row r="219" spans="4:5">
       <c r="E219" t="s">
-        <v>547</v>
+        <v>544</v>
       </c>
     </row>
     <row r="220" spans="4:5">
       <c r="E220" t="s">
-        <v>548</v>
+        <v>545</v>
       </c>
     </row>
     <row r="221" spans="4:5">
       <c r="E221" t="s">
-        <v>549</v>
+        <v>546</v>
       </c>
     </row>
     <row r="222" spans="4:5">
       <c r="E222" t="s">
-        <v>550</v>
+        <v>547</v>
       </c>
     </row>
     <row r="223" spans="4:5">
       <c r="E223" t="s">
-        <v>551</v>
+        <v>548</v>
       </c>
     </row>
     <row r="224" spans="4:5">
       <c r="E224" t="s">
-        <v>552</v>
+        <v>549</v>
       </c>
     </row>
     <row r="225" spans="4:5">
       <c r="E225" t="s">
-        <v>553</v>
+        <v>550</v>
       </c>
     </row>
     <row r="227" spans="4:5">
       <c r="D227" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E227" t="s">
-        <v>561</v>
+        <v>558</v>
       </c>
     </row>
     <row r="229" spans="4:5">
       <c r="E229" t="s">
-        <v>554</v>
+        <v>551</v>
       </c>
     </row>
     <row r="230" spans="4:5">
       <c r="E230" t="s">
-        <v>555</v>
+        <v>552</v>
       </c>
     </row>
     <row r="232" spans="4:5">
       <c r="D232" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E232" t="s">
-        <v>562</v>
+        <v>559</v>
       </c>
     </row>
     <row r="234" spans="4:5">
       <c r="E234" t="s">
-        <v>556</v>
+        <v>553</v>
       </c>
     </row>
     <row r="235" spans="4:5">
       <c r="E235" t="s">
-        <v>557</v>
+        <v>554</v>
       </c>
     </row>
     <row r="236" spans="4:5">
       <c r="E236" t="s">
-        <v>558</v>
+        <v>555</v>
       </c>
     </row>
     <row r="237" spans="4:5">
       <c r="E237" t="s">
-        <v>559</v>
+        <v>556</v>
       </c>
     </row>
     <row r="239" spans="4:5">
       <c r="D239" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E239" t="s">
-        <v>569</v>
+        <v>566</v>
       </c>
     </row>
     <row r="241" spans="4:5">
       <c r="E241" t="s">
-        <v>563</v>
+        <v>560</v>
       </c>
     </row>
     <row r="242" spans="4:5">
       <c r="E242" t="s">
-        <v>564</v>
+        <v>561</v>
       </c>
     </row>
     <row r="243" spans="4:5">
       <c r="E243" t="s">
-        <v>565</v>
+        <v>562</v>
       </c>
     </row>
     <row r="245" spans="4:5">
       <c r="D245" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="E245" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
     </row>
     <row r="247" spans="4:5">
       <c r="E247" t="s">
-        <v>566</v>
+        <v>563</v>
       </c>
     </row>
     <row r="248" spans="4:5">
       <c r="E248" t="s">
-        <v>567</v>
+        <v>564</v>
       </c>
     </row>
     <row r="249" spans="4:5">
       <c r="E249" t="s">
-        <v>568</v>
+        <v>565</v>
       </c>
     </row>
     <row r="272" spans="3:3">
       <c r="C272" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
     </row>
     <row r="274" spans="3:3">
       <c r="C274" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
     </row>
     <row r="275" spans="3:3">
       <c r="C275" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
     </row>
     <row r="276" spans="3:3">
       <c r="C276" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
     </row>
     <row r="277" spans="3:3">
       <c r="C277" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
     </row>
     <row r="279" spans="3:3">
       <c r="C279" t="s">
-        <v>576</v>
+        <v>573</v>
       </c>
     </row>
     <row r="280" spans="3:3">
       <c r="C280" t="s">
-        <v>577</v>
+        <v>574</v>
       </c>
     </row>
     <row r="304" spans="3:3">
       <c r="C304" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
     </row>
     <row r="305" spans="3:3">
       <c r="C305" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
     </row>
     <row r="306" spans="3:3">
       <c r="C306" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
     </row>
     <row r="308" spans="3:3">
       <c r="C308" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
     </row>
     <row r="309" spans="3:3">
       <c r="C309" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
     </row>
     <row r="320" spans="3:3">
       <c r="C320" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
     </row>
     <row r="322" spans="3:3">
       <c r="C322" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
     </row>
     <row r="323" spans="3:3">
       <c r="C323" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
     </row>
     <row r="324" spans="3:3">
       <c r="C324" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
     </row>
     <row r="325" spans="3:3">
       <c r="C325" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
     </row>
     <row r="326" spans="3:3">
       <c r="C326" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
     </row>
     <row r="327" spans="3:3">
       <c r="C327" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
     </row>
     <row r="341" spans="3:3">
       <c r="C341" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
     </row>
     <row r="343" spans="3:3">
       <c r="C343" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
     </row>
     <row r="344" spans="3:3">
       <c r="C344" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
     </row>
     <row r="345" spans="3:3">
       <c r="C345" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
     </row>
     <row r="346" spans="3:3">
       <c r="C346" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
     </row>
     <row r="347" spans="3:3">
       <c r="C347" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
     </row>
     <row r="348" spans="3:3">
       <c r="C348" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
     </row>
     <row r="374" spans="3:3">
       <c r="C374" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
     </row>
     <row r="376" spans="3:3">
       <c r="C376" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
     </row>
     <row r="377" spans="3:3">
       <c r="C377" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
     </row>
     <row r="378" spans="3:3">
       <c r="C378" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
     </row>
     <row r="379" spans="3:3">
       <c r="C379" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
     </row>
     <row r="380" spans="3:3">
       <c r="C380" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
     </row>
     <row r="381" spans="3:3">
       <c r="C381" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
     </row>
     <row r="382" spans="3:3">
       <c r="C382" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
     </row>
     <row r="383" spans="3:3">
       <c r="C383" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
     </row>
     <row r="385" spans="3:3">
       <c r="C385" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
     </row>
     <row r="386" spans="3:3">
       <c r="C386" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
     </row>
     <row r="387" spans="3:3">
       <c r="C387" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
     </row>
     <row r="389" spans="3:3">
       <c r="C389" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
     </row>
     <row r="390" spans="3:3">
       <c r="C390" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
     </row>
     <row r="391" spans="3:3">
       <c r="C391" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
     </row>
     <row r="392" spans="3:3">
       <c r="C392" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
     </row>
     <row r="394" spans="3:3">
       <c r="C394" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
     </row>
     <row r="395" spans="3:3">
       <c r="C395" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
     </row>
     <row r="396" spans="3:3">
       <c r="C396" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
     </row>
     <row r="398" spans="3:3">
       <c r="C398" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
     </row>
     <row r="399" spans="3:3">
       <c r="C399" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
     </row>
     <row r="400" spans="3:3">
       <c r="C400" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
     </row>
     <row r="404" spans="3:4">
       <c r="C404" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
     </row>
     <row r="406" spans="3:4">
       <c r="C406" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
     </row>
     <row r="407" spans="3:4">
       <c r="C407" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
     </row>
     <row r="408" spans="3:4">
       <c r="C408" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
     </row>
     <row r="409" spans="3:4">
       <c r="C409" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
     </row>
     <row r="411" spans="3:4">
       <c r="C411" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D411" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
     </row>
     <row r="412" spans="3:4">
       <c r="D412" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
     </row>
     <row r="413" spans="3:4">
       <c r="D413" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
     </row>
     <row r="415" spans="3:4">
       <c r="D415" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
     </row>
     <row r="417" spans="3:4">
       <c r="C417" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D417" t="s">
-        <v>634</v>
+        <v>631</v>
       </c>
     </row>
     <row r="418" spans="3:4">
       <c r="D418" t="s">
-        <v>629</v>
+        <v>626</v>
       </c>
     </row>
     <row r="419" spans="3:4">
       <c r="D419" t="s">
-        <v>635</v>
+        <v>632</v>
       </c>
     </row>
     <row r="421" spans="3:4">
       <c r="D421" t="s">
-        <v>630</v>
+        <v>627</v>
       </c>
     </row>
     <row r="422" spans="3:4">
       <c r="D422" t="s">
-        <v>631</v>
+        <v>628</v>
       </c>
     </row>
     <row r="423" spans="3:4">
       <c r="D423" t="s">
-        <v>632</v>
+        <v>629</v>
       </c>
     </row>
     <row r="424" spans="3:4">
       <c r="D424" t="s">
-        <v>633</v>
+        <v>630</v>
       </c>
     </row>
     <row r="428" spans="3:4">
       <c r="C428" t="s">
-        <v>851</v>
+        <v>848</v>
       </c>
     </row>
     <row r="429" spans="3:4">
       <c r="C429" t="s">
-        <v>847</v>
+        <v>844</v>
       </c>
     </row>
     <row r="430" spans="3:4">
       <c r="C430" t="s">
-        <v>852</v>
+        <v>849</v>
       </c>
     </row>
     <row r="432" spans="3:4">
       <c r="C432" t="s">
-        <v>848</v>
+        <v>845</v>
       </c>
     </row>
     <row r="433" spans="3:3">
       <c r="C433" t="s">
-        <v>849</v>
+        <v>846</v>
       </c>
     </row>
     <row r="434" spans="3:3">
       <c r="C434" t="s">
-        <v>850</v>
+        <v>847</v>
       </c>
     </row>
     <row r="437" spans="3:3">
       <c r="C437" t="s">
-        <v>859</v>
+        <v>856</v>
       </c>
     </row>
     <row r="438" spans="3:3">
       <c r="C438" t="s">
-        <v>853</v>
+        <v>850</v>
       </c>
     </row>
     <row r="439" spans="3:3">
       <c r="C439" t="s">
-        <v>860</v>
+        <v>857</v>
       </c>
     </row>
     <row r="441" spans="3:3">
       <c r="C441" t="s">
-        <v>854</v>
+        <v>851</v>
       </c>
     </row>
     <row r="442" spans="3:3">
       <c r="C442" t="s">
-        <v>855</v>
+        <v>852</v>
       </c>
     </row>
     <row r="443" spans="3:3">
       <c r="C443" t="s">
-        <v>856</v>
+        <v>853</v>
       </c>
     </row>
     <row r="444" spans="3:3">
       <c r="C444" t="s">
-        <v>857</v>
+        <v>854</v>
       </c>
     </row>
     <row r="445" spans="3:3">
       <c r="C445" t="s">
-        <v>858</v>
+        <v>855</v>
       </c>
     </row>
     <row r="479" spans="3:3">
       <c r="C479" t="s">
-        <v>781</v>
+        <v>778</v>
       </c>
     </row>
     <row r="481" spans="3:4">
       <c r="C481" t="s">
-        <v>782</v>
+        <v>779</v>
       </c>
     </row>
     <row r="482" spans="3:4">
       <c r="C482" t="s">
-        <v>783</v>
+        <v>780</v>
       </c>
     </row>
     <row r="484" spans="3:4">
       <c r="C484" t="s">
-        <v>784</v>
+        <v>781</v>
       </c>
     </row>
     <row r="485" spans="3:4">
       <c r="C485" t="s">
-        <v>785</v>
+        <v>782</v>
       </c>
     </row>
     <row r="486" spans="3:4">
       <c r="C486" t="s">
-        <v>786</v>
+        <v>783</v>
       </c>
     </row>
     <row r="487" spans="3:4">
       <c r="C487" t="s">
-        <v>787</v>
+        <v>784</v>
       </c>
     </row>
     <row r="488" spans="3:4">
       <c r="C488" t="s">
-        <v>788</v>
+        <v>785</v>
       </c>
     </row>
     <row r="489" spans="3:4">
       <c r="C489" t="s">
-        <v>789</v>
+        <v>786</v>
       </c>
     </row>
     <row r="491" spans="3:4">
       <c r="C491" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D491" t="s">
-        <v>790</v>
+        <v>787</v>
       </c>
     </row>
     <row r="493" spans="3:4">
       <c r="D493" t="s">
-        <v>791</v>
+        <v>788</v>
       </c>
     </row>
     <row r="494" spans="3:4">
       <c r="D494" t="s">
-        <v>792</v>
+        <v>789</v>
       </c>
     </row>
     <row r="495" spans="3:4">
       <c r="D495" t="s">
-        <v>793</v>
+        <v>790</v>
       </c>
     </row>
     <row r="496" spans="3:4">
       <c r="D496" t="s">
-        <v>794</v>
+        <v>791</v>
       </c>
     </row>
     <row r="497" spans="3:4">
       <c r="D497" t="s">
-        <v>795</v>
+        <v>792</v>
       </c>
     </row>
     <row r="498" spans="3:4">
       <c r="D498" t="s">
-        <v>796</v>
+        <v>793</v>
       </c>
     </row>
     <row r="499" spans="3:4">
       <c r="D499" t="s">
-        <v>797</v>
+        <v>794</v>
       </c>
     </row>
     <row r="500" spans="3:4">
       <c r="D500" t="s">
-        <v>798</v>
+        <v>795</v>
       </c>
     </row>
     <row r="501" spans="3:4">
       <c r="D501" t="s">
-        <v>799</v>
+        <v>796</v>
       </c>
     </row>
     <row r="502" spans="3:4">
       <c r="D502" t="s">
-        <v>800</v>
+        <v>797</v>
       </c>
     </row>
     <row r="503" spans="3:4">
       <c r="D503" t="s">
-        <v>801</v>
+        <v>798</v>
       </c>
     </row>
     <row r="505" spans="3:4">
       <c r="D505" t="s">
-        <v>802</v>
+        <v>799</v>
       </c>
     </row>
     <row r="507" spans="3:4">
       <c r="C507" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D507" t="s">
-        <v>803</v>
+        <v>800</v>
       </c>
     </row>
     <row r="509" spans="3:4">
       <c r="D509" t="s">
-        <v>804</v>
+        <v>801</v>
       </c>
     </row>
     <row r="510" spans="3:4">
       <c r="D510" t="s">
-        <v>805</v>
+        <v>802</v>
       </c>
     </row>
     <row r="511" spans="3:4">
       <c r="D511" t="s">
-        <v>806</v>
+        <v>803</v>
       </c>
     </row>
     <row r="512" spans="3:4">
       <c r="D512" t="s">
-        <v>807</v>
+        <v>804</v>
       </c>
     </row>
     <row r="513" spans="3:4">
       <c r="D513" t="s">
-        <v>808</v>
+        <v>805</v>
       </c>
     </row>
     <row r="515" spans="3:4">
       <c r="D515" t="s">
-        <v>809</v>
+        <v>806</v>
       </c>
     </row>
     <row r="517" spans="3:4">
       <c r="D517" t="s">
-        <v>810</v>
+        <v>807</v>
       </c>
     </row>
     <row r="518" spans="3:4">
       <c r="D518" t="s">
-        <v>811</v>
+        <v>808</v>
       </c>
     </row>
     <row r="519" spans="3:4">
       <c r="D519" t="s">
-        <v>812</v>
+        <v>809</v>
       </c>
     </row>
     <row r="520" spans="3:4">
       <c r="D520" t="s">
-        <v>813</v>
+        <v>810</v>
       </c>
     </row>
     <row r="522" spans="3:4">
       <c r="C522" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D522" t="s">
-        <v>814</v>
+        <v>811</v>
       </c>
     </row>
     <row r="524" spans="3:4">
       <c r="D524" t="s">
-        <v>815</v>
+        <v>812</v>
       </c>
     </row>
     <row r="525" spans="3:4">
       <c r="D525" t="s">
-        <v>816</v>
+        <v>813</v>
       </c>
     </row>
     <row r="526" spans="3:4">
       <c r="D526" t="s">
-        <v>817</v>
+        <v>814</v>
       </c>
     </row>
     <row r="527" spans="3:4">
       <c r="D527" t="s">
-        <v>818</v>
+        <v>815</v>
       </c>
     </row>
     <row r="528" spans="3:4">
       <c r="D528" t="s">
-        <v>819</v>
+        <v>816</v>
       </c>
     </row>
     <row r="529" spans="3:4">
       <c r="D529" t="s">
-        <v>820</v>
+        <v>817</v>
       </c>
     </row>
     <row r="531" spans="3:4">
       <c r="D531" t="s">
-        <v>821</v>
+        <v>818</v>
       </c>
     </row>
     <row r="533" spans="3:4">
       <c r="D533" t="s">
-        <v>822</v>
+        <v>819</v>
       </c>
     </row>
     <row r="534" spans="3:4">
       <c r="D534" t="s">
-        <v>823</v>
+        <v>820</v>
       </c>
     </row>
     <row r="535" spans="3:4">
       <c r="D535" t="s">
-        <v>824</v>
+        <v>821</v>
       </c>
     </row>
     <row r="537" spans="3:4">
       <c r="C537" t="s">
-        <v>836</v>
+        <v>833</v>
       </c>
     </row>
     <row r="539" spans="3:4">
       <c r="C539" t="s">
-        <v>825</v>
+        <v>822</v>
       </c>
     </row>
     <row r="540" spans="3:4">
       <c r="C540" t="s">
-        <v>826</v>
+        <v>823</v>
       </c>
     </row>
     <row r="541" spans="3:4">
       <c r="C541" t="s">
-        <v>827</v>
+        <v>824</v>
       </c>
     </row>
     <row r="542" spans="3:4">
       <c r="C542" t="s">
-        <v>828</v>
+        <v>825</v>
       </c>
     </row>
     <row r="543" spans="3:4">
       <c r="C543" t="s">
-        <v>829</v>
+        <v>826</v>
       </c>
     </row>
     <row r="544" spans="3:4">
       <c r="C544" t="s">
-        <v>830</v>
+        <v>827</v>
       </c>
     </row>
     <row r="545" spans="3:3">
       <c r="C545" t="s">
-        <v>831</v>
+        <v>828</v>
       </c>
     </row>
     <row r="546" spans="3:3">
       <c r="C546" t="s">
-        <v>832</v>
+        <v>829</v>
       </c>
     </row>
     <row r="547" spans="3:3">
       <c r="C547" t="s">
-        <v>833</v>
+        <v>830</v>
       </c>
     </row>
     <row r="548" spans="3:3">
       <c r="C548" t="s">
-        <v>834</v>
+        <v>831</v>
       </c>
     </row>
     <row r="549" spans="3:3">
       <c r="C549" t="s">
-        <v>835</v>
+        <v>832</v>
       </c>
     </row>
     <row r="551" spans="3:3">
       <c r="C551" t="s">
-        <v>837</v>
+        <v>834</v>
       </c>
     </row>
     <row r="552" spans="3:3">
       <c r="C552" t="s">
-        <v>838</v>
+        <v>835</v>
       </c>
     </row>
     <row r="553" spans="3:3">
       <c r="C553" t="s">
-        <v>839</v>
+        <v>836</v>
       </c>
     </row>
     <row r="554" spans="3:3">
       <c r="C554" t="s">
-        <v>840</v>
+        <v>837</v>
       </c>
     </row>
     <row r="556" spans="3:3">
       <c r="C556" t="s">
-        <v>844</v>
+        <v>841</v>
       </c>
     </row>
     <row r="557" spans="3:3">
       <c r="C557" t="s">
-        <v>841</v>
+        <v>838</v>
       </c>
     </row>
     <row r="558" spans="3:3">
       <c r="C558" t="s">
-        <v>845</v>
+        <v>842</v>
       </c>
     </row>
     <row r="560" spans="3:3">
       <c r="C560" t="s">
-        <v>842</v>
+        <v>839</v>
       </c>
     </row>
     <row r="561" spans="3:3">
       <c r="C561" t="s">
-        <v>843</v>
+        <v>840</v>
       </c>
     </row>
     <row r="567" spans="3:3">
       <c r="C567" t="s">
-        <v>870</v>
+        <v>867</v>
       </c>
     </row>
     <row r="568" spans="3:3">
       <c r="C568" t="s">
-        <v>861</v>
+        <v>858</v>
       </c>
     </row>
     <row r="569" spans="3:3">
       <c r="C569" t="s">
-        <v>871</v>
+        <v>868</v>
       </c>
     </row>
     <row r="571" spans="3:3">
       <c r="C571" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="572" spans="3:3">
       <c r="C572" t="s">
-        <v>863</v>
+        <v>860</v>
       </c>
     </row>
     <row r="573" spans="3:3">
       <c r="C573" t="s">
-        <v>864</v>
+        <v>861</v>
       </c>
     </row>
     <row r="574" spans="3:3">
       <c r="C574" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="575" spans="3:3">
       <c r="C575" t="s">
-        <v>862</v>
+        <v>859</v>
       </c>
     </row>
     <row r="576" spans="3:3">
       <c r="C576" t="s">
-        <v>865</v>
+        <v>862</v>
       </c>
     </row>
     <row r="577" spans="3:3">
       <c r="C577" t="s">
-        <v>866</v>
+        <v>863</v>
       </c>
     </row>
     <row r="578" spans="3:3">
       <c r="C578" t="s">
-        <v>867</v>
+        <v>864</v>
       </c>
     </row>
     <row r="579" spans="3:3">
       <c r="C579" t="s">
-        <v>868</v>
+        <v>865</v>
       </c>
     </row>
     <row r="580" spans="3:3">
       <c r="C580" t="s">
-        <v>869</v>
+        <v>866</v>
       </c>
     </row>
     <row r="583" spans="3:3">
       <c r="C583" t="s">
-        <v>877</v>
+        <v>874</v>
       </c>
     </row>
     <row r="584" spans="3:3">
       <c r="C584" t="s">
-        <v>872</v>
+        <v>869</v>
       </c>
     </row>
     <row r="585" spans="3:3">
       <c r="C585" t="s">
-        <v>878</v>
+        <v>875</v>
       </c>
     </row>
     <row r="587" spans="3:3">
       <c r="C587" t="s">
-        <v>873</v>
+        <v>870</v>
       </c>
     </row>
     <row r="588" spans="3:3">
       <c r="C588" t="s">
-        <v>874</v>
+        <v>871</v>
       </c>
     </row>
     <row r="589" spans="3:3">
       <c r="C589" t="s">
-        <v>875</v>
+        <v>872</v>
       </c>
     </row>
     <row r="590" spans="3:3">
       <c r="C590" t="s">
-        <v>876</v>
+        <v>873</v>
       </c>
     </row>
     <row r="594" spans="3:3">
       <c r="C594" t="s">
-        <v>883</v>
+        <v>880</v>
       </c>
     </row>
     <row r="595" spans="3:3">
       <c r="C595" t="s">
-        <v>879</v>
+        <v>876</v>
       </c>
     </row>
     <row r="596" spans="3:3">
       <c r="C596" t="s">
-        <v>884</v>
+        <v>881</v>
       </c>
     </row>
     <row r="598" spans="3:3">
       <c r="C598" t="s">
-        <v>880</v>
+        <v>877</v>
       </c>
     </row>
     <row r="600" spans="3:3">
       <c r="C600" t="s">
-        <v>881</v>
+        <v>878</v>
       </c>
     </row>
     <row r="601" spans="3:3">
       <c r="C601" t="s">
-        <v>882</v>
+        <v>879</v>
       </c>
     </row>
     <row r="604" spans="3:3">
       <c r="C604" t="s">
-        <v>887</v>
+        <v>884</v>
       </c>
     </row>
     <row r="605" spans="3:3">
       <c r="C605" t="s">
-        <v>885</v>
+        <v>882</v>
       </c>
     </row>
     <row r="606" spans="3:3">
       <c r="C606" t="s">
-        <v>888</v>
+        <v>885</v>
       </c>
     </row>
     <row r="608" spans="3:3">
       <c r="C608" t="s">
-        <v>886</v>
+        <v>883</v>
       </c>
     </row>
     <row r="611" spans="3:4">
       <c r="C611" t="s">
-        <v>896</v>
+        <v>893</v>
       </c>
     </row>
     <row r="612" spans="3:4">
       <c r="C612" t="s">
-        <v>889</v>
+        <v>886</v>
       </c>
     </row>
     <row r="613" spans="3:4">
       <c r="C613" t="s">
-        <v>897</v>
+        <v>894</v>
       </c>
     </row>
     <row r="615" spans="3:4">
       <c r="C615" t="s">
-        <v>890</v>
+        <v>887</v>
       </c>
     </row>
     <row r="616" spans="3:4">
       <c r="C616" t="s">
-        <v>891</v>
+        <v>888</v>
       </c>
     </row>
     <row r="617" spans="3:4">
       <c r="C617" t="s">
-        <v>892</v>
+        <v>889</v>
       </c>
     </row>
     <row r="618" spans="3:4">
       <c r="C618" t="s">
-        <v>893</v>
+        <v>890</v>
       </c>
     </row>
     <row r="619" spans="3:4">
       <c r="C619" t="s">
-        <v>894</v>
+        <v>891</v>
       </c>
     </row>
     <row r="620" spans="3:4">
       <c r="C620" t="s">
-        <v>895</v>
+        <v>892</v>
       </c>
     </row>
     <row r="623" spans="3:4">
       <c r="C623" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="D623" t="s">
-        <v>900</v>
+        <v>897</v>
       </c>
     </row>
     <row r="624" spans="3:4">
       <c r="D624" t="s">
-        <v>898</v>
+        <v>895</v>
       </c>
     </row>
     <row r="625" spans="3:4">
       <c r="D625" t="s">
-        <v>901</v>
+        <v>898</v>
       </c>
     </row>
     <row r="627" spans="3:4">
       <c r="D627" t="s">
-        <v>899</v>
+        <v>896</v>
       </c>
     </row>
     <row r="629" spans="3:4">
       <c r="C629" t="s">
-        <v>908</v>
+        <v>905</v>
       </c>
     </row>
     <row r="630" spans="3:4">
       <c r="C630" t="s">
-        <v>902</v>
+        <v>899</v>
       </c>
     </row>
     <row r="631" spans="3:4">
       <c r="C631" t="s">
-        <v>909</v>
+        <v>906</v>
       </c>
     </row>
     <row r="633" spans="3:4">
       <c r="C633" t="s">
-        <v>903</v>
+        <v>900</v>
       </c>
     </row>
     <row r="634" spans="3:4">
       <c r="C634" t="s">
-        <v>904</v>
+        <v>901</v>
       </c>
     </row>
     <row r="635" spans="3:4">
       <c r="C635" t="s">
-        <v>905</v>
+        <v>902</v>
       </c>
     </row>
     <row r="636" spans="3:4">
       <c r="C636" t="s">
-        <v>906</v>
+        <v>903</v>
       </c>
     </row>
     <row r="637" spans="3:4">
       <c r="C637" t="s">
-        <v>907</v>
+        <v>904</v>
       </c>
     </row>
     <row r="640" spans="3:4">
       <c r="C640" t="s">
-        <v>914</v>
+        <v>911</v>
       </c>
     </row>
     <row r="641" spans="3:3">
       <c r="C641" t="s">
-        <v>910</v>
+        <v>907</v>
       </c>
     </row>
     <row r="642" spans="3:3">
       <c r="C642" t="s">
-        <v>915</v>
+        <v>912</v>
       </c>
     </row>
     <row r="644" spans="3:3">
       <c r="C644" t="s">
-        <v>911</v>
+        <v>908</v>
       </c>
     </row>
     <row r="645" spans="3:3">
       <c r="C645" t="s">
-        <v>912</v>
+        <v>909</v>
       </c>
     </row>
     <row r="646" spans="3:3">
       <c r="C646" t="s">
-        <v>913</v>
+        <v>910</v>
       </c>
     </row>
     <row r="649" spans="3:3">
       <c r="C649" t="s">
-        <v>921</v>
+        <v>918</v>
       </c>
     </row>
     <row r="650" spans="3:3">
       <c r="C650" t="s">
-        <v>916</v>
+        <v>913</v>
       </c>
     </row>
     <row r="651" spans="3:3">
       <c r="C651" t="s">
-        <v>922</v>
+        <v>919</v>
       </c>
     </row>
     <row r="653" spans="3:3">
       <c r="C653" t="s">
-        <v>917</v>
+        <v>914</v>
       </c>
     </row>
     <row r="654" spans="3:3">
       <c r="C654" t="s">
-        <v>918</v>
+        <v>915</v>
       </c>
     </row>
     <row r="655" spans="3:3">
       <c r="C655" t="s">
-        <v>919</v>
+        <v>916</v>
       </c>
     </row>
     <row r="656" spans="3:3">
       <c r="C656" t="s">
-        <v>920</v>
+        <v>917</v>
       </c>
     </row>
     <row r="659" spans="3:3">
       <c r="C659" t="s">
-        <v>927</v>
+        <v>924</v>
       </c>
     </row>
     <row r="660" spans="3:3">
       <c r="C660" t="s">
-        <v>923</v>
+        <v>920</v>
       </c>
     </row>
     <row r="661" spans="3:3">
       <c r="C661" t="s">
-        <v>928</v>
+        <v>925</v>
       </c>
     </row>
     <row r="663" spans="3:3">
       <c r="C663" t="s">
-        <v>924</v>
+        <v>921</v>
       </c>
     </row>
     <row r="664" spans="3:3">
       <c r="C664" t="s">
-        <v>925</v>
+        <v>922</v>
       </c>
     </row>
     <row r="665" spans="3:3">
       <c r="C665" t="s">
-        <v>926</v>
+        <v>923</v>
       </c>
     </row>
     <row r="667" spans="3:3">
       <c r="C667" t="s">
-        <v>932</v>
+        <v>929</v>
       </c>
     </row>
     <row r="668" spans="3:3">
       <c r="C668" t="s">
-        <v>929</v>
+        <v>926</v>
       </c>
     </row>
     <row r="669" spans="3:3">
       <c r="C669" t="s">
-        <v>933</v>
+        <v>930</v>
       </c>
     </row>
     <row r="671" spans="3:3">
       <c r="C671" t="s">
-        <v>930</v>
+        <v>927</v>
       </c>
     </row>
     <row r="672" spans="3:3">
       <c r="C672" t="s">
-        <v>931</v>
+        <v>928</v>
+      </c>
+    </row>
+    <row r="674" spans="3:3">
+      <c r="C674" t="s">
+        <v>947</v>
       </c>
     </row>
     <row r="675" spans="3:3">
       <c r="C675" t="s">
-        <v>943</v>
+        <v>939</v>
       </c>
     </row>
     <row r="676" spans="3:3">
       <c r="C676" t="s">
-        <v>934</v>
-      </c>
-    </row>
-    <row r="677" spans="3:3">
-      <c r="C677" t="s">
-        <v>944</v>
+        <v>948</v>
+      </c>
+    </row>
+    <row r="678" spans="3:3">
+      <c r="C678" t="s">
+        <v>940</v>
       </c>
     </row>
     <row r="679" spans="3:3">
       <c r="C679" t="s">
-        <v>935</v>
+        <v>941</v>
       </c>
     </row>
     <row r="680" spans="3:3">
       <c r="C680" t="s">
-        <v>936</v>
+        <v>942</v>
       </c>
     </row>
     <row r="681" spans="3:3">
       <c r="C681" t="s">
-        <v>937</v>
+        <v>943</v>
       </c>
     </row>
     <row r="682" spans="3:3">
       <c r="C682" t="s">
-        <v>938</v>
+        <v>944</v>
       </c>
     </row>
     <row r="683" spans="3:3">
       <c r="C683" t="s">
-        <v>939</v>
+        <v>945</v>
       </c>
     </row>
     <row r="684" spans="3:3">
       <c r="C684" t="s">
-        <v>940</v>
-      </c>
-    </row>
-    <row r="685" spans="3:3">
-      <c r="C685" t="s">
-        <v>941</v>
-      </c>
-    </row>
-    <row r="686" spans="3:3">
-      <c r="C686" t="s">
-        <v>942</v>
+        <v>946</v>
+      </c>
+    </row>
+    <row r="687" spans="3:3">
+      <c r="C687" t="s">
+        <v>957</v>
       </c>
     </row>
     <row r="688" spans="3:3">
       <c r="C688" t="s">
-        <v>948</v>
+        <v>949</v>
       </c>
     </row>
     <row r="689" spans="3:3">
       <c r="C689" t="s">
-        <v>945</v>
-      </c>
-    </row>
-    <row r="690" spans="3:3">
-      <c r="C690" t="s">
-        <v>949</v>
+        <v>958</v>
+      </c>
+    </row>
+    <row r="691" spans="3:3">
+      <c r="C691" t="s">
+        <v>950</v>
       </c>
     </row>
     <row r="692" spans="3:3">
       <c r="C692" t="s">
-        <v>946</v>
+        <v>951</v>
       </c>
     </row>
     <row r="693" spans="3:3">
       <c r="C693" t="s">
-        <v>947</v>
+        <v>952</v>
+      </c>
+    </row>
+    <row r="694" spans="3:3">
+      <c r="C694" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="695" spans="3:3">
+      <c r="C695" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="696" spans="3:3">
+      <c r="C696" t="s">
+        <v>955</v>
+      </c>
+    </row>
+    <row r="697" spans="3:3">
+      <c r="C697" t="s">
+        <v>956</v>
+      </c>
+    </row>
+    <row r="699" spans="3:3">
+      <c r="C699" t="s">
+        <v>961</v>
+      </c>
+    </row>
+    <row r="700" spans="3:3">
+      <c r="C700" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="701" spans="3:3">
+      <c r="C701" t="s">
+        <v>962</v>
+      </c>
+    </row>
+    <row r="703" spans="3:3">
+      <c r="C703" t="s">
+        <v>960</v>
+      </c>
+    </row>
+    <row r="705" spans="3:3">
+      <c r="C705" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="706" spans="3:3">
+      <c r="C706" t="s">
+        <v>963</v>
+      </c>
+    </row>
+    <row r="707" spans="3:3">
+      <c r="C707" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="709" spans="3:3">
+      <c r="C709" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="710" spans="3:3">
+      <c r="C710" t="s">
+        <v>965</v>
+      </c>
+    </row>
+    <row r="712" spans="3:3">
+      <c r="C712" t="s">
+        <v>966</v>
+      </c>
+    </row>
+    <row r="714" spans="3:3">
+      <c r="C714" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="715" spans="3:3">
+      <c r="C715" t="s">
+        <v>969</v>
+      </c>
+    </row>
+    <row r="716" spans="3:3">
+      <c r="C716" t="s">
+        <v>974</v>
+      </c>
+    </row>
+    <row r="718" spans="3:3">
+      <c r="C718" t="s">
+        <v>970</v>
+      </c>
+    </row>
+    <row r="719" spans="3:3">
+      <c r="C719" t="s">
+        <v>971</v>
+      </c>
+    </row>
+    <row r="720" spans="3:3">
+      <c r="C720" t="s">
+        <v>972</v>
+      </c>
+    </row>
+    <row r="723" spans="3:3">
+      <c r="C723" t="s">
+        <v>982</v>
+      </c>
+    </row>
+    <row r="724" spans="3:3">
+      <c r="C724" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="725" spans="3:3">
+      <c r="C725" t="s">
+        <v>983</v>
+      </c>
+    </row>
+    <row r="727" spans="3:3">
+      <c r="C727" t="s">
+        <v>976</v>
+      </c>
+    </row>
+    <row r="728" spans="3:3">
+      <c r="C728" t="s">
+        <v>977</v>
+      </c>
+    </row>
+    <row r="729" spans="3:3">
+      <c r="C729" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="730" spans="3:3">
+      <c r="C730" t="s">
+        <v>979</v>
+      </c>
+    </row>
+    <row r="731" spans="3:3">
+      <c r="C731" t="s">
+        <v>980</v>
+      </c>
+    </row>
+    <row r="732" spans="3:3">
+      <c r="C732" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="734" spans="3:3">
+      <c r="C734" t="s">
+        <v>990</v>
+      </c>
+    </row>
+    <row r="735" spans="3:3">
+      <c r="C735" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="736" spans="3:3">
+      <c r="C736" t="s">
+        <v>991</v>
+      </c>
+    </row>
+    <row r="738" spans="3:3">
+      <c r="C738" t="s">
+        <v>985</v>
+      </c>
+    </row>
+    <row r="739" spans="3:3">
+      <c r="C739" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="740" spans="3:3">
+      <c r="C740" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="741" spans="3:3">
+      <c r="C741" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="742" spans="3:3">
+      <c r="C742" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="744" spans="3:3">
+      <c r="C744" t="s">
+        <v>994</v>
+      </c>
+    </row>
+    <row r="745" spans="3:3">
+      <c r="C745" t="s">
+        <v>992</v>
+      </c>
+    </row>
+    <row r="746" spans="3:3">
+      <c r="C746" t="s">
+        <v>995</v>
+      </c>
+    </row>
+    <row r="748" spans="3:3">
+      <c r="C748" t="s">
+        <v>993</v>
+      </c>
+    </row>
+    <row r="751" spans="3:3">
+      <c r="C751" t="s">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="752" spans="3:3">
+      <c r="C752" t="s">
+        <v>996</v>
+      </c>
+    </row>
+    <row r="753" spans="3:3">
+      <c r="C753" t="s">
+        <v>1001</v>
+      </c>
+    </row>
+    <row r="755" spans="3:3">
+      <c r="C755" t="s">
+        <v>997</v>
+      </c>
+    </row>
+    <row r="756" spans="3:3">
+      <c r="C756" t="s">
+        <v>998</v>
+      </c>
+    </row>
+    <row r="757" spans="3:3">
+      <c r="C757" t="s">
+        <v>999</v>
+      </c>
+    </row>
+    <row r="759" spans="3:3">
+      <c r="C759" t="s">
+        <v>1004</v>
+      </c>
+    </row>
+    <row r="760" spans="3:3">
+      <c r="C760" t="s">
+        <v>1002</v>
+      </c>
+    </row>
+    <row r="761" spans="3:3">
+      <c r="C761" t="s">
+        <v>1005</v>
+      </c>
+    </row>
+    <row r="763" spans="3:3">
+      <c r="C763" t="s">
+        <v>1003</v>
+      </c>
+    </row>
+    <row r="766" spans="3:3">
+      <c r="C766" t="s">
+        <v>1013</v>
+      </c>
+    </row>
+    <row r="767" spans="3:3">
+      <c r="C767" t="s">
+        <v>1006</v>
+      </c>
+    </row>
+    <row r="768" spans="3:3">
+      <c r="C768" t="s">
+        <v>1014</v>
+      </c>
+    </row>
+    <row r="770" spans="3:3">
+      <c r="C770" t="s">
+        <v>1007</v>
+      </c>
+    </row>
+    <row r="771" spans="3:3">
+      <c r="C771" t="s">
+        <v>1008</v>
+      </c>
+    </row>
+    <row r="772" spans="3:3">
+      <c r="C772" t="s">
+        <v>1009</v>
+      </c>
+    </row>
+    <row r="773" spans="3:3">
+      <c r="C773" t="s">
+        <v>1010</v>
+      </c>
+    </row>
+    <row r="774" spans="3:3">
+      <c r="C774" t="s">
+        <v>1011</v>
+      </c>
+    </row>
+    <row r="775" spans="3:3">
+      <c r="C775" t="s">
+        <v>1012</v>
+      </c>
+    </row>
+    <row r="777" spans="3:3">
+      <c r="C777" t="s">
+        <v>1016</v>
+      </c>
+    </row>
+    <row r="778" spans="3:3">
+      <c r="C778" t="s">
+        <v>1017</v>
+      </c>
+    </row>
+    <row r="779" spans="3:3">
+      <c r="C779" t="s">
+        <v>1018</v>
+      </c>
+    </row>
+    <row r="781" spans="3:3">
+      <c r="C781" t="s">
+        <v>1015</v>
+      </c>
+    </row>
+    <row r="783" spans="3:3">
+      <c r="C783" t="s">
+        <v>1022</v>
+      </c>
+    </row>
+    <row r="784" spans="3:3">
+      <c r="C784" t="s">
+        <v>1019</v>
+      </c>
+    </row>
+    <row r="785" spans="3:3">
+      <c r="C785" t="s">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="787" spans="3:3">
+      <c r="C787" t="s">
+        <v>1020</v>
+      </c>
+    </row>
+    <row r="788" spans="3:3">
+      <c r="C788" t="s">
+        <v>1021</v>
+      </c>
+    </row>
+    <row r="790" spans="3:3">
+      <c r="C790" t="s">
+        <v>1027</v>
+      </c>
+    </row>
+    <row r="791" spans="3:3">
+      <c r="C791" t="s">
+        <v>1024</v>
+      </c>
+    </row>
+    <row r="792" spans="3:3">
+      <c r="C792" t="s">
+        <v>1028</v>
+      </c>
+    </row>
+    <row r="794" spans="3:3">
+      <c r="C794" t="s">
+        <v>1025</v>
+      </c>
+    </row>
+    <row r="795" spans="3:3">
+      <c r="C795" t="s">
+        <v>1026</v>
+      </c>
+    </row>
+    <row r="797" spans="3:3">
+      <c r="C797" t="s">
+        <v>1037</v>
+      </c>
+    </row>
+    <row r="798" spans="3:3">
+      <c r="C798" t="s">
+        <v>1029</v>
+      </c>
+    </row>
+    <row r="799" spans="3:3">
+      <c r="C799" t="s">
+        <v>1038</v>
+      </c>
+    </row>
+    <row r="801" spans="3:3">
+      <c r="C801" t="s">
+        <v>1030</v>
+      </c>
+    </row>
+    <row r="802" spans="3:3">
+      <c r="C802" t="s">
+        <v>1031</v>
+      </c>
+    </row>
+    <row r="803" spans="3:3">
+      <c r="C803" t="s">
+        <v>1032</v>
+      </c>
+    </row>
+    <row r="804" spans="3:3">
+      <c r="C804" t="s">
+        <v>1033</v>
+      </c>
+    </row>
+    <row r="805" spans="3:3">
+      <c r="C805" t="s">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="806" spans="3:3">
+      <c r="C806" t="s">
+        <v>1035</v>
+      </c>
+    </row>
+    <row r="807" spans="3:3">
+      <c r="C807" t="s">
+        <v>1036</v>
+      </c>
+    </row>
+    <row r="809" spans="3:3">
+      <c r="C809" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="810" spans="3:3">
+      <c r="C810" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="811" spans="3:3">
+      <c r="C811" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="813" spans="3:3">
+      <c r="C813" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="814" spans="3:3">
+      <c r="C814" t="s">
+        <v>1041</v>
+      </c>
+    </row>
+    <row r="815" spans="3:3">
+      <c r="C815" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="818" spans="3:3">
+      <c r="C818" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="819" spans="3:3">
+      <c r="C819" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="820" spans="3:3">
+      <c r="C820" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="822" spans="3:3">
+      <c r="C822" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="824" spans="3:3">
+      <c r="C824" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="825" spans="3:3">
+      <c r="C825" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="826" spans="3:3">
+      <c r="C826" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="828" spans="3:3">
+      <c r="C828" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="829" spans="3:3">
+      <c r="C829" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="830" spans="3:3">
+      <c r="C830" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="831" spans="3:3">
+      <c r="C831" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="832" spans="3:3">
+      <c r="C832" t="s">
+        <v>1054</v>
+      </c>
+    </row>
+    <row r="833" spans="3:3">
+      <c r="C833" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="834" spans="3:3">
+      <c r="C834" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="836" spans="3:3">
+      <c r="C836" t="s">
+        <v>1062</v>
+      </c>
+    </row>
+    <row r="837" spans="3:3">
+      <c r="C837" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="838" spans="3:3">
+      <c r="C838" t="s">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="840" spans="3:3">
+      <c r="C840" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="841" spans="3:3">
+      <c r="C841" t="s">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="844" spans="3:3">
+      <c r="C844" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="845" spans="3:3">
+      <c r="C845" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="846" spans="3:3">
+      <c r="C846" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="848" spans="3:3">
+      <c r="C848" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="851" spans="3:3">
+      <c r="C851" t="s">
+        <v>1076</v>
+      </c>
+    </row>
+    <row r="852" spans="3:3">
+      <c r="C852" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="853" spans="3:3">
+      <c r="C853" t="s">
+        <v>1077</v>
+      </c>
+    </row>
+    <row r="855" spans="3:3">
+      <c r="C855" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="856" spans="3:3">
+      <c r="C856" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="857" spans="3:3">
+      <c r="C857" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="858" spans="3:3">
+      <c r="C858" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="859" spans="3:3">
+      <c r="C859" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="860" spans="3:3">
+      <c r="C860" t="s">
+        <v>1074</v>
+      </c>
+    </row>
+    <row r="861" spans="3:3">
+      <c r="C861" t="s">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="863" spans="3:3">
+      <c r="C863" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="864" spans="3:3">
+      <c r="C864" t="s">
+        <v>1078</v>
+      </c>
+    </row>
+    <row r="865" spans="3:3">
+      <c r="C865" t="s">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="867" spans="3:3">
+      <c r="C867" t="s">
+        <v>1079</v>
+      </c>
+    </row>
+    <row r="868" spans="3:3">
+      <c r="C868" t="s">
+        <v>1080</v>
+      </c>
+    </row>
+    <row r="869" spans="3:3">
+      <c r="C869" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="870" spans="3:3">
+      <c r="C870" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="872" spans="3:3">
+      <c r="C872" t="s">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="873" spans="3:3">
+      <c r="C873" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="874" spans="3:3">
+      <c r="C874" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="876" spans="3:3">
+      <c r="C876" t="s">
+        <v>1086</v>
+      </c>
+    </row>
+    <row r="877" spans="3:3">
+      <c r="C877" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="878" spans="3:3">
+      <c r="C878" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="879" spans="3:3">
+      <c r="C879" t="s">
+        <v>1089</v>
+      </c>
+    </row>
+    <row r="880" spans="3:3">
+      <c r="C880" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="881" spans="3:3">
+      <c r="C881" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="883" spans="3:3">
+      <c r="C883" t="s">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="884" spans="3:3">
+      <c r="C884" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="885" spans="3:3">
+      <c r="C885" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="886" spans="3:3">
+      <c r="C886" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="888" spans="3:3">
+      <c r="C888" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="891" spans="3:3">
+      <c r="C891" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="892" spans="3:3">
+      <c r="C892" t="s">
+        <v>1099</v>
+      </c>
+    </row>
+    <row r="893" spans="3:3">
+      <c r="C893" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="895" spans="3:3">
+      <c r="C895" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="896" spans="3:3">
+      <c r="C896" t="s">
+        <v>1101</v>
+      </c>
+    </row>
+    <row r="898" spans="3:3">
+      <c r="C898" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="899" spans="3:3">
+      <c r="C899" t="s">
+        <v>1104</v>
+      </c>
+    </row>
+    <row r="900" spans="3:3">
+      <c r="C900" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="902" spans="3:3">
+      <c r="C902" t="s">
+        <v>1105</v>
+      </c>
+    </row>
+    <row r="903" spans="3:3">
+      <c r="C903" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="904" spans="3:3">
+      <c r="C904" t="s">
+        <v>1107</v>
+      </c>
+    </row>
+    <row r="905" spans="3:3">
+      <c r="C905" t="s">
+        <v>1108</v>
+      </c>
+    </row>
+    <row r="907" spans="3:3">
+      <c r="C907" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="908" spans="3:3">
+      <c r="C908" t="s">
+        <v>1110</v>
+      </c>
+    </row>
+    <row r="911" spans="3:3">
+      <c r="C911" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="912" spans="3:3">
+      <c r="C912" t="s">
+        <v>1113</v>
+      </c>
+    </row>
+    <row r="913" spans="3:3">
+      <c r="C913" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="915" spans="3:3">
+      <c r="C915" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="916" spans="3:3">
+      <c r="C916" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="917" spans="3:3">
+      <c r="C917" t="s">
+        <v>1116</v>
+      </c>
+    </row>
+    <row r="918" spans="3:3">
+      <c r="C918" t="s">
+        <v>1117</v>
+      </c>
+    </row>
+    <row r="919" spans="3:3">
+      <c r="C919" t="s">
+        <v>1118</v>
+      </c>
+    </row>
+    <row r="921" spans="3:3">
+      <c r="C921" t="s">
+        <v>1130</v>
+      </c>
+    </row>
+    <row r="922" spans="3:3">
+      <c r="C922" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="923" spans="3:3">
+      <c r="C923" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="925" spans="3:3">
+      <c r="C925" t="s">
+        <v>1122</v>
+      </c>
+    </row>
+    <row r="926" spans="3:3">
+      <c r="C926" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="927" spans="3:3">
+      <c r="C927" t="s">
+        <v>1124</v>
+      </c>
+    </row>
+    <row r="928" spans="3:3">
+      <c r="C928" t="s">
+        <v>1125</v>
+      </c>
+    </row>
+    <row r="929" spans="3:3">
+      <c r="C929" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="930" spans="3:3">
+      <c r="C930" t="s">
+        <v>1127</v>
+      </c>
+    </row>
+    <row r="931" spans="3:3">
+      <c r="C931" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="932" spans="3:3">
+      <c r="C932" t="s">
+        <v>1129</v>
+      </c>
+    </row>
+    <row r="935" spans="3:3">
+      <c r="C935" t="s">
+        <v>1147</v>
+      </c>
+    </row>
+    <row r="936" spans="3:3">
+      <c r="C936" t="s">
+        <v>1132</v>
+      </c>
+    </row>
+    <row r="937" spans="3:3">
+      <c r="C937" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="939" spans="3:3">
+      <c r="C939" t="s">
+        <v>1133</v>
+      </c>
+    </row>
+    <row r="940" spans="3:3">
+      <c r="C940" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="941" spans="3:3">
+      <c r="C941" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="942" spans="3:3">
+      <c r="C942" t="s">
+        <v>1136</v>
+      </c>
+    </row>
+    <row r="943" spans="3:3">
+      <c r="C943" t="s">
+        <v>1137</v>
+      </c>
+    </row>
+    <row r="944" spans="3:3">
+      <c r="C944" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="945" spans="3:3">
+      <c r="C945" t="s">
+        <v>1139</v>
+      </c>
+    </row>
+    <row r="946" spans="3:3">
+      <c r="C946" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="947" spans="3:3">
+      <c r="C947" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="948" spans="3:3">
+      <c r="C948" t="s">
+        <v>1142</v>
+      </c>
+    </row>
+    <row r="949" spans="3:3">
+      <c r="C949" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="950" spans="3:3">
+      <c r="C950" t="s">
+        <v>1143</v>
+      </c>
+    </row>
+    <row r="951" spans="3:3">
+      <c r="C951" t="s">
+        <v>1144</v>
+      </c>
+    </row>
+    <row r="952" spans="3:3">
+      <c r="C952" t="s">
+        <v>1145</v>
+      </c>
+    </row>
+    <row r="953" spans="3:3">
+      <c r="C953" t="s">
+        <v>1146</v>
+      </c>
+    </row>
+    <row r="955" spans="3:3">
+      <c r="C955" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="956" spans="3:3">
+      <c r="C956" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="957" spans="3:3">
+      <c r="C957" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="959" spans="3:3">
+      <c r="C959" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="961" spans="3:3">
+      <c r="C961" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="962" spans="3:3">
+      <c r="C962" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="963" spans="3:3">
+      <c r="C963" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="965" spans="3:3">
+      <c r="C965" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="966" spans="3:3">
+      <c r="C966" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="967" spans="3:3">
+      <c r="C967" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="968" spans="3:3">
+      <c r="C968" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="969" spans="3:3">
+      <c r="C969" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="972" spans="3:3">
+      <c r="C972" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="973" spans="3:3">
+      <c r="C973" t="s">
+        <v>1161</v>
+      </c>
+    </row>
+    <row r="974" spans="3:3">
+      <c r="C974" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="976" spans="3:3">
+      <c r="C976" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="977" spans="3:3">
+      <c r="C977" t="s">
+        <v>1163</v>
+      </c>
+    </row>
+    <row r="978" spans="3:3">
+      <c r="C978" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="979" spans="3:3">
+      <c r="C979" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="980" spans="3:3">
+      <c r="C980" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="981" spans="3:3">
+      <c r="C981" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="994" spans="3:3">
+      <c r="C994" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="995" spans="3:3">
+      <c r="C995" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="996" spans="3:3">
+      <c r="C996" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="998" spans="3:3">
+      <c r="C998" t="s">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="999" spans="3:3">
+      <c r="C999" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="1000" spans="3:3">
+      <c r="C1000" t="s">
+        <v>1173</v>
+      </c>
+    </row>
+    <row r="1002" spans="3:3">
+      <c r="C1002" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="1003" spans="3:3">
+      <c r="C1003" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="1004" spans="3:3">
+      <c r="C1004" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="1006" spans="3:3">
+      <c r="C1006" t="s">
+        <v>1176</v>
+      </c>
+    </row>
+    <row r="1007" spans="3:3">
+      <c r="C1007" t="s">
+        <v>1177</v>
+      </c>
+    </row>
+    <row r="1008" spans="3:3">
+      <c r="C1008" t="s">
+        <v>1178</v>
+      </c>
+    </row>
+    <row r="1009" spans="3:3">
+      <c r="C1009" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="1010" spans="3:3">
+      <c r="C1010" t="s">
+        <v>1180</v>
+      </c>
+    </row>
+    <row r="1011" spans="3:3">
+      <c r="C1011" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="1013" spans="3:3">
+      <c r="C1013" t="s">
+        <v>1190</v>
+      </c>
+    </row>
+    <row r="1014" spans="3:3">
+      <c r="C1014" t="s">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="1015" spans="3:3">
+      <c r="C1015" t="s">
+        <v>1191</v>
+      </c>
+    </row>
+    <row r="1017" spans="3:3">
+      <c r="C1017" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="1018" spans="3:3">
+      <c r="C1018" t="s">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="1019" spans="3:3">
+      <c r="C1019" t="s">
+        <v>1187</v>
+      </c>
+    </row>
+    <row r="1020" spans="3:3">
+      <c r="C1020" t="s">
+        <v>1188</v>
+      </c>
+    </row>
+    <row r="1021" spans="3:3">
+      <c r="C1021" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="1024" spans="3:3">
+      <c r="C1024" t="s">
+        <v>1196</v>
+      </c>
+    </row>
+    <row r="1025" spans="3:3">
+      <c r="C1025" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="1026" spans="3:3">
+      <c r="C1026" t="s">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="1028" spans="3:3">
+      <c r="C1028" t="s">
+        <v>1193</v>
+      </c>
+    </row>
+    <row r="1029" spans="3:3">
+      <c r="C1029" t="s">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="1030" spans="3:3">
+      <c r="C1030" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="1032" spans="3:3">
+      <c r="C1032" t="s">
+        <v>1206</v>
+      </c>
+    </row>
+    <row r="1033" spans="3:3">
+      <c r="C1033" t="s">
+        <v>1198</v>
+      </c>
+    </row>
+    <row r="1034" spans="3:3">
+      <c r="C1034" t="s">
+        <v>1207</v>
+      </c>
+    </row>
+    <row r="1036" spans="3:3">
+      <c r="C1036" t="s">
+        <v>1199</v>
+      </c>
+    </row>
+    <row r="1037" spans="3:3">
+      <c r="C1037" t="s">
+        <v>1200</v>
+      </c>
+    </row>
+    <row r="1038" spans="3:3">
+      <c r="C1038" t="s">
+        <v>1201</v>
+      </c>
+    </row>
+    <row r="1039" spans="3:3">
+      <c r="C1039" t="s">
+        <v>1202</v>
+      </c>
+    </row>
+    <row r="1040" spans="3:3">
+      <c r="C1040" t="s">
+        <v>1203</v>
+      </c>
+    </row>
+    <row r="1041" spans="3:3">
+      <c r="C1041" t="s">
+        <v>1204</v>
+      </c>
+    </row>
+    <row r="1042" spans="3:3">
+      <c r="C1042" t="s">
+        <v>1205</v>
+      </c>
+    </row>
+    <row r="1044" spans="3:3">
+      <c r="C1044" t="s">
+        <v>1212</v>
+      </c>
+    </row>
+    <row r="1045" spans="3:3">
+      <c r="C1045" t="s">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="1046" spans="3:3">
+      <c r="C1046" t="s">
+        <v>1213</v>
+      </c>
+    </row>
+    <row r="1048" spans="3:3">
+      <c r="C1048" t="s">
+        <v>1209</v>
+      </c>
+    </row>
+    <row r="1049" spans="3:3">
+      <c r="C1049" t="s">
+        <v>1210</v>
+      </c>
+    </row>
+    <row r="1050" spans="3:3">
+      <c r="C1050" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="1052" spans="3:3">
+      <c r="C1052" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="1053" spans="3:3">
+      <c r="C1053" t="s">
+        <v>1214</v>
+      </c>
+    </row>
+    <row r="1054" spans="3:3">
+      <c r="C1054" t="s">
+        <v>1221</v>
+      </c>
+    </row>
+    <row r="1056" spans="3:3">
+      <c r="C1056" t="s">
+        <v>1215</v>
+      </c>
+    </row>
+    <row r="1057" spans="3:3">
+      <c r="C1057" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="1058" spans="3:3">
+      <c r="C1058" t="s">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="1059" spans="3:3">
+      <c r="C1059" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="1060" spans="3:3">
+      <c r="C1060" t="s">
+        <v>1219</v>
+      </c>
+    </row>
+    <row r="1062" spans="3:3">
+      <c r="C1062" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="1063" spans="3:3">
+      <c r="C1063" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="1064" spans="3:3">
+      <c r="C1064" t="s">
+        <v>1229</v>
+      </c>
+    </row>
+    <row r="1066" spans="3:3">
+      <c r="C1066" t="s">
+        <v>1223</v>
+      </c>
+    </row>
+    <row r="1067" spans="3:3">
+      <c r="C1067" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="1068" spans="3:3">
+      <c r="C1068" t="s">
+        <v>1225</v>
+      </c>
+    </row>
+    <row r="1069" spans="3:3">
+      <c r="C1069" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="1070" spans="3:3">
+      <c r="C1070" t="s">
+        <v>1227</v>
+      </c>
+    </row>
+    <row r="1073" spans="3:3">
+      <c r="C1073" t="s">
+        <v>1239</v>
+      </c>
+    </row>
+    <row r="1074" spans="3:3">
+      <c r="C1074" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="1075" spans="3:3">
+      <c r="C1075" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="1077" spans="3:3">
+      <c r="C1077" t="s">
+        <v>1231</v>
+      </c>
+    </row>
+    <row r="1078" spans="3:3">
+      <c r="C1078" t="s">
+        <v>1232</v>
+      </c>
+    </row>
+    <row r="1079" spans="3:3">
+      <c r="C1079" t="s">
+        <v>1233</v>
+      </c>
+    </row>
+    <row r="1080" spans="3:3">
+      <c r="C1080" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="1081" spans="3:3">
+      <c r="C1081" t="s">
+        <v>1235</v>
+      </c>
+    </row>
+    <row r="1082" spans="3:3">
+      <c r="C1082" t="s">
+        <v>1236</v>
+      </c>
+    </row>
+    <row r="1083" spans="3:3">
+      <c r="C1083" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="1084" spans="3:3">
+      <c r="C1084" t="s">
+        <v>953</v>
+      </c>
+    </row>
+    <row r="1085" spans="3:3">
+      <c r="C1085" t="s">
+        <v>1238</v>
+      </c>
+    </row>
+    <row r="1088" spans="3:3">
+      <c r="C1088" t="s">
+        <v>1248</v>
+      </c>
+    </row>
+    <row r="1089" spans="3:3">
+      <c r="C1089" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+    <row r="1090" spans="3:3">
+      <c r="C1090" t="s">
+        <v>1249</v>
+      </c>
+    </row>
+    <row r="1092" spans="3:3">
+      <c r="C1092" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="1093" spans="3:3">
+      <c r="C1093" t="s">
+        <v>1243</v>
+      </c>
+    </row>
+    <row r="1094" spans="3:3">
+      <c r="C1094" t="s">
+        <v>1244</v>
+      </c>
+    </row>
+    <row r="1095" spans="3:3">
+      <c r="C1095" t="s">
+        <v>1245</v>
+      </c>
+    </row>
+    <row r="1096" spans="3:3">
+      <c r="C1096" t="s">
+        <v>1246</v>
+      </c>
+    </row>
+    <row r="1097" spans="3:3">
+      <c r="C1097" t="s">
+        <v>1247</v>
+      </c>
+    </row>
+    <row r="1100" spans="3:3">
+      <c r="C1100" t="s">
+        <v>1257</v>
+      </c>
+    </row>
+    <row r="1101" spans="3:3">
+      <c r="C1101" t="s">
+        <v>1250</v>
+      </c>
+    </row>
+    <row r="1102" spans="3:3">
+      <c r="C1102" t="s">
+        <v>1258</v>
+      </c>
+    </row>
+    <row r="1104" spans="3:3">
+      <c r="C1104" t="s">
+        <v>1251</v>
+      </c>
+    </row>
+    <row r="1105" spans="3:3">
+      <c r="C1105" t="s">
+        <v>1252</v>
+      </c>
+    </row>
+    <row r="1106" spans="3:3">
+      <c r="C1106" t="s">
+        <v>1253</v>
+      </c>
+    </row>
+    <row r="1107" spans="3:3">
+      <c r="C1107" t="s">
+        <v>1254</v>
+      </c>
+    </row>
+    <row r="1108" spans="3:3">
+      <c r="C1108" t="s">
+        <v>1255</v>
+      </c>
+    </row>
+    <row r="1109" spans="3:3">
+      <c r="C1109" t="s">
+        <v>1256</v>
+      </c>
+    </row>
+    <row r="1112" spans="3:3">
+      <c r="C1112" t="s">
+        <v>1262</v>
+      </c>
+    </row>
+    <row r="1113" spans="3:3">
+      <c r="C1113" t="s">
+        <v>1259</v>
+      </c>
+    </row>
+    <row r="1114" spans="3:3">
+      <c r="C1114" t="s">
+        <v>1263</v>
+      </c>
+    </row>
+    <row r="1116" spans="3:3">
+      <c r="C1116" t="s">
+        <v>1260</v>
+      </c>
+    </row>
+    <row r="1117" spans="3:3">
+      <c r="C1117" t="s">
+        <v>1261</v>
+      </c>
+    </row>
+    <row r="1119" spans="3:3">
+      <c r="C1119" t="s">
+        <v>1270</v>
+      </c>
+    </row>
+    <row r="1120" spans="3:3">
+      <c r="C1120" t="s">
+        <v>1264</v>
+      </c>
+    </row>
+    <row r="1121" spans="3:3">
+      <c r="C1121" t="s">
+        <v>1271</v>
+      </c>
+    </row>
+    <row r="1123" spans="3:3">
+      <c r="C1123" t="s">
+        <v>1265</v>
+      </c>
+    </row>
+    <row r="1124" spans="3:3">
+      <c r="C1124" t="s">
+        <v>1266</v>
+      </c>
+    </row>
+    <row r="1125" spans="3:3">
+      <c r="C1125" t="s">
+        <v>1267</v>
+      </c>
+    </row>
+    <row r="1126" spans="3:3">
+      <c r="C1126" t="s">
+        <v>1268</v>
+      </c>
+    </row>
+    <row r="1127" spans="3:3">
+      <c r="C1127" t="s">
+        <v>1269</v>
+      </c>
+    </row>
+    <row r="1129" spans="3:3">
+      <c r="C1129" t="s">
+        <v>1275</v>
+      </c>
+    </row>
+    <row r="1130" spans="3:3">
+      <c r="C1130" t="s">
+        <v>1272</v>
+      </c>
+    </row>
+    <row r="1131" spans="3:3">
+      <c r="C1131" t="s">
+        <v>1276</v>
+      </c>
+    </row>
+    <row r="1133" spans="3:3">
+      <c r="C1133" t="s">
+        <v>1273</v>
+      </c>
+    </row>
+    <row r="1134" spans="3:3">
+      <c r="C1134" t="s">
+        <v>1274</v>
+      </c>
+    </row>
+    <row r="1136" spans="3:3">
+      <c r="C1136" t="s">
+        <v>1279</v>
+      </c>
+    </row>
+    <row r="1137" spans="3:3">
+      <c r="C1137" t="s">
+        <v>1277</v>
+      </c>
+    </row>
+    <row r="1138" spans="3:3">
+      <c r="C1138" t="s">
+        <v>1280</v>
+      </c>
+    </row>
+    <row r="1140" spans="3:3">
+      <c r="C1140" t="s">
+        <v>1278</v>
+      </c>
+    </row>
+    <row r="1142" spans="3:3">
+      <c r="C1142" t="s">
+        <v>1284</v>
+      </c>
+    </row>
+    <row r="1143" spans="3:3">
+      <c r="C1143" t="s">
+        <v>1281</v>
+      </c>
+    </row>
+    <row r="1144" spans="3:3">
+      <c r="C1144" t="s">
+        <v>1285</v>
+      </c>
+    </row>
+    <row r="1146" spans="3:3">
+      <c r="C1146" t="s">
+        <v>1282</v>
+      </c>
+    </row>
+    <row r="1147" spans="3:3">
+      <c r="C1147" t="s">
+        <v>1283</v>
+      </c>
+    </row>
+    <row r="1157" spans="3:3">
+      <c r="C1157" t="s">
+        <v>1296</v>
+      </c>
+    </row>
+    <row r="1158" spans="3:3">
+      <c r="C1158" t="s">
+        <v>1286</v>
+      </c>
+    </row>
+    <row r="1159" spans="3:3">
+      <c r="C1159" t="s">
+        <v>1297</v>
+      </c>
+    </row>
+    <row r="1161" spans="3:3">
+      <c r="C1161" t="s">
+        <v>1287</v>
+      </c>
+    </row>
+    <row r="1162" spans="3:3">
+      <c r="C1162" t="s">
+        <v>1288</v>
+      </c>
+    </row>
+    <row r="1163" spans="3:3">
+      <c r="C1163" t="s">
+        <v>1289</v>
+      </c>
+    </row>
+    <row r="1164" spans="3:3">
+      <c r="C1164" t="s">
+        <v>1290</v>
+      </c>
+    </row>
+    <row r="1165" spans="3:3">
+      <c r="C1165" t="s">
+        <v>1291</v>
+      </c>
+    </row>
+    <row r="1166" spans="3:3">
+      <c r="C1166" t="s">
+        <v>1292</v>
+      </c>
+    </row>
+    <row r="1167" spans="3:3">
+      <c r="C1167" t="s">
+        <v>1293</v>
+      </c>
+    </row>
+    <row r="1168" spans="3:3">
+      <c r="C1168" t="s">
+        <v>1294</v>
+      </c>
+    </row>
+    <row r="1169" spans="3:3">
+      <c r="C1169" t="s">
+        <v>1295</v>
+      </c>
+    </row>
+    <row r="1171" spans="3:3">
+      <c r="C1171" t="s">
+        <v>1306</v>
+      </c>
+    </row>
+    <row r="1172" spans="3:3">
+      <c r="C1172" t="s">
+        <v>1298</v>
+      </c>
+    </row>
+    <row r="1173" spans="3:3">
+      <c r="C1173" t="s">
+        <v>1307</v>
+      </c>
+    </row>
+    <row r="1175" spans="3:3">
+      <c r="C1175" t="s">
+        <v>1299</v>
+      </c>
+    </row>
+    <row r="1176" spans="3:3">
+      <c r="C1176" t="s">
+        <v>1300</v>
+      </c>
+    </row>
+    <row r="1177" spans="3:3">
+      <c r="C1177" t="s">
+        <v>1301</v>
+      </c>
+    </row>
+    <row r="1178" spans="3:3">
+      <c r="C1178" t="s">
+        <v>1302</v>
+      </c>
+    </row>
+    <row r="1179" spans="3:3">
+      <c r="C1179" t="s">
+        <v>1303</v>
+      </c>
+    </row>
+    <row r="1180" spans="3:3">
+      <c r="C1180" t="s">
+        <v>1304</v>
+      </c>
+    </row>
+    <row r="1181" spans="3:3">
+      <c r="C1181" t="s">
+        <v>1305</v>
+      </c>
+    </row>
+    <row r="1184" spans="3:3">
+      <c r="C1184" t="s">
+        <v>1319</v>
+      </c>
+    </row>
+    <row r="1185" spans="3:3">
+      <c r="C1185" t="s">
+        <v>1308</v>
+      </c>
+    </row>
+    <row r="1186" spans="3:3">
+      <c r="C1186" t="s">
+        <v>1320</v>
+      </c>
+    </row>
+    <row r="1188" spans="3:3">
+      <c r="C1188" t="s">
+        <v>1309</v>
+      </c>
+    </row>
+    <row r="1189" spans="3:3">
+      <c r="C1189" t="s">
+        <v>1310</v>
+      </c>
+    </row>
+    <row r="1190" spans="3:3">
+      <c r="C1190" t="s">
+        <v>1311</v>
+      </c>
+    </row>
+    <row r="1191" spans="3:3">
+      <c r="C1191" t="s">
+        <v>1312</v>
+      </c>
+    </row>
+    <row r="1192" spans="3:3">
+      <c r="C1192" t="s">
+        <v>1313</v>
+      </c>
+    </row>
+    <row r="1193" spans="3:3">
+      <c r="C1193" t="s">
+        <v>1314</v>
+      </c>
+    </row>
+    <row r="1194" spans="3:3">
+      <c r="C1194" t="s">
+        <v>1315</v>
+      </c>
+    </row>
+    <row r="1195" spans="3:3">
+      <c r="C1195" t="s">
+        <v>1316</v>
+      </c>
+    </row>
+    <row r="1196" spans="3:3">
+      <c r="C1196" t="s">
+        <v>1317</v>
+      </c>
+    </row>
+    <row r="1197" spans="3:3">
+      <c r="C1197" t="s">
+        <v>1318</v>
+      </c>
+    </row>
+    <row r="1200" spans="3:3">
+      <c r="C1200" t="s">
+        <v>1324</v>
+      </c>
+    </row>
+    <row r="1201" spans="3:3">
+      <c r="C1201" t="s">
+        <v>1321</v>
+      </c>
+    </row>
+    <row r="1202" spans="3:3">
+      <c r="C1202" t="s">
+        <v>1325</v>
+      </c>
+    </row>
+    <row r="1204" spans="3:3">
+      <c r="C1204" t="s">
+        <v>1322</v>
+      </c>
+    </row>
+    <row r="1205" spans="3:3">
+      <c r="C1205" t="s">
+        <v>1323</v>
       </c>
     </row>
   </sheetData>
@@ -9233,12 +12203,9 @@
   <hyperlinks>
     <hyperlink ref="C50" r:id="rId1" display="../araisan_sozai/log/200214_708189231_%E3%81%82%E3%81%B6%E3%81%B6%E3%83%9E%E3%83%B3%E3%82%B7%E3%83%A7%E3%83%B3%E3%82%B9%E3%83%AC_-_%E4%BA%8C%E6%AC%A1%E5%85%83%E8%A3%8F%EF%BC%A0%E3%81%B5%E3%81%9F%E3%81%B0/may.2chan.net_b_res_708189231/img/1581645077280.png"/>
     <hyperlink ref="C78" r:id="rId2" display="https://storage.googleapis.com/rituprecious.appspot.com/m/b/1623933851511.png"/>
-    <hyperlink ref="C166" r:id="rId3" display="javascript:void(0);"/>
-    <hyperlink ref="C167" r:id="rId4" display="https://storage.googleapis.com/rituprecious.appspot.com/m/b/1620824981071.png"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId5"/>
-  <drawing r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId3"/>
 </worksheet>
 </file>
 
@@ -9254,31 +12221,31 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>754</v>
+        <v>751</v>
       </c>
     </row>
     <row r="4" spans="2:5">
       <c r="C4" t="s">
-        <v>755</v>
+        <v>752</v>
       </c>
       <c r="E4" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="6" spans="2:5">
       <c r="C6" t="s">
-        <v>761</v>
+        <v>758</v>
       </c>
       <c r="E6" t="s">
-        <v>779</v>
+        <v>776</v>
       </c>
     </row>
     <row r="8" spans="2:5">
       <c r="C8" t="s">
-        <v>766</v>
+        <v>763</v>
       </c>
       <c r="E8" t="s">
-        <v>780</v>
+        <v>777</v>
       </c>
     </row>
   </sheetData>
@@ -9303,7 +12270,7 @@
   <sheetData>
     <row r="1" spans="2:5">
       <c r="E1" t="s">
-        <v>764</v>
+        <v>761</v>
       </c>
     </row>
     <row r="2" spans="2:5">
@@ -9313,13 +12280,13 @@
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
+        <v>415</v>
+      </c>
+      <c r="C3" t="s">
         <v>416</v>
       </c>
-      <c r="C3" t="s">
+      <c r="D3" t="s">
         <v>417</v>
-      </c>
-      <c r="D3" t="s">
-        <v>418</v>
       </c>
     </row>
     <row r="4" spans="2:5">
@@ -9327,10 +12294,10 @@
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="D4" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -9341,10 +12308,10 @@
         <v>2</v>
       </c>
       <c r="C5" t="s">
+        <v>418</v>
+      </c>
+      <c r="D5" t="s">
         <v>419</v>
-      </c>
-      <c r="D5" t="s">
-        <v>420</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -9355,7 +12322,7 @@
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="E6">
         <v>1</v>
@@ -9366,10 +12333,10 @@
         <v>4</v>
       </c>
       <c r="C7" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="D7" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="E7">
         <v>1</v>
@@ -9380,7 +12347,7 @@
         <v>5</v>
       </c>
       <c r="C8" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="E8">
         <v>1</v>
@@ -9391,7 +12358,7 @@
         <v>6</v>
       </c>
       <c r="C9" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="E9">
         <v>1</v>
@@ -9402,7 +12369,7 @@
         <v>7</v>
       </c>
       <c r="C10" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="E10">
         <v>1</v>
@@ -9424,7 +12391,7 @@
         <v>9</v>
       </c>
       <c r="C12" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="E12">
         <v>1</v>
@@ -9435,7 +12402,7 @@
         <v>10</v>
       </c>
       <c r="C13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="E13">
         <v>1</v>
@@ -9449,7 +12416,7 @@
         <v>173</v>
       </c>
       <c r="D14" t="s">
-        <v>772</v>
+        <v>769</v>
       </c>
       <c r="E14">
         <v>1</v>
@@ -9460,7 +12427,7 @@
         <v>12</v>
       </c>
       <c r="C15" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="E15">
         <v>1</v>
@@ -9471,10 +12438,10 @@
         <v>13</v>
       </c>
       <c r="C16" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="E16" t="s">
-        <v>773</v>
+        <v>770</v>
       </c>
     </row>
     <row r="17" spans="2:5">
@@ -9482,7 +12449,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="E17">
         <v>1</v>
@@ -9493,7 +12460,7 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="E18">
         <v>1</v>
@@ -9504,7 +12471,7 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E19">
         <v>1</v>
@@ -9512,12 +12479,12 @@
     </row>
     <row r="21" spans="2:5">
       <c r="B21" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
     </row>
     <row r="22" spans="2:5">
       <c r="B22" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
     </row>
     <row r="23" spans="2:5">
@@ -9525,7 +12492,7 @@
         <v>1</v>
       </c>
       <c r="C23" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="E23">
         <v>1</v>
@@ -9536,7 +12503,7 @@
         <v>2</v>
       </c>
       <c r="C24" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="E24">
         <v>1</v>
@@ -9569,7 +12536,7 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="E27">
         <v>1</v>
@@ -9580,7 +12547,7 @@
         <v>6</v>
       </c>
       <c r="C28" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="E28">
         <v>1</v>
@@ -9591,7 +12558,7 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="E29">
         <v>1</v>
@@ -9613,7 +12580,7 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="E31">
         <v>1</v>
@@ -9624,10 +12591,10 @@
         <v>10</v>
       </c>
       <c r="C32" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="D32" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="E32">
         <v>1</v>
@@ -9638,7 +12605,7 @@
         <v>11</v>
       </c>
       <c r="C33" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="E33">
         <v>1</v>
@@ -9649,7 +12616,7 @@
         <v>12</v>
       </c>
       <c r="C34" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="E34">
         <v>1</v>
@@ -9660,7 +12627,7 @@
         <v>13</v>
       </c>
       <c r="C35" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="36" spans="2:5">
@@ -9668,7 +12635,7 @@
         <v>14</v>
       </c>
       <c r="C36" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="37" spans="2:5">
@@ -9676,7 +12643,7 @@
         <v>15</v>
       </c>
       <c r="C37" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="38" spans="2:5">
@@ -9684,12 +12651,12 @@
         <v>16</v>
       </c>
       <c r="C38" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="40" spans="2:5">
       <c r="B40" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
     </row>
     <row r="41" spans="2:5">
@@ -9697,7 +12664,7 @@
         <v>10</v>
       </c>
       <c r="C41" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="E41">
         <v>1</v>
@@ -9708,10 +12675,10 @@
         <v>9</v>
       </c>
       <c r="C42" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="E42" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="43" spans="2:5">
@@ -9719,10 +12686,10 @@
         <v>8</v>
       </c>
       <c r="C43" t="s">
-        <v>775</v>
+        <v>772</v>
       </c>
       <c r="E43" t="s">
-        <v>776</v>
+        <v>773</v>
       </c>
     </row>
     <row r="44" spans="2:5">
@@ -9730,7 +12697,7 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="45" spans="2:5">
@@ -9738,7 +12705,7 @@
         <v>6</v>
       </c>
       <c r="C45" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="46" spans="2:5">
@@ -9746,7 +12713,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="47" spans="2:5">
@@ -9754,7 +12721,7 @@
         <v>4</v>
       </c>
       <c r="C47" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="48" spans="2:5">
@@ -9762,7 +12729,7 @@
         <v>3</v>
       </c>
       <c r="C48" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="49" spans="2:3">
@@ -9770,7 +12737,7 @@
         <v>2</v>
       </c>
       <c r="C49" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="50" spans="2:3">
@@ -9778,7 +12745,7 @@
         <v>1</v>
       </c>
       <c r="C50" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
     <row r="51" spans="2:3">
@@ -9786,7 +12753,7 @@
         <v>0</v>
       </c>
       <c r="C51" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
     </row>
   </sheetData>
@@ -9800,8 +12767,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A25" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -10103,6 +13070,9 @@
       <c r="I14" t="s">
         <v>226</v>
       </c>
+      <c r="K14" t="s">
+        <v>938</v>
+      </c>
     </row>
     <row r="15" spans="2:11">
       <c r="B15">
@@ -10143,6 +13113,9 @@
       <c r="I16" t="s">
         <v>228</v>
       </c>
+      <c r="K16">
+        <v>1</v>
+      </c>
     </row>
     <row r="17" spans="2:11">
       <c r="B17">
@@ -10185,6 +13158,9 @@
       </c>
       <c r="I18" t="s">
         <v>230</v>
+      </c>
+      <c r="K18">
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="2:11">
@@ -10825,22 +13801,22 @@
   <sheetData>
     <row r="2" spans="2:2">
       <c r="B2" t="s">
-        <v>756</v>
+        <v>753</v>
       </c>
     </row>
     <row r="4" spans="2:2">
       <c r="B4" t="s">
-        <v>757</v>
+        <v>754</v>
       </c>
     </row>
     <row r="13" spans="2:2">
       <c r="B13" t="s">
-        <v>758</v>
+        <v>755</v>
       </c>
     </row>
     <row r="15" spans="2:2">
       <c r="B15" t="s">
-        <v>759</v>
+        <v>756</v>
       </c>
     </row>
   </sheetData>
@@ -10996,7 +13972,7 @@
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>774</v>
+        <v>771</v>
       </c>
     </row>
   </sheetData>
@@ -11011,7 +13987,7 @@
   <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="C22" sqref="C22"/>
+      <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11173,7 +14149,7 @@
         <v>19</v>
       </c>
       <c r="C22" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
     </row>
     <row r="23" spans="2:4">
@@ -11181,7 +14157,7 @@
         <v>20</v>
       </c>
       <c r="C23" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
     </row>
     <row r="24" spans="2:4">
@@ -11189,7 +14165,7 @@
         <v>21</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>763</v>
+        <v>760</v>
       </c>
     </row>
     <row r="25" spans="2:4">
@@ -11197,30 +14173,54 @@
         <v>22</v>
       </c>
       <c r="C25" t="s">
-        <v>767</v>
+        <v>764</v>
       </c>
       <c r="D25" t="s">
-        <v>768</v>
+        <v>765</v>
       </c>
     </row>
     <row r="26" spans="2:4">
       <c r="B26">
         <v>23</v>
       </c>
+      <c r="C26" t="s">
+        <v>931</v>
+      </c>
+      <c r="D26" t="s">
+        <v>932</v>
+      </c>
     </row>
     <row r="27" spans="2:4">
       <c r="B27">
         <v>24</v>
       </c>
+      <c r="C27" t="s">
+        <v>933</v>
+      </c>
+      <c r="D27" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="28" spans="2:4">
       <c r="B28">
         <v>25</v>
       </c>
+      <c r="C28" t="s">
+        <v>934</v>
+      </c>
+      <c r="D28" t="s">
+        <v>288</v>
+      </c>
     </row>
     <row r="29" spans="2:4">
       <c r="B29">
         <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>936</v>
+      </c>
+      <c r="D29" t="s">
+        <v>288</v>
       </c>
     </row>
     <row r="30" spans="2:4">
@@ -11631,7 +14631,7 @@
   <dimension ref="B2:E191"/>
   <sheetViews>
     <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C188" sqref="C188"/>
+      <selection activeCell="C190" sqref="C190"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -11697,7 +14697,7 @@
       </c>
       <c r="C7" s="20"/>
       <c r="E7" s="2" t="s">
-        <v>770</v>
+        <v>767</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -11856,7 +14856,7 @@
         <v>247</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>769</v>
+        <v>766</v>
       </c>
     </row>
     <row r="26" spans="2:5">
@@ -12844,7 +15844,7 @@
         <v>450</v>
       </c>
       <c r="C153" s="20" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
     </row>
     <row r="154" spans="2:3">
@@ -12857,7 +15857,7 @@
         <v>452</v>
       </c>
       <c r="C155" s="2" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
     </row>
     <row r="156" spans="2:3">
@@ -12870,7 +15870,7 @@
         <v>454</v>
       </c>
       <c r="C157" s="2" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
     </row>
     <row r="158" spans="2:3">
@@ -12883,7 +15883,7 @@
         <v>456</v>
       </c>
       <c r="C159" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="160" spans="2:3">
@@ -12891,7 +15891,7 @@
         <v>457</v>
       </c>
       <c r="C160" s="2" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
     </row>
     <row r="161" spans="2:4">
@@ -12904,7 +15904,7 @@
         <v>459</v>
       </c>
       <c r="C162" s="20" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
     </row>
     <row r="163" spans="2:4">
@@ -12917,7 +15917,7 @@
         <v>461</v>
       </c>
       <c r="C164" s="2" t="s">
-        <v>753</v>
+        <v>750</v>
       </c>
     </row>
     <row r="165" spans="2:4">
@@ -12930,7 +15930,7 @@
         <v>463</v>
       </c>
       <c r="C166" s="2" t="s">
-        <v>760</v>
+        <v>757</v>
       </c>
     </row>
     <row r="167" spans="2:4">
@@ -12943,7 +15943,7 @@
         <v>465</v>
       </c>
       <c r="C168" s="20" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="169" spans="2:4">
@@ -12951,7 +15951,7 @@
         <v>466</v>
       </c>
       <c r="C169" s="20" t="s">
-        <v>762</v>
+        <v>759</v>
       </c>
     </row>
     <row r="170" spans="2:4">
@@ -12964,7 +15964,7 @@
         <v>468</v>
       </c>
       <c r="C171" s="2" t="s">
-        <v>765</v>
+        <v>762</v>
       </c>
     </row>
     <row r="172" spans="2:4">
@@ -12977,7 +15977,7 @@
         <v>470</v>
       </c>
       <c r="C173" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="174" spans="2:4">
@@ -12985,7 +15985,7 @@
         <v>471</v>
       </c>
       <c r="C174" s="2" t="s">
-        <v>771</v>
+        <v>768</v>
       </c>
     </row>
     <row r="175" spans="2:4">
@@ -12998,10 +15998,10 @@
         <v>473</v>
       </c>
       <c r="C176" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
       <c r="D176" s="2" t="s">
-        <v>778</v>
+        <v>775</v>
       </c>
     </row>
     <row r="177" spans="2:3">
@@ -13009,7 +16009,7 @@
         <v>474</v>
       </c>
       <c r="C177" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="178" spans="2:3">
@@ -13017,7 +16017,7 @@
         <v>475</v>
       </c>
       <c r="C178" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="179" spans="2:3">
@@ -13025,7 +16025,7 @@
         <v>476</v>
       </c>
       <c r="C179" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="180" spans="2:3">
@@ -13033,7 +16033,7 @@
         <v>477</v>
       </c>
       <c r="C180" s="2" t="s">
-        <v>777</v>
+        <v>774</v>
       </c>
     </row>
     <row r="181" spans="2:3">
@@ -13046,7 +16046,7 @@
         <v>479</v>
       </c>
       <c r="C182" s="2" t="s">
-        <v>846</v>
+        <v>843</v>
       </c>
     </row>
     <row r="183" spans="2:3">
@@ -13058,6 +16058,9 @@
       <c r="B184" s="2">
         <v>481</v>
       </c>
+      <c r="C184" s="2" t="s">
+        <v>935</v>
+      </c>
     </row>
     <row r="185" spans="2:3">
       <c r="B185" s="2">
@@ -13068,6 +16071,9 @@
       <c r="B186" s="2">
         <v>483</v>
       </c>
+      <c r="C186" s="2" t="s">
+        <v>937</v>
+      </c>
     </row>
     <row r="187" spans="2:3">
       <c r="B187" s="2">
@@ -13078,6 +16084,9 @@
       <c r="B188" s="2">
         <v>485</v>
       </c>
+      <c r="C188" s="2" t="s">
+        <v>1326</v>
+      </c>
     </row>
     <row r="189" spans="2:3">
       <c r="B189" s="2">
@@ -13087,6 +16096,9 @@
     <row r="190" spans="2:3">
       <c r="B190" s="2">
         <v>487</v>
+      </c>
+      <c r="C190" s="2" t="s">
+        <v>1327</v>
       </c>
     </row>
     <row r="191" spans="2:3">

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="13"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="8"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1476" uniqueCount="1329">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1484" uniqueCount="1336">
   <si>
     <t>名称</t>
   </si>
@@ -5918,6 +5918,64 @@
     <t>名刺</t>
     <rPh sb="0" eb="2">
       <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裸フレンズ-zero</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裸フレンズ-らんどりー</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリーサの冒険vs地下ラッコ</t>
+    <rPh sb="5" eb="7">
+      <t>ボウケン</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裸フレンズとエレガ</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>さまようフレンズ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>待機カワウソ暴走編</t>
+    <rPh sb="0" eb="2">
+      <t>タイキ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>ボウソウ</t>
+    </rPh>
+    <rPh sb="8" eb="9">
+      <t>ヘン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ランドリー入り口</t>
+    <rPh sb="5" eb="6">
+      <t>イ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>グチ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -8367,7 +8425,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E1205"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A145" workbookViewId="0">
+    <sheetView topLeftCell="A100" workbookViewId="0">
       <selection activeCell="C168" sqref="C168"/>
     </sheetView>
   </sheetViews>
@@ -13986,7 +14044,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D103"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C30" sqref="C30"/>
     </sheetView>
   </sheetViews>
@@ -14628,10 +14686,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E191"/>
+  <dimension ref="B2:E206"/>
   <sheetViews>
-    <sheetView topLeftCell="A157" workbookViewId="0">
-      <selection activeCell="C190" sqref="C190"/>
+    <sheetView tabSelected="1" topLeftCell="A175" workbookViewId="0">
+      <selection activeCell="D217" sqref="D217"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -16106,6 +16164,105 @@
         <v>488</v>
       </c>
     </row>
+    <row r="192" spans="2:3">
+      <c r="B192" s="2">
+        <v>489</v>
+      </c>
+      <c r="C192" s="2" t="s">
+        <v>1329</v>
+      </c>
+    </row>
+    <row r="193" spans="2:3">
+      <c r="B193" s="2">
+        <v>490</v>
+      </c>
+    </row>
+    <row r="194" spans="2:3">
+      <c r="B194" s="2">
+        <v>491</v>
+      </c>
+      <c r="C194" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="195" spans="2:3">
+      <c r="B195" s="2">
+        <v>492</v>
+      </c>
+      <c r="C195" s="2" t="s">
+        <v>1330</v>
+      </c>
+    </row>
+    <row r="196" spans="2:3">
+      <c r="B196" s="2">
+        <v>493</v>
+      </c>
+      <c r="C196" s="2" t="s">
+        <v>1331</v>
+      </c>
+    </row>
+    <row r="197" spans="2:3">
+      <c r="B197" s="2">
+        <v>494</v>
+      </c>
+    </row>
+    <row r="198" spans="2:3">
+      <c r="B198" s="2">
+        <v>495</v>
+      </c>
+      <c r="C198" s="2" t="s">
+        <v>1332</v>
+      </c>
+    </row>
+    <row r="199" spans="2:3">
+      <c r="B199" s="2">
+        <v>496</v>
+      </c>
+    </row>
+    <row r="200" spans="2:3">
+      <c r="B200" s="2">
+        <v>497</v>
+      </c>
+      <c r="C200" s="2" t="s">
+        <v>1333</v>
+      </c>
+    </row>
+    <row r="201" spans="2:3">
+      <c r="B201" s="2">
+        <v>498</v>
+      </c>
+    </row>
+    <row r="202" spans="2:3">
+      <c r="B202" s="2">
+        <v>499</v>
+      </c>
+      <c r="C202" s="2" t="s">
+        <v>1334</v>
+      </c>
+    </row>
+    <row r="203" spans="2:3">
+      <c r="B203" s="2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="204" spans="2:3">
+      <c r="B204" s="2">
+        <v>501</v>
+      </c>
+      <c r="C204" s="2" t="s">
+        <v>1335</v>
+      </c>
+    </row>
+    <row r="205" spans="2:3">
+      <c r="B205" s="2">
+        <v>502</v>
+      </c>
+    </row>
+    <row r="206" spans="2:3">
+      <c r="B206" s="2">
+        <v>503</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,24 +4,25 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="10"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
     <sheet name="map" sheetId="14" r:id="rId2"/>
     <sheet name="攻略ルート" sheetId="17" r:id="rId3"/>
     <sheet name="公式フロア" sheetId="9" r:id="rId4"/>
-    <sheet name="リリース前処理" sheetId="16" r:id="rId5"/>
-    <sheet name="手書きイベントフロー" sheetId="4" r:id="rId6"/>
-    <sheet name="たため" sheetId="13" r:id="rId7"/>
-    <sheet name="フラグ-200" sheetId="6" r:id="rId8"/>
-    <sheet name="フラグ-300" sheetId="7" r:id="rId9"/>
-    <sheet name="フラグ300-" sheetId="8" r:id="rId10"/>
-    <sheet name="SE,BGMの修正" sheetId="2" r:id="rId11"/>
-    <sheet name="license" sheetId="3" r:id="rId12"/>
-    <sheet name="ログ調査" sheetId="5" r:id="rId13"/>
-    <sheet name="フロアネタ" sheetId="12" r:id="rId14"/>
-    <sheet name="lost" sheetId="15" r:id="rId15"/>
+    <sheet name="図鑑" sheetId="18" r:id="rId5"/>
+    <sheet name="リリース前処理" sheetId="16" r:id="rId6"/>
+    <sheet name="手書きイベントフロー" sheetId="4" r:id="rId7"/>
+    <sheet name="たため" sheetId="13" r:id="rId8"/>
+    <sheet name="フラグ-200" sheetId="6" r:id="rId9"/>
+    <sheet name="フラグ-300" sheetId="7" r:id="rId10"/>
+    <sheet name="フラグ300-" sheetId="8" r:id="rId11"/>
+    <sheet name="SE,BGMの修正" sheetId="2" r:id="rId12"/>
+    <sheet name="license" sheetId="3" r:id="rId13"/>
+    <sheet name="ログ調査" sheetId="5" r:id="rId14"/>
+    <sheet name="フロアネタ" sheetId="12" r:id="rId15"/>
+    <sheet name="lost" sheetId="15" r:id="rId16"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="3" hidden="1">公式フロア!$B$1:$F$60</definedName>
@@ -31,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2414" uniqueCount="2191">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="2225">
   <si>
     <t>名称</t>
   </si>
@@ -8891,6 +8892,216 @@
     <t>切腹</t>
     <rPh sb="0" eb="2">
       <t>セップク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>エレベーター</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカミちゃん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>アライさん</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソチーム</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フェネック</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>不動産やの名刺</t>
+    <rPh sb="0" eb="3">
+      <t>フドウサン</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>メイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>としあき（住人）</t>
+    <rPh sb="5" eb="7">
+      <t>ジュウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリーサン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>肉食ちゃん</t>
+    <rPh sb="0" eb="2">
+      <t>ニクショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草食ちゃん</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチ勢の探索者</t>
+    <rPh sb="2" eb="3">
+      <t>ゼイ</t>
+    </rPh>
+    <rPh sb="4" eb="7">
+      <t>タンサクシャ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリテイ1</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリテイ2</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Dクラス管理人</t>
+    <rPh sb="4" eb="7">
+      <t>カンリニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>済</t>
+    <rPh sb="0" eb="1">
+      <t>スミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリテイ3</t>
+  </si>
+  <si>
+    <t>セキュリテイ4</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セキュリテイ5</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>Cクラス職員</t>
+    <rPh sb="4" eb="6">
+      <t>ショクイン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソチーム-遭遇</t>
+    <rPh sb="10" eb="12">
+      <t>ソウグウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>記憶ロスト</t>
+    <rPh sb="0" eb="2">
+      <t>キオク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ガチオジと草食ちゃん</t>
+    <rPh sb="5" eb="7">
+      <t>ソウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカミとバス停</t>
+    <rPh sb="7" eb="8">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATM落とし穴</t>
+    <rPh sb="3" eb="4">
+      <t>オ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>アナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ミンチマシーン</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>レベル5です</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バス停</t>
+    <rPh sb="2" eb="3">
+      <t>テイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ATM</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>図書館</t>
+    <rPh sb="0" eb="3">
+      <t>トショカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>淫魔の乱舞</t>
+    <rPh sb="0" eb="2">
+      <t>インマ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ランブ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>夕日の廃墟</t>
+    <rPh sb="0" eb="2">
+      <t>ユウヒ</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ハイキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>美術館</t>
+    <rPh sb="0" eb="3">
+      <t>ビジュツカン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>草食ちゃん撮影</t>
+    <rPh sb="0" eb="2">
+      <t>ソウショク</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>サツエイ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -9844,10 +10055,36 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E318"/>
+  <dimension ref="B2:B3"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A275" workbookViewId="0">
-      <selection activeCell="C317" sqref="C317"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L42" sqref="L42"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetData>
+    <row r="2" spans="2:2">
+      <c r="B2" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2">
+      <c r="B3">
+        <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:E357"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
+      <selection activeCell="H324" sqref="H324"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12196,6 +12433,252 @@
       <c r="B318" s="2">
         <v>615</v>
       </c>
+      <c r="C318" s="2" t="s">
+        <v>2202</v>
+      </c>
+    </row>
+    <row r="319" spans="2:3">
+      <c r="B319" s="2">
+        <v>616</v>
+      </c>
+    </row>
+    <row r="320" spans="2:3">
+      <c r="B320" s="2">
+        <v>617</v>
+      </c>
+      <c r="C320" s="2" t="s">
+        <v>2203</v>
+      </c>
+    </row>
+    <row r="321" spans="2:3">
+      <c r="B321" s="2">
+        <v>618</v>
+      </c>
+      <c r="C321" s="2" t="s">
+        <v>2206</v>
+      </c>
+    </row>
+    <row r="322" spans="2:3">
+      <c r="B322" s="2">
+        <v>619</v>
+      </c>
+      <c r="C322" s="2" t="s">
+        <v>2207</v>
+      </c>
+    </row>
+    <row r="323" spans="2:3">
+      <c r="B323" s="2">
+        <v>620</v>
+      </c>
+      <c r="C323" s="2" t="s">
+        <v>2208</v>
+      </c>
+    </row>
+    <row r="324" spans="2:3">
+      <c r="B324" s="2">
+        <v>621</v>
+      </c>
+    </row>
+    <row r="325" spans="2:3">
+      <c r="B325" s="2">
+        <v>622</v>
+      </c>
+      <c r="C325" s="2" t="s">
+        <v>2211</v>
+      </c>
+    </row>
+    <row r="326" spans="2:3">
+      <c r="B326" s="2">
+        <v>623</v>
+      </c>
+    </row>
+    <row r="327" spans="2:3">
+      <c r="B327" s="2">
+        <v>624</v>
+      </c>
+      <c r="C327" s="2" t="s">
+        <v>2212</v>
+      </c>
+    </row>
+    <row r="328" spans="2:3">
+      <c r="B328" s="2">
+        <v>625</v>
+      </c>
+    </row>
+    <row r="329" spans="2:3">
+      <c r="B329" s="2">
+        <v>626</v>
+      </c>
+      <c r="C329" s="2" t="s">
+        <v>2213</v>
+      </c>
+    </row>
+    <row r="330" spans="2:3">
+      <c r="B330" s="2">
+        <v>627</v>
+      </c>
+    </row>
+    <row r="331" spans="2:3">
+      <c r="B331" s="2">
+        <v>628</v>
+      </c>
+      <c r="C331" s="2" t="s">
+        <v>2214</v>
+      </c>
+    </row>
+    <row r="332" spans="2:3">
+      <c r="B332" s="2">
+        <v>629</v>
+      </c>
+    </row>
+    <row r="333" spans="2:3">
+      <c r="B333" s="2">
+        <v>630</v>
+      </c>
+      <c r="C333" s="2" t="s">
+        <v>2215</v>
+      </c>
+    </row>
+    <row r="334" spans="2:3">
+      <c r="B334" s="2">
+        <v>631</v>
+      </c>
+    </row>
+    <row r="335" spans="2:3">
+      <c r="B335" s="2">
+        <v>632</v>
+      </c>
+      <c r="C335" s="2" t="s">
+        <v>2216</v>
+      </c>
+    </row>
+    <row r="336" spans="2:3">
+      <c r="B336" s="2">
+        <v>633</v>
+      </c>
+    </row>
+    <row r="337" spans="2:3">
+      <c r="B337" s="2">
+        <v>634</v>
+      </c>
+      <c r="C337" s="2" t="s">
+        <v>2217</v>
+      </c>
+    </row>
+    <row r="338" spans="2:3">
+      <c r="B338" s="2">
+        <v>635</v>
+      </c>
+    </row>
+    <row r="339" spans="2:3">
+      <c r="B339" s="2">
+        <v>636</v>
+      </c>
+      <c r="C339" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="340" spans="2:3">
+      <c r="B340" s="2">
+        <v>637</v>
+      </c>
+      <c r="C340" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="341" spans="2:3">
+      <c r="B341" s="2">
+        <v>638</v>
+      </c>
+      <c r="C341" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="342" spans="2:3">
+      <c r="B342" s="2">
+        <v>639</v>
+      </c>
+      <c r="C342" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="343" spans="2:3">
+      <c r="B343" s="2">
+        <v>640</v>
+      </c>
+      <c r="C343" s="2" t="s">
+        <v>2224</v>
+      </c>
+    </row>
+    <row r="344" spans="2:3">
+      <c r="B344" s="2">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="345" spans="2:3">
+      <c r="B345" s="2">
+        <v>642</v>
+      </c>
+    </row>
+    <row r="346" spans="2:3">
+      <c r="B346" s="2">
+        <v>643</v>
+      </c>
+    </row>
+    <row r="347" spans="2:3">
+      <c r="B347" s="2">
+        <v>644</v>
+      </c>
+    </row>
+    <row r="348" spans="2:3">
+      <c r="B348" s="2">
+        <v>645</v>
+      </c>
+    </row>
+    <row r="349" spans="2:3">
+      <c r="B349" s="2">
+        <v>646</v>
+      </c>
+    </row>
+    <row r="350" spans="2:3">
+      <c r="B350" s="2">
+        <v>647</v>
+      </c>
+    </row>
+    <row r="351" spans="2:3">
+      <c r="B351" s="2">
+        <v>648</v>
+      </c>
+    </row>
+    <row r="352" spans="2:3">
+      <c r="B352" s="2">
+        <v>649</v>
+      </c>
+    </row>
+    <row r="353" spans="2:2">
+      <c r="B353" s="2">
+        <v>650</v>
+      </c>
+    </row>
+    <row r="354" spans="2:2">
+      <c r="B354" s="2">
+        <v>651</v>
+      </c>
+    </row>
+    <row r="355" spans="2:2">
+      <c r="B355" s="2">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="356" spans="2:2">
+      <c r="B356" s="2">
+        <v>653</v>
+      </c>
+    </row>
+    <row r="357" spans="2:2">
+      <c r="B357" s="2">
+        <v>654</v>
+      </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1"/>
@@ -12204,7 +12687,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F24"/>
   <sheetViews>
@@ -12544,7 +13027,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D36"/>
   <sheetViews>
@@ -12788,12 +13271,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="C141" sqref="C141"/>
+    <sheetView topLeftCell="A223" workbookViewId="0">
+      <selection activeCell="D251" sqref="D251"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -13686,12 +14169,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F2264"/>
   <sheetViews>
-    <sheetView topLeftCell="A2183" workbookViewId="0">
-      <selection activeCell="K2257" sqref="K2257"/>
+    <sheetView topLeftCell="A827" workbookViewId="0">
+      <selection activeCell="C840" sqref="C840"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -21562,7 +22045,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E8"/>
   <sheetViews>
@@ -23427,6 +23910,833 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="B2:D102"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" workbookViewId="0">
+      <selection activeCell="L102" sqref="L102"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="13.5"/>
+  <cols>
+    <col min="3" max="3" width="17.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:4">
+      <c r="B2">
+        <v>0</v>
+      </c>
+      <c r="D2" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="3" spans="2:4">
+      <c r="B3">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="4" spans="2:4">
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="D4" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="5" spans="2:4">
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="D5" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="6" spans="2:4">
+      <c r="B6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="7" spans="2:4">
+      <c r="B7">
+        <v>5</v>
+      </c>
+      <c r="D7" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="8" spans="2:4">
+      <c r="B8">
+        <v>6</v>
+      </c>
+      <c r="D8" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="9" spans="2:4">
+      <c r="B9">
+        <v>7</v>
+      </c>
+      <c r="D9" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="10" spans="2:4">
+      <c r="B10">
+        <v>8</v>
+      </c>
+      <c r="D10" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="11" spans="2:4">
+      <c r="B11">
+        <v>9</v>
+      </c>
+      <c r="D11" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="12" spans="2:4">
+      <c r="B12">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="13" spans="2:4">
+      <c r="B13">
+        <v>11</v>
+      </c>
+      <c r="D13" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="14" spans="2:4">
+      <c r="B14">
+        <v>12</v>
+      </c>
+      <c r="D14" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="15" spans="2:4">
+      <c r="B15">
+        <v>13</v>
+      </c>
+      <c r="D15" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="16" spans="2:4">
+      <c r="B16">
+        <v>14</v>
+      </c>
+      <c r="D16" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="17" spans="2:4">
+      <c r="B17">
+        <v>15</v>
+      </c>
+      <c r="D17" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="18" spans="2:4">
+      <c r="B18">
+        <v>16</v>
+      </c>
+      <c r="D18" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="19" spans="2:4">
+      <c r="B19">
+        <v>17</v>
+      </c>
+      <c r="D19" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="20" spans="2:4">
+      <c r="B20">
+        <v>18</v>
+      </c>
+      <c r="D20" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="21" spans="2:4">
+      <c r="B21">
+        <v>19</v>
+      </c>
+      <c r="D21" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="22" spans="2:4">
+      <c r="B22">
+        <v>20</v>
+      </c>
+      <c r="D22" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="23" spans="2:4">
+      <c r="B23">
+        <v>21</v>
+      </c>
+      <c r="D23" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="24" spans="2:4">
+      <c r="B24">
+        <v>22</v>
+      </c>
+      <c r="D24" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="25" spans="2:4">
+      <c r="B25">
+        <v>23</v>
+      </c>
+      <c r="D25" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="26" spans="2:4">
+      <c r="B26">
+        <v>24</v>
+      </c>
+      <c r="D26" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="27" spans="2:4">
+      <c r="B27">
+        <v>25</v>
+      </c>
+      <c r="D27" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="28" spans="2:4">
+      <c r="B28">
+        <v>26</v>
+      </c>
+      <c r="D28" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="29" spans="2:4">
+      <c r="B29">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="30" spans="2:4">
+      <c r="B30">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="31" spans="2:4">
+      <c r="B31">
+        <v>29</v>
+      </c>
+      <c r="D31" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="32" spans="2:4">
+      <c r="B32">
+        <v>30</v>
+      </c>
+      <c r="D32" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="33" spans="2:4">
+      <c r="B33">
+        <v>31</v>
+      </c>
+      <c r="D33" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="34" spans="2:4">
+      <c r="B34">
+        <v>32</v>
+      </c>
+      <c r="D34" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="35" spans="2:4">
+      <c r="B35">
+        <v>33</v>
+      </c>
+      <c r="D35" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="36" spans="2:4">
+      <c r="B36">
+        <v>34</v>
+      </c>
+      <c r="D36" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="37" spans="2:4">
+      <c r="B37">
+        <v>35</v>
+      </c>
+      <c r="D37" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="38" spans="2:4">
+      <c r="B38">
+        <v>36</v>
+      </c>
+      <c r="D38" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="39" spans="2:4">
+      <c r="B39">
+        <v>37</v>
+      </c>
+      <c r="D39" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="40" spans="2:4">
+      <c r="B40">
+        <v>38</v>
+      </c>
+      <c r="D40" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="41" spans="2:4">
+      <c r="B41">
+        <v>39</v>
+      </c>
+      <c r="D41" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="42" spans="2:4">
+      <c r="B42">
+        <v>40</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="43" spans="2:4">
+      <c r="B43">
+        <v>41</v>
+      </c>
+      <c r="D43" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="44" spans="2:4">
+      <c r="B44">
+        <v>42</v>
+      </c>
+      <c r="D44" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="45" spans="2:4">
+      <c r="B45">
+        <v>43</v>
+      </c>
+      <c r="D45" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="46" spans="2:4">
+      <c r="B46">
+        <v>44</v>
+      </c>
+      <c r="D46" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="47" spans="2:4">
+      <c r="B47">
+        <v>45</v>
+      </c>
+      <c r="D47" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="48" spans="2:4">
+      <c r="B48">
+        <v>46</v>
+      </c>
+      <c r="D48" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4">
+      <c r="B49">
+        <v>47</v>
+      </c>
+      <c r="D49" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="50" spans="2:4">
+      <c r="B50">
+        <v>48</v>
+      </c>
+      <c r="D50" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4">
+      <c r="B51">
+        <v>49</v>
+      </c>
+      <c r="D51" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4">
+      <c r="B52">
+        <v>50</v>
+      </c>
+      <c r="D52" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="53" spans="2:4">
+      <c r="B53">
+        <v>51</v>
+      </c>
+      <c r="D53" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="54" spans="2:4">
+      <c r="B54">
+        <v>52</v>
+      </c>
+      <c r="D54" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="55" spans="2:4">
+      <c r="B55">
+        <v>53</v>
+      </c>
+      <c r="D55" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="56" spans="2:4">
+      <c r="B56">
+        <v>54</v>
+      </c>
+      <c r="D56" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="57" spans="2:4">
+      <c r="B57">
+        <v>55</v>
+      </c>
+      <c r="D57" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="58" spans="2:4">
+      <c r="B58">
+        <v>56</v>
+      </c>
+      <c r="D58" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="59" spans="2:4">
+      <c r="B59">
+        <v>57</v>
+      </c>
+      <c r="D59" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="60" spans="2:4">
+      <c r="B60">
+        <v>58</v>
+      </c>
+      <c r="D60" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="61" spans="2:4">
+      <c r="B61">
+        <v>59</v>
+      </c>
+      <c r="D61" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="62" spans="2:4">
+      <c r="B62">
+        <v>60</v>
+      </c>
+      <c r="D62" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="63" spans="2:4">
+      <c r="B63">
+        <v>61</v>
+      </c>
+      <c r="D63" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="64" spans="2:4">
+      <c r="B64">
+        <v>62</v>
+      </c>
+      <c r="D64" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
+      <c r="B65">
+        <v>63</v>
+      </c>
+      <c r="D65" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="66" spans="2:4">
+      <c r="B66">
+        <v>64</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
+      <c r="B67">
+        <v>65</v>
+      </c>
+      <c r="D67" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="68" spans="2:4">
+      <c r="B68">
+        <v>66</v>
+      </c>
+      <c r="D68" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
+      <c r="B69">
+        <v>67</v>
+      </c>
+      <c r="D69" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="70" spans="2:4">
+      <c r="B70">
+        <v>68</v>
+      </c>
+      <c r="D70" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
+      <c r="B71">
+        <v>69</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="72" spans="2:4">
+      <c r="B72">
+        <v>70</v>
+      </c>
+      <c r="D72" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="73" spans="2:4">
+      <c r="B73">
+        <v>71</v>
+      </c>
+      <c r="D73" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
+      <c r="B74">
+        <v>72</v>
+      </c>
+      <c r="C74" t="s">
+        <v>2186</v>
+      </c>
+      <c r="D74" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="75" spans="2:4">
+      <c r="B75">
+        <v>73</v>
+      </c>
+      <c r="C75" t="s">
+        <v>2218</v>
+      </c>
+      <c r="D75" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
+      <c r="B76">
+        <v>74</v>
+      </c>
+      <c r="C76" t="s">
+        <v>2219</v>
+      </c>
+      <c r="D76" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="77" spans="2:4">
+      <c r="B77">
+        <v>75</v>
+      </c>
+      <c r="C77" t="s">
+        <v>2201</v>
+      </c>
+      <c r="D77" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
+      <c r="B78">
+        <v>76</v>
+      </c>
+      <c r="C78" t="s">
+        <v>2220</v>
+      </c>
+      <c r="D78" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="79" spans="2:4">
+      <c r="B79">
+        <v>77</v>
+      </c>
+      <c r="C79" t="s">
+        <v>2221</v>
+      </c>
+      <c r="D79" t="s">
+        <v>2205</v>
+      </c>
+    </row>
+    <row r="80" spans="2:4">
+      <c r="B80">
+        <v>78</v>
+      </c>
+      <c r="C80" t="s">
+        <v>2222</v>
+      </c>
+    </row>
+    <row r="81" spans="2:4">
+      <c r="B81">
+        <v>79</v>
+      </c>
+      <c r="C81" t="s">
+        <v>2223</v>
+      </c>
+    </row>
+    <row r="82" spans="2:4">
+      <c r="B82">
+        <v>80</v>
+      </c>
+      <c r="C82" t="s">
+        <v>2199</v>
+      </c>
+    </row>
+    <row r="83" spans="2:4">
+      <c r="B83">
+        <v>81</v>
+      </c>
+      <c r="C83" t="s">
+        <v>2200</v>
+      </c>
+    </row>
+    <row r="84" spans="2:4">
+      <c r="B84">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="85" spans="2:4">
+      <c r="B85">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="86" spans="2:4">
+      <c r="B86">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="87" spans="2:4">
+      <c r="B87">
+        <v>85</v>
+      </c>
+      <c r="C87" t="s">
+        <v>2198</v>
+      </c>
+    </row>
+    <row r="88" spans="2:4">
+      <c r="B88">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="89" spans="2:4">
+      <c r="B89">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="90" spans="2:4">
+      <c r="B90">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="91" spans="2:4">
+      <c r="B91">
+        <v>89</v>
+      </c>
+      <c r="C91" t="s">
+        <v>2197</v>
+      </c>
+    </row>
+    <row r="92" spans="2:4">
+      <c r="B92">
+        <v>90</v>
+      </c>
+      <c r="C92" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="93" spans="2:4">
+      <c r="B93">
+        <v>91</v>
+      </c>
+      <c r="C93" t="s">
+        <v>2196</v>
+      </c>
+    </row>
+    <row r="94" spans="2:4">
+      <c r="B94">
+        <v>92</v>
+      </c>
+      <c r="C94" t="s">
+        <v>2195</v>
+      </c>
+      <c r="D94">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95" spans="2:4">
+      <c r="B95">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="96" spans="2:4">
+      <c r="B96">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="97" spans="2:4">
+      <c r="B97">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="98" spans="2:4">
+      <c r="B98">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="99" spans="2:4">
+      <c r="B99">
+        <v>97</v>
+      </c>
+      <c r="C99" t="s">
+        <v>2194</v>
+      </c>
+      <c r="D99">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="2:4">
+      <c r="B100">
+        <v>98</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2193</v>
+      </c>
+      <c r="D100">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101" spans="2:4">
+      <c r="B101">
+        <v>99</v>
+      </c>
+      <c r="C101" t="s">
+        <v>2192</v>
+      </c>
+      <c r="D101" s="9"/>
+    </row>
+    <row r="102" spans="2:4">
+      <c r="B102">
+        <v>100</v>
+      </c>
+      <c r="C102" t="s">
+        <v>2191</v>
+      </c>
+      <c r="D102" s="9"/>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:B15"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -23462,7 +24772,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E26"/>
   <sheetViews>
@@ -23581,12 +24891,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:B19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B24" sqref="B24"/>
+      <selection activeCell="H51" sqref="H51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23648,12 +24958,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C46" sqref="C46"/>
+    <sheetView topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="C42" sqref="C42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -23987,6 +25297,9 @@
       <c r="B41">
         <v>38</v>
       </c>
+      <c r="C41" t="s">
+        <v>2210</v>
+      </c>
     </row>
     <row r="42" spans="2:4">
       <c r="B42">
@@ -24026,82 +25339,88 @@
         <v>45</v>
       </c>
     </row>
-    <row r="49" spans="2:2">
+    <row r="49" spans="2:3">
       <c r="B49">
         <v>46</v>
       </c>
     </row>
-    <row r="50" spans="2:2">
+    <row r="50" spans="2:3">
       <c r="B50">
         <v>47</v>
       </c>
     </row>
-    <row r="51" spans="2:2">
+    <row r="51" spans="2:3">
       <c r="B51">
         <v>48</v>
       </c>
     </row>
-    <row r="52" spans="2:2">
+    <row r="52" spans="2:3">
       <c r="B52">
         <v>49</v>
       </c>
     </row>
-    <row r="53" spans="2:2">
+    <row r="53" spans="2:3">
       <c r="B53">
         <v>50</v>
       </c>
-    </row>
-    <row r="54" spans="2:2">
+      <c r="C53" s="9" t="s">
+        <v>2204</v>
+      </c>
+    </row>
+    <row r="54" spans="2:3">
       <c r="B54">
         <v>51</v>
       </c>
-    </row>
-    <row r="55" spans="2:2">
+      <c r="C54" s="9" t="s">
+        <v>2209</v>
+      </c>
+    </row>
+    <row r="55" spans="2:3">
       <c r="B55">
         <v>52</v>
       </c>
     </row>
-    <row r="56" spans="2:2">
+    <row r="56" spans="2:3">
       <c r="B56">
         <v>53</v>
       </c>
     </row>
-    <row r="57" spans="2:2">
+    <row r="57" spans="2:3">
       <c r="B57">
         <v>54</v>
       </c>
     </row>
-    <row r="58" spans="2:2">
+    <row r="58" spans="2:3">
       <c r="B58">
         <v>55</v>
       </c>
     </row>
-    <row r="59" spans="2:2">
+    <row r="59" spans="2:3">
       <c r="B59">
         <v>56</v>
       </c>
     </row>
-    <row r="60" spans="2:2">
+    <row r="60" spans="2:3">
       <c r="B60">
         <v>57</v>
       </c>
     </row>
-    <row r="61" spans="2:2">
+    <row r="61" spans="2:3">
       <c r="B61">
         <v>58</v>
       </c>
     </row>
-    <row r="62" spans="2:2">
+    <row r="62" spans="2:3">
       <c r="B62">
         <v>59</v>
       </c>
     </row>
-    <row r="63" spans="2:2">
+    <row r="63" spans="2:3">
       <c r="B63">
         <v>60</v>
       </c>
     </row>
-    <row r="64" spans="2:2">
+    <row r="64" spans="2:3">
       <c r="B64">
         <v>61</v>
       </c>
@@ -24306,30 +25625,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L42" sqref="L42"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
-  <sheetData>
-    <row r="2" spans="2:2">
-      <c r="B2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="3" spans="2:2">
-      <c r="B3">
-        <v>200</v>
-      </c>
-    </row>
-  </sheetData>
-  <phoneticPr fontId="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2531" uniqueCount="2225">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2581" uniqueCount="2253">
   <si>
     <t>名称</t>
   </si>
@@ -9102,6 +9102,187 @@
     </rPh>
     <rPh sb="5" eb="7">
       <t>サツエイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花のフロア</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>花のフロア</t>
+    <rPh sb="0" eb="1">
+      <t>ハナ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>透明キューブ</t>
+    <rPh sb="0" eb="2">
+      <t>トウメイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障子のフロア</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨のフロア</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サバンナのフロア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>鏡のフロア</t>
+    <rPh sb="0" eb="1">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>水キューブ</t>
+    <rPh sb="0" eb="1">
+      <t>ミズ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>セミのフロア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスケのフロア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴリラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>障子のフロア</t>
+    <rPh sb="0" eb="2">
+      <t>ショウジ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>雨のフロア</t>
+    <rPh sb="0" eb="1">
+      <t>アメ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裸フレンズ鏡</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>カガミ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>せみ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>バスケ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>住人あき</t>
+    <rPh sb="0" eb="2">
+      <t>ジュウニン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>シャークフロア</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ゴリラ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>スロット</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地獄2層からの脱出</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地獄3層からの脱出</t>
+    <rPh sb="0" eb="2">
+      <t>ジゴク</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>ソウ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ダッシュツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>メリーサン0話</t>
+    <rPh sb="6" eb="7">
+      <t>ワ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サバンナ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンコア調査開始</t>
+    <rPh sb="7" eb="11">
+      <t>チョウサカイシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ダンジョンコア調査終了</t>
+    <rPh sb="7" eb="9">
+      <t>チョウサ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>シュウリョウ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>博士とジョシュ</t>
+    <rPh sb="0" eb="2">
+      <t>ハカセ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -10081,10 +10262,10 @@
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B2:E357"/>
+  <dimension ref="B2:E388"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A316" workbookViewId="0">
-      <selection activeCell="H324" sqref="H324"/>
+    <sheetView tabSelected="1" topLeftCell="A340" workbookViewId="0">
+      <selection activeCell="C378" sqref="C378"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -12619,6 +12800,9 @@
       <c r="B345" s="2">
         <v>642</v>
       </c>
+      <c r="C345" s="2" t="s">
+        <v>2225</v>
+      </c>
     </row>
     <row r="346" spans="2:3">
       <c r="B346" s="2">
@@ -12629,6 +12813,9 @@
       <c r="B347" s="2">
         <v>644</v>
       </c>
+      <c r="C347" s="2" t="s">
+        <v>2232</v>
+      </c>
     </row>
     <row r="348" spans="2:3">
       <c r="B348" s="2">
@@ -12639,6 +12826,9 @@
       <c r="B349" s="2">
         <v>646</v>
       </c>
+      <c r="C349" s="2" t="s">
+        <v>2237</v>
+      </c>
     </row>
     <row r="350" spans="2:3">
       <c r="B350" s="2">
@@ -12649,35 +12839,232 @@
       <c r="B351" s="2">
         <v>648</v>
       </c>
+      <c r="C351" s="2" t="s">
+        <v>2238</v>
+      </c>
     </row>
     <row r="352" spans="2:3">
       <c r="B352" s="2">
         <v>649</v>
       </c>
     </row>
-    <row r="353" spans="2:2">
+    <row r="353" spans="2:3">
       <c r="B353" s="2">
         <v>650</v>
       </c>
-    </row>
-    <row r="354" spans="2:2">
+      <c r="C353" s="2" t="s">
+        <v>2239</v>
+      </c>
+    </row>
+    <row r="354" spans="2:3">
       <c r="B354" s="2">
         <v>651</v>
       </c>
     </row>
-    <row r="355" spans="2:2">
+    <row r="355" spans="2:3">
       <c r="B355" s="2">
         <v>652</v>
       </c>
-    </row>
-    <row r="356" spans="2:2">
+      <c r="C355" s="2" t="s">
+        <v>2240</v>
+      </c>
+    </row>
+    <row r="356" spans="2:3">
       <c r="B356" s="2">
         <v>653</v>
       </c>
     </row>
-    <row r="357" spans="2:2">
+    <row r="357" spans="2:3">
       <c r="B357" s="2">
         <v>654</v>
+      </c>
+      <c r="C357" s="2" t="s">
+        <v>2241</v>
+      </c>
+    </row>
+    <row r="358" spans="2:3">
+      <c r="B358" s="2">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="359" spans="2:3">
+      <c r="B359" s="2">
+        <v>656</v>
+      </c>
+      <c r="C359" s="2" t="s">
+        <v>2242</v>
+      </c>
+    </row>
+    <row r="360" spans="2:3">
+      <c r="B360" s="2">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="361" spans="2:3">
+      <c r="B361" s="2">
+        <v>658</v>
+      </c>
+      <c r="C361" s="2" t="s">
+        <v>2243</v>
+      </c>
+    </row>
+    <row r="362" spans="2:3">
+      <c r="B362" s="2">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="363" spans="2:3">
+      <c r="B363" s="2">
+        <v>660</v>
+      </c>
+      <c r="C363" s="2" t="s">
+        <v>2244</v>
+      </c>
+    </row>
+    <row r="364" spans="2:3">
+      <c r="B364" s="2">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="365" spans="2:3">
+      <c r="B365" s="2">
+        <v>662</v>
+      </c>
+      <c r="C365" s="2" t="s">
+        <v>2245</v>
+      </c>
+    </row>
+    <row r="366" spans="2:3">
+      <c r="B366" s="2">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="367" spans="2:3">
+      <c r="B367" s="2">
+        <v>664</v>
+      </c>
+      <c r="C367" s="2" t="s">
+        <v>2246</v>
+      </c>
+    </row>
+    <row r="368" spans="2:3">
+      <c r="B368" s="2">
+        <v>665</v>
+      </c>
+    </row>
+    <row r="369" spans="2:3">
+      <c r="B369" s="2">
+        <v>666</v>
+      </c>
+      <c r="C369" s="2" t="s">
+        <v>2247</v>
+      </c>
+    </row>
+    <row r="370" spans="2:3">
+      <c r="B370" s="2">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="371" spans="2:3">
+      <c r="B371" s="2">
+        <v>668</v>
+      </c>
+      <c r="C371" s="2" t="s">
+        <v>2248</v>
+      </c>
+    </row>
+    <row r="372" spans="2:3">
+      <c r="B372" s="2">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="373" spans="2:3">
+      <c r="B373" s="2">
+        <v>670</v>
+      </c>
+      <c r="C373" s="2" t="s">
+        <v>2249</v>
+      </c>
+    </row>
+    <row r="374" spans="2:3">
+      <c r="B374" s="2">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="375" spans="2:3">
+      <c r="B375" s="2">
+        <v>672</v>
+      </c>
+      <c r="C375" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="376" spans="2:3">
+      <c r="B376" s="2">
+        <v>673</v>
+      </c>
+      <c r="C376" s="2" t="s">
+        <v>2252</v>
+      </c>
+    </row>
+    <row r="377" spans="2:3">
+      <c r="B377" s="2">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="378" spans="2:3">
+      <c r="B378" s="2">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="379" spans="2:3">
+      <c r="B379" s="2">
+        <v>676</v>
+      </c>
+    </row>
+    <row r="380" spans="2:3">
+      <c r="B380" s="2">
+        <v>677</v>
+      </c>
+    </row>
+    <row r="381" spans="2:3">
+      <c r="B381" s="2">
+        <v>678</v>
+      </c>
+    </row>
+    <row r="382" spans="2:3">
+      <c r="B382" s="2">
+        <v>679</v>
+      </c>
+    </row>
+    <row r="383" spans="2:3">
+      <c r="B383" s="2">
+        <v>680</v>
+      </c>
+    </row>
+    <row r="384" spans="2:3">
+      <c r="B384" s="2">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="385" spans="2:2">
+      <c r="B385" s="2">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="386" spans="2:2">
+      <c r="B386" s="2">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="387" spans="2:2">
+      <c r="B387" s="2">
+        <v>684</v>
+      </c>
+    </row>
+    <row r="388" spans="2:2">
+      <c r="B388" s="2">
+        <v>685</v>
       </c>
     </row>
   </sheetData>
@@ -13275,8 +13662,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A223" workbookViewId="0">
-      <selection activeCell="D251" sqref="D251"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E195" sqref="E195"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14159,13 +14546,11 @@
     <hyperlink ref="C168" r:id="rId8" display="javascript:void(0);"/>
     <hyperlink ref="C186" r:id="rId9" display="javascript:void(0);"/>
     <hyperlink ref="C187" r:id="rId10" display="https://storage.googleapis.com/rituprecious.appspot.com/m/b/1607260366063.png"/>
-    <hyperlink ref="C206" r:id="rId11" display="javascript:void(0);"/>
-    <hyperlink ref="C207" r:id="rId12" display="https://storage.googleapis.com/rituprecious.appspot.com/m/b/1607005114575.jpg"/>
-    <hyperlink ref="C238" r:id="rId13" display="javascript:void(0);"/>
-    <hyperlink ref="C239" r:id="rId14" display="https://storage.googleapis.com/rituprecious.appspot.com/m/b/1607005165952.jpg"/>
+    <hyperlink ref="C238" r:id="rId11" display="javascript:void(0);"/>
+    <hyperlink ref="C239" r:id="rId12" display="https://storage.googleapis.com/rituprecious.appspot.com/m/b/1607005165952.jpg"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId15"/>
+  <drawing r:id="rId13"/>
 </worksheet>
 </file>
 
@@ -14173,8 +14558,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F2264"/>
   <sheetViews>
-    <sheetView topLeftCell="A827" workbookViewId="0">
-      <selection activeCell="C840" sqref="C840"/>
+    <sheetView topLeftCell="A1911" workbookViewId="0">
+      <selection activeCell="C1936" sqref="C1936"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22095,7 +22480,7 @@
   <dimension ref="B2:J44"/>
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E41" sqref="E41"/>
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -22856,7 +23241,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A13" workbookViewId="0">
       <selection activeCell="D75" sqref="D75"/>
     </sheetView>
   </sheetViews>
@@ -23912,8 +24297,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D102"/>
   <sheetViews>
-    <sheetView topLeftCell="A58" workbookViewId="0">
-      <selection activeCell="L102" sqref="L102"/>
+    <sheetView topLeftCell="A64" workbookViewId="0">
+      <selection activeCell="F101" sqref="F101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -24570,6 +24955,9 @@
       <c r="C80" t="s">
         <v>2222</v>
       </c>
+      <c r="D80" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="81" spans="2:4">
       <c r="B81">
@@ -24578,6 +24966,9 @@
       <c r="C81" t="s">
         <v>2223</v>
       </c>
+      <c r="D81" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="82" spans="2:4">
       <c r="B82">
@@ -24586,6 +24977,9 @@
       <c r="C82" t="s">
         <v>2199</v>
       </c>
+      <c r="D82" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="83" spans="2:4">
       <c r="B83">
@@ -24594,44 +24988,86 @@
       <c r="C83" t="s">
         <v>2200</v>
       </c>
+      <c r="D83" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="84" spans="2:4">
       <c r="B84">
         <v>82</v>
       </c>
+      <c r="C84" t="s">
+        <v>2226</v>
+      </c>
+      <c r="D84" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="85" spans="2:4">
       <c r="B85">
         <v>83</v>
       </c>
+      <c r="C85" t="s">
+        <v>2227</v>
+      </c>
+      <c r="D85" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="86" spans="2:4">
       <c r="B86">
         <v>84</v>
       </c>
+      <c r="C86" t="s">
+        <v>2228</v>
+      </c>
+      <c r="D86" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="87" spans="2:4">
       <c r="B87">
         <v>85</v>
       </c>
       <c r="C87" t="s">
-        <v>2198</v>
+        <v>2229</v>
+      </c>
+      <c r="D87" t="s">
+        <v>2205</v>
       </c>
     </row>
     <row r="88" spans="2:4">
       <c r="B88">
         <v>86</v>
       </c>
+      <c r="C88" t="s">
+        <v>2231</v>
+      </c>
+      <c r="D88" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="89" spans="2:4">
       <c r="B89">
         <v>87</v>
       </c>
+      <c r="C89" t="s">
+        <v>2233</v>
+      </c>
+      <c r="D89" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="90" spans="2:4">
       <c r="B90">
         <v>88</v>
       </c>
+      <c r="C90" t="s">
+        <v>2234</v>
+      </c>
+      <c r="D90" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="91" spans="2:4">
       <c r="B91">
@@ -24640,6 +25076,9 @@
       <c r="C91" t="s">
         <v>2197</v>
       </c>
+      <c r="D91" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="92" spans="2:4">
       <c r="B92">
@@ -24648,6 +25087,9 @@
       <c r="C92" t="s">
         <v>342</v>
       </c>
+      <c r="D92" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="93" spans="2:4">
       <c r="B93">
@@ -24656,6 +25098,9 @@
       <c r="C93" t="s">
         <v>2196</v>
       </c>
+      <c r="D93" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="94" spans="2:4">
       <c r="B94">
@@ -24664,29 +25109,50 @@
       <c r="C94" t="s">
         <v>2195</v>
       </c>
-      <c r="D94">
-        <v>1</v>
+      <c r="D94" t="s">
+        <v>2205</v>
       </c>
     </row>
     <row r="95" spans="2:4">
       <c r="B95">
         <v>93</v>
       </c>
+      <c r="C95" t="s">
+        <v>2235</v>
+      </c>
+      <c r="D95" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="96" spans="2:4">
       <c r="B96">
         <v>94</v>
       </c>
+      <c r="C96" t="s">
+        <v>2236</v>
+      </c>
+      <c r="D96" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="97" spans="2:4">
       <c r="B97">
         <v>95</v>
       </c>
+      <c r="C97" t="s">
+        <v>2198</v>
+      </c>
+      <c r="D97" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="98" spans="2:4">
       <c r="B98">
         <v>96</v>
       </c>
+      <c r="C98" t="s">
+        <v>2230</v>
+      </c>
     </row>
     <row r="99" spans="2:4">
       <c r="B99">
@@ -24695,8 +25161,8 @@
       <c r="C99" t="s">
         <v>2194</v>
       </c>
-      <c r="D99">
-        <v>1</v>
+      <c r="D99" t="s">
+        <v>2205</v>
       </c>
     </row>
     <row r="100" spans="2:4">
@@ -24706,8 +25172,8 @@
       <c r="C100" t="s">
         <v>2193</v>
       </c>
-      <c r="D100">
-        <v>1</v>
+      <c r="D100" t="s">
+        <v>2205</v>
       </c>
     </row>
     <row r="101" spans="2:4">
@@ -24717,7 +25183,9 @@
       <c r="C101" t="s">
         <v>2192</v>
       </c>
-      <c r="D101" s="9"/>
+      <c r="D101" t="s">
+        <v>2205</v>
+      </c>
     </row>
     <row r="102" spans="2:4">
       <c r="B102">
@@ -24963,7 +25431,7 @@
   <dimension ref="B2:D103"/>
   <sheetViews>
     <sheetView topLeftCell="A19" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+      <selection activeCell="C57" sqref="C57"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -25318,10 +25786,16 @@
       <c r="B44">
         <v>41</v>
       </c>
+      <c r="C44" s="9" t="s">
+        <v>2250</v>
+      </c>
     </row>
     <row r="45" spans="2:4">
       <c r="B45">
         <v>42</v>
+      </c>
+      <c r="C45" t="s">
+        <v>2251</v>
       </c>
     </row>
     <row r="46" spans="2:4">

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="9"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" firstSheet="1" activeTab="11"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3157" uniqueCount="2737">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="2746">
   <si>
     <t>名称</t>
   </si>
@@ -12986,33 +12986,7 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>不足。美術館に空きが多い</t>
-    <rPh sb="0" eb="2">
-      <t>フソク</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>ビジュツカン</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>オオ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>ほぼ完成。もうちょいほしいか。</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ゴリラエリアが空き多い。</t>
-    <rPh sb="7" eb="8">
-      <t>ア</t>
-    </rPh>
-    <rPh sb="9" eb="10">
-      <t>オオ</t>
-    </rPh>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -13075,23 +13049,6 @@
     </rPh>
     <rPh sb="19" eb="20">
       <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>一応完成？</t>
-    <rPh sb="0" eb="2">
-      <t>イチオウ</t>
-    </rPh>
-    <rPh sb="2" eb="4">
-      <t>カンセイ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>いくつか追加。</t>
-    <rPh sb="4" eb="6">
-      <t>ツイカ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13328,6 +13285,103 @@
     <rPh sb="8" eb="12">
       <t>キンキ</t>
     </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカワウソとキノコ</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>裸フレンズと仮面</t>
+    <rPh sb="0" eb="1">
+      <t>ハダカ</t>
+    </rPh>
+    <rPh sb="6" eb="8">
+      <t>カメン</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>14F</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>としあきと感度3000倍</t>
+    <rPh sb="5" eb="7">
+      <t>カンド</t>
+    </rPh>
+    <rPh sb="11" eb="12">
+      <t>バイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>お風呂で走るな</t>
+    <rPh sb="1" eb="3">
+      <t>フロ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>ハシ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ok</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>完成。やや密度低い。</t>
+    <rPh sb="0" eb="2">
+      <t>カンセイ</t>
+    </rPh>
+    <rPh sb="5" eb="7">
+      <t>ミツド</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ヒク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>一応完成。</t>
+    <rPh sb="0" eb="2">
+      <t>イチオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>カンセイ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>廃墟2</t>
+    <rPh sb="0" eb="2">
+      <t>ハイキョ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ボマーに気をつけろよ</t>
+    <rPh sb="4" eb="10">
+      <t>キ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>意地悪草食</t>
+    <rPh sb="0" eb="3">
+      <t>イジワル</t>
+    </rPh>
+    <rPh sb="3" eb="5">
+      <t>ソウショク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ところてん３</t>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -13400,7 +13454,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="11">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -13455,12 +13509,6 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.59999389629810485"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="3">
     <border>
@@ -13499,7 +13547,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="33">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13558,12 +13606,11 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -14318,7 +14365,7 @@
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -14594,7 +14641,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D51" sqref="D51"/>
     </sheetView>
   </sheetViews>
@@ -14938,7 +14985,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -15084,7 +15131,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -15097,7 +15144,7 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -15338,8 +15385,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E864"/>
   <sheetViews>
-    <sheetView topLeftCell="A491" workbookViewId="0">
-      <selection activeCell="C529" sqref="C529"/>
+    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+      <selection activeCell="D548" sqref="D548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18866,7 +18913,7 @@
         <v>791</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="495" spans="2:3">
@@ -18879,7 +18926,7 @@
         <v>793</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="497" spans="2:3">
@@ -18907,7 +18954,7 @@
         <v>798</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
     </row>
     <row r="502" spans="2:3">
@@ -18920,7 +18967,7 @@
         <v>800</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>2715</v>
+        <v>2711</v>
       </c>
     </row>
     <row r="504" spans="2:3">
@@ -18933,7 +18980,7 @@
         <v>802</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="506" spans="2:3">
@@ -18946,7 +18993,7 @@
         <v>804</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="508" spans="2:3">
@@ -18959,7 +19006,7 @@
         <v>806</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="510" spans="2:3">
@@ -18972,7 +19019,7 @@
         <v>808</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="512" spans="2:3">
@@ -18985,7 +19032,7 @@
         <v>810</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="514" spans="2:3">
@@ -19003,7 +19050,7 @@
         <v>813</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="517" spans="2:3">
@@ -19016,7 +19063,7 @@
         <v>815</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="519" spans="2:3">
@@ -19029,7 +19076,7 @@
         <v>817</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="521" spans="2:3">
@@ -19052,7 +19099,7 @@
         <v>821</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="525" spans="2:3">
@@ -19065,7 +19112,7 @@
         <v>823</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="527" spans="2:3">
@@ -19078,87 +19125,111 @@
         <v>825</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>2736</v>
-      </c>
-    </row>
-    <row r="529" spans="2:2">
+        <v>2732</v>
+      </c>
+    </row>
+    <row r="529" spans="2:3">
       <c r="B529" s="2">
         <v>826</v>
       </c>
     </row>
-    <row r="530" spans="2:2">
+    <row r="530" spans="2:3">
       <c r="B530" s="2">
         <v>827</v>
       </c>
-    </row>
-    <row r="531" spans="2:2">
+      <c r="C530" s="2" t="s">
+        <v>2733</v>
+      </c>
+    </row>
+    <row r="531" spans="2:3">
       <c r="B531" s="2">
         <v>828</v>
       </c>
     </row>
-    <row r="532" spans="2:2">
+    <row r="532" spans="2:3">
       <c r="B532" s="2">
         <v>829</v>
       </c>
-    </row>
-    <row r="533" spans="2:2">
+      <c r="C532" s="2" t="s">
+        <v>2734</v>
+      </c>
+    </row>
+    <row r="533" spans="2:3">
       <c r="B533" s="2">
         <v>830</v>
       </c>
     </row>
-    <row r="534" spans="2:2">
+    <row r="534" spans="2:3">
       <c r="B534" s="2">
         <v>831</v>
       </c>
-    </row>
-    <row r="535" spans="2:2">
+      <c r="C534" s="2" t="s">
+        <v>2736</v>
+      </c>
+    </row>
+    <row r="535" spans="2:3">
       <c r="B535" s="2">
         <v>832</v>
       </c>
     </row>
-    <row r="536" spans="2:2">
+    <row r="536" spans="2:3">
       <c r="B536" s="2">
         <v>833</v>
       </c>
-    </row>
-    <row r="537" spans="2:2">
+      <c r="C536" s="2" t="s">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="537" spans="2:3">
       <c r="B537" s="2">
         <v>834</v>
       </c>
     </row>
-    <row r="538" spans="2:2">
+    <row r="538" spans="2:3">
       <c r="B538" s="2">
         <v>835</v>
       </c>
-    </row>
-    <row r="539" spans="2:2">
+      <c r="C538" s="2" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="539" spans="2:3">
       <c r="B539" s="2">
         <v>836</v>
       </c>
     </row>
-    <row r="540" spans="2:2">
+    <row r="540" spans="2:3">
       <c r="B540" s="2">
         <v>837</v>
       </c>
-    </row>
-    <row r="541" spans="2:2">
+      <c r="C540" s="2" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="541" spans="2:3">
       <c r="B541" s="2">
         <v>838</v>
       </c>
     </row>
-    <row r="542" spans="2:2">
+    <row r="542" spans="2:3">
       <c r="B542" s="2">
         <v>839</v>
       </c>
-    </row>
-    <row r="543" spans="2:2">
+      <c r="C542" s="2" t="s">
+        <v>2744</v>
+      </c>
+    </row>
+    <row r="543" spans="2:3">
       <c r="B543" s="2">
         <v>840</v>
       </c>
     </row>
-    <row r="544" spans="2:2">
+    <row r="544" spans="2:3">
       <c r="B544" s="2">
         <v>841</v>
+      </c>
+      <c r="C544" s="2" t="s">
+        <v>2745</v>
       </c>
     </row>
     <row r="545" spans="2:2">
@@ -21356,7 +21427,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B4:D255"/>
   <sheetViews>
-    <sheetView topLeftCell="A33" workbookViewId="0">
+    <sheetView topLeftCell="A81" workbookViewId="0">
       <selection activeCell="H44" sqref="H44"/>
     </sheetView>
   </sheetViews>
@@ -22252,7 +22323,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:F2264"/>
   <sheetViews>
-    <sheetView topLeftCell="A2126" workbookViewId="0">
+    <sheetView topLeftCell="A2218" workbookViewId="0">
       <selection activeCell="C2143" sqref="C2143"/>
     </sheetView>
   </sheetViews>
@@ -30124,7 +30195,7 @@
   <dimension ref="B2:M52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D5" sqref="D5"/>
+      <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30379,7 +30450,7 @@
         <v>2096</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>2702</v>
+        <v>2701</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -30456,7 +30527,7 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="D17" t="s">
         <v>2100</v>
@@ -30488,13 +30559,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="D18" t="s">
         <v>2096</v>
       </c>
-      <c r="E18" s="32" t="s">
-        <v>2719</v>
+      <c r="E18" s="30" t="s">
+        <v>2715</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -30526,13 +30597,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="D19" t="s">
         <v>2096</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -30601,7 +30672,7 @@
         <v>189</v>
       </c>
       <c r="D24" t="s">
-        <v>2097</v>
+        <v>2122</v>
       </c>
       <c r="E24" t="s">
         <v>2695</v>
@@ -30664,7 +30735,7 @@
         <v>2098</v>
       </c>
       <c r="E27" s="29" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -30812,8 +30883,8 @@
       <c r="D34" t="s">
         <v>2098</v>
       </c>
-      <c r="E34" s="9" t="s">
-        <v>2703</v>
+      <c r="E34" s="25" t="s">
+        <v>2740</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -30836,7 +30907,7 @@
         <v>2100</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>2709</v>
+        <v>2741</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -30855,8 +30926,8 @@
       <c r="D36" t="s">
         <v>2101</v>
       </c>
-      <c r="E36" s="9" t="s">
-        <v>2701</v>
+      <c r="E36" s="25" t="s">
+        <v>2692</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -30941,8 +31012,8 @@
       <c r="D42" t="s">
         <v>2138</v>
       </c>
-      <c r="E42" s="30" t="s">
-        <v>2710</v>
+      <c r="E42" s="25" t="s">
+        <v>2741</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -30967,8 +31038,8 @@
       <c r="D43" t="s">
         <v>2140</v>
       </c>
-      <c r="E43" s="30" t="s">
-        <v>2710</v>
+      <c r="E43" s="25" t="s">
+        <v>2741</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -30987,8 +31058,8 @@
       <c r="D44" t="s">
         <v>2140</v>
       </c>
-      <c r="E44" s="30" t="s">
-        <v>2710</v>
+      <c r="E44" s="25" t="s">
+        <v>2741</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -32528,8 +32599,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="E60" sqref="E60"/>
+    <sheetView topLeftCell="A73" workbookViewId="0">
+      <selection activeCell="E111" sqref="E111"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32574,13 +32645,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2503</v>
+        <v>2513</v>
       </c>
       <c r="D6" t="s">
-        <v>2593</v>
+        <v>2525</v>
       </c>
       <c r="E6" t="s">
-        <v>2529</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -32588,13 +32659,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>2506</v>
+        <v>2503</v>
       </c>
       <c r="D7" t="s">
-        <v>2519</v>
+        <v>2593</v>
       </c>
       <c r="E7" t="s">
-        <v>2530</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -32602,13 +32673,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>2507</v>
+        <v>2506</v>
       </c>
       <c r="D8" t="s">
-        <v>2594</v>
+        <v>2519</v>
       </c>
       <c r="E8" t="s">
-        <v>2531</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -32616,13 +32687,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>2508</v>
+        <v>2507</v>
       </c>
       <c r="D9" t="s">
-        <v>2521</v>
+        <v>2594</v>
       </c>
       <c r="E9" t="s">
-        <v>2532</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -32630,13 +32701,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>2509</v>
+        <v>2508</v>
       </c>
       <c r="D10" t="s">
-        <v>2520</v>
+        <v>2521</v>
       </c>
       <c r="E10" t="s">
-        <v>2533</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -32644,10 +32715,10 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>2510</v>
+        <v>2509</v>
       </c>
       <c r="D11" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="E11" t="s">
         <v>2533</v>
@@ -32658,10 +32729,10 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>2511</v>
+        <v>2510</v>
       </c>
       <c r="D12" t="s">
-        <v>2523</v>
+        <v>2522</v>
       </c>
       <c r="E12" t="s">
         <v>2533</v>
@@ -32672,10 +32743,10 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>2512</v>
+        <v>2511</v>
       </c>
       <c r="D13" t="s">
-        <v>2524</v>
+        <v>2523</v>
       </c>
       <c r="E13" t="s">
         <v>2533</v>
@@ -32686,13 +32757,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>2513</v>
+        <v>2512</v>
       </c>
       <c r="D14" t="s">
-        <v>2525</v>
+        <v>2524</v>
       </c>
       <c r="E14" t="s">
-        <v>2534</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -32763,13 +32834,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>2538</v>
+        <v>2544</v>
       </c>
       <c r="D22" t="s">
-        <v>2547</v>
+        <v>2525</v>
       </c>
       <c r="E22" t="s">
-        <v>2533</v>
+        <v>2553</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -32777,10 +32848,10 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>2539</v>
+        <v>2538</v>
       </c>
       <c r="D23" t="s">
-        <v>2548</v>
+        <v>2547</v>
       </c>
       <c r="E23" t="s">
         <v>2533</v>
@@ -32791,10 +32862,10 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>2507</v>
+        <v>2539</v>
       </c>
       <c r="D24" t="s">
-        <v>2549</v>
+        <v>2548</v>
       </c>
       <c r="E24" t="s">
         <v>2533</v>
@@ -32805,16 +32876,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>2565</v>
+        <v>2507</v>
       </c>
       <c r="D25" t="s">
-        <v>2595</v>
+        <v>2549</v>
       </c>
       <c r="E25" t="s">
-        <v>2577</v>
-      </c>
-      <c r="F25" t="s">
-        <v>2576</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -32822,13 +32890,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>2540</v>
+        <v>2565</v>
       </c>
       <c r="D26" t="s">
-        <v>2550</v>
+        <v>2595</v>
       </c>
       <c r="E26" t="s">
-        <v>2533</v>
+        <v>2577</v>
+      </c>
+      <c r="F26" t="s">
+        <v>2576</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -32836,10 +32907,10 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>2541</v>
+        <v>2540</v>
       </c>
       <c r="D27" t="s">
-        <v>2554</v>
+        <v>2550</v>
       </c>
       <c r="E27" t="s">
         <v>2533</v>
@@ -32850,10 +32921,10 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>2542</v>
+        <v>2541</v>
       </c>
       <c r="D28" t="s">
-        <v>2551</v>
+        <v>2554</v>
       </c>
       <c r="E28" t="s">
         <v>2533</v>
@@ -32864,10 +32935,10 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>2543</v>
+        <v>2542</v>
       </c>
       <c r="D29" t="s">
-        <v>2552</v>
+        <v>2551</v>
       </c>
       <c r="E29" t="s">
         <v>2533</v>
@@ -32878,13 +32949,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>2544</v>
+        <v>2543</v>
       </c>
       <c r="D30" t="s">
-        <v>2525</v>
+        <v>2552</v>
       </c>
       <c r="E30" t="s">
-        <v>2553</v>
+        <v>2533</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -32966,7 +33037,7 @@
         <v>2525</v>
       </c>
       <c r="E38" t="s">
-        <v>2721</v>
+        <v>2717</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -33309,10 +33380,10 @@
         <v>2518</v>
       </c>
       <c r="E62" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
       <c r="G62" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -33535,12 +33606,12 @@
         <v>2628</v>
       </c>
     </row>
-    <row r="81" spans="2:7">
+    <row r="81" spans="2:8">
       <c r="B81">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:7">
+    <row r="83" spans="2:8">
       <c r="B83" t="s">
         <v>2635</v>
       </c>
@@ -33548,17 +33619,17 @@
         <v>2649</v>
       </c>
     </row>
-    <row r="84" spans="2:7">
+    <row r="84" spans="2:8">
       <c r="B84" t="s">
         <v>2636</v>
       </c>
     </row>
-    <row r="85" spans="2:7">
+    <row r="85" spans="2:8">
       <c r="B85" t="s">
         <v>2648</v>
       </c>
     </row>
-    <row r="86" spans="2:7">
+    <row r="86" spans="2:8">
       <c r="C86" s="28" t="s">
         <v>2504</v>
       </c>
@@ -33575,7 +33646,7 @@
         <v>2590</v>
       </c>
     </row>
-    <row r="87" spans="2:7">
+    <row r="87" spans="2:8">
       <c r="B87">
         <v>1</v>
       </c>
@@ -33588,8 +33659,11 @@
       <c r="E87" t="s">
         <v>2638</v>
       </c>
-    </row>
-    <row r="88" spans="2:7">
+      <c r="H87" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="88" spans="2:8">
       <c r="B88">
         <v>2</v>
       </c>
@@ -33602,8 +33676,11 @@
       <c r="E88" t="s">
         <v>2643</v>
       </c>
-    </row>
-    <row r="89" spans="2:7">
+      <c r="H88" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="89" spans="2:8">
       <c r="B89">
         <v>3</v>
       </c>
@@ -33619,8 +33696,11 @@
       <c r="G89" t="s">
         <v>2640</v>
       </c>
-    </row>
-    <row r="90" spans="2:7">
+      <c r="H89" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="90" spans="2:8">
       <c r="B90">
         <v>4</v>
       </c>
@@ -33633,8 +33713,11 @@
       <c r="E90" t="s">
         <v>2644</v>
       </c>
-    </row>
-    <row r="91" spans="2:7">
+      <c r="H90" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="91" spans="2:8">
       <c r="B91">
         <v>5</v>
       </c>
@@ -33647,8 +33730,11 @@
       <c r="E91" t="s">
         <v>2642</v>
       </c>
-    </row>
-    <row r="92" spans="2:7">
+      <c r="H91" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="92" spans="2:8">
       <c r="B92">
         <v>6</v>
       </c>
@@ -33661,13 +33747,16 @@
       <c r="E92" t="s">
         <v>2568</v>
       </c>
-    </row>
-    <row r="93" spans="2:7">
+      <c r="H92" t="s">
+        <v>2739</v>
+      </c>
+    </row>
+    <row r="93" spans="2:8">
       <c r="B93">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
       <c r="D93" t="s">
         <v>2518</v>
@@ -33676,20 +33765,23 @@
         <v>2623</v>
       </c>
       <c r="G93" t="s">
-        <v>2725</v>
-      </c>
-    </row>
-    <row r="94" spans="2:7">
+        <v>2721</v>
+      </c>
+      <c r="H93" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="94" spans="2:8">
       <c r="B94">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="2:7">
+    <row r="95" spans="2:8">
       <c r="B95">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:7">
+    <row r="96" spans="2:8">
       <c r="B96">
         <v>10</v>
       </c>
@@ -33745,7 +33837,7 @@
         <v>2552</v>
       </c>
       <c r="E103" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -33849,6 +33941,15 @@
     <row r="111" spans="2:7">
       <c r="B111">
         <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>2735</v>
+      </c>
+      <c r="D111" t="s">
+        <v>2603</v>
+      </c>
+      <c r="E111" t="s">
+        <v>2734</v>
       </c>
     </row>
     <row r="112" spans="2:7">
@@ -33984,7 +34085,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
+    <sheetView topLeftCell="A21" workbookViewId="0">
       <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" firstSheet="1" activeTab="11"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3175" uniqueCount="2746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="2740">
   <si>
     <t>名称</t>
   </si>
@@ -11994,22 +11994,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>壁の絵-草原-みんみ恐竜</t>
-    <rPh sb="0" eb="1">
-      <t>カベ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>エ</t>
-    </rPh>
-    <rPh sb="4" eb="6">
-      <t>ソウゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>キョウリュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>きのこの森</t>
     <rPh sb="4" eb="5">
       <t>モリ</t>
@@ -12081,10 +12065,6 @@
   </si>
   <si>
     <t>(2-5-2,18)</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>あり</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -12953,19 +12933,6 @@
     <phoneticPr fontId="1"/>
   </si>
   <si>
-    <t>廃墟の完成度が低い。</t>
-    <rPh sb="0" eb="2">
-      <t>ハイキョ</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>カンセイド</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ヒク</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
     <t>水族館/バー</t>
     <rPh sb="0" eb="3">
       <t>スイゾクカン</t>
@@ -13025,29 +12992,6 @@
       <t>ホウモン</t>
     </rPh>
     <rPh sb="27" eb="28">
-      <t>ワ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>鏡の間の完成度が低い。
-ちょっと意味が分からん</t>
-    <rPh sb="0" eb="1">
-      <t>カガミ</t>
-    </rPh>
-    <rPh sb="2" eb="3">
-      <t>マ</t>
-    </rPh>
-    <rPh sb="4" eb="7">
-      <t>カンセイド</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ヒク</t>
-    </rPh>
-    <rPh sb="16" eb="18">
-      <t>イミ</t>
-    </rPh>
-    <rPh sb="19" eb="20">
       <t>ワ</t>
     </rPh>
     <phoneticPr fontId="1"/>
@@ -13323,14 +13267,6 @@
     <rPh sb="4" eb="5">
       <t>ハシ</t>
     </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ok</t>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>ok</t>
     <phoneticPr fontId="1"/>
   </si>
   <si>
@@ -13547,7 +13483,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="31">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -13603,9 +13539,6 @@
     <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -14360,12 +14293,12 @@
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>2705</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="21" spans="2:3">
@@ -14462,22 +14395,22 @@
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="27" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
       <c r="C55" t="s">
         <v>2451</v>
@@ -14500,7 +14433,7 @@
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="27" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="C63" t="s">
         <v>2462</v>
@@ -14528,7 +14461,7 @@
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="27" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="C71" t="s">
         <v>2466</v>
@@ -14556,7 +14489,7 @@
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="27" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
       <c r="C79" t="s">
         <v>2469</v>
@@ -14985,7 +14918,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>2710</v>
+        <v>2706</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -15131,7 +15064,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>2704</v>
+        <v>2701</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -15144,7 +15077,7 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>2707</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="65" spans="2:2">
@@ -15385,7 +15318,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E864"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A515" workbookViewId="0">
+    <sheetView topLeftCell="A515" workbookViewId="0">
       <selection activeCell="D548" sqref="D548"/>
     </sheetView>
   </sheetViews>
@@ -18809,7 +18742,7 @@
         <v>775</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="479" spans="2:3">
@@ -18822,7 +18755,7 @@
         <v>777</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="481" spans="2:3">
@@ -18835,7 +18768,7 @@
         <v>779</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
     </row>
     <row r="483" spans="2:3">
@@ -18848,7 +18781,7 @@
         <v>781</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="485" spans="2:3">
@@ -18861,7 +18794,7 @@
         <v>783</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="487" spans="2:3">
@@ -18874,7 +18807,7 @@
         <v>785</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
     </row>
     <row r="489" spans="2:3">
@@ -18887,7 +18820,7 @@
         <v>787</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
     </row>
     <row r="491" spans="2:3">
@@ -18900,7 +18833,7 @@
         <v>789</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
     </row>
     <row r="493" spans="2:3">
@@ -18913,7 +18846,7 @@
         <v>791</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>2702</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="495" spans="2:3">
@@ -18926,7 +18859,7 @@
         <v>793</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>2708</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="497" spans="2:3">
@@ -18954,7 +18887,7 @@
         <v>798</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>2709</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="502" spans="2:3">
@@ -18967,7 +18900,7 @@
         <v>800</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>2711</v>
+        <v>2707</v>
       </c>
     </row>
     <row r="504" spans="2:3">
@@ -18980,7 +18913,7 @@
         <v>802</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2722</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="506" spans="2:3">
@@ -18993,7 +18926,7 @@
         <v>804</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2723</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="508" spans="2:3">
@@ -19006,7 +18939,7 @@
         <v>806</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>2724</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="510" spans="2:3">
@@ -19019,7 +18952,7 @@
         <v>808</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2725</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="512" spans="2:3">
@@ -19032,7 +18965,7 @@
         <v>810</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2726</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="514" spans="2:3">
@@ -19050,7 +18983,7 @@
         <v>813</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2727</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="517" spans="2:3">
@@ -19063,7 +18996,7 @@
         <v>815</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2728</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="519" spans="2:3">
@@ -19076,7 +19009,7 @@
         <v>817</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2729</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="521" spans="2:3">
@@ -19099,7 +19032,7 @@
         <v>821</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>2730</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="525" spans="2:3">
@@ -19112,7 +19045,7 @@
         <v>823</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>2731</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="527" spans="2:3">
@@ -19125,7 +19058,7 @@
         <v>825</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>2732</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="529" spans="2:3">
@@ -19138,7 +19071,7 @@
         <v>827</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>2733</v>
+        <v>2729</v>
       </c>
     </row>
     <row r="531" spans="2:3">
@@ -19151,7 +19084,7 @@
         <v>829</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="533" spans="2:3">
@@ -19164,7 +19097,7 @@
         <v>831</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>2736</v>
+        <v>2732</v>
       </c>
     </row>
     <row r="535" spans="2:3">
@@ -19177,7 +19110,7 @@
         <v>833</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2737</v>
+        <v>2733</v>
       </c>
     </row>
     <row r="537" spans="2:3">
@@ -19190,7 +19123,7 @@
         <v>835</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>2742</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="539" spans="2:3">
@@ -19203,7 +19136,7 @@
         <v>837</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>2743</v>
+        <v>2737</v>
       </c>
     </row>
     <row r="541" spans="2:3">
@@ -19216,7 +19149,7 @@
         <v>839</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>2744</v>
+        <v>2738</v>
       </c>
     </row>
     <row r="543" spans="2:3">
@@ -19229,7 +19162,7 @@
         <v>841</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>2745</v>
+        <v>2739</v>
       </c>
     </row>
     <row r="545" spans="2:2">
@@ -21833,7 +21766,7 @@
       <c r="C119" s="13"/>
     </row>
     <row r="120" spans="3:4" ht="40.5">
-      <c r="C120" s="31" t="s">
+      <c r="C120" s="30" t="s">
         <v>433</v>
       </c>
       <c r="D120" s="14" t="s">
@@ -21841,17 +21774,17 @@
       </c>
     </row>
     <row r="121" spans="3:4">
-      <c r="C121" s="31"/>
+      <c r="C121" s="30"/>
       <c r="D121" s="13"/>
     </row>
     <row r="122" spans="3:4" ht="22.5">
-      <c r="C122" s="31"/>
+      <c r="C122" s="30"/>
       <c r="D122" s="12" t="s">
         <v>652</v>
       </c>
     </row>
     <row r="123" spans="3:4">
-      <c r="C123" s="31"/>
+      <c r="C123" s="30"/>
       <c r="D123" s="13"/>
     </row>
     <row r="126" spans="3:4">
@@ -21924,7 +21857,7 @@
       <c r="C142" s="13"/>
     </row>
     <row r="144" spans="3:4" ht="40.5">
-      <c r="C144" s="31" t="s">
+      <c r="C144" s="30" t="s">
         <v>433</v>
       </c>
       <c r="D144" s="14" t="s">
@@ -21932,99 +21865,99 @@
       </c>
     </row>
     <row r="145" spans="3:4" ht="40.5">
-      <c r="C145" s="31"/>
+      <c r="C145" s="30"/>
       <c r="D145" s="14" t="s">
         <v>663</v>
       </c>
     </row>
     <row r="146" spans="3:4" ht="22.5">
-      <c r="C146" s="31"/>
+      <c r="C146" s="30"/>
       <c r="D146" s="18"/>
     </row>
     <row r="147" spans="3:4">
-      <c r="C147" s="31"/>
+      <c r="C147" s="30"/>
       <c r="D147" s="13"/>
     </row>
     <row r="148" spans="3:4">
-      <c r="C148" s="31"/>
+      <c r="C148" s="30"/>
       <c r="D148" s="13"/>
     </row>
     <row r="149" spans="3:4">
-      <c r="C149" s="31"/>
+      <c r="C149" s="30"/>
       <c r="D149" s="13"/>
     </row>
     <row r="150" spans="3:4">
-      <c r="C150" s="31"/>
+      <c r="C150" s="30"/>
       <c r="D150" s="13"/>
     </row>
     <row r="151" spans="3:4">
-      <c r="C151" s="31"/>
+      <c r="C151" s="30"/>
       <c r="D151" s="13"/>
     </row>
     <row r="152" spans="3:4">
-      <c r="C152" s="31"/>
+      <c r="C152" s="30"/>
       <c r="D152" s="13"/>
     </row>
     <row r="153" spans="3:4">
-      <c r="C153" s="31"/>
+      <c r="C153" s="30"/>
       <c r="D153" s="13"/>
     </row>
     <row r="154" spans="3:4">
-      <c r="C154" s="31"/>
+      <c r="C154" s="30"/>
       <c r="D154" s="13"/>
     </row>
     <row r="155" spans="3:4">
-      <c r="C155" s="31"/>
+      <c r="C155" s="30"/>
       <c r="D155" s="13"/>
     </row>
     <row r="156" spans="3:4">
-      <c r="C156" s="31"/>
+      <c r="C156" s="30"/>
       <c r="D156" s="13"/>
     </row>
     <row r="157" spans="3:4">
-      <c r="C157" s="31"/>
+      <c r="C157" s="30"/>
       <c r="D157" s="13"/>
     </row>
     <row r="158" spans="3:4">
-      <c r="C158" s="31"/>
+      <c r="C158" s="30"/>
       <c r="D158" s="13"/>
     </row>
     <row r="159" spans="3:4">
-      <c r="C159" s="31"/>
+      <c r="C159" s="30"/>
       <c r="D159" s="13"/>
     </row>
     <row r="160" spans="3:4" ht="67.5">
-      <c r="C160" s="31"/>
+      <c r="C160" s="30"/>
       <c r="D160" s="12" t="s">
         <v>664</v>
       </c>
     </row>
     <row r="161" spans="3:4" ht="90">
-      <c r="C161" s="31"/>
+      <c r="C161" s="30"/>
       <c r="D161" s="12" t="s">
         <v>665</v>
       </c>
     </row>
     <row r="162" spans="3:4" ht="67.5">
-      <c r="C162" s="31"/>
+      <c r="C162" s="30"/>
       <c r="D162" s="12" t="s">
         <v>666</v>
       </c>
     </row>
     <row r="163" spans="3:4" ht="112.5">
-      <c r="C163" s="31"/>
+      <c r="C163" s="30"/>
       <c r="D163" s="12" t="s">
         <v>667</v>
       </c>
     </row>
     <row r="164" spans="3:4" ht="45">
-      <c r="C164" s="31"/>
+      <c r="C164" s="30"/>
       <c r="D164" s="12" t="s">
         <v>668</v>
       </c>
     </row>
     <row r="165" spans="3:4">
-      <c r="C165" s="31"/>
+      <c r="C165" s="30"/>
       <c r="D165" s="13"/>
     </row>
     <row r="167" spans="3:4">
@@ -30194,8 +30127,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C25" sqref="C25"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30222,7 +30155,7 @@
         <v>397</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>2080</v>
@@ -30234,7 +30167,7 @@
         <v>2093</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -30248,7 +30181,7 @@
         <v>730</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -30268,7 +30201,7 @@
         <v>399</v>
       </c>
       <c r="E5" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -30288,7 +30221,7 @@
         <v>2096</v>
       </c>
       <c r="E6" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -30318,7 +30251,7 @@
         <v>2102</v>
       </c>
       <c r="E7" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -30338,7 +30271,7 @@
         <v>2097</v>
       </c>
       <c r="E8" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -30367,7 +30300,7 @@
         <v>2098</v>
       </c>
       <c r="E9" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -30387,7 +30320,7 @@
         <v>2098</v>
       </c>
       <c r="E10" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -30407,7 +30340,7 @@
         <v>2099</v>
       </c>
       <c r="E11" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -30427,7 +30360,7 @@
         <v>2096</v>
       </c>
       <c r="E12" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -30450,7 +30383,7 @@
         <v>2096</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>2701</v>
+        <v>2698</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -30473,7 +30406,7 @@
         <v>730</v>
       </c>
       <c r="E14" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -30493,7 +30426,7 @@
         <v>2122</v>
       </c>
       <c r="E15" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -30513,7 +30446,7 @@
         <v>2103</v>
       </c>
       <c r="E16" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -30527,13 +30460,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>2716</v>
+        <v>2712</v>
       </c>
       <c r="D17" t="s">
         <v>2100</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -30559,13 +30492,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>2714</v>
+        <v>2710</v>
       </c>
       <c r="D18" t="s">
         <v>2096</v>
       </c>
-      <c r="E18" s="30" t="s">
-        <v>2715</v>
+      <c r="E18" s="29" t="s">
+        <v>2711</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -30597,13 +30530,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>2712</v>
+        <v>2708</v>
       </c>
       <c r="D19" t="s">
         <v>2096</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>2713</v>
+        <v>2709</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -30655,7 +30588,7 @@
         <v>2121</v>
       </c>
       <c r="E23" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -30675,7 +30608,7 @@
         <v>2122</v>
       </c>
       <c r="E24" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -30695,7 +30628,7 @@
         <v>2098</v>
       </c>
       <c r="E25" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -30715,7 +30648,7 @@
         <v>2098</v>
       </c>
       <c r="E26" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -30724,18 +30657,18 @@
         <v>0</v>
       </c>
     </row>
-    <row r="27" spans="2:13" ht="27">
+    <row r="27" spans="2:13">
       <c r="B27">
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="D27" t="s">
         <v>2098</v>
       </c>
-      <c r="E27" s="29" t="s">
-        <v>2706</v>
+      <c r="E27" t="s">
+        <v>2690</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -30754,8 +30687,8 @@
       <c r="D28" t="s">
         <v>2096</v>
       </c>
-      <c r="E28" t="s">
-        <v>2689</v>
+      <c r="E28" s="25" t="s">
+        <v>2687</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -30769,13 +30702,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="D29" t="s">
         <v>2098</v>
       </c>
-      <c r="E29" s="9" t="s">
-        <v>2698</v>
+      <c r="E29" t="s">
+        <v>2690</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -30797,8 +30730,8 @@
       <c r="D30" t="s">
         <v>2096</v>
       </c>
-      <c r="E30" t="s">
-        <v>2692</v>
+      <c r="E30" s="25" t="s">
+        <v>2690</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -30812,13 +30745,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>2699</v>
+        <v>2696</v>
       </c>
       <c r="D31" t="s">
         <v>2096</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -30838,7 +30771,7 @@
         <v>730</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -30858,7 +30791,7 @@
         <v>2138</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>2700</v>
+        <v>2697</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -30884,7 +30817,7 @@
         <v>2098</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>2740</v>
+        <v>2734</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -30907,7 +30840,7 @@
         <v>2100</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -30927,7 +30860,7 @@
         <v>2101</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -30947,7 +30880,7 @@
         <v>2100</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -30967,7 +30900,7 @@
         <v>2133</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -31013,7 +30946,7 @@
         <v>2138</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -31039,7 +30972,7 @@
         <v>2140</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -31059,7 +30992,7 @@
         <v>2140</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>2741</v>
+        <v>2735</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -31070,7 +31003,7 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
     </row>
     <row r="47" spans="2:12">
@@ -31099,18 +31032,18 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
       <c r="E48" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
       <c r="C50" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -31142,7 +31075,7 @@
         <v>2526</v>
       </c>
       <c r="E52" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
     </row>
   </sheetData>
@@ -32599,8 +32532,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A73" workbookViewId="0">
-      <selection activeCell="E111" sqref="E111"/>
+    <sheetView topLeftCell="A17" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84:H98"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32662,7 +32595,7 @@
         <v>2503</v>
       </c>
       <c r="D7" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="E7" t="s">
         <v>2529</v>
@@ -32690,7 +32623,7 @@
         <v>2507</v>
       </c>
       <c r="D9" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E9" t="s">
         <v>2531</v>
@@ -32812,7 +32745,7 @@
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>2578</v>
+        <v>2577</v>
       </c>
     </row>
     <row r="21" spans="2:6">
@@ -32826,7 +32759,7 @@
         <v>2528</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -32893,13 +32826,13 @@
         <v>2565</v>
       </c>
       <c r="D26" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
       <c r="E26" t="s">
-        <v>2577</v>
+        <v>2576</v>
       </c>
       <c r="F26" t="s">
-        <v>2576</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -33005,7 +32938,7 @@
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>2573</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -33019,10 +32952,10 @@
         <v>2528</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -33037,7 +32970,7 @@
         <v>2525</v>
       </c>
       <c r="E38" t="s">
-        <v>2717</v>
+        <v>2713</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -33055,7 +32988,7 @@
         <v>2518</v>
       </c>
       <c r="E39" t="s">
-        <v>2569</v>
+        <v>2568</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -33088,10 +33021,10 @@
         <v>2507</v>
       </c>
       <c r="D41" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E41" t="s">
-        <v>2572</v>
+        <v>2571</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -33130,7 +33063,7 @@
         <v>2566</v>
       </c>
       <c r="F43" t="s">
-        <v>2579</v>
+        <v>2578</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -33147,13 +33080,8 @@
         <v>2518</v>
       </c>
       <c r="E44" t="s">
-        <v>2567</v>
-      </c>
-      <c r="F44" t="s">
-        <v>2580</v>
-      </c>
-      <c r="G44" s="25"/>
-      <c r="H44" s="25"/>
+        <v>2573</v>
+      </c>
     </row>
     <row r="45" spans="1:8">
       <c r="B45">
@@ -33163,10 +33091,10 @@
         <v>2565</v>
       </c>
       <c r="D45" t="s">
-        <v>2518</v>
+        <v>2594</v>
       </c>
       <c r="E45" t="s">
-        <v>2574</v>
+        <v>2569</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -33177,7 +33105,7 @@
         <v>2539</v>
       </c>
       <c r="D46" t="s">
-        <v>2596</v>
+        <v>2518</v>
       </c>
       <c r="E46" t="s">
         <v>2570</v>
@@ -33194,45 +33122,36 @@
         <v>2518</v>
       </c>
       <c r="E47" t="s">
-        <v>2571</v>
+        <v>2579</v>
+      </c>
+      <c r="G47" t="s">
+        <v>2590</v>
+      </c>
+      <c r="H47" t="s">
+        <v>2589</v>
       </c>
     </row>
     <row r="48" spans="1:8">
       <c r="B48">
         <v>11</v>
       </c>
-      <c r="C48" t="s">
-        <v>2565</v>
-      </c>
-      <c r="D48" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E48" t="s">
-        <v>2581</v>
-      </c>
-      <c r="G48" t="s">
-        <v>2592</v>
-      </c>
-      <c r="H48" t="s">
-        <v>2591</v>
-      </c>
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="C51" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
     </row>
     <row r="54" spans="2:8">
@@ -33246,10 +33165,10 @@
         <v>2528</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -33277,10 +33196,10 @@
         <v>2292</v>
       </c>
       <c r="D56" t="s">
+        <v>2601</v>
+      </c>
+      <c r="E56" t="s">
         <v>2603</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2605</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -33297,7 +33216,7 @@
         <v>2518</v>
       </c>
       <c r="E57" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
@@ -33314,7 +33233,7 @@
         <v>2518</v>
       </c>
       <c r="E58" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
@@ -33328,10 +33247,10 @@
         <v>2292</v>
       </c>
       <c r="D59" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="E59" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
@@ -33348,7 +33267,7 @@
         <v>2518</v>
       </c>
       <c r="E60" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
@@ -33362,10 +33281,10 @@
         <v>2292</v>
       </c>
       <c r="D61" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="E61" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
       <c r="G61" s="25"/>
     </row>
@@ -33380,10 +33299,10 @@
         <v>2518</v>
       </c>
       <c r="E62" t="s">
-        <v>2718</v>
+        <v>2714</v>
       </c>
       <c r="G62" t="s">
-        <v>2719</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -33394,7 +33313,7 @@
         <v>2503</v>
       </c>
       <c r="D63" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="E63" t="s">
         <v>333</v>
@@ -33411,7 +33330,7 @@
         <v>2518</v>
       </c>
       <c r="E64" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -33425,25 +33344,25 @@
         <v>2518</v>
       </c>
       <c r="E65" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
       <c r="C67" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" t="s">
-        <v>2615</v>
+        <v>2613</v>
       </c>
     </row>
     <row r="70" spans="2:8">
@@ -33457,10 +33376,10 @@
         <v>2528</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -33468,13 +33387,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>2615</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2602</v>
+      </c>
+      <c r="E71" t="s">
         <v>2617</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2604</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2619</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -33488,7 +33407,7 @@
         <v>2518</v>
       </c>
       <c r="E72" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -33496,13 +33415,13 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="D73" t="s">
         <v>2518</v>
       </c>
       <c r="E73" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -33510,13 +33429,13 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="D74" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="E74" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -33530,7 +33449,7 @@
         <v>2518</v>
       </c>
       <c r="E75" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -33538,13 +33457,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="D76" t="s">
         <v>2518</v>
       </c>
       <c r="E76" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -33552,16 +33471,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="D77" t="s">
         <v>2518</v>
       </c>
       <c r="E77" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
       <c r="H77" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -33572,10 +33491,10 @@
         <v>2503</v>
       </c>
       <c r="D78" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="E78" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -33589,7 +33508,7 @@
         <v>2518</v>
       </c>
       <c r="E79" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -33603,33 +33522,33 @@
         <v>2518</v>
       </c>
       <c r="E80" t="s">
-        <v>2628</v>
-      </c>
-    </row>
-    <row r="81" spans="2:8">
+        <v>2626</v>
+      </c>
+    </row>
+    <row r="81" spans="2:7">
       <c r="B81">
         <v>11</v>
       </c>
     </row>
-    <row r="83" spans="2:8">
+    <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="D83" t="s">
-        <v>2649</v>
-      </c>
-    </row>
-    <row r="84" spans="2:8">
+        <v>2647</v>
+      </c>
+    </row>
+    <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>2636</v>
-      </c>
-    </row>
-    <row r="85" spans="2:8">
+        <v>2634</v>
+      </c>
+    </row>
+    <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>2648</v>
-      </c>
-    </row>
-    <row r="86" spans="2:8">
+        <v>2646</v>
+      </c>
+    </row>
+    <row r="86" spans="2:7">
       <c r="C86" s="28" t="s">
         <v>2504</v>
       </c>
@@ -33640,30 +33559,27 @@
         <v>2528</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>2590</v>
-      </c>
-    </row>
-    <row r="87" spans="2:8">
+        <v>2588</v>
+      </c>
+    </row>
+    <row r="87" spans="2:7">
       <c r="B87">
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="D87" t="s">
         <v>2522</v>
       </c>
       <c r="E87" t="s">
-        <v>2638</v>
-      </c>
-      <c r="H87" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="88" spans="2:8">
+        <v>2636</v>
+      </c>
+    </row>
+    <row r="88" spans="2:7">
       <c r="B88">
         <v>2</v>
       </c>
@@ -33674,13 +33590,10 @@
         <v>2518</v>
       </c>
       <c r="E88" t="s">
-        <v>2643</v>
-      </c>
-      <c r="H88" t="s">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="89" spans="2:8">
+        <v>2641</v>
+      </c>
+    </row>
+    <row r="89" spans="2:7">
       <c r="B89">
         <v>3</v>
       </c>
@@ -33691,16 +33604,13 @@
         <v>2518</v>
       </c>
       <c r="E89" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
       <c r="G89" t="s">
-        <v>2640</v>
-      </c>
-      <c r="H89" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="90" spans="2:8">
+        <v>2638</v>
+      </c>
+    </row>
+    <row r="90" spans="2:7">
       <c r="B90">
         <v>4</v>
       </c>
@@ -33708,33 +33618,27 @@
         <v>2507</v>
       </c>
       <c r="D90" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E90" t="s">
-        <v>2644</v>
-      </c>
-      <c r="H90" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="91" spans="2:8">
+        <v>2642</v>
+      </c>
+    </row>
+    <row r="91" spans="2:7">
       <c r="B91">
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="D91" t="s">
         <v>2518</v>
       </c>
       <c r="E91" t="s">
-        <v>2642</v>
-      </c>
-      <c r="H91" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="92" spans="2:8">
+        <v>2640</v>
+      </c>
+    </row>
+    <row r="92" spans="2:7">
       <c r="B92">
         <v>6</v>
       </c>
@@ -33745,43 +33649,37 @@
         <v>2518</v>
       </c>
       <c r="E92" t="s">
-        <v>2568</v>
-      </c>
-      <c r="H92" t="s">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="93" spans="2:8">
+        <v>2567</v>
+      </c>
+    </row>
+    <row r="93" spans="2:7">
       <c r="B93">
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>2720</v>
+        <v>2716</v>
       </c>
       <c r="D93" t="s">
         <v>2518</v>
       </c>
       <c r="E93" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
       <c r="G93" t="s">
-        <v>2721</v>
-      </c>
-      <c r="H93" t="s">
-        <v>2738</v>
-      </c>
-    </row>
-    <row r="94" spans="2:8">
+        <v>2717</v>
+      </c>
+    </row>
+    <row r="94" spans="2:7">
       <c r="B94">
         <v>8</v>
       </c>
     </row>
-    <row r="95" spans="2:8">
+    <row r="95" spans="2:7">
       <c r="B95">
         <v>9</v>
       </c>
     </row>
-    <row r="96" spans="2:8">
+    <row r="96" spans="2:7">
       <c r="B96">
         <v>10</v>
       </c>
@@ -33793,20 +33691,20 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
       <c r="C99" t="s">
-        <v>2650</v>
+        <v>2648</v>
       </c>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="102" spans="2:7">
@@ -33820,10 +33718,10 @@
         <v>2528</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>2575</v>
+        <v>2574</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -33831,13 +33729,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="D103" t="s">
         <v>2552</v>
       </c>
       <c r="E103" t="s">
-        <v>2703</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -33851,7 +33749,7 @@
         <v>2518</v>
       </c>
       <c r="E104" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="105" spans="2:7">
@@ -33859,13 +33757,13 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
       <c r="D105" t="s">
         <v>2518</v>
       </c>
       <c r="E105" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="106" spans="2:7">
@@ -33879,7 +33777,7 @@
         <v>2518</v>
       </c>
       <c r="E106" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="107" spans="2:7">
@@ -33887,13 +33785,13 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
+        <v>2650</v>
+      </c>
+      <c r="D107" t="s">
         <v>2652</v>
       </c>
-      <c r="D107" t="s">
-        <v>2654</v>
-      </c>
       <c r="E107" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="108" spans="2:7">
@@ -33907,7 +33805,7 @@
         <v>2518</v>
       </c>
       <c r="E108" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="109" spans="2:7">
@@ -33921,7 +33819,7 @@
         <v>2518</v>
       </c>
       <c r="E109" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="110" spans="2:7">
@@ -33943,13 +33841,13 @@
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>2735</v>
+        <v>2731</v>
       </c>
       <c r="D111" t="s">
-        <v>2603</v>
+        <v>2601</v>
       </c>
       <c r="E111" t="s">
-        <v>2734</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="112" spans="2:7">
@@ -33988,13 +33886,13 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>2668</v>
+        <v>2666</v>
       </c>
       <c r="C2" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="D2" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -34002,7 +33900,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -34010,7 +33908,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -34018,13 +33916,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
       <c r="D5" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
       <c r="F5" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="40.5">
@@ -34032,19 +33930,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>2677</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2668</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2678</v>
+      </c>
+      <c r="G6" t="s">
         <v>2679</v>
       </c>
-      <c r="D6" t="s">
-        <v>2670</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2680</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2681</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>2677</v>
+        <v>2675</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27">
@@ -34052,19 +33950,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
       <c r="D7" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
       <c r="F7" t="s">
         <v>2266</v>
       </c>
       <c r="G7" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -34072,7 +33970,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
     </row>
   </sheetData>

--- a/docs/設計資料.xlsx
+++ b/docs/設計資料.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="1"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" tabRatio="744" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="基本設計" sheetId="10" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3164" uniqueCount="2740">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3171" uniqueCount="2746">
   <si>
     <t>名称</t>
   </si>
@@ -10348,32 +10348,6 @@
     </rPh>
     <rPh sb="6" eb="7">
       <t>ナカ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>EV?-&gt;肉食ちゃん家の近く-&gt;裏から侵入</t>
-    <rPh sb="5" eb="7">
-      <t>ニクショク</t>
-    </rPh>
-    <rPh sb="10" eb="11">
-      <t>イエ</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>チカ</t>
-    </rPh>
-    <rPh sb="16" eb="17">
-      <t>ウラ</t>
-    </rPh>
-    <rPh sb="19" eb="21">
-      <t>シンニュウ</t>
-    </rPh>
-    <phoneticPr fontId="1"/>
-  </si>
-  <si>
-    <t>屋上B?</t>
-    <rPh sb="0" eb="2">
-      <t>オクジョウ</t>
     </rPh>
     <phoneticPr fontId="1"/>
   </si>
@@ -13318,6 +13292,71 @@
   </si>
   <si>
     <t>ところてん３</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>地下ラッコ</t>
+    <rPh sb="0" eb="2">
+      <t>チカ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>中央制御室ev</t>
+    <rPh sb="0" eb="2">
+      <t>チュウオウ</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>セイギョ</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>シツ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>サウナ 専用エレベーター注釈</t>
+    <rPh sb="4" eb="12">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>居住区 専用エレベーター注釈</t>
+    <rPh sb="0" eb="3">
+      <t>キョジュウク</t>
+    </rPh>
+    <rPh sb="4" eb="12">
+      <t>センヨウ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>チュウシャク</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>？？？？</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>フラグがぶっこわれてる</t>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>オオカミちゃん裏口フラグ</t>
+    <rPh sb="7" eb="9">
+      <t>ウラグチ</t>
+    </rPh>
+    <phoneticPr fontId="1"/>
+  </si>
+  <si>
+    <t>ヒントフロア直通フラグ</t>
+    <rPh sb="6" eb="8">
+      <t>チョクツウ</t>
+    </rPh>
     <phoneticPr fontId="1"/>
   </si>
 </sst>
@@ -14214,353 +14253,353 @@
         <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>2434</v>
+        <v>2432</v>
       </c>
     </row>
     <row r="3" spans="2:3">
       <c r="C3" t="s">
-        <v>2432</v>
+        <v>2430</v>
       </c>
     </row>
     <row r="5" spans="2:3">
       <c r="B5" s="27" t="s">
-        <v>2435</v>
+        <v>2433</v>
       </c>
       <c r="C5" t="s">
-        <v>2433</v>
+        <v>2431</v>
       </c>
     </row>
     <row r="7" spans="2:3">
       <c r="B7" s="27" t="s">
-        <v>2430</v>
+        <v>2428</v>
       </c>
       <c r="C7" t="s">
-        <v>2436</v>
+        <v>2434</v>
       </c>
     </row>
     <row r="8" spans="2:3">
       <c r="B8" s="27" t="s">
-        <v>2431</v>
+        <v>2429</v>
       </c>
       <c r="C8" t="s">
-        <v>2438</v>
+        <v>2436</v>
       </c>
     </row>
     <row r="9" spans="2:3">
       <c r="B9" s="27" t="s">
-        <v>2439</v>
+        <v>2437</v>
       </c>
       <c r="C9" t="s">
-        <v>2437</v>
+        <v>2435</v>
       </c>
     </row>
     <row r="10" spans="2:3">
       <c r="B10" s="27" t="s">
-        <v>2440</v>
+        <v>2438</v>
       </c>
       <c r="C10" t="s">
-        <v>2441</v>
+        <v>2439</v>
       </c>
     </row>
     <row r="11" spans="2:3">
       <c r="B11" s="27" t="s">
-        <v>2442</v>
+        <v>2440</v>
       </c>
       <c r="C11" t="s">
-        <v>2484</v>
+        <v>2482</v>
       </c>
     </row>
     <row r="12" spans="2:3">
       <c r="B12" s="27" t="s">
-        <v>2485</v>
+        <v>2483</v>
       </c>
       <c r="C12" t="s">
-        <v>2486</v>
+        <v>2484</v>
       </c>
     </row>
     <row r="15" spans="2:3">
       <c r="B15" s="27" t="s">
-        <v>2443</v>
+        <v>2441</v>
       </c>
       <c r="C15" t="s">
-        <v>2444</v>
+        <v>2442</v>
       </c>
     </row>
     <row r="17" spans="2:3">
       <c r="C17" t="s">
-        <v>2499</v>
+        <v>2497</v>
       </c>
     </row>
     <row r="18" spans="2:3">
       <c r="C18" t="s">
-        <v>2580</v>
+        <v>2578</v>
       </c>
     </row>
     <row r="19" spans="2:3">
       <c r="C19" t="s">
-        <v>2702</v>
+        <v>2700</v>
       </c>
     </row>
     <row r="21" spans="2:3">
       <c r="B21" s="27" t="s">
-        <v>2480</v>
+        <v>2478</v>
       </c>
       <c r="C21" t="s">
-        <v>2481</v>
+        <v>2479</v>
       </c>
     </row>
     <row r="23" spans="2:3">
       <c r="C23" t="s">
-        <v>2482</v>
+        <v>2480</v>
       </c>
     </row>
     <row r="24" spans="2:3">
       <c r="C24" t="s">
-        <v>2483</v>
+        <v>2481</v>
       </c>
     </row>
     <row r="25" spans="2:3">
       <c r="C25" t="s">
-        <v>2500</v>
+        <v>2498</v>
       </c>
     </row>
     <row r="31" spans="2:3">
       <c r="B31" s="27" t="s">
-        <v>2445</v>
+        <v>2443</v>
       </c>
       <c r="C31" t="s">
-        <v>2446</v>
+        <v>2444</v>
       </c>
     </row>
     <row r="33" spans="2:3">
       <c r="C33" t="s">
-        <v>2457</v>
+        <v>2455</v>
       </c>
     </row>
     <row r="34" spans="2:3">
       <c r="C34" t="s">
-        <v>2458</v>
+        <v>2456</v>
       </c>
     </row>
     <row r="36" spans="2:3">
       <c r="C36" t="s">
-        <v>2461</v>
+        <v>2459</v>
       </c>
     </row>
     <row r="37" spans="2:3">
       <c r="C37" t="s">
-        <v>2487</v>
+        <v>2485</v>
       </c>
     </row>
     <row r="40" spans="2:3">
       <c r="B40" s="27" t="s">
-        <v>2447</v>
+        <v>2445</v>
       </c>
       <c r="C40" t="s">
-        <v>2448</v>
+        <v>2446</v>
       </c>
     </row>
     <row r="42" spans="2:3">
       <c r="B42" s="27" t="s">
+        <v>2448</v>
+      </c>
+      <c r="C42" t="s">
         <v>2450</v>
-      </c>
-      <c r="C42" t="s">
-        <v>2452</v>
       </c>
     </row>
     <row r="43" spans="2:3">
       <c r="C43" t="s">
-        <v>2453</v>
+        <v>2451</v>
       </c>
     </row>
     <row r="44" spans="2:3">
       <c r="C44" t="s">
-        <v>2454</v>
+        <v>2452</v>
       </c>
     </row>
     <row r="45" spans="2:3">
       <c r="C45" t="s">
-        <v>2455</v>
+        <v>2453</v>
       </c>
     </row>
     <row r="46" spans="2:3">
       <c r="C46" t="s">
-        <v>2456</v>
+        <v>2454</v>
       </c>
     </row>
     <row r="47" spans="2:3">
       <c r="C47" t="s">
-        <v>2449</v>
+        <v>2447</v>
       </c>
     </row>
     <row r="49" spans="2:3">
       <c r="C49" t="s">
-        <v>2583</v>
+        <v>2581</v>
       </c>
     </row>
     <row r="50" spans="2:3">
       <c r="C50" t="s">
-        <v>2581</v>
+        <v>2579</v>
       </c>
     </row>
     <row r="51" spans="2:3">
       <c r="C51" t="s">
-        <v>2582</v>
+        <v>2580</v>
       </c>
     </row>
     <row r="55" spans="2:3">
       <c r="B55" s="27" t="s">
-        <v>2587</v>
+        <v>2585</v>
       </c>
       <c r="C55" t="s">
-        <v>2451</v>
+        <v>2449</v>
       </c>
     </row>
     <row r="57" spans="2:3">
       <c r="C57" t="s">
-        <v>2459</v>
+        <v>2457</v>
       </c>
     </row>
     <row r="58" spans="2:3">
       <c r="C58" t="s">
-        <v>2460</v>
+        <v>2458</v>
       </c>
     </row>
     <row r="59" spans="2:3">
       <c r="C59" t="s">
-        <v>2488</v>
+        <v>2486</v>
       </c>
     </row>
     <row r="63" spans="2:3">
       <c r="B63" s="27" t="s">
-        <v>2584</v>
+        <v>2582</v>
       </c>
       <c r="C63" t="s">
-        <v>2462</v>
+        <v>2460</v>
       </c>
     </row>
     <row r="65" spans="2:3">
       <c r="C65" t="s">
-        <v>2463</v>
+        <v>2461</v>
       </c>
     </row>
     <row r="66" spans="2:3">
       <c r="C66" t="s">
-        <v>2464</v>
+        <v>2462</v>
       </c>
     </row>
     <row r="68" spans="2:3">
       <c r="C68" t="s">
-        <v>2465</v>
+        <v>2463</v>
       </c>
     </row>
     <row r="69" spans="2:3">
       <c r="C69" t="s">
-        <v>2489</v>
+        <v>2487</v>
       </c>
     </row>
     <row r="71" spans="2:3">
       <c r="B71" s="27" t="s">
-        <v>2585</v>
+        <v>2583</v>
       </c>
       <c r="C71" t="s">
-        <v>2466</v>
+        <v>2464</v>
       </c>
     </row>
     <row r="73" spans="2:3">
       <c r="C73" t="s">
-        <v>2472</v>
+        <v>2470</v>
       </c>
     </row>
     <row r="74" spans="2:3">
       <c r="C74" t="s">
-        <v>2473</v>
+        <v>2471</v>
       </c>
     </row>
     <row r="76" spans="2:3">
       <c r="C76" t="s">
-        <v>2467</v>
+        <v>2465</v>
       </c>
     </row>
     <row r="77" spans="2:3">
       <c r="C77" t="s">
-        <v>2490</v>
+        <v>2488</v>
       </c>
     </row>
     <row r="79" spans="2:3">
       <c r="B79" s="27" t="s">
-        <v>2586</v>
+        <v>2584</v>
       </c>
       <c r="C79" t="s">
-        <v>2469</v>
+        <v>2467</v>
       </c>
     </row>
     <row r="81" spans="2:3">
       <c r="C81" t="s">
-        <v>2491</v>
+        <v>2489</v>
       </c>
     </row>
     <row r="82" spans="2:3">
       <c r="C82" t="s">
-        <v>2468</v>
+        <v>2466</v>
       </c>
     </row>
     <row r="86" spans="2:3">
       <c r="B86" s="27" t="s">
-        <v>2470</v>
+        <v>2468</v>
       </c>
       <c r="C86" t="s">
-        <v>2471</v>
+        <v>2469</v>
       </c>
     </row>
     <row r="88" spans="2:3">
       <c r="C88" t="s">
-        <v>2477</v>
+        <v>2475</v>
       </c>
     </row>
     <row r="89" spans="2:3">
       <c r="C89" t="s">
-        <v>2478</v>
+        <v>2476</v>
       </c>
     </row>
     <row r="90" spans="2:3">
       <c r="C90" t="s">
-        <v>2479</v>
+        <v>2477</v>
       </c>
     </row>
     <row r="92" spans="2:3">
       <c r="C92" t="s">
-        <v>2492</v>
+        <v>2490</v>
       </c>
     </row>
     <row r="93" spans="2:3">
       <c r="C93" t="s">
-        <v>2493</v>
+        <v>2491</v>
       </c>
     </row>
     <row r="94" spans="2:3">
       <c r="C94" t="s">
-        <v>2494</v>
+        <v>2492</v>
       </c>
     </row>
     <row r="96" spans="2:3">
       <c r="C96" t="s">
-        <v>2474</v>
+        <v>2472</v>
       </c>
     </row>
     <row r="97" spans="3:3">
       <c r="C97" t="s">
-        <v>2495</v>
+        <v>2493</v>
       </c>
     </row>
     <row r="98" spans="3:3">
       <c r="C98" t="s">
-        <v>2475</v>
+        <v>2473</v>
       </c>
     </row>
     <row r="99" spans="3:3">
       <c r="C99" t="s">
-        <v>2476</v>
+        <v>2474</v>
       </c>
     </row>
   </sheetData>
@@ -14574,8 +14613,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:D103"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D51" sqref="D51"/>
+    <sheetView topLeftCell="A21" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -14918,7 +14957,7 @@
         <v>39</v>
       </c>
       <c r="C42" t="s">
-        <v>2706</v>
+        <v>2704</v>
       </c>
     </row>
     <row r="43" spans="2:4">
@@ -15064,7 +15103,7 @@
         <v>59</v>
       </c>
       <c r="C62" s="25" t="s">
-        <v>2701</v>
+        <v>2699</v>
       </c>
     </row>
     <row r="63" spans="2:4">
@@ -15077,85 +15116,106 @@
         <v>61</v>
       </c>
       <c r="C64" t="s">
-        <v>2703</v>
-      </c>
-    </row>
-    <row r="65" spans="2:2">
+        <v>2701</v>
+      </c>
+    </row>
+    <row r="65" spans="2:4">
       <c r="B65">
         <v>62</v>
       </c>
     </row>
-    <row r="66" spans="2:2">
+    <row r="66" spans="2:4">
       <c r="B66">
         <v>63</v>
       </c>
-    </row>
-    <row r="67" spans="2:2">
+      <c r="C66" t="s">
+        <v>2744</v>
+      </c>
+      <c r="D66" t="s">
+        <v>2743</v>
+      </c>
+    </row>
+    <row r="67" spans="2:4">
       <c r="B67">
         <v>64</v>
       </c>
     </row>
-    <row r="68" spans="2:2">
+    <row r="68" spans="2:4">
       <c r="B68">
         <v>65</v>
       </c>
-    </row>
-    <row r="69" spans="2:2">
+      <c r="C68" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="69" spans="2:4">
       <c r="B69">
         <v>66</v>
       </c>
     </row>
-    <row r="70" spans="2:2">
+    <row r="70" spans="2:4">
       <c r="B70">
         <v>67</v>
       </c>
-    </row>
-    <row r="71" spans="2:2">
+      <c r="C70" t="s">
+        <v>2742</v>
+      </c>
+    </row>
+    <row r="71" spans="2:4">
       <c r="B71">
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="2:2">
+    <row r="72" spans="2:4">
       <c r="B72">
         <v>69</v>
       </c>
     </row>
-    <row r="73" spans="2:2">
+    <row r="73" spans="2:4">
       <c r="B73">
         <v>70</v>
       </c>
-    </row>
-    <row r="74" spans="2:2">
+      <c r="C73" t="s">
+        <v>2740</v>
+      </c>
+    </row>
+    <row r="74" spans="2:4">
       <c r="B74">
         <v>71</v>
       </c>
     </row>
-    <row r="75" spans="2:2">
+    <row r="75" spans="2:4">
       <c r="B75">
         <v>72</v>
       </c>
-    </row>
-    <row r="76" spans="2:2">
+      <c r="C75" t="s">
+        <v>2741</v>
+      </c>
+    </row>
+    <row r="76" spans="2:4">
       <c r="B76">
         <v>73</v>
       </c>
     </row>
-    <row r="77" spans="2:2">
+    <row r="77" spans="2:4">
       <c r="B77">
         <v>74</v>
       </c>
-    </row>
-    <row r="78" spans="2:2">
+      <c r="C77" t="s">
+        <v>2745</v>
+      </c>
+    </row>
+    <row r="78" spans="2:4">
       <c r="B78">
         <v>75</v>
       </c>
     </row>
-    <row r="79" spans="2:2">
+    <row r="79" spans="2:4">
       <c r="B79">
         <v>76</v>
       </c>
     </row>
-    <row r="80" spans="2:2">
+    <row r="80" spans="2:4">
       <c r="B80">
         <v>77</v>
       </c>
@@ -15318,8 +15378,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:E864"/>
   <sheetViews>
-    <sheetView topLeftCell="A515" workbookViewId="0">
-      <selection activeCell="D548" sqref="D548"/>
+    <sheetView topLeftCell="A519" workbookViewId="0">
+      <selection activeCell="C548" sqref="C548"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -18742,7 +18802,7 @@
         <v>775</v>
       </c>
       <c r="C478" s="2" t="s">
-        <v>2629</v>
+        <v>2627</v>
       </c>
     </row>
     <row r="479" spans="2:3">
@@ -18755,7 +18815,7 @@
         <v>777</v>
       </c>
       <c r="C480" s="2" t="s">
-        <v>2630</v>
+        <v>2628</v>
       </c>
     </row>
     <row r="481" spans="2:3">
@@ -18768,7 +18828,7 @@
         <v>779</v>
       </c>
       <c r="C482" s="2" t="s">
-        <v>2631</v>
+        <v>2629</v>
       </c>
     </row>
     <row r="483" spans="2:3">
@@ -18781,7 +18841,7 @@
         <v>781</v>
       </c>
       <c r="C484" s="2" t="s">
-        <v>2632</v>
+        <v>2630</v>
       </c>
     </row>
     <row r="485" spans="2:3">
@@ -18794,7 +18854,7 @@
         <v>783</v>
       </c>
       <c r="C486" s="2" t="s">
-        <v>2639</v>
+        <v>2637</v>
       </c>
     </row>
     <row r="487" spans="2:3">
@@ -18807,7 +18867,7 @@
         <v>785</v>
       </c>
       <c r="C488" s="2" t="s">
-        <v>2659</v>
+        <v>2657</v>
       </c>
     </row>
     <row r="489" spans="2:3">
@@ -18820,7 +18880,7 @@
         <v>787</v>
       </c>
       <c r="C490" s="2" t="s">
-        <v>2664</v>
+        <v>2662</v>
       </c>
     </row>
     <row r="491" spans="2:3">
@@ -18833,7 +18893,7 @@
         <v>789</v>
       </c>
       <c r="C492" s="2" t="s">
-        <v>2665</v>
+        <v>2663</v>
       </c>
     </row>
     <row r="493" spans="2:3">
@@ -18846,7 +18906,7 @@
         <v>791</v>
       </c>
       <c r="C494" s="2" t="s">
-        <v>2699</v>
+        <v>2697</v>
       </c>
     </row>
     <row r="495" spans="2:3">
@@ -18859,7 +18919,7 @@
         <v>793</v>
       </c>
       <c r="C496" s="2" t="s">
-        <v>2704</v>
+        <v>2702</v>
       </c>
     </row>
     <row r="497" spans="2:3">
@@ -18887,7 +18947,7 @@
         <v>798</v>
       </c>
       <c r="C501" s="2" t="s">
-        <v>2705</v>
+        <v>2703</v>
       </c>
     </row>
     <row r="502" spans="2:3">
@@ -18900,7 +18960,7 @@
         <v>800</v>
       </c>
       <c r="C503" s="2" t="s">
-        <v>2707</v>
+        <v>2705</v>
       </c>
     </row>
     <row r="504" spans="2:3">
@@ -18913,7 +18973,7 @@
         <v>802</v>
       </c>
       <c r="C505" s="2" t="s">
-        <v>2718</v>
+        <v>2716</v>
       </c>
     </row>
     <row r="506" spans="2:3">
@@ -18926,7 +18986,7 @@
         <v>804</v>
       </c>
       <c r="C507" s="2" t="s">
-        <v>2719</v>
+        <v>2717</v>
       </c>
     </row>
     <row r="508" spans="2:3">
@@ -18939,7 +18999,7 @@
         <v>806</v>
       </c>
       <c r="C509" s="2" t="s">
-        <v>2720</v>
+        <v>2718</v>
       </c>
     </row>
     <row r="510" spans="2:3">
@@ -18952,7 +19012,7 @@
         <v>808</v>
       </c>
       <c r="C511" s="2" t="s">
-        <v>2721</v>
+        <v>2719</v>
       </c>
     </row>
     <row r="512" spans="2:3">
@@ -18965,7 +19025,7 @@
         <v>810</v>
       </c>
       <c r="C513" s="2" t="s">
-        <v>2722</v>
+        <v>2720</v>
       </c>
     </row>
     <row r="514" spans="2:3">
@@ -18983,7 +19043,7 @@
         <v>813</v>
       </c>
       <c r="C516" s="2" t="s">
-        <v>2723</v>
+        <v>2721</v>
       </c>
     </row>
     <row r="517" spans="2:3">
@@ -18996,7 +19056,7 @@
         <v>815</v>
       </c>
       <c r="C518" s="2" t="s">
-        <v>2724</v>
+        <v>2722</v>
       </c>
     </row>
     <row r="519" spans="2:3">
@@ -19009,7 +19069,7 @@
         <v>817</v>
       </c>
       <c r="C520" s="2" t="s">
-        <v>2725</v>
+        <v>2723</v>
       </c>
     </row>
     <row r="521" spans="2:3">
@@ -19032,7 +19092,7 @@
         <v>821</v>
       </c>
       <c r="C524" s="2" t="s">
-        <v>2726</v>
+        <v>2724</v>
       </c>
     </row>
     <row r="525" spans="2:3">
@@ -19045,7 +19105,7 @@
         <v>823</v>
       </c>
       <c r="C526" s="2" t="s">
-        <v>2727</v>
+        <v>2725</v>
       </c>
     </row>
     <row r="527" spans="2:3">
@@ -19058,7 +19118,7 @@
         <v>825</v>
       </c>
       <c r="C528" s="2" t="s">
-        <v>2728</v>
+        <v>2726</v>
       </c>
     </row>
     <row r="529" spans="2:3">
@@ -19071,7 +19131,7 @@
         <v>827</v>
       </c>
       <c r="C530" s="2" t="s">
-        <v>2729</v>
+        <v>2727</v>
       </c>
     </row>
     <row r="531" spans="2:3">
@@ -19084,7 +19144,7 @@
         <v>829</v>
       </c>
       <c r="C532" s="2" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="533" spans="2:3">
@@ -19097,7 +19157,7 @@
         <v>831</v>
       </c>
       <c r="C534" s="2" t="s">
-        <v>2732</v>
+        <v>2730</v>
       </c>
     </row>
     <row r="535" spans="2:3">
@@ -19110,7 +19170,7 @@
         <v>833</v>
       </c>
       <c r="C536" s="2" t="s">
-        <v>2733</v>
+        <v>2731</v>
       </c>
     </row>
     <row r="537" spans="2:3">
@@ -19123,7 +19183,7 @@
         <v>835</v>
       </c>
       <c r="C538" s="2" t="s">
-        <v>2736</v>
+        <v>2734</v>
       </c>
     </row>
     <row r="539" spans="2:3">
@@ -19136,7 +19196,7 @@
         <v>837</v>
       </c>
       <c r="C540" s="2" t="s">
-        <v>2737</v>
+        <v>2735</v>
       </c>
     </row>
     <row r="541" spans="2:3">
@@ -19149,7 +19209,7 @@
         <v>839</v>
       </c>
       <c r="C542" s="2" t="s">
-        <v>2738</v>
+        <v>2736</v>
       </c>
     </row>
     <row r="543" spans="2:3">
@@ -19162,85 +19222,88 @@
         <v>841</v>
       </c>
       <c r="C544" s="2" t="s">
-        <v>2739</v>
-      </c>
-    </row>
-    <row r="545" spans="2:2">
+        <v>2737</v>
+      </c>
+    </row>
+    <row r="545" spans="2:3">
       <c r="B545" s="2">
         <v>842</v>
       </c>
     </row>
-    <row r="546" spans="2:2">
+    <row r="546" spans="2:3">
       <c r="B546" s="2">
         <v>843</v>
       </c>
-    </row>
-    <row r="547" spans="2:2">
+      <c r="C546" s="2" t="s">
+        <v>2738</v>
+      </c>
+    </row>
+    <row r="547" spans="2:3">
       <c r="B547" s="2">
         <v>844</v>
       </c>
     </row>
-    <row r="548" spans="2:2">
+    <row r="548" spans="2:3">
       <c r="B548" s="2">
         <v>845</v>
       </c>
     </row>
-    <row r="549" spans="2:2">
+    <row r="549" spans="2:3">
       <c r="B549" s="2">
         <v>846</v>
       </c>
     </row>
-    <row r="550" spans="2:2">
+    <row r="550" spans="2:3">
       <c r="B550" s="2">
         <v>847</v>
       </c>
     </row>
-    <row r="551" spans="2:2">
+    <row r="551" spans="2:3">
       <c r="B551" s="2">
         <v>848</v>
       </c>
     </row>
-    <row r="552" spans="2:2">
+    <row r="552" spans="2:3">
       <c r="B552" s="2">
         <v>849</v>
       </c>
     </row>
-    <row r="553" spans="2:2">
+    <row r="553" spans="2:3">
       <c r="B553" s="2">
         <v>850</v>
       </c>
     </row>
-    <row r="554" spans="2:2">
+    <row r="554" spans="2:3">
       <c r="B554" s="2">
         <v>851</v>
       </c>
     </row>
-    <row r="555" spans="2:2">
+    <row r="555" spans="2:3">
       <c r="B555" s="2">
         <v>852</v>
       </c>
     </row>
-    <row r="556" spans="2:2">
+    <row r="556" spans="2:3">
       <c r="B556" s="2">
         <v>853</v>
       </c>
     </row>
-    <row r="557" spans="2:2">
+    <row r="557" spans="2:3">
       <c r="B557" s="2">
         <v>854</v>
       </c>
     </row>
-    <row r="558" spans="2:2">
+    <row r="558" spans="2:3">
       <c r="B558" s="2">
         <v>855</v>
       </c>
     </row>
-    <row r="559" spans="2:2">
+    <row r="559" spans="2:3">
       <c r="B559" s="2">
         <v>856</v>
       </c>
     </row>
-    <row r="560" spans="2:2">
+    <row r="560" spans="2:3">
       <c r="B560" s="2">
         <v>857</v>
       </c>
@@ -30127,8 +30190,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:M52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -30155,7 +30218,7 @@
         <v>397</v>
       </c>
       <c r="E3" s="23" t="s">
-        <v>2683</v>
+        <v>2681</v>
       </c>
       <c r="F3" s="23" t="s">
         <v>2080</v>
@@ -30167,7 +30230,7 @@
         <v>2093</v>
       </c>
       <c r="I3" s="23" t="s">
-        <v>2674</v>
+        <v>2672</v>
       </c>
     </row>
     <row r="4" spans="2:12">
@@ -30181,7 +30244,7 @@
         <v>730</v>
       </c>
       <c r="E4" s="25" t="s">
-        <v>2691</v>
+        <v>2689</v>
       </c>
       <c r="F4">
         <v>2</v>
@@ -30201,7 +30264,7 @@
         <v>399</v>
       </c>
       <c r="E5" t="s">
-        <v>2684</v>
+        <v>2682</v>
       </c>
       <c r="F5">
         <v>2</v>
@@ -30221,7 +30284,7 @@
         <v>2096</v>
       </c>
       <c r="E6" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F6">
         <v>2</v>
@@ -30251,7 +30314,7 @@
         <v>2102</v>
       </c>
       <c r="E7" t="s">
-        <v>2686</v>
+        <v>2684</v>
       </c>
       <c r="F7">
         <v>2</v>
@@ -30271,7 +30334,7 @@
         <v>2097</v>
       </c>
       <c r="E8" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F8">
         <v>2</v>
@@ -30300,7 +30363,7 @@
         <v>2098</v>
       </c>
       <c r="E9" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F9">
         <v>2</v>
@@ -30320,7 +30383,7 @@
         <v>2098</v>
       </c>
       <c r="E10" t="s">
-        <v>2688</v>
+        <v>2686</v>
       </c>
       <c r="F10">
         <v>2</v>
@@ -30340,7 +30403,7 @@
         <v>2099</v>
       </c>
       <c r="E11" t="s">
-        <v>2689</v>
+        <v>2687</v>
       </c>
       <c r="F11">
         <v>2</v>
@@ -30360,7 +30423,7 @@
         <v>2096</v>
       </c>
       <c r="E12" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F12">
         <v>2</v>
@@ -30383,7 +30446,7 @@
         <v>2096</v>
       </c>
       <c r="E13" s="25" t="s">
-        <v>2698</v>
+        <v>2696</v>
       </c>
       <c r="F13">
         <v>2</v>
@@ -30406,7 +30469,7 @@
         <v>730</v>
       </c>
       <c r="E14" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F14">
         <v>2</v>
@@ -30426,7 +30489,7 @@
         <v>2122</v>
       </c>
       <c r="E15" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F15">
         <v>2</v>
@@ -30446,7 +30509,7 @@
         <v>2103</v>
       </c>
       <c r="E16" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F16">
         <v>3</v>
@@ -30460,13 +30523,13 @@
         <v>14</v>
       </c>
       <c r="C17" t="s">
-        <v>2712</v>
+        <v>2710</v>
       </c>
       <c r="D17" t="s">
         <v>2100</v>
       </c>
       <c r="E17" s="25" t="s">
-        <v>2685</v>
+        <v>2683</v>
       </c>
       <c r="F17">
         <v>3</v>
@@ -30492,13 +30555,13 @@
         <v>15</v>
       </c>
       <c r="C18" t="s">
-        <v>2710</v>
+        <v>2708</v>
       </c>
       <c r="D18" t="s">
         <v>2096</v>
       </c>
       <c r="E18" s="29" t="s">
-        <v>2711</v>
+        <v>2709</v>
       </c>
       <c r="F18">
         <v>3</v>
@@ -30530,13 +30593,13 @@
         <v>16</v>
       </c>
       <c r="C19" t="s">
-        <v>2708</v>
+        <v>2706</v>
       </c>
       <c r="D19" t="s">
         <v>2096</v>
       </c>
       <c r="E19" s="25" t="s">
-        <v>2709</v>
+        <v>2707</v>
       </c>
       <c r="F19">
         <v>3</v>
@@ -30588,7 +30651,7 @@
         <v>2121</v>
       </c>
       <c r="E23" t="s">
-        <v>2692</v>
+        <v>2690</v>
       </c>
       <c r="F23">
         <v>2</v>
@@ -30608,7 +30671,7 @@
         <v>2122</v>
       </c>
       <c r="E24" t="s">
-        <v>2693</v>
+        <v>2691</v>
       </c>
       <c r="F24">
         <v>2</v>
@@ -30628,7 +30691,7 @@
         <v>2098</v>
       </c>
       <c r="E25" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F25">
         <v>2</v>
@@ -30648,7 +30711,7 @@
         <v>2098</v>
       </c>
       <c r="E26" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F26">
         <v>2</v>
@@ -30662,13 +30725,13 @@
         <v>5</v>
       </c>
       <c r="C27" t="s">
-        <v>2694</v>
+        <v>2692</v>
       </c>
       <c r="D27" t="s">
         <v>2098</v>
       </c>
       <c r="E27" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F27">
         <v>2</v>
@@ -30688,7 +30751,7 @@
         <v>2096</v>
       </c>
       <c r="E28" s="25" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
       <c r="F28">
         <v>2</v>
@@ -30702,13 +30765,13 @@
         <v>7</v>
       </c>
       <c r="C29" t="s">
-        <v>2695</v>
+        <v>2693</v>
       </c>
       <c r="D29" t="s">
         <v>2098</v>
       </c>
       <c r="E29" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F29">
         <v>2</v>
@@ -30731,7 +30794,7 @@
         <v>2096</v>
       </c>
       <c r="E30" s="25" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F30">
         <v>2</v>
@@ -30745,13 +30808,13 @@
         <v>9</v>
       </c>
       <c r="C31" t="s">
-        <v>2696</v>
+        <v>2694</v>
       </c>
       <c r="D31" t="s">
         <v>2096</v>
       </c>
       <c r="E31" s="25" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F31">
         <v>2</v>
@@ -30771,7 +30834,7 @@
         <v>730</v>
       </c>
       <c r="E32" s="25" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="F32">
         <v>2</v>
@@ -30791,7 +30854,7 @@
         <v>2138</v>
       </c>
       <c r="E33" s="25" t="s">
-        <v>2697</v>
+        <v>2695</v>
       </c>
       <c r="F33">
         <v>2</v>
@@ -30817,7 +30880,7 @@
         <v>2098</v>
       </c>
       <c r="E34" s="25" t="s">
-        <v>2734</v>
+        <v>2732</v>
       </c>
       <c r="F34">
         <v>2</v>
@@ -30840,7 +30903,7 @@
         <v>2100</v>
       </c>
       <c r="E35" s="25" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="F35">
         <v>2</v>
@@ -30860,7 +30923,7 @@
         <v>2101</v>
       </c>
       <c r="E36" s="25" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F36">
         <v>2</v>
@@ -30880,7 +30943,7 @@
         <v>2100</v>
       </c>
       <c r="E37" s="25" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F37">
         <v>2</v>
@@ -30900,7 +30963,7 @@
         <v>2133</v>
       </c>
       <c r="E38" s="25" t="s">
-        <v>2690</v>
+        <v>2688</v>
       </c>
       <c r="F38">
         <v>2</v>
@@ -30946,7 +31009,7 @@
         <v>2138</v>
       </c>
       <c r="E42" s="25" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="F42">
         <v>2</v>
@@ -30972,7 +31035,7 @@
         <v>2140</v>
       </c>
       <c r="E43" s="25" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="F43">
         <v>2</v>
@@ -30992,7 +31055,7 @@
         <v>2140</v>
       </c>
       <c r="E44" s="25" t="s">
-        <v>2735</v>
+        <v>2733</v>
       </c>
       <c r="F44">
         <v>2</v>
@@ -31003,7 +31066,7 @@
     </row>
     <row r="46" spans="2:12">
       <c r="B46" t="s">
-        <v>2660</v>
+        <v>2658</v>
       </c>
     </row>
     <row r="47" spans="2:12">
@@ -31032,18 +31095,18 @@
         <v>1</v>
       </c>
       <c r="C48" t="s">
-        <v>2661</v>
+        <v>2659</v>
       </c>
       <c r="E48" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
     <row r="50" spans="2:8">
       <c r="B50" t="s">
-        <v>2662</v>
+        <v>2660</v>
       </c>
       <c r="C50" t="s">
-        <v>2663</v>
+        <v>2661</v>
       </c>
     </row>
     <row r="51" spans="2:8">
@@ -31072,10 +31135,10 @@
         <v>1</v>
       </c>
       <c r="C52" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="E52" t="s">
-        <v>2687</v>
+        <v>2685</v>
       </c>
     </row>
   </sheetData>
@@ -31089,8 +31152,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:E102"/>
   <sheetViews>
-    <sheetView topLeftCell="A45" workbookViewId="0">
-      <selection activeCell="D83" sqref="D83"/>
+    <sheetView tabSelected="1" topLeftCell="A53" workbookViewId="0">
+      <selection activeCell="C91" sqref="C91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32165,7 +32228,7 @@
         <v>2163</v>
       </c>
       <c r="D77" s="25" t="s">
-        <v>2429</v>
+        <v>2427</v>
       </c>
       <c r="E77">
         <v>1</v>
@@ -32220,8 +32283,8 @@
       <c r="C81" t="s">
         <v>2412</v>
       </c>
-      <c r="D81" s="9" t="s">
-        <v>2410</v>
+      <c r="D81" s="25" t="s">
+        <v>2739</v>
       </c>
       <c r="E81">
         <v>1</v>
@@ -32234,8 +32297,8 @@
       <c r="C82" t="s">
         <v>2161</v>
       </c>
-      <c r="D82" s="9" t="s">
-        <v>2413</v>
+      <c r="D82" s="25" t="s">
+        <v>2739</v>
       </c>
       <c r="E82">
         <v>1</v>
@@ -32248,9 +32311,7 @@
       <c r="C83" t="s">
         <v>2162</v>
       </c>
-      <c r="D83" s="9" t="s">
-        <v>2414</v>
-      </c>
+      <c r="D83" s="25"/>
       <c r="E83">
         <v>1</v>
       </c>
@@ -32263,7 +32324,7 @@
         <v>2181</v>
       </c>
       <c r="D84" s="9" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E84">
         <v>1</v>
@@ -32277,7 +32338,7 @@
         <v>2182</v>
       </c>
       <c r="D85" s="9" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E85">
         <v>1</v>
@@ -32291,7 +32352,7 @@
         <v>2183</v>
       </c>
       <c r="D86" s="9" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E86">
         <v>1</v>
@@ -32305,7 +32366,7 @@
         <v>2184</v>
       </c>
       <c r="D87" t="s">
-        <v>2428</v>
+        <v>2426</v>
       </c>
       <c r="E87">
         <v>1</v>
@@ -32319,7 +32380,7 @@
         <v>2186</v>
       </c>
       <c r="D88" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E88">
         <v>1</v>
@@ -32333,7 +32394,7 @@
         <v>2188</v>
       </c>
       <c r="D89" t="s">
-        <v>2427</v>
+        <v>2425</v>
       </c>
       <c r="E89">
         <v>1</v>
@@ -32347,7 +32408,7 @@
         <v>2189</v>
       </c>
       <c r="D90" t="s">
-        <v>2426</v>
+        <v>2424</v>
       </c>
       <c r="E90">
         <v>1</v>
@@ -32361,7 +32422,7 @@
         <v>2159</v>
       </c>
       <c r="D91" t="s">
-        <v>2425</v>
+        <v>2423</v>
       </c>
       <c r="E91">
         <v>1</v>
@@ -32375,7 +32436,7 @@
         <v>325</v>
       </c>
       <c r="D92" t="s">
-        <v>2424</v>
+        <v>2422</v>
       </c>
       <c r="E92">
         <v>1</v>
@@ -32389,7 +32450,7 @@
         <v>2158</v>
       </c>
       <c r="D93" t="s">
-        <v>2423</v>
+        <v>2421</v>
       </c>
       <c r="E93">
         <v>1</v>
@@ -32403,7 +32464,7 @@
         <v>2157</v>
       </c>
       <c r="D94" t="s">
-        <v>2422</v>
+        <v>2420</v>
       </c>
       <c r="E94">
         <v>1</v>
@@ -32417,7 +32478,7 @@
         <v>2190</v>
       </c>
       <c r="D95" s="9" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E95">
         <v>1</v>
@@ -32431,7 +32492,7 @@
         <v>2191</v>
       </c>
       <c r="D96" s="9" t="s">
-        <v>2421</v>
+        <v>2419</v>
       </c>
       <c r="E96">
         <v>1</v>
@@ -32445,7 +32506,7 @@
         <v>2160</v>
       </c>
       <c r="D97" s="9" t="s">
-        <v>2420</v>
+        <v>2418</v>
       </c>
       <c r="E97">
         <v>1</v>
@@ -32459,7 +32520,7 @@
         <v>2185</v>
       </c>
       <c r="D98" t="s">
-        <v>2419</v>
+        <v>2417</v>
       </c>
       <c r="E98">
         <v>1</v>
@@ -32473,7 +32534,7 @@
         <v>2156</v>
       </c>
       <c r="D99" s="9" t="s">
-        <v>2417</v>
+        <v>2415</v>
       </c>
       <c r="E99">
         <v>1</v>
@@ -32487,7 +32548,7 @@
         <v>2155</v>
       </c>
       <c r="D100" t="s">
-        <v>2416</v>
+        <v>2414</v>
       </c>
       <c r="E100">
         <v>1</v>
@@ -32501,7 +32562,7 @@
         <v>2154</v>
       </c>
       <c r="D101" s="7" t="s">
-        <v>2415</v>
+        <v>2413</v>
       </c>
       <c r="E101">
         <v>1</v>
@@ -32515,7 +32576,7 @@
         <v>2153</v>
       </c>
       <c r="D102" s="7" t="s">
-        <v>2418</v>
+        <v>2416</v>
       </c>
       <c r="E102">
         <v>1</v>
@@ -32532,8 +32593,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:H113"/>
   <sheetViews>
-    <sheetView topLeftCell="A17" workbookViewId="0">
-      <selection activeCell="H84" sqref="H84:H98"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5"/>
@@ -32548,29 +32609,29 @@
   <sheetData>
     <row r="2" spans="2:5">
       <c r="B2" t="s">
-        <v>2501</v>
+        <v>2499</v>
       </c>
       <c r="C2" t="s">
-        <v>2517</v>
+        <v>2515</v>
       </c>
     </row>
     <row r="3" spans="2:5">
       <c r="B3" t="s">
-        <v>2502</v>
+        <v>2500</v>
       </c>
       <c r="C3" t="s">
-        <v>2516</v>
+        <v>2514</v>
       </c>
     </row>
     <row r="5" spans="2:5">
       <c r="C5" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D5" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E5" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
     </row>
     <row r="6" spans="2:5">
@@ -32578,13 +32639,13 @@
         <v>1</v>
       </c>
       <c r="C6" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="D6" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="E6" t="s">
-        <v>2534</v>
+        <v>2532</v>
       </c>
     </row>
     <row r="7" spans="2:5">
@@ -32592,13 +32653,13 @@
         <v>2</v>
       </c>
       <c r="C7" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D7" t="s">
-        <v>2591</v>
+        <v>2589</v>
       </c>
       <c r="E7" t="s">
-        <v>2529</v>
+        <v>2527</v>
       </c>
     </row>
     <row r="8" spans="2:5">
@@ -32606,13 +32667,13 @@
         <v>3</v>
       </c>
       <c r="C8" t="s">
-        <v>2506</v>
+        <v>2504</v>
       </c>
       <c r="D8" t="s">
-        <v>2519</v>
+        <v>2517</v>
       </c>
       <c r="E8" t="s">
-        <v>2530</v>
+        <v>2528</v>
       </c>
     </row>
     <row r="9" spans="2:5">
@@ -32620,13 +32681,13 @@
         <v>4</v>
       </c>
       <c r="C9" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="D9" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="E9" t="s">
-        <v>2531</v>
+        <v>2529</v>
       </c>
     </row>
     <row r="10" spans="2:5">
@@ -32634,13 +32695,13 @@
         <v>5</v>
       </c>
       <c r="C10" t="s">
-        <v>2508</v>
+        <v>2506</v>
       </c>
       <c r="D10" t="s">
-        <v>2521</v>
+        <v>2519</v>
       </c>
       <c r="E10" t="s">
-        <v>2532</v>
+        <v>2530</v>
       </c>
     </row>
     <row r="11" spans="2:5">
@@ -32648,13 +32709,13 @@
         <v>6</v>
       </c>
       <c r="C11" t="s">
-        <v>2509</v>
+        <v>2507</v>
       </c>
       <c r="D11" t="s">
-        <v>2520</v>
+        <v>2518</v>
       </c>
       <c r="E11" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="12" spans="2:5">
@@ -32662,13 +32723,13 @@
         <v>7</v>
       </c>
       <c r="C12" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="D12" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="E12" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="13" spans="2:5">
@@ -32676,13 +32737,13 @@
         <v>8</v>
       </c>
       <c r="C13" t="s">
-        <v>2511</v>
+        <v>2509</v>
       </c>
       <c r="D13" t="s">
-        <v>2523</v>
+        <v>2521</v>
       </c>
       <c r="E13" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="14" spans="2:5">
@@ -32690,13 +32751,13 @@
         <v>9</v>
       </c>
       <c r="C14" t="s">
-        <v>2512</v>
+        <v>2510</v>
       </c>
       <c r="D14" t="s">
-        <v>2524</v>
+        <v>2522</v>
       </c>
       <c r="E14" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="15" spans="2:5">
@@ -32704,13 +32765,13 @@
         <v>10</v>
       </c>
       <c r="C15" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="D15" t="s">
-        <v>2526</v>
+        <v>2524</v>
       </c>
       <c r="E15" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="16" spans="2:5">
@@ -32718,48 +32779,48 @@
         <v>11</v>
       </c>
       <c r="C16" t="s">
-        <v>2515</v>
+        <v>2513</v>
       </c>
       <c r="D16" t="s">
-        <v>2527</v>
+        <v>2525</v>
       </c>
       <c r="E16" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="18" spans="2:6">
       <c r="B18" t="s">
-        <v>2535</v>
+        <v>2533</v>
       </c>
       <c r="C18" t="s">
-        <v>2536</v>
+        <v>2534</v>
       </c>
     </row>
     <row r="19" spans="2:6">
       <c r="B19" t="s">
-        <v>2537</v>
+        <v>2535</v>
       </c>
       <c r="C19" t="s">
-        <v>2557</v>
+        <v>2555</v>
       </c>
     </row>
     <row r="20" spans="2:6">
       <c r="B20" t="s">
-        <v>2577</v>
+        <v>2575</v>
       </c>
     </row>
     <row r="21" spans="2:6">
       <c r="C21" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D21" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E21" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F21" s="28" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
     </row>
     <row r="22" spans="2:6">
@@ -32767,13 +32828,13 @@
         <v>1</v>
       </c>
       <c r="C22" t="s">
-        <v>2544</v>
+        <v>2542</v>
       </c>
       <c r="D22" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="E22" t="s">
-        <v>2553</v>
+        <v>2551</v>
       </c>
     </row>
     <row r="23" spans="2:6">
@@ -32781,13 +32842,13 @@
         <v>2</v>
       </c>
       <c r="C23" t="s">
-        <v>2538</v>
+        <v>2536</v>
       </c>
       <c r="D23" t="s">
-        <v>2547</v>
+        <v>2545</v>
       </c>
       <c r="E23" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="24" spans="2:6">
@@ -32795,13 +32856,13 @@
         <v>3</v>
       </c>
       <c r="C24" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="D24" t="s">
-        <v>2548</v>
+        <v>2546</v>
       </c>
       <c r="E24" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="25" spans="2:6">
@@ -32809,13 +32870,13 @@
         <v>4</v>
       </c>
       <c r="C25" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="D25" t="s">
-        <v>2549</v>
+        <v>2547</v>
       </c>
       <c r="E25" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="26" spans="2:6">
@@ -32823,16 +32884,16 @@
         <v>5</v>
       </c>
       <c r="C26" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D26" t="s">
-        <v>2593</v>
+        <v>2591</v>
       </c>
       <c r="E26" t="s">
-        <v>2576</v>
+        <v>2574</v>
       </c>
       <c r="F26" t="s">
-        <v>2575</v>
+        <v>2573</v>
       </c>
     </row>
     <row r="27" spans="2:6">
@@ -32840,13 +32901,13 @@
         <v>6</v>
       </c>
       <c r="C27" t="s">
-        <v>2540</v>
+        <v>2538</v>
       </c>
       <c r="D27" t="s">
-        <v>2550</v>
+        <v>2548</v>
       </c>
       <c r="E27" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="28" spans="2:6">
@@ -32854,13 +32915,13 @@
         <v>7</v>
       </c>
       <c r="C28" t="s">
-        <v>2541</v>
+        <v>2539</v>
       </c>
       <c r="D28" t="s">
-        <v>2554</v>
+        <v>2552</v>
       </c>
       <c r="E28" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="29" spans="2:6">
@@ -32868,13 +32929,13 @@
         <v>8</v>
       </c>
       <c r="C29" t="s">
-        <v>2542</v>
+        <v>2540</v>
       </c>
       <c r="D29" t="s">
-        <v>2551</v>
+        <v>2549</v>
       </c>
       <c r="E29" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="30" spans="2:6">
@@ -32882,13 +32943,13 @@
         <v>9</v>
       </c>
       <c r="C30" t="s">
-        <v>2543</v>
+        <v>2541</v>
       </c>
       <c r="D30" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="E30" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="31" spans="2:6">
@@ -32896,13 +32957,13 @@
         <v>10</v>
       </c>
       <c r="C31" t="s">
-        <v>2545</v>
+        <v>2543</v>
       </c>
       <c r="D31" t="s">
-        <v>2555</v>
+        <v>2553</v>
       </c>
       <c r="E31" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
     </row>
     <row r="32" spans="2:6">
@@ -32910,52 +32971,52 @@
         <v>11</v>
       </c>
       <c r="C32" t="s">
-        <v>2546</v>
+        <v>2544</v>
       </c>
       <c r="D32" t="s">
-        <v>2556</v>
+        <v>2554</v>
       </c>
       <c r="E32" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="F32" s="25"/>
     </row>
     <row r="34" spans="1:8">
       <c r="B34" t="s">
+        <v>2556</v>
+      </c>
+      <c r="D34" t="s">
         <v>2558</v>
-      </c>
-      <c r="D34" t="s">
-        <v>2560</v>
       </c>
     </row>
     <row r="35" spans="1:8">
       <c r="B35" t="s">
+        <v>2557</v>
+      </c>
+      <c r="C35" t="s">
         <v>2559</v>
-      </c>
-      <c r="C35" t="s">
-        <v>2561</v>
       </c>
     </row>
     <row r="36" spans="1:8">
       <c r="B36" t="s">
-        <v>2572</v>
+        <v>2570</v>
       </c>
     </row>
     <row r="37" spans="1:8">
       <c r="C37" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D37" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E37" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F37" s="28" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="G37" s="28" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -32964,13 +33025,13 @@
         <v>1</v>
       </c>
       <c r="C38" t="s">
-        <v>2513</v>
+        <v>2511</v>
       </c>
       <c r="D38" t="s">
-        <v>2525</v>
+        <v>2523</v>
       </c>
       <c r="E38" t="s">
-        <v>2713</v>
+        <v>2711</v>
       </c>
       <c r="F38" s="25"/>
       <c r="G38" s="25"/>
@@ -32982,13 +33043,13 @@
         <v>2</v>
       </c>
       <c r="C39" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D39" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E39" t="s">
-        <v>2568</v>
+        <v>2566</v>
       </c>
       <c r="F39" s="25"/>
       <c r="G39" s="25"/>
@@ -33000,10 +33061,10 @@
         <v>3</v>
       </c>
       <c r="C40" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D40" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E40" t="s">
         <v>2184</v>
@@ -33018,13 +33079,13 @@
         <v>4</v>
       </c>
       <c r="C41" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="D41" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="E41" t="s">
-        <v>2571</v>
+        <v>2569</v>
       </c>
       <c r="F41" s="25"/>
       <c r="G41" s="25"/>
@@ -33036,13 +33097,13 @@
         <v>5</v>
       </c>
       <c r="C42" t="s">
+        <v>2560</v>
+      </c>
+      <c r="D42" t="s">
+        <v>2561</v>
+      </c>
+      <c r="E42" t="s">
         <v>2562</v>
-      </c>
-      <c r="D42" t="s">
-        <v>2563</v>
-      </c>
-      <c r="E42" t="s">
-        <v>2564</v>
       </c>
       <c r="F42" s="25"/>
       <c r="G42" s="25"/>
@@ -33054,16 +33115,16 @@
         <v>6</v>
       </c>
       <c r="C43" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D43" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E43" t="s">
-        <v>2566</v>
+        <v>2564</v>
       </c>
       <c r="F43" t="s">
-        <v>2578</v>
+        <v>2576</v>
       </c>
       <c r="G43" s="25"/>
       <c r="H43" s="25"/>
@@ -33074,13 +33135,13 @@
         <v>7</v>
       </c>
       <c r="C44" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D44" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E44" t="s">
-        <v>2573</v>
+        <v>2571</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -33088,13 +33149,13 @@
         <v>8</v>
       </c>
       <c r="C45" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D45" t="s">
-        <v>2594</v>
+        <v>2592</v>
       </c>
       <c r="E45" t="s">
-        <v>2569</v>
+        <v>2567</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -33102,13 +33163,13 @@
         <v>9</v>
       </c>
       <c r="C46" t="s">
-        <v>2539</v>
+        <v>2537</v>
       </c>
       <c r="D46" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E46" t="s">
-        <v>2570</v>
+        <v>2568</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -33116,19 +33177,19 @@
         <v>10</v>
       </c>
       <c r="C47" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D47" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E47" t="s">
-        <v>2579</v>
+        <v>2577</v>
       </c>
       <c r="G47" t="s">
-        <v>2590</v>
+        <v>2588</v>
       </c>
       <c r="H47" t="s">
-        <v>2589</v>
+        <v>2587</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -33138,37 +33199,37 @@
     </row>
     <row r="51" spans="2:8">
       <c r="B51" t="s">
-        <v>2600</v>
+        <v>2598</v>
       </c>
       <c r="C51" t="s">
-        <v>2596</v>
+        <v>2594</v>
       </c>
     </row>
     <row r="52" spans="2:8">
       <c r="B52" t="s">
-        <v>2595</v>
+        <v>2593</v>
       </c>
     </row>
     <row r="53" spans="2:8">
       <c r="B53" t="s">
-        <v>2597</v>
+        <v>2595</v>
       </c>
     </row>
     <row r="54" spans="2:8">
       <c r="C54" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D54" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E54" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F54" s="28" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="G54" s="28" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="55" spans="2:8">
@@ -33176,13 +33237,13 @@
         <v>1</v>
       </c>
       <c r="C55" t="s">
-        <v>2510</v>
+        <v>2508</v>
       </c>
       <c r="D55" t="s">
         <v>2091</v>
       </c>
       <c r="E55" t="s">
-        <v>2533</v>
+        <v>2531</v>
       </c>
       <c r="F55" s="25"/>
       <c r="G55" s="25"/>
@@ -33196,10 +33257,10 @@
         <v>2292</v>
       </c>
       <c r="D56" t="s">
+        <v>2599</v>
+      </c>
+      <c r="E56" t="s">
         <v>2601</v>
-      </c>
-      <c r="E56" t="s">
-        <v>2603</v>
       </c>
       <c r="F56" s="25"/>
       <c r="G56" s="25"/>
@@ -33210,13 +33271,13 @@
         <v>3</v>
       </c>
       <c r="C57" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D57" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E57" t="s">
-        <v>2604</v>
+        <v>2602</v>
       </c>
       <c r="F57" s="25"/>
       <c r="G57" s="25"/>
@@ -33227,13 +33288,13 @@
         <v>4</v>
       </c>
       <c r="C58" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D58" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E58" t="s">
-        <v>2610</v>
+        <v>2608</v>
       </c>
       <c r="F58" s="25"/>
       <c r="G58" s="25"/>
@@ -33247,10 +33308,10 @@
         <v>2292</v>
       </c>
       <c r="D59" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="E59" t="s">
-        <v>2605</v>
+        <v>2603</v>
       </c>
       <c r="F59" s="25"/>
       <c r="G59" s="25"/>
@@ -33261,13 +33322,13 @@
         <v>6</v>
       </c>
       <c r="C60" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D60" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E60" t="s">
-        <v>2606</v>
+        <v>2604</v>
       </c>
       <c r="F60" s="25"/>
       <c r="G60" s="25"/>
@@ -33281,10 +33342,10 @@
         <v>2292</v>
       </c>
       <c r="D61" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="E61" t="s">
-        <v>2607</v>
+        <v>2605</v>
       </c>
       <c r="G61" s="25"/>
     </row>
@@ -33293,16 +33354,16 @@
         <v>8</v>
       </c>
       <c r="C62" t="s">
-        <v>2514</v>
+        <v>2512</v>
       </c>
       <c r="D62" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E62" t="s">
-        <v>2714</v>
+        <v>2712</v>
       </c>
       <c r="G62" t="s">
-        <v>2715</v>
+        <v>2713</v>
       </c>
     </row>
     <row r="63" spans="2:8">
@@ -33310,10 +33371,10 @@
         <v>9</v>
       </c>
       <c r="C63" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D63" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="E63" t="s">
         <v>333</v>
@@ -33324,13 +33385,13 @@
         <v>10</v>
       </c>
       <c r="C64" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D64" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E64" t="s">
-        <v>2608</v>
+        <v>2606</v>
       </c>
     </row>
     <row r="65" spans="2:8">
@@ -33338,48 +33399,48 @@
         <v>11</v>
       </c>
       <c r="C65" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D65" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E65" t="s">
-        <v>2609</v>
+        <v>2607</v>
       </c>
     </row>
     <row r="67" spans="2:8">
       <c r="B67" t="s">
-        <v>2611</v>
+        <v>2609</v>
       </c>
       <c r="C67" t="s">
-        <v>2614</v>
+        <v>2612</v>
       </c>
     </row>
     <row r="68" spans="2:8">
       <c r="B68" t="s">
-        <v>2612</v>
+        <v>2610</v>
       </c>
     </row>
     <row r="69" spans="2:8">
       <c r="B69" t="s">
-        <v>2613</v>
+        <v>2611</v>
       </c>
     </row>
     <row r="70" spans="2:8">
       <c r="C70" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D70" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E70" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F70" s="28" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="G70" s="28" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="71" spans="2:8">
@@ -33387,13 +33448,13 @@
         <v>1</v>
       </c>
       <c r="C71" t="s">
+        <v>2613</v>
+      </c>
+      <c r="D71" t="s">
+        <v>2600</v>
+      </c>
+      <c r="E71" t="s">
         <v>2615</v>
-      </c>
-      <c r="D71" t="s">
-        <v>2602</v>
-      </c>
-      <c r="E71" t="s">
-        <v>2617</v>
       </c>
     </row>
     <row r="72" spans="2:8">
@@ -33401,13 +33462,13 @@
         <v>2</v>
       </c>
       <c r="C72" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D72" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E72" t="s">
-        <v>2623</v>
+        <v>2621</v>
       </c>
     </row>
     <row r="73" spans="2:8">
@@ -33415,13 +33476,13 @@
         <v>3</v>
       </c>
       <c r="C73" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="D73" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E73" t="s">
-        <v>2620</v>
+        <v>2618</v>
       </c>
     </row>
     <row r="74" spans="2:8">
@@ -33429,13 +33490,13 @@
         <v>4</v>
       </c>
       <c r="C74" t="s">
-        <v>2598</v>
+        <v>2596</v>
       </c>
       <c r="D74" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="E74" t="s">
-        <v>2627</v>
+        <v>2625</v>
       </c>
     </row>
     <row r="75" spans="2:8">
@@ -33443,13 +33504,13 @@
         <v>5</v>
       </c>
       <c r="C75" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D75" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E75" t="s">
-        <v>2624</v>
+        <v>2622</v>
       </c>
     </row>
     <row r="76" spans="2:8">
@@ -33457,13 +33518,13 @@
         <v>6</v>
       </c>
       <c r="C76" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="D76" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E76" t="s">
-        <v>2622</v>
+        <v>2620</v>
       </c>
     </row>
     <row r="77" spans="2:8">
@@ -33471,16 +33532,16 @@
         <v>7</v>
       </c>
       <c r="C77" t="s">
-        <v>2599</v>
+        <v>2597</v>
       </c>
       <c r="D77" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E77" t="s">
-        <v>2618</v>
+        <v>2616</v>
       </c>
       <c r="H77" t="s">
-        <v>2628</v>
+        <v>2626</v>
       </c>
     </row>
     <row r="78" spans="2:8">
@@ -33488,13 +33549,13 @@
         <v>8</v>
       </c>
       <c r="C78" t="s">
-        <v>2503</v>
+        <v>2501</v>
       </c>
       <c r="D78" t="s">
-        <v>2602</v>
+        <v>2600</v>
       </c>
       <c r="E78" t="s">
-        <v>2619</v>
+        <v>2617</v>
       </c>
     </row>
     <row r="79" spans="2:8">
@@ -33502,13 +33563,13 @@
         <v>9</v>
       </c>
       <c r="C79" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D79" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E79" t="s">
-        <v>2625</v>
+        <v>2623</v>
       </c>
     </row>
     <row r="80" spans="2:8">
@@ -33516,13 +33577,13 @@
         <v>10</v>
       </c>
       <c r="C80" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D80" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E80" t="s">
-        <v>2626</v>
+        <v>2624</v>
       </c>
     </row>
     <row r="81" spans="2:7">
@@ -33532,37 +33593,37 @@
     </row>
     <row r="83" spans="2:7">
       <c r="B83" t="s">
-        <v>2633</v>
+        <v>2631</v>
       </c>
       <c r="D83" t="s">
-        <v>2647</v>
+        <v>2645</v>
       </c>
     </row>
     <row r="84" spans="2:7">
       <c r="B84" t="s">
-        <v>2634</v>
+        <v>2632</v>
       </c>
     </row>
     <row r="85" spans="2:7">
       <c r="B85" t="s">
-        <v>2646</v>
+        <v>2644</v>
       </c>
     </row>
     <row r="86" spans="2:7">
       <c r="C86" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D86" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E86" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F86" s="28" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="G86" s="28" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="87" spans="2:7">
@@ -33570,13 +33631,13 @@
         <v>1</v>
       </c>
       <c r="C87" t="s">
-        <v>2635</v>
+        <v>2633</v>
       </c>
       <c r="D87" t="s">
-        <v>2522</v>
+        <v>2520</v>
       </c>
       <c r="E87" t="s">
-        <v>2636</v>
+        <v>2634</v>
       </c>
     </row>
     <row r="88" spans="2:7">
@@ -33584,13 +33645,13 @@
         <v>2</v>
       </c>
       <c r="C88" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D88" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E88" t="s">
-        <v>2641</v>
+        <v>2639</v>
       </c>
     </row>
     <row r="89" spans="2:7">
@@ -33598,16 +33659,16 @@
         <v>3</v>
       </c>
       <c r="C89" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D89" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E89" t="s">
-        <v>2637</v>
+        <v>2635</v>
       </c>
       <c r="G89" t="s">
-        <v>2638</v>
+        <v>2636</v>
       </c>
     </row>
     <row r="90" spans="2:7">
@@ -33615,13 +33676,13 @@
         <v>4</v>
       </c>
       <c r="C90" t="s">
-        <v>2507</v>
+        <v>2505</v>
       </c>
       <c r="D90" t="s">
-        <v>2592</v>
+        <v>2590</v>
       </c>
       <c r="E90" t="s">
-        <v>2642</v>
+        <v>2640</v>
       </c>
     </row>
     <row r="91" spans="2:7">
@@ -33629,13 +33690,13 @@
         <v>5</v>
       </c>
       <c r="C91" t="s">
-        <v>2616</v>
+        <v>2614</v>
       </c>
       <c r="D91" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E91" t="s">
-        <v>2640</v>
+        <v>2638</v>
       </c>
     </row>
     <row r="92" spans="2:7">
@@ -33643,13 +33704,13 @@
         <v>6</v>
       </c>
       <c r="C92" t="s">
+        <v>2563</v>
+      </c>
+      <c r="D92" t="s">
+        <v>2516</v>
+      </c>
+      <c r="E92" t="s">
         <v>2565</v>
-      </c>
-      <c r="D92" t="s">
-        <v>2518</v>
-      </c>
-      <c r="E92" t="s">
-        <v>2567</v>
       </c>
     </row>
     <row r="93" spans="2:7">
@@ -33657,16 +33718,16 @@
         <v>7</v>
       </c>
       <c r="C93" t="s">
-        <v>2716</v>
+        <v>2714</v>
       </c>
       <c r="D93" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E93" t="s">
-        <v>2621</v>
+        <v>2619</v>
       </c>
       <c r="G93" t="s">
-        <v>2717</v>
+        <v>2715</v>
       </c>
     </row>
     <row r="94" spans="2:7">
@@ -33691,37 +33752,37 @@
     </row>
     <row r="99" spans="2:7">
       <c r="B99" t="s">
-        <v>2643</v>
+        <v>2641</v>
       </c>
       <c r="C99" t="s">
-        <v>2648</v>
+        <v>2646</v>
       </c>
     </row>
     <row r="100" spans="2:7">
       <c r="B100" t="s">
-        <v>2644</v>
+        <v>2642</v>
       </c>
     </row>
     <row r="101" spans="2:7">
       <c r="B101" t="s">
-        <v>2645</v>
+        <v>2643</v>
       </c>
     </row>
     <row r="102" spans="2:7">
       <c r="C102" s="28" t="s">
-        <v>2504</v>
+        <v>2502</v>
       </c>
       <c r="D102" s="28" t="s">
-        <v>2505</v>
+        <v>2503</v>
       </c>
       <c r="E102" s="28" t="s">
-        <v>2528</v>
+        <v>2526</v>
       </c>
       <c r="F102" s="28" t="s">
-        <v>2574</v>
+        <v>2572</v>
       </c>
       <c r="G102" s="28" t="s">
-        <v>2588</v>
+        <v>2586</v>
       </c>
     </row>
     <row r="103" spans="2:7">
@@ -33729,13 +33790,13 @@
         <v>1</v>
       </c>
       <c r="C103" t="s">
-        <v>2649</v>
+        <v>2647</v>
       </c>
       <c r="D103" t="s">
-        <v>2552</v>
+        <v>2550</v>
       </c>
       <c r="E103" t="s">
-        <v>2700</v>
+        <v>2698</v>
       </c>
     </row>
     <row r="104" spans="2:7">
@@ -33743,13 +33804,13 @@
         <v>2</v>
       </c>
       <c r="C104" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D104" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E104" t="s">
-        <v>2653</v>
+        <v>2651</v>
       </c>
     </row>
     <row r="105" spans="2:7">
@@ -33757,13 +33818,13 @@
         <v>3</v>
       </c>
       <c r="C105" t="s">
-        <v>2651</v>
+        <v>2649</v>
       </c>
       <c r="D105" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E105" t="s">
-        <v>2654</v>
+        <v>2652</v>
       </c>
     </row>
     <row r="106" spans="2:7">
@@ -33771,13 +33832,13 @@
         <v>4</v>
       </c>
       <c r="C106" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D106" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E106" t="s">
-        <v>2655</v>
+        <v>2653</v>
       </c>
     </row>
     <row r="107" spans="2:7">
@@ -33785,13 +33846,13 @@
         <v>5</v>
       </c>
       <c r="C107" t="s">
+        <v>2648</v>
+      </c>
+      <c r="D107" t="s">
         <v>2650</v>
       </c>
-      <c r="D107" t="s">
-        <v>2652</v>
-      </c>
       <c r="E107" t="s">
-        <v>2656</v>
+        <v>2654</v>
       </c>
     </row>
     <row r="108" spans="2:7">
@@ -33799,13 +33860,13 @@
         <v>6</v>
       </c>
       <c r="C108" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D108" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E108" t="s">
-        <v>2657</v>
+        <v>2655</v>
       </c>
     </row>
     <row r="109" spans="2:7">
@@ -33813,13 +33874,13 @@
         <v>7</v>
       </c>
       <c r="C109" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D109" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E109" t="s">
-        <v>2658</v>
+        <v>2656</v>
       </c>
     </row>
     <row r="110" spans="2:7">
@@ -33827,10 +33888,10 @@
         <v>8</v>
       </c>
       <c r="C110" t="s">
-        <v>2565</v>
+        <v>2563</v>
       </c>
       <c r="D110" t="s">
-        <v>2518</v>
+        <v>2516</v>
       </c>
       <c r="E110" t="s">
         <v>2186</v>
@@ -33841,13 +33902,13 @@
         <v>9</v>
       </c>
       <c r="C111" t="s">
-        <v>2731</v>
+        <v>2729</v>
       </c>
       <c r="D111" t="s">
-        <v>2601</v>
+        <v>2599</v>
       </c>
       <c r="E111" t="s">
-        <v>2730</v>
+        <v>2728</v>
       </c>
     </row>
     <row r="112" spans="2:7">
@@ -33886,13 +33947,13 @@
   <sheetData>
     <row r="2" spans="2:8">
       <c r="B2" t="s">
-        <v>2666</v>
+        <v>2664</v>
       </c>
       <c r="C2" t="s">
-        <v>2681</v>
+        <v>2679</v>
       </c>
       <c r="D2" t="s">
-        <v>2682</v>
+        <v>2680</v>
       </c>
     </row>
     <row r="3" spans="2:8">
@@ -33900,7 +33961,7 @@
         <v>1</v>
       </c>
       <c r="D3" t="s">
-        <v>2669</v>
+        <v>2667</v>
       </c>
     </row>
     <row r="4" spans="2:8">
@@ -33908,7 +33969,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="s">
-        <v>2670</v>
+        <v>2668</v>
       </c>
     </row>
     <row r="5" spans="2:8">
@@ -33916,13 +33977,13 @@
         <v>3</v>
       </c>
       <c r="C5" t="s">
-        <v>2680</v>
+        <v>2678</v>
       </c>
       <c r="D5" t="s">
-        <v>2671</v>
+        <v>2669</v>
       </c>
       <c r="F5" t="s">
-        <v>2678</v>
+        <v>2676</v>
       </c>
     </row>
     <row r="6" spans="2:8" ht="40.5">
@@ -33930,19 +33991,19 @@
         <v>4</v>
       </c>
       <c r="C6" t="s">
+        <v>2675</v>
+      </c>
+      <c r="D6" t="s">
+        <v>2666</v>
+      </c>
+      <c r="F6" t="s">
+        <v>2676</v>
+      </c>
+      <c r="G6" t="s">
         <v>2677</v>
       </c>
-      <c r="D6" t="s">
-        <v>2668</v>
-      </c>
-      <c r="F6" t="s">
-        <v>2678</v>
-      </c>
-      <c r="G6" t="s">
-        <v>2679</v>
-      </c>
       <c r="H6" s="7" t="s">
-        <v>2675</v>
+        <v>2673</v>
       </c>
     </row>
     <row r="7" spans="2:8" ht="27">
@@ -33950,19 +34011,19 @@
         <v>5</v>
       </c>
       <c r="C7" t="s">
-        <v>2676</v>
+        <v>2674</v>
       </c>
       <c r="D7" t="s">
-        <v>2672</v>
+        <v>2670</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>2667</v>
+        <v>2665</v>
       </c>
       <c r="F7" t="s">
         <v>2266</v>
       </c>
       <c r="G7" t="s">
-        <v>2679</v>
+        <v>2677</v>
       </c>
     </row>
     <row r="9" spans="2:8">
@@ -33970,7 +34031,7 @@
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>2673</v>
+        <v>2671</v>
       </c>
     </row>
   </sheetData>
@@ -35063,12 +35124,12 @@
     </row>
     <row r="6" spans="2:2">
       <c r="B6" t="s">
-        <v>2496</v>
+        <v>2494</v>
       </c>
     </row>
     <row r="8" spans="2:2">
       <c r="B8" t="s">
-        <v>2497</v>
+        <v>2495</v>
       </c>
     </row>
   </sheetData>
@@ -35259,7 +35320,7 @@
         <v>2360</v>
       </c>
       <c r="C21" t="s">
-        <v>2498</v>
+        <v>2496</v>
       </c>
     </row>
   </sheetData>
